--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7460" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="1565">
   <si>
     <t xml:space="preserve">FRC LabVIEW Trajectory Library – VI Implementation List</t>
   </si>
@@ -4447,7 +4447,7 @@
     <t xml:space="preserve">EXTENDED_KALMAN_CORRECT_FUNC_GROUP.CTL</t>
   </si>
   <si>
-    <t xml:space="preserve">ExTENDED_KALMAN_FILTER.CTL</t>
+    <t xml:space="preserve">EXTENDED_KALMAN_FILTER.CTL</t>
   </si>
   <si>
     <t xml:space="preserve">FLYWHEEL_SIM.ctl</t>
@@ -4633,13 +4633,22 @@
     <t xml:space="preserve">TRAJ_CONSTRAINT_DIIF_DRIVE_VOLTAGE.CTL</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAJ_CONSTRAINT_ELLIP_REGION.CTL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAJ_CONSTRAINT_JERK.CTL</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAJ_CONSTRAINT_MAX_VELOCITY.CTL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAJ_CONSTRAINT_MECA_DRIVE_KINEMATICS.CTL</t>
   </si>
   <si>
     <t xml:space="preserve">TRAJ_CONSTRAINT_MINMAX.CTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAJ_CONSTRAINT_RECT_REGION.CTL</t>
   </si>
   <si>
     <t xml:space="preserve">TRAJ_CONSTRAINT_SWERVE_DRIVE_KINEMATICS.CTL</t>
@@ -5103,22 +5112,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5187,10 +5180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMI1048576"/>
+  <dimension ref="A1:AMI1551"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A761" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A764" activeCellId="0" sqref="A764"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5300,35 +5293,35 @@
       </c>
       <c r="B9" s="13" t="n">
         <f aca="false">B10+B11</f>
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C9" s="13" t="n">
-        <f aca="false">COUNTIF(C21:C1874,"X")</f>
+        <f aca="false">COUNTIF(C21:C1877,"X")</f>
         <v>1010</v>
       </c>
       <c r="D9" s="13" t="n">
-        <f aca="false">COUNTIF(D21:D1874,"X")</f>
-        <v>328</v>
+        <f aca="false">COUNTIF(D21:D1877,"X")</f>
+        <v>331</v>
       </c>
       <c r="E9" s="13" t="n">
-        <f aca="false">COUNTIF(E21:E1874,"X")</f>
-        <v>1005</v>
+        <f aca="false">COUNTIF(E21:E1877,"X")</f>
+        <v>1016</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">COUNTIF(F21:F1874,"S")+COUNTIF(F21:F1874,"I")+COUNTIF(F21:F1874,"X")+COUNTIF(F21:F1874,"SI")+COUNTIF(F21:F1874,"IS")+COUNTIF(F21:F1874,"N/A")</f>
-        <v>596</v>
+        <f aca="false">COUNTIF(F21:F1877,"S")+COUNTIF(F21:F1877,"I")+COUNTIF(F21:F1877,"X")+COUNTIF(F21:F1877,"SI")+COUNTIF(F21:F1877,"IS")+COUNTIF(F21:F1877,"N/A")</f>
+        <v>599</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">COUNTIF(G21:G1874,"S")+COUNTIF(G21:G1874,"I")+COUNTIF(G21:G1874,"X")+COUNTIF(G21:G1874,"SI")+COUNTIF(G21:G1874,"IS")+COUNTIF(G21:G1874,"N/A")</f>
+        <f aca="false">COUNTIF(G21:G1877,"S")+COUNTIF(G21:G1877,"I")+COUNTIF(G21:G1877,"X")+COUNTIF(G21:G1877,"SI")+COUNTIF(G21:G1877,"IS")+COUNTIF(G21:G1877,"N/A")</f>
         <v>51</v>
       </c>
       <c r="H9" s="13" t="n">
-        <f aca="false">COUNTIF(H21:H1874,"S")+COUNTIF(H21:H1874,"I")+COUNTIF(H21:H1874,"X")+COUNTIF(H21:H1874,"SI")+COUNTIF(H21:H1874,"IS")+COUNTIF(H21:H1874,"N/A")</f>
+        <f aca="false">COUNTIF(H21:H1877,"S")+COUNTIF(H21:H1877,"I")+COUNTIF(H21:H1877,"X")+COUNTIF(H21:H1877,"SI")+COUNTIF(H21:H1877,"IS")+COUNTIF(H21:H1877,"N/A")</f>
         <v>12</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.947467166979362</v>
+        <v>0.944808231992516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="n">
-        <f aca="false">COUNTIF(B21:B1874,"X")</f>
+        <f aca="false">COUNTIF(B21:B1877,"X")</f>
         <v>958</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -5348,12 +5341,12 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="n">
-        <f aca="false">COUNTIF(B21:B1874,"Z")</f>
-        <v>108</v>
+        <f aca="false">COUNTIF(B21:B1877,"Z")</f>
+        <v>111</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.559099437148218</v>
+        <v>0.560336763330215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,7 +5354,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="n">
-        <f aca="false">COUNTIF(B21:B1874,"/")</f>
+        <f aca="false">COUNTIF(B21:B1877,"/")</f>
         <v>4</v>
       </c>
       <c r="I12" s="4"/>
@@ -5371,7 +5364,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="n">
-        <f aca="false">COUNTIF(B21:B1874,"\")</f>
+        <f aca="false">COUNTIF(B21:B1877,"\")</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -21319,7 +21312,9 @@
         <v>30</v>
       </c>
       <c r="D636" s="22"/>
-      <c r="E636" s="26"/>
+      <c r="E636" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F636" s="22"/>
       <c r="G636" s="22"/>
       <c r="H636" s="22"/>
@@ -21395,7 +21390,9 @@
       <c r="D639" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E639" s="26"/>
+      <c r="E639" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F639" s="22"/>
       <c r="G639" s="22"/>
       <c r="H639" s="22"/>
@@ -21419,7 +21416,9 @@
       </c>
       <c r="C640" s="26"/>
       <c r="D640" s="22"/>
-      <c r="E640" s="26"/>
+      <c r="E640" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F640" s="22"/>
       <c r="G640" s="22"/>
       <c r="H640" s="22"/>
@@ -21511,7 +21510,9 @@
       <c r="D644" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E644" s="26"/>
+      <c r="E644" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F644" s="22"/>
       <c r="G644" s="22"/>
       <c r="H644" s="22"/>
@@ -21531,7 +21532,9 @@
       </c>
       <c r="C645" s="26"/>
       <c r="D645" s="22"/>
-      <c r="E645" s="26"/>
+      <c r="E645" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F645" s="22"/>
       <c r="G645" s="22"/>
       <c r="H645" s="22"/>
@@ -21577,7 +21580,9 @@
       </c>
       <c r="C647" s="26"/>
       <c r="D647" s="22"/>
-      <c r="E647" s="26"/>
+      <c r="E647" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F647" s="22"/>
       <c r="G647" s="22"/>
       <c r="H647" s="22"/>
@@ -21629,7 +21634,9 @@
       </c>
       <c r="C649" s="26"/>
       <c r="D649" s="22"/>
-      <c r="E649" s="26"/>
+      <c r="E649" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F649" s="22"/>
       <c r="G649" s="22"/>
       <c r="H649" s="22"/>
@@ -21763,7 +21770,9 @@
       </c>
       <c r="C654" s="26"/>
       <c r="D654" s="22"/>
-      <c r="E654" s="26"/>
+      <c r="E654" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F654" s="22"/>
       <c r="G654" s="22"/>
       <c r="H654" s="22"/>
@@ -43075,14 +43084,16 @@
     </row>
     <row r="1525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1525" s="9"/>
-      <c r="B1525" s="28" t="s">
-        <v>1445</v>
+      <c r="B1525" s="22" t="s">
+        <v>1442</v>
       </c>
       <c r="C1525" s="26"/>
       <c r="D1525" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1525" s="26"/>
+      <c r="E1525" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="F1525" s="22" t="s">
         <v>890</v>
       </c>
@@ -43092,24 +43103,18 @@
         <v>1536</v>
       </c>
       <c r="J1525" s="23"/>
-      <c r="K1525" s="23" t="s">
-        <v>850</v>
-      </c>
+      <c r="K1525" s="23"/>
     </row>
     <row r="1526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1526" s="9"/>
-      <c r="B1526" s="22" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C1526" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="B1526" s="28" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C1526" s="26"/>
       <c r="D1526" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1526" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="E1526" s="26"/>
       <c r="F1526" s="22" t="s">
         <v>890</v>
       </c>
@@ -43119,16 +43124,16 @@
         <v>1537</v>
       </c>
       <c r="J1526" s="23"/>
-      <c r="K1526" s="23"/>
+      <c r="K1526" s="23" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="1527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1527" s="9"/>
       <c r="B1527" s="22" t="s">
         <v>1442</v>
       </c>
-      <c r="C1527" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1527" s="26"/>
       <c r="D1527" s="22" t="s">
         <v>30</v>
       </c>
@@ -43196,14 +43201,12 @@
       <c r="J1529" s="23"/>
       <c r="K1529" s="23"/>
     </row>
-    <row r="1530" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1530" s="9"/>
       <c r="B1530" s="22" t="s">
         <v>1442</v>
       </c>
-      <c r="C1530" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1530" s="26"/>
       <c r="D1530" s="22" t="s">
         <v>30</v>
       </c>
@@ -43271,7 +43274,7 @@
       <c r="J1532" s="23"/>
       <c r="K1532" s="23"/>
     </row>
-    <row r="1533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1533" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1533" s="9"/>
       <c r="B1533" s="22" t="s">
         <v>1442</v>
@@ -43297,6 +43300,7 @@
       <c r="K1533" s="23"/>
     </row>
     <row r="1534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1534" s="9"/>
       <c r="B1534" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43321,6 +43325,7 @@
       <c r="K1534" s="23"/>
     </row>
     <row r="1535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1535" s="9"/>
       <c r="B1535" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43344,7 +43349,8 @@
       <c r="J1535" s="23"/>
       <c r="K1535" s="23"/>
     </row>
-    <row r="1536" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1536" s="9"/>
       <c r="B1536" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43368,7 +43374,7 @@
       <c r="J1536" s="23"/>
       <c r="K1536" s="23"/>
     </row>
-    <row r="1537" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1537" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43392,7 +43398,7 @@
       <c r="J1537" s="23"/>
       <c r="K1537" s="23"/>
     </row>
-    <row r="1538" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1538" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43416,7 +43422,7 @@
       <c r="J1538" s="23"/>
       <c r="K1538" s="23"/>
     </row>
-    <row r="1539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1539" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1539" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43440,7 +43446,7 @@
       <c r="J1539" s="23"/>
       <c r="K1539" s="23"/>
     </row>
-    <row r="1540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1540" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1540" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43488,7 +43494,7 @@
       <c r="J1541" s="23"/>
       <c r="K1541" s="23"/>
     </row>
-    <row r="1542" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1542" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43512,7 +43518,7 @@
       <c r="J1542" s="23"/>
       <c r="K1542" s="23"/>
     </row>
-    <row r="1543" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1543" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43536,7 +43542,7 @@
       <c r="J1543" s="23"/>
       <c r="K1543" s="23"/>
     </row>
-    <row r="1544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1544" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1544" s="22" t="s">
         <v>1442</v>
       </c>
@@ -43560,27 +43566,29 @@
       <c r="J1544" s="23"/>
       <c r="K1544" s="23"/>
     </row>
-    <row r="1545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1545" s="28" t="s">
+    <row r="1545" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1545" s="22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1545" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1545" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1545" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1545" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="C1545" s="28"/>
-      <c r="D1545" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="E1545" s="28"/>
-      <c r="F1545" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="G1545" s="28"/>
-      <c r="H1545" s="28"/>
-      <c r="I1545" s="29" t="s">
+      <c r="G1545" s="22"/>
+      <c r="H1545" s="22"/>
+      <c r="I1545" s="23" t="s">
         <v>1556</v>
       </c>
-      <c r="J1545" s="29"/>
-      <c r="K1545" s="29" t="s">
-        <v>1557</v>
-      </c>
+      <c r="J1545" s="23"/>
+      <c r="K1545" s="23"/>
     </row>
     <row r="1546" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1546" s="22" t="s">
@@ -43596,67 +43604,134 @@
         <v>30</v>
       </c>
       <c r="F1546" s="22" t="s">
-        <v>1466</v>
+        <v>890</v>
       </c>
       <c r="G1546" s="22"/>
       <c r="H1546" s="22"/>
       <c r="I1546" s="23" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J1546" s="23"/>
+      <c r="K1546" s="23"/>
+    </row>
+    <row r="1547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1547" s="22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1547" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1547" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1547" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1547" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="G1547" s="22"/>
+      <c r="H1547" s="22"/>
+      <c r="I1547" s="23" t="s">
         <v>1558</v>
       </c>
-      <c r="J1546" s="23"/>
-      <c r="K1546" s="23" t="s">
+      <c r="J1547" s="23"/>
+      <c r="K1547" s="23"/>
+    </row>
+    <row r="1548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1548" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="C1548" s="28"/>
+      <c r="D1548" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="E1548" s="28"/>
+      <c r="F1548" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="G1548" s="28"/>
+      <c r="H1548" s="28"/>
+      <c r="I1548" s="29" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="1547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1547" s="28" t="s">
+      <c r="J1548" s="29"/>
+      <c r="K1548" s="29" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1549" s="22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1549" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1549" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1549" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1549" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G1549" s="22"/>
+      <c r="H1549" s="22"/>
+      <c r="I1549" s="23" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J1549" s="23"/>
+      <c r="K1549" s="23" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1550" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="C1547" s="28"/>
-      <c r="D1547" s="28" t="s">
+      <c r="C1550" s="28"/>
+      <c r="D1550" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="E1547" s="28"/>
-      <c r="F1547" s="28" t="s">
+      <c r="E1550" s="28"/>
+      <c r="F1550" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="G1547" s="28"/>
-      <c r="H1547" s="28"/>
-      <c r="I1547" s="29" t="s">
+      <c r="G1550" s="28"/>
+      <c r="H1550" s="28"/>
+      <c r="I1550" s="29" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J1550" s="29"/>
+      <c r="K1550" s="29" t="s">
         <v>1560</v>
       </c>
-      <c r="J1547" s="29"/>
-      <c r="K1547" s="29" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="1548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1548" s="22" t="s">
+    </row>
+    <row r="1551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1551" s="22" t="s">
         <v>1442</v>
       </c>
-      <c r="C1548" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1548" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1548" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1548" s="22" t="s">
+      <c r="C1551" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1551" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1551" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1551" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="G1548" s="22"/>
-      <c r="H1548" s="22"/>
-      <c r="I1548" s="23" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J1548" s="23"/>
-      <c r="K1548" s="23"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G1551" s="22"/>
+      <c r="H1551" s="22"/>
+      <c r="I1551" s="23" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J1551" s="23"/>
+      <c r="K1551" s="23"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.766666666666667" header="0.511811023622047" footer="0.5"/>

--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7831" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="1626">
   <si>
     <t xml:space="preserve">FRC LabVIEW Trajectory Library – VI Implementation List</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">AnalogDelay.vi</t>
+    <t xml:space="preserve">AnalogDelay_Execute.vi</t>
   </si>
   <si>
     <t xml:space="preserve">Similar to interpolated tree map..</t>
@@ -4988,12 +4988,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
         <bgColor rgb="FF66FF66"/>
       </patternFill>
@@ -5002,6 +4996,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
         <bgColor rgb="FF33FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -5264,11 +5264,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5375,8 +5375,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G105" activeCellId="0" sqref="G105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D9" s="13" t="n">
         <f aca="false">COUNTIF(D24:D1948,"X")</f>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="F9" s="13" t="n">
         <f aca="false">COUNTIF(F24:F1948,"S")+COUNTIF(F24:F1948,"I")+COUNTIF(F24:F1948,"X")+COUNTIF(F24:F1948,"SI")+COUNTIF(F24:F1948,"IS")+COUNTIF(F24:F1948,"N/A")</f>
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G9" s="13" t="n">
         <f aca="false">COUNTIF(G24:G1948,"S")+COUNTIF(G24:G1948,"I")+COUNTIF(G24:G1948,"X")+COUNTIF(G24:G1948,"SI")+COUNTIF(G24:G1948,"IS")+COUNTIF(G24:G1948,"N/A")</f>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.990072202166065</v>
+        <v>0.990974729241877</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="C10" s="13" t="n">
         <f aca="false">COUNTIF(C24:C1948,"X")</f>
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.566787003610108</v>
+        <v>0.567689530685921</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,14 +5756,18 @@
       <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23" t="s">
@@ -6203,14 +6207,18 @@
       <c r="B39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D39" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="24"/>
+      <c r="F39" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23" t="s">
@@ -6343,7 +6351,7 @@
       <c r="E44" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="22"/>
@@ -6375,7 +6383,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="23" t="s">
@@ -6426,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="24"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="22" t="s">
         <v>31</v>
       </c>
@@ -6453,7 +6461,7 @@
       <c r="E48" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G48" s="22"/>
@@ -6481,7 +6489,7 @@
       <c r="E49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G49" s="22"/>
@@ -6509,7 +6517,7 @@
       <c r="E50" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="22"/>
@@ -6537,7 +6545,7 @@
       <c r="E51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G51" s="22"/>
@@ -6565,7 +6573,7 @@
       <c r="E52" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G52" s="22"/>
@@ -6591,7 +6599,7 @@
       <c r="E53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G53" s="22"/>
@@ -6617,7 +6625,7 @@
       <c r="E54" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="22"/>
@@ -6697,7 +6705,7 @@
       <c r="E57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="22"/>
@@ -6724,7 +6732,7 @@
       <c r="E58" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G58" s="22"/>
@@ -6794,7 +6802,7 @@
       <c r="E61" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="22"/>
@@ -6822,11 +6830,11 @@
       <c r="E62" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="22"/>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I62" s="23" t="s">
@@ -6975,7 +6983,7 @@
       <c r="E68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="22"/>
@@ -7031,11 +7039,11 @@
       <c r="E70" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="22"/>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I70" s="23" t="s">
@@ -7089,7 +7097,7 @@
       <c r="E72" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="22"/>
@@ -7115,7 +7123,7 @@
       <c r="E73" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="22"/>
@@ -7141,7 +7149,7 @@
       <c r="E74" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G74" s="22"/>
@@ -7238,7 +7246,7 @@
       <c r="E78" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="24"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="23" t="s">
@@ -7264,9 +7272,9 @@
       <c r="E79" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="24"/>
+      <c r="F79" s="26"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I79" s="23" t="s">
@@ -7292,7 +7300,7 @@
       <c r="E80" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="24"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="23" t="s">
@@ -7318,7 +7326,7 @@
       <c r="E81" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F81" s="24"/>
+      <c r="F81" s="26"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="23" t="s">
@@ -7344,9 +7352,9 @@
       <c r="E82" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="24"/>
+      <c r="F82" s="26"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="26" t="s">
+      <c r="H82" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I82" s="23" t="s">
@@ -7372,9 +7380,9 @@
       <c r="E83" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="24"/>
+      <c r="F83" s="26"/>
       <c r="G83" s="22"/>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I83" s="23" t="s">
@@ -7398,9 +7406,9 @@
       <c r="E84" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="24"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="22"/>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I84" s="23" t="s">
@@ -7424,9 +7432,9 @@
       <c r="E85" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="22"/>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I85" s="23" t="s">
@@ -7452,7 +7460,7 @@
       <c r="E86" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="24"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="23" t="s">
@@ -7478,9 +7486,9 @@
       <c r="E87" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="24"/>
+      <c r="F87" s="26"/>
       <c r="G87" s="22"/>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="23" t="s">
@@ -7504,9 +7512,9 @@
       <c r="E88" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="24"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="22"/>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="23" t="s">
@@ -7531,7 +7539,7 @@
       <c r="E89" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F89" s="24"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="23" t="s">
@@ -7718,11 +7726,11 @@
       <c r="N95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="23" t="s">
@@ -7970,8 +7978,8 @@
       <c r="D105" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="23" t="s">
@@ -8210,11 +8218,11 @@
       <c r="N113" s="22"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="23" t="s">
@@ -8453,11 +8461,11 @@
       <c r="N122" s="22"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="23" t="s">
@@ -8572,14 +8580,14 @@
       <c r="B128" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C128" s="24"/>
+      <c r="C128" s="26"/>
       <c r="D128" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E128" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F128" s="24"/>
+      <c r="F128" s="26"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="23" t="s">
@@ -8649,7 +8657,7 @@
       <c r="E131" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="24"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="23" t="s">
@@ -8675,7 +8683,7 @@
       <c r="E132" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="24"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="23" t="s">
@@ -8701,7 +8709,7 @@
       <c r="E133" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="24"/>
+      <c r="F133" s="26"/>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="23" t="s">
@@ -8727,7 +8735,7 @@
       <c r="E134" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="24"/>
+      <c r="F134" s="26"/>
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="23" t="s">
@@ -8753,7 +8761,7 @@
       <c r="E135" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="24"/>
+      <c r="F135" s="26"/>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="23" t="s">
@@ -8821,7 +8829,7 @@
       <c r="E138" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F138" s="24"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="23" t="s">
@@ -8845,7 +8853,7 @@
       <c r="E139" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F139" s="24"/>
+      <c r="F139" s="26"/>
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="23" t="s">
@@ -8871,7 +8879,7 @@
       <c r="E140" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F140" s="24"/>
+      <c r="F140" s="26"/>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="23" t="s">
@@ -8895,7 +8903,7 @@
       <c r="E141" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F141" s="24"/>
+      <c r="F141" s="26"/>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="23" t="s">
@@ -8919,7 +8927,7 @@
       <c r="E142" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F142" s="24"/>
+      <c r="F142" s="26"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="23" t="s">
@@ -9090,7 +9098,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="19"/>
-      <c r="B153" s="24"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="22"/>
       <c r="D153" s="22" t="s">
         <v>30</v>
@@ -9112,7 +9120,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
-      <c r="B154" s="24"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="22"/>
       <c r="D154" s="22" t="s">
         <v>30</v>
@@ -9751,7 +9759,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="19"/>
-      <c r="B179" s="24"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="22"/>
       <c r="D179" s="22" t="s">
         <v>30</v>
@@ -9773,7 +9781,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="19"/>
-      <c r="B180" s="24"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="22"/>
       <c r="D180" s="22" t="s">
         <v>30</v>
@@ -10083,7 +10091,7 @@
       <c r="E192" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F192" s="25" t="s">
+      <c r="F192" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G192" s="22"/>
@@ -10110,7 +10118,7 @@
       <c r="E193" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F193" s="25" t="s">
+      <c r="F193" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G193" s="22"/>
@@ -10401,7 +10409,7 @@
       <c r="B204" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C204" s="24"/>
+      <c r="C204" s="26"/>
       <c r="D204" s="22" t="s">
         <v>30</v>
       </c>
@@ -10424,7 +10432,7 @@
       <c r="B205" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C205" s="24"/>
+      <c r="C205" s="26"/>
       <c r="D205" s="22" t="s">
         <v>30</v>
       </c>
@@ -10447,7 +10455,7 @@
       <c r="B206" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="24"/>
+      <c r="C206" s="26"/>
       <c r="D206" s="22" t="s">
         <v>30</v>
       </c>
@@ -10470,7 +10478,7 @@
       <c r="B207" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C207" s="24"/>
+      <c r="C207" s="26"/>
       <c r="D207" s="22" t="s">
         <v>30</v>
       </c>
@@ -10493,7 +10501,7 @@
       <c r="B208" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C208" s="24"/>
+      <c r="C208" s="26"/>
       <c r="D208" s="22" t="s">
         <v>30</v>
       </c>
@@ -10638,7 +10646,7 @@
       </c>
       <c r="F213" s="22"/>
       <c r="G213" s="22"/>
-      <c r="H213" s="26" t="s">
+      <c r="H213" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I213" s="23" t="s">
@@ -10794,7 +10802,7 @@
       </c>
       <c r="F219" s="22"/>
       <c r="G219" s="22"/>
-      <c r="H219" s="26" t="s">
+      <c r="H219" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I219" s="23" t="s">
@@ -10941,7 +10949,7 @@
         <v>30</v>
       </c>
       <c r="D225" s="22"/>
-      <c r="E225" s="24"/>
+      <c r="E225" s="26"/>
       <c r="F225" s="22" t="s">
         <v>40</v>
       </c>
@@ -11745,7 +11753,7 @@
       <c r="E255" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F255" s="24"/>
+      <c r="F255" s="26"/>
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
       <c r="I255" s="23" t="s">
@@ -11769,7 +11777,7 @@
       <c r="E256" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F256" s="24"/>
+      <c r="F256" s="26"/>
       <c r="G256" s="22"/>
       <c r="H256" s="22"/>
       <c r="I256" s="23" t="s">
@@ -11793,7 +11801,7 @@
       <c r="E257" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F257" s="24"/>
+      <c r="F257" s="26"/>
       <c r="G257" s="22"/>
       <c r="H257" s="22"/>
       <c r="I257" s="23" t="s">
@@ -11817,7 +11825,7 @@
       <c r="E258" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F258" s="24"/>
+      <c r="F258" s="26"/>
       <c r="G258" s="22"/>
       <c r="H258" s="22"/>
       <c r="I258" s="23" t="s">
@@ -12054,7 +12062,7 @@
         <v>30</v>
       </c>
       <c r="D267" s="22"/>
-      <c r="E267" s="24"/>
+      <c r="E267" s="26"/>
       <c r="F267" s="22" t="s">
         <v>40</v>
       </c>
@@ -12501,7 +12509,7 @@
       <c r="E284" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F284" s="25" t="s">
+      <c r="F284" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G284" s="22"/>
@@ -12529,7 +12537,7 @@
       <c r="E285" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F285" s="25" t="s">
+      <c r="F285" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G285" s="22"/>
@@ -12559,7 +12567,7 @@
       <c r="E286" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F286" s="25" t="s">
+      <c r="F286" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G286" s="22"/>
@@ -12587,7 +12595,7 @@
       <c r="E287" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F287" s="25" t="s">
+      <c r="F287" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G287" s="22"/>
@@ -12838,7 +12846,7 @@
       <c r="E296" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F296" s="25" t="s">
+      <c r="F296" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G296" s="22"/>
@@ -12943,7 +12951,7 @@
       <c r="E300" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F300" s="24"/>
+      <c r="F300" s="26"/>
       <c r="G300" s="22"/>
       <c r="H300" s="22"/>
       <c r="I300" s="23" t="s">
@@ -13022,8 +13030,8 @@
       <c r="D303" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="24"/>
-      <c r="F303" s="24"/>
+      <c r="E303" s="26"/>
+      <c r="F303" s="26"/>
       <c r="G303" s="22"/>
       <c r="H303" s="22"/>
       <c r="I303" s="23" t="s">
@@ -13047,7 +13055,7 @@
       <c r="E304" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F304" s="25" t="s">
+      <c r="F304" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G304" s="22"/>
@@ -13075,7 +13083,7 @@
       <c r="E305" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F305" s="25" t="s">
+      <c r="F305" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G305" s="22"/>
@@ -13103,7 +13111,7 @@
       <c r="E306" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F306" s="25" t="s">
+      <c r="F306" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G306" s="22"/>
@@ -13131,7 +13139,7 @@
       <c r="E307" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F307" s="25" t="s">
+      <c r="F307" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G307" s="22"/>
@@ -13186,7 +13194,7 @@
       <c r="D309" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E309" s="24"/>
+      <c r="E309" s="26"/>
       <c r="F309" s="22" t="s">
         <v>40</v>
       </c>
@@ -13846,7 +13854,7 @@
         <v>30</v>
       </c>
       <c r="D335" s="22"/>
-      <c r="E335" s="24"/>
+      <c r="E335" s="26"/>
       <c r="F335" s="22" t="s">
         <v>40</v>
       </c>
@@ -13901,7 +13909,7 @@
       <c r="E337" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F337" s="25" t="s">
+      <c r="F337" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G337" s="22"/>
@@ -14071,7 +14079,7 @@
       <c r="E343" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F343" s="25" t="s">
+      <c r="F343" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G343" s="22"/>
@@ -14236,7 +14244,7 @@
         <v>30</v>
       </c>
       <c r="D349" s="22"/>
-      <c r="E349" s="24"/>
+      <c r="E349" s="26"/>
       <c r="F349" s="22" t="s">
         <v>40</v>
       </c>
@@ -14362,7 +14370,7 @@
         <v>30</v>
       </c>
       <c r="D354" s="22"/>
-      <c r="E354" s="24"/>
+      <c r="E354" s="26"/>
       <c r="F354" s="22" t="s">
         <v>40</v>
       </c>
@@ -14415,7 +14423,7 @@
       <c r="E356" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F356" s="25" t="s">
+      <c r="F356" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G356" s="22"/>
@@ -14547,7 +14555,7 @@
       <c r="E361" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F361" s="25" t="s">
+      <c r="F361" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G361" s="22"/>
@@ -14648,7 +14656,7 @@
         <v>30</v>
       </c>
       <c r="D365" s="22"/>
-      <c r="E365" s="24"/>
+      <c r="E365" s="26"/>
       <c r="F365" s="22" t="s">
         <v>40</v>
       </c>
@@ -14802,7 +14810,7 @@
         <v>30</v>
       </c>
       <c r="D371" s="22"/>
-      <c r="E371" s="24"/>
+      <c r="E371" s="26"/>
       <c r="F371" s="22" t="s">
         <v>40</v>
       </c>
@@ -15414,7 +15422,7 @@
         <v>30</v>
       </c>
       <c r="D396" s="22"/>
-      <c r="E396" s="24"/>
+      <c r="E396" s="26"/>
       <c r="F396" s="22" t="s">
         <v>40</v>
       </c>
@@ -16071,7 +16079,7 @@
         <v>30</v>
       </c>
       <c r="D421" s="22"/>
-      <c r="E421" s="24"/>
+      <c r="E421" s="26"/>
       <c r="F421" s="22" t="s">
         <v>40</v>
       </c>
@@ -16501,7 +16509,7 @@
         <v>30</v>
       </c>
       <c r="D438" s="22"/>
-      <c r="E438" s="24"/>
+      <c r="E438" s="26"/>
       <c r="F438" s="22" t="s">
         <v>40</v>
       </c>
@@ -16905,7 +16913,7 @@
         <v>30</v>
       </c>
       <c r="D453" s="22"/>
-      <c r="E453" s="24"/>
+      <c r="E453" s="26"/>
       <c r="F453" s="22" t="s">
         <v>40</v>
       </c>
@@ -17229,7 +17237,7 @@
         <v>30</v>
       </c>
       <c r="D466" s="22"/>
-      <c r="E466" s="24"/>
+      <c r="E466" s="26"/>
       <c r="F466" s="22" t="s">
         <v>40</v>
       </c>
@@ -18477,7 +18485,7 @@
         <v>30</v>
       </c>
       <c r="D514" s="22"/>
-      <c r="E514" s="24"/>
+      <c r="E514" s="26"/>
       <c r="F514" s="22" t="s">
         <v>40</v>
       </c>
@@ -18694,7 +18702,7 @@
       <c r="E522" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F522" s="25" t="s">
+      <c r="F522" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G522" s="22" t="s">
@@ -18790,7 +18798,7 @@
       <c r="A526" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="B526" s="24"/>
+      <c r="B526" s="26"/>
       <c r="C526" s="22"/>
       <c r="D526" s="22" t="s">
         <v>30</v>
@@ -18822,11 +18830,11 @@
       <c r="E527" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F527" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G527" s="25"/>
-      <c r="H527" s="25"/>
+      <c r="F527" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G527" s="24"/>
+      <c r="H527" s="24"/>
       <c r="I527" s="23" t="s">
         <v>583</v>
       </c>
@@ -19043,7 +19051,7 @@
       <c r="E536" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F536" s="25" t="s">
+      <c r="F536" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G536" s="22"/>
@@ -19118,7 +19126,7 @@
       <c r="E539" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F539" s="25" t="s">
+      <c r="F539" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G539" s="22"/>
@@ -19144,7 +19152,7 @@
       <c r="E540" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F540" s="25" t="s">
+      <c r="F540" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G540" s="22"/>
@@ -19170,7 +19178,7 @@
       <c r="E541" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F541" s="25" t="s">
+      <c r="F541" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G541" s="22"/>
@@ -19196,7 +19204,7 @@
       <c r="E542" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F542" s="24"/>
+      <c r="F542" s="26"/>
       <c r="G542" s="22"/>
       <c r="H542" s="22"/>
       <c r="I542" s="23" t="s">
@@ -19220,7 +19228,7 @@
       <c r="E543" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F543" s="25" t="s">
+      <c r="F543" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G543" s="22"/>
@@ -19245,7 +19253,7 @@
       <c r="E544" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F544" s="25" t="s">
+      <c r="F544" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G544" s="22"/>
@@ -19378,7 +19386,7 @@
       <c r="A551" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B551" s="24"/>
+      <c r="B551" s="26"/>
       <c r="C551" s="22"/>
       <c r="D551" s="22" t="s">
         <v>30</v>
@@ -19816,7 +19824,7 @@
       <c r="E569" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F569" s="25" t="s">
+      <c r="F569" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G569" s="22"/>
@@ -20223,7 +20231,7 @@
       <c r="A585" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="B585" s="24"/>
+      <c r="B585" s="26"/>
       <c r="C585" s="22"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
@@ -20241,7 +20249,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="19"/>
-      <c r="B586" s="24"/>
+      <c r="B586" s="26"/>
       <c r="C586" s="22"/>
       <c r="D586" s="22"/>
       <c r="E586" s="22"/>
@@ -22127,8 +22135,8 @@
       <c r="E664" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F664" s="24"/>
-      <c r="G664" s="24"/>
+      <c r="F664" s="26"/>
+      <c r="G664" s="26"/>
       <c r="H664" s="22"/>
       <c r="I664" s="23" t="s">
         <v>736</v>
@@ -22151,7 +22159,7 @@
       <c r="E665" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F665" s="24"/>
+      <c r="F665" s="26"/>
       <c r="G665" s="22"/>
       <c r="H665" s="22"/>
       <c r="I665" s="23" t="s">
@@ -22353,7 +22361,7 @@
       <c r="E672" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F672" s="24"/>
+      <c r="F672" s="26"/>
       <c r="G672" s="22"/>
       <c r="H672" s="22"/>
       <c r="I672" s="23" t="s">
@@ -22379,7 +22387,7 @@
       <c r="E673" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F673" s="24"/>
+      <c r="F673" s="26"/>
       <c r="G673" s="22"/>
       <c r="H673" s="22"/>
       <c r="I673" s="23" t="s">
@@ -22407,7 +22415,7 @@
       <c r="E674" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F674" s="24"/>
+      <c r="F674" s="26"/>
       <c r="G674" s="22"/>
       <c r="H674" s="22"/>
       <c r="I674" s="23" t="s">
@@ -22433,7 +22441,7 @@
       <c r="E675" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F675" s="24"/>
+      <c r="F675" s="26"/>
       <c r="G675" s="22"/>
       <c r="H675" s="22"/>
       <c r="I675" s="23" t="s">
@@ -22609,7 +22617,7 @@
       <c r="E682" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F682" s="24"/>
+      <c r="F682" s="26"/>
       <c r="G682" s="22"/>
       <c r="H682" s="22"/>
       <c r="I682" s="23" t="s">
@@ -24356,7 +24364,7 @@
       <c r="E752" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F752" s="24"/>
+      <c r="F752" s="26"/>
       <c r="G752" s="22"/>
       <c r="H752" s="22"/>
       <c r="I752" s="23" t="s">
@@ -24377,7 +24385,7 @@
       <c r="E753" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F753" s="24"/>
+      <c r="F753" s="26"/>
       <c r="G753" s="22"/>
       <c r="H753" s="22"/>
       <c r="I753" s="23" t="s">
@@ -24398,7 +24406,7 @@
       <c r="E754" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F754" s="24"/>
+      <c r="F754" s="26"/>
       <c r="G754" s="22"/>
       <c r="H754" s="22"/>
       <c r="I754" s="23" t="s">
@@ -24423,7 +24431,7 @@
       <c r="E755" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F755" s="24"/>
+      <c r="F755" s="26"/>
       <c r="G755" s="22"/>
       <c r="H755" s="22"/>
       <c r="I755" s="23" t="s">
@@ -24469,7 +24477,7 @@
       <c r="E757" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F757" s="24"/>
+      <c r="F757" s="26"/>
       <c r="G757" s="22"/>
       <c r="H757" s="22"/>
       <c r="I757" s="23" t="s">
@@ -24490,7 +24498,7 @@
       <c r="E758" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F758" s="24"/>
+      <c r="F758" s="26"/>
       <c r="G758" s="22"/>
       <c r="H758" s="22"/>
       <c r="I758" s="23" t="s">
@@ -24511,7 +24519,7 @@
       <c r="E759" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F759" s="24"/>
+      <c r="F759" s="26"/>
       <c r="G759" s="22"/>
       <c r="H759" s="22"/>
       <c r="I759" s="23" t="s">
@@ -24532,7 +24540,7 @@
       <c r="E760" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F760" s="24"/>
+      <c r="F760" s="26"/>
       <c r="G760" s="22"/>
       <c r="H760" s="22"/>
       <c r="I760" s="23" t="s">
@@ -24555,7 +24563,7 @@
       <c r="E761" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F761" s="24"/>
+      <c r="F761" s="26"/>
       <c r="G761" s="22"/>
       <c r="H761" s="22"/>
       <c r="I761" s="23" t="s">
@@ -24576,7 +24584,7 @@
       <c r="E762" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F762" s="24"/>
+      <c r="F762" s="26"/>
       <c r="G762" s="22"/>
       <c r="H762" s="22"/>
       <c r="I762" s="23" t="s">
@@ -24597,7 +24605,7 @@
       <c r="E763" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F763" s="24"/>
+      <c r="F763" s="26"/>
       <c r="G763" s="22"/>
       <c r="H763" s="22"/>
       <c r="I763" s="23" t="s">
@@ -24617,7 +24625,7 @@
       <c r="E764" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F764" s="24"/>
+      <c r="F764" s="26"/>
       <c r="G764" s="22"/>
       <c r="H764" s="22"/>
       <c r="I764" s="23" t="s">
@@ -25038,7 +25046,7 @@
       <c r="E785" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F785" s="24"/>
+      <c r="F785" s="26"/>
       <c r="G785" s="22"/>
       <c r="H785" s="22"/>
       <c r="I785" s="23" t="s">
@@ -25059,7 +25067,7 @@
       <c r="E786" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F786" s="24"/>
+      <c r="F786" s="26"/>
       <c r="G786" s="22"/>
       <c r="H786" s="22"/>
       <c r="I786" s="23" t="s">
@@ -25079,7 +25087,7 @@
       <c r="E787" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F787" s="24"/>
+      <c r="F787" s="26"/>
       <c r="G787" s="22"/>
       <c r="H787" s="22"/>
       <c r="I787" s="23" t="s">
@@ -25099,7 +25107,7 @@
       <c r="E788" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F788" s="24"/>
+      <c r="F788" s="26"/>
       <c r="G788" s="22"/>
       <c r="H788" s="22"/>
       <c r="I788" s="23" t="s">
@@ -25151,11 +25159,11 @@
       <c r="B791" s="35" t="s">
         <v>899</v>
       </c>
-      <c r="C791" s="24"/>
+      <c r="C791" s="26"/>
       <c r="D791" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E791" s="24"/>
+      <c r="E791" s="26"/>
       <c r="F791" s="22"/>
       <c r="G791" s="22"/>
       <c r="H791" s="22"/>
@@ -25174,11 +25182,11 @@
       <c r="B792" s="35" t="s">
         <v>899</v>
       </c>
-      <c r="C792" s="24"/>
+      <c r="C792" s="26"/>
       <c r="D792" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E792" s="24"/>
+      <c r="E792" s="26"/>
       <c r="F792" s="22"/>
       <c r="G792" s="22"/>
       <c r="H792" s="22"/>
@@ -25196,11 +25204,11 @@
       <c r="B793" s="35" t="s">
         <v>899</v>
       </c>
-      <c r="C793" s="24"/>
+      <c r="C793" s="26"/>
       <c r="D793" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E793" s="24"/>
+      <c r="E793" s="26"/>
       <c r="F793" s="22" t="s">
         <v>40</v>
       </c>
@@ -25486,7 +25494,7 @@
       <c r="E807" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F807" s="24"/>
+      <c r="F807" s="26"/>
       <c r="G807" s="22"/>
       <c r="H807" s="22"/>
       <c r="I807" s="23" t="s">
@@ -25507,7 +25515,7 @@
       <c r="E808" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F808" s="24"/>
+      <c r="F808" s="26"/>
       <c r="G808" s="22"/>
       <c r="H808" s="22"/>
       <c r="I808" s="23" t="s">
@@ -25527,7 +25535,7 @@
       <c r="E809" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F809" s="24"/>
+      <c r="F809" s="26"/>
       <c r="G809" s="22"/>
       <c r="H809" s="22"/>
       <c r="I809" s="23" t="s">
@@ -25547,7 +25555,7 @@
       <c r="E810" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F810" s="24"/>
+      <c r="F810" s="26"/>
       <c r="G810" s="22"/>
       <c r="H810" s="22"/>
       <c r="I810" s="23" t="s">
@@ -26083,7 +26091,7 @@
       <c r="E838" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F838" s="24"/>
+      <c r="F838" s="26"/>
       <c r="G838" s="22"/>
       <c r="H838" s="22"/>
       <c r="I838" s="23" t="s">
@@ -26108,7 +26116,7 @@
       <c r="E839" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F839" s="24" t="s">
+      <c r="F839" s="26" t="s">
         <v>941</v>
       </c>
       <c r="G839" s="22"/>
@@ -28216,7 +28224,7 @@
       <c r="E937" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F937" s="24"/>
+      <c r="F937" s="26"/>
       <c r="G937" s="22"/>
       <c r="H937" s="22"/>
       <c r="I937" s="23" t="s">
@@ -28240,7 +28248,7 @@
       <c r="E938" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F938" s="24"/>
+      <c r="F938" s="26"/>
       <c r="G938" s="22"/>
       <c r="H938" s="22"/>
       <c r="I938" s="23" t="s">
@@ -28265,7 +28273,7 @@
       <c r="E939" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F939" s="24"/>
+      <c r="F939" s="26"/>
       <c r="G939" s="22"/>
       <c r="H939" s="22"/>
       <c r="I939" s="23" t="s">
@@ -28290,7 +28298,7 @@
       <c r="E940" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F940" s="24"/>
+      <c r="F940" s="26"/>
       <c r="G940" s="22"/>
       <c r="H940" s="22"/>
       <c r="I940" s="23" t="s">
@@ -28315,7 +28323,7 @@
       <c r="E941" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F941" s="24"/>
+      <c r="F941" s="26"/>
       <c r="G941" s="22"/>
       <c r="H941" s="22"/>
       <c r="I941" s="23" t="s">
@@ -28340,7 +28348,7 @@
       <c r="E942" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F942" s="24"/>
+      <c r="F942" s="26"/>
       <c r="G942" s="22"/>
       <c r="H942" s="22"/>
       <c r="I942" s="23" t="s">
@@ -28365,7 +28373,7 @@
       <c r="E943" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F943" s="24"/>
+      <c r="F943" s="26"/>
       <c r="G943" s="22"/>
       <c r="H943" s="22"/>
       <c r="I943" s="23" t="s">
@@ -28390,7 +28398,7 @@
       <c r="E944" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F944" s="24"/>
+      <c r="F944" s="26"/>
       <c r="G944" s="22"/>
       <c r="H944" s="22"/>
       <c r="I944" s="23" t="s">
@@ -28559,7 +28567,7 @@
       <c r="E952" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F952" s="24"/>
+      <c r="F952" s="26"/>
       <c r="G952" s="22"/>
       <c r="H952" s="22"/>
       <c r="I952" s="23" t="s">
@@ -28582,7 +28590,7 @@
       <c r="E953" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F953" s="24"/>
+      <c r="F953" s="26"/>
       <c r="G953" s="22"/>
       <c r="H953" s="22"/>
       <c r="I953" s="23" t="s">
@@ -28605,7 +28613,7 @@
       <c r="E954" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F954" s="24"/>
+      <c r="F954" s="26"/>
       <c r="G954" s="22"/>
       <c r="H954" s="22"/>
       <c r="I954" s="23" t="s">
@@ -28628,7 +28636,7 @@
       <c r="E955" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F955" s="24"/>
+      <c r="F955" s="26"/>
       <c r="G955" s="22"/>
       <c r="H955" s="22"/>
       <c r="I955" s="23" t="s">
@@ -28651,7 +28659,7 @@
       <c r="E956" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F956" s="24"/>
+      <c r="F956" s="26"/>
       <c r="G956" s="22"/>
       <c r="H956" s="22"/>
       <c r="I956" s="23" t="s">
@@ -28674,7 +28682,7 @@
       <c r="E957" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F957" s="24"/>
+      <c r="F957" s="26"/>
       <c r="G957" s="22"/>
       <c r="H957" s="22"/>
       <c r="I957" s="23" t="s">
@@ -28697,7 +28705,7 @@
       <c r="E958" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F958" s="24"/>
+      <c r="F958" s="26"/>
       <c r="G958" s="22"/>
       <c r="H958" s="22"/>
       <c r="I958" s="23" t="s">
@@ -28720,7 +28728,7 @@
       <c r="E959" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F959" s="24"/>
+      <c r="F959" s="26"/>
       <c r="G959" s="22"/>
       <c r="H959" s="22"/>
       <c r="I959" s="23" t="s">
@@ -28743,7 +28751,7 @@
       <c r="E960" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F960" s="24"/>
+      <c r="F960" s="26"/>
       <c r="G960" s="22"/>
       <c r="H960" s="22"/>
       <c r="I960" s="23" t="s">
@@ -28766,7 +28774,7 @@
       <c r="E961" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F961" s="24"/>
+      <c r="F961" s="26"/>
       <c r="G961" s="22"/>
       <c r="H961" s="22"/>
       <c r="I961" s="23" t="s">
@@ -28789,7 +28797,7 @@
       <c r="E962" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F962" s="24"/>
+      <c r="F962" s="26"/>
       <c r="G962" s="22"/>
       <c r="H962" s="22"/>
       <c r="I962" s="23" t="s">
@@ -28812,7 +28820,7 @@
       <c r="E963" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F963" s="24"/>
+      <c r="F963" s="26"/>
       <c r="G963" s="22"/>
       <c r="H963" s="22"/>
       <c r="I963" s="23" t="s">
@@ -28895,7 +28903,7 @@
       <c r="E966" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F966" s="24"/>
+      <c r="F966" s="26"/>
       <c r="G966" s="22"/>
       <c r="H966" s="22"/>
       <c r="I966" s="23" t="s">
@@ -28918,7 +28926,7 @@
       <c r="E967" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F967" s="24"/>
+      <c r="F967" s="26"/>
       <c r="G967" s="22"/>
       <c r="H967" s="22"/>
       <c r="I967" s="23" t="s">
@@ -28943,7 +28951,7 @@
       <c r="E968" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F968" s="24"/>
+      <c r="F968" s="26"/>
       <c r="G968" s="22"/>
       <c r="H968" s="22"/>
       <c r="I968" s="23" t="s">
@@ -28966,7 +28974,7 @@
       <c r="E969" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F969" s="24"/>
+      <c r="F969" s="26"/>
       <c r="G969" s="22"/>
       <c r="H969" s="22"/>
       <c r="I969" s="23" t="s">
@@ -28989,7 +28997,7 @@
       <c r="E970" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F970" s="24"/>
+      <c r="F970" s="26"/>
       <c r="G970" s="22"/>
       <c r="H970" s="22"/>
       <c r="I970" s="23" t="s">
@@ -29012,7 +29020,7 @@
       <c r="E971" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F971" s="24"/>
+      <c r="F971" s="26"/>
       <c r="G971" s="22"/>
       <c r="H971" s="22"/>
       <c r="I971" s="23" t="s">
@@ -29035,7 +29043,7 @@
       <c r="E972" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F972" s="24"/>
+      <c r="F972" s="26"/>
       <c r="G972" s="22"/>
       <c r="H972" s="22"/>
       <c r="I972" s="23" t="s">
@@ -29058,7 +29066,7 @@
       <c r="E973" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F973" s="24"/>
+      <c r="F973" s="26"/>
       <c r="G973" s="22"/>
       <c r="H973" s="22"/>
       <c r="I973" s="23" t="s">
@@ -29081,7 +29089,7 @@
       <c r="E974" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F974" s="24"/>
+      <c r="F974" s="26"/>
       <c r="G974" s="22"/>
       <c r="H974" s="22"/>
       <c r="I974" s="23" t="s">
@@ -29104,7 +29112,7 @@
       <c r="E975" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F975" s="24"/>
+      <c r="F975" s="26"/>
       <c r="G975" s="22"/>
       <c r="H975" s="22"/>
       <c r="I975" s="23" t="s">
@@ -29127,7 +29135,7 @@
       <c r="E976" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F976" s="24"/>
+      <c r="F976" s="26"/>
       <c r="G976" s="22"/>
       <c r="H976" s="22"/>
       <c r="I976" s="23" t="s">
@@ -29150,7 +29158,7 @@
       <c r="E977" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F977" s="24"/>
+      <c r="F977" s="26"/>
       <c r="G977" s="22"/>
       <c r="H977" s="22"/>
       <c r="I977" s="23" t="s">
@@ -29249,7 +29257,7 @@
       <c r="E981" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F981" s="24"/>
+      <c r="F981" s="26"/>
       <c r="G981" s="22" t="s">
         <v>30</v>
       </c>
@@ -29275,7 +29283,7 @@
       <c r="E982" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F982" s="24"/>
+      <c r="F982" s="26"/>
       <c r="G982" s="22"/>
       <c r="H982" s="22"/>
       <c r="I982" s="23" t="s">
@@ -29299,7 +29307,7 @@
       <c r="E983" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F983" s="24"/>
+      <c r="F983" s="26"/>
       <c r="G983" s="22"/>
       <c r="H983" s="22"/>
       <c r="I983" s="23" t="s">
@@ -29323,7 +29331,7 @@
       <c r="E984" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F984" s="24"/>
+      <c r="F984" s="26"/>
       <c r="G984" s="22"/>
       <c r="H984" s="22"/>
       <c r="I984" s="23" t="s">
@@ -29347,7 +29355,7 @@
       <c r="E985" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F985" s="24"/>
+      <c r="F985" s="26"/>
       <c r="G985" s="22" t="s">
         <v>30</v>
       </c>
@@ -29373,7 +29381,7 @@
       <c r="E986" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F986" s="24"/>
+      <c r="F986" s="26"/>
       <c r="G986" s="22" t="s">
         <v>30</v>
       </c>
@@ -29398,7 +29406,7 @@
       <c r="E987" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F987" s="24"/>
+      <c r="F987" s="26"/>
       <c r="G987" s="22" t="s">
         <v>30</v>
       </c>
@@ -29423,7 +29431,7 @@
       <c r="E988" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F988" s="24"/>
+      <c r="F988" s="26"/>
       <c r="G988" s="22"/>
       <c r="H988" s="22"/>
       <c r="I988" s="23" t="s">
@@ -29446,7 +29454,7 @@
       <c r="E989" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F989" s="24"/>
+      <c r="F989" s="26"/>
       <c r="G989" s="22"/>
       <c r="H989" s="22"/>
       <c r="I989" s="23" t="s">
@@ -29469,7 +29477,7 @@
       <c r="E990" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F990" s="24"/>
+      <c r="F990" s="26"/>
       <c r="G990" s="22" t="s">
         <v>30</v>
       </c>
@@ -29569,7 +29577,7 @@
       <c r="E994" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F994" s="24"/>
+      <c r="F994" s="26"/>
       <c r="G994" s="22"/>
       <c r="H994" s="22"/>
       <c r="I994" s="23" t="s">
@@ -29593,7 +29601,7 @@
       <c r="E995" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F995" s="24"/>
+      <c r="F995" s="26"/>
       <c r="G995" s="22"/>
       <c r="H995" s="22"/>
       <c r="I995" s="23" t="s">
@@ -29616,7 +29624,7 @@
       <c r="E996" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F996" s="24"/>
+      <c r="F996" s="26"/>
       <c r="G996" s="22"/>
       <c r="H996" s="22"/>
       <c r="I996" s="23" t="s">
@@ -29639,7 +29647,7 @@
       <c r="E997" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F997" s="24"/>
+      <c r="F997" s="26"/>
       <c r="G997" s="22"/>
       <c r="H997" s="22"/>
       <c r="I997" s="23" t="s">
@@ -29662,7 +29670,7 @@
       <c r="E998" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F998" s="24"/>
+      <c r="F998" s="26"/>
       <c r="G998" s="22"/>
       <c r="H998" s="22"/>
       <c r="I998" s="23" t="s">
@@ -29685,7 +29693,7 @@
       <c r="E999" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F999" s="24"/>
+      <c r="F999" s="26"/>
       <c r="G999" s="22"/>
       <c r="H999" s="22"/>
       <c r="I999" s="23" t="s">
@@ -29708,7 +29716,7 @@
       <c r="E1000" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1000" s="24"/>
+      <c r="F1000" s="26"/>
       <c r="G1000" s="22"/>
       <c r="H1000" s="22"/>
       <c r="I1000" s="23" t="s">
@@ -29781,7 +29789,7 @@
       <c r="A1003" s="21" t="s">
         <v>1078</v>
       </c>
-      <c r="B1003" s="24"/>
+      <c r="B1003" s="26"/>
       <c r="C1003" s="22"/>
       <c r="D1003" s="22"/>
       <c r="E1003" s="22"/>
@@ -29808,7 +29816,7 @@
       <c r="E1004" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1004" s="24"/>
+      <c r="F1004" s="26"/>
       <c r="G1004" s="22"/>
       <c r="H1004" s="22"/>
       <c r="I1004" s="23" t="s">
@@ -29831,7 +29839,7 @@
       <c r="E1005" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1005" s="24"/>
+      <c r="F1005" s="26"/>
       <c r="G1005" s="22"/>
       <c r="H1005" s="22"/>
       <c r="I1005" s="23" t="s">
@@ -29854,7 +29862,7 @@
       <c r="E1006" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1006" s="24"/>
+      <c r="F1006" s="26"/>
       <c r="G1006" s="22"/>
       <c r="H1006" s="22"/>
       <c r="I1006" s="23" t="s">
@@ -29877,7 +29885,7 @@
       <c r="E1007" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1007" s="24"/>
+      <c r="F1007" s="26"/>
       <c r="G1007" s="22"/>
       <c r="H1007" s="22"/>
       <c r="I1007" s="23" t="s">
@@ -29900,7 +29908,7 @@
       <c r="E1008" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1008" s="24"/>
+      <c r="F1008" s="26"/>
       <c r="G1008" s="22"/>
       <c r="H1008" s="22"/>
       <c r="I1008" s="23" t="s">
@@ -29923,7 +29931,7 @@
       <c r="E1009" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1009" s="24"/>
+      <c r="F1009" s="26"/>
       <c r="G1009" s="22"/>
       <c r="H1009" s="22"/>
       <c r="I1009" s="23" t="s">
@@ -29946,7 +29954,7 @@
       <c r="E1010" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1010" s="24"/>
+      <c r="F1010" s="26"/>
       <c r="G1010" s="22"/>
       <c r="H1010" s="22"/>
       <c r="I1010" s="23" t="s">
@@ -29969,7 +29977,7 @@
       <c r="E1011" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1011" s="24"/>
+      <c r="F1011" s="26"/>
       <c r="G1011" s="22"/>
       <c r="H1011" s="22"/>
       <c r="I1011" s="23" t="s">
@@ -29992,7 +30000,7 @@
       <c r="E1012" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1012" s="24"/>
+      <c r="F1012" s="26"/>
       <c r="G1012" s="22"/>
       <c r="H1012" s="22"/>
       <c r="I1012" s="23" t="s">
@@ -30015,7 +30023,7 @@
       <c r="E1013" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1013" s="24"/>
+      <c r="F1013" s="26"/>
       <c r="G1013" s="22"/>
       <c r="H1013" s="22"/>
       <c r="I1013" s="23" t="s">
@@ -30038,7 +30046,7 @@
       <c r="E1014" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1014" s="24"/>
+      <c r="F1014" s="26"/>
       <c r="G1014" s="22"/>
       <c r="H1014" s="22"/>
       <c r="I1014" s="23" t="s">
@@ -30141,7 +30149,7 @@
       <c r="A1019" s="21" t="s">
         <v>1091</v>
       </c>
-      <c r="B1019" s="24"/>
+      <c r="B1019" s="26"/>
       <c r="C1019" s="22"/>
       <c r="D1019" s="22"/>
       <c r="E1019" s="22"/>
@@ -30168,7 +30176,7 @@
       <c r="E1020" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1020" s="24"/>
+      <c r="F1020" s="26"/>
       <c r="G1020" s="22"/>
       <c r="H1020" s="22"/>
       <c r="I1020" s="23" t="s">
@@ -30191,7 +30199,7 @@
       <c r="E1021" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1021" s="24"/>
+      <c r="F1021" s="26"/>
       <c r="G1021" s="22"/>
       <c r="H1021" s="22"/>
       <c r="I1021" s="23" t="s">
@@ -30214,7 +30222,7 @@
       <c r="E1022" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1022" s="24"/>
+      <c r="F1022" s="26"/>
       <c r="G1022" s="22"/>
       <c r="H1022" s="22"/>
       <c r="I1022" s="23" t="s">
@@ -30237,7 +30245,7 @@
       <c r="E1023" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1023" s="24"/>
+      <c r="F1023" s="26"/>
       <c r="G1023" s="22"/>
       <c r="H1023" s="22"/>
       <c r="I1023" s="23" t="s">
@@ -30260,7 +30268,7 @@
       <c r="E1024" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1024" s="24"/>
+      <c r="F1024" s="26"/>
       <c r="G1024" s="22"/>
       <c r="H1024" s="22"/>
       <c r="I1024" s="23" t="s">
@@ -30283,7 +30291,7 @@
       <c r="E1025" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1025" s="24"/>
+      <c r="F1025" s="26"/>
       <c r="G1025" s="22"/>
       <c r="H1025" s="22"/>
       <c r="I1025" s="23" t="s">
@@ -30306,7 +30314,7 @@
       <c r="E1026" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1026" s="24"/>
+      <c r="F1026" s="26"/>
       <c r="G1026" s="22"/>
       <c r="H1026" s="22"/>
       <c r="I1026" s="23" t="s">
@@ -30329,7 +30337,7 @@
       <c r="E1027" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1027" s="24"/>
+      <c r="F1027" s="26"/>
       <c r="G1027" s="22"/>
       <c r="H1027" s="22"/>
       <c r="I1027" s="23" t="s">
@@ -30352,7 +30360,7 @@
       <c r="E1028" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1028" s="24"/>
+      <c r="F1028" s="26"/>
       <c r="G1028" s="22"/>
       <c r="H1028" s="22"/>
       <c r="I1028" s="23" t="s">
@@ -30375,7 +30383,7 @@
       <c r="E1029" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1029" s="24"/>
+      <c r="F1029" s="26"/>
       <c r="G1029" s="22"/>
       <c r="H1029" s="22"/>
       <c r="I1029" s="23" t="s">
@@ -30398,7 +30406,7 @@
       <c r="E1030" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1030" s="24"/>
+      <c r="F1030" s="26"/>
       <c r="G1030" s="22"/>
       <c r="H1030" s="22"/>
       <c r="I1030" s="23" t="s">
@@ -30496,7 +30504,7 @@
       <c r="E1034" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1034" s="24"/>
+      <c r="F1034" s="26"/>
       <c r="G1034" s="22"/>
       <c r="H1034" s="22"/>
       <c r="I1034" s="23" t="s">
@@ -30519,7 +30527,7 @@
       <c r="E1035" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1035" s="24"/>
+      <c r="F1035" s="26"/>
       <c r="G1035" s="22"/>
       <c r="H1035" s="22"/>
       <c r="I1035" s="23" t="s">
@@ -30542,7 +30550,7 @@
       <c r="E1036" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1036" s="24"/>
+      <c r="F1036" s="26"/>
       <c r="G1036" s="22"/>
       <c r="H1036" s="22"/>
       <c r="I1036" s="23" t="s">
@@ -30565,7 +30573,7 @@
       <c r="E1037" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1037" s="24"/>
+      <c r="F1037" s="26"/>
       <c r="G1037" s="22"/>
       <c r="H1037" s="22"/>
       <c r="I1037" s="23" t="s">
@@ -30588,7 +30596,7 @@
       <c r="E1038" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1038" s="24"/>
+      <c r="F1038" s="26"/>
       <c r="G1038" s="22"/>
       <c r="H1038" s="22"/>
       <c r="I1038" s="23" t="s">
@@ -30611,7 +30619,7 @@
       <c r="E1039" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1039" s="24"/>
+      <c r="F1039" s="26"/>
       <c r="G1039" s="22"/>
       <c r="H1039" s="22"/>
       <c r="I1039" s="23" t="s">
@@ -30634,7 +30642,7 @@
       <c r="E1040" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1040" s="24"/>
+      <c r="F1040" s="26"/>
       <c r="G1040" s="22"/>
       <c r="H1040" s="22"/>
       <c r="I1040" s="23" t="s">
@@ -30657,7 +30665,7 @@
       <c r="E1041" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1041" s="24"/>
+      <c r="F1041" s="26"/>
       <c r="G1041" s="22"/>
       <c r="H1041" s="22"/>
       <c r="I1041" s="23" t="s">
@@ -30680,7 +30688,7 @@
       <c r="E1042" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1042" s="24"/>
+      <c r="F1042" s="26"/>
       <c r="G1042" s="22"/>
       <c r="H1042" s="22"/>
       <c r="I1042" s="23" t="s">
@@ -30703,7 +30711,7 @@
       <c r="E1043" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1043" s="24"/>
+      <c r="F1043" s="26"/>
       <c r="G1043" s="22"/>
       <c r="H1043" s="22"/>
       <c r="I1043" s="23" t="s">
@@ -30726,7 +30734,7 @@
       <c r="E1044" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1044" s="24"/>
+      <c r="F1044" s="26"/>
       <c r="G1044" s="22"/>
       <c r="H1044" s="22"/>
       <c r="I1044" s="23" t="s">
@@ -30749,7 +30757,7 @@
       <c r="E1045" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1045" s="24"/>
+      <c r="F1045" s="26"/>
       <c r="G1045" s="22"/>
       <c r="H1045" s="22"/>
       <c r="I1045" s="23" t="s">
@@ -30772,7 +30780,7 @@
       <c r="E1046" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1046" s="24"/>
+      <c r="F1046" s="26"/>
       <c r="G1046" s="22"/>
       <c r="H1046" s="22"/>
       <c r="I1046" s="23" t="s">
@@ -30795,7 +30803,7 @@
       <c r="E1047" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1047" s="24"/>
+      <c r="F1047" s="26"/>
       <c r="G1047" s="22"/>
       <c r="H1047" s="22"/>
       <c r="I1047" s="23" t="s">
@@ -30818,7 +30826,7 @@
       <c r="E1048" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1048" s="24"/>
+      <c r="F1048" s="26"/>
       <c r="G1048" s="22"/>
       <c r="H1048" s="22"/>
       <c r="I1048" s="23" t="s">
@@ -30841,7 +30849,7 @@
       <c r="E1049" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1049" s="24"/>
+      <c r="F1049" s="26"/>
       <c r="G1049" s="22"/>
       <c r="H1049" s="22"/>
       <c r="I1049" s="23" t="s">
@@ -30864,7 +30872,7 @@
       <c r="E1050" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1050" s="24"/>
+      <c r="F1050" s="26"/>
       <c r="G1050" s="22"/>
       <c r="H1050" s="22"/>
       <c r="I1050" s="23" t="s">
@@ -31136,7 +31144,7 @@
       <c r="E1063" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1063" s="24"/>
+      <c r="F1063" s="26"/>
       <c r="G1063" s="22" t="s">
         <v>30</v>
       </c>
@@ -31161,7 +31169,7 @@
       <c r="E1064" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1064" s="24"/>
+      <c r="F1064" s="26"/>
       <c r="G1064" s="22" t="s">
         <v>30</v>
       </c>
@@ -31246,7 +31254,7 @@
       <c r="E1067" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1067" s="24"/>
+      <c r="F1067" s="26"/>
       <c r="G1067" s="22" t="s">
         <v>30</v>
       </c>
@@ -31271,7 +31279,7 @@
       <c r="E1068" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1068" s="24"/>
+      <c r="F1068" s="26"/>
       <c r="G1068" s="22" t="s">
         <v>30</v>
       </c>
@@ -31296,7 +31304,7 @@
       <c r="E1069" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1069" s="24"/>
+      <c r="F1069" s="26"/>
       <c r="G1069" s="22" t="s">
         <v>30</v>
       </c>
@@ -31321,7 +31329,7 @@
       <c r="E1070" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1070" s="24"/>
+      <c r="F1070" s="26"/>
       <c r="G1070" s="22" t="s">
         <v>30</v>
       </c>
@@ -31346,7 +31354,7 @@
       <c r="E1071" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1071" s="24"/>
+      <c r="F1071" s="26"/>
       <c r="G1071" s="22" t="s">
         <v>30</v>
       </c>
@@ -31371,7 +31379,7 @@
       <c r="E1072" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1072" s="24"/>
+      <c r="F1072" s="26"/>
       <c r="G1072" s="22" t="s">
         <v>30</v>
       </c>
@@ -31471,7 +31479,7 @@
       <c r="E1076" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1076" s="24"/>
+      <c r="F1076" s="26"/>
       <c r="G1076" s="22"/>
       <c r="H1076" s="22"/>
       <c r="I1076" s="23" t="s">
@@ -31494,7 +31502,7 @@
       <c r="E1077" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1077" s="24"/>
+      <c r="F1077" s="26"/>
       <c r="G1077" s="22"/>
       <c r="H1077" s="22"/>
       <c r="I1077" s="23" t="s">
@@ -31517,7 +31525,7 @@
       <c r="E1078" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1078" s="24"/>
+      <c r="F1078" s="26"/>
       <c r="G1078" s="22"/>
       <c r="H1078" s="22"/>
       <c r="I1078" s="23" t="s">
@@ -31540,7 +31548,7 @@
       <c r="E1079" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1079" s="24"/>
+      <c r="F1079" s="26"/>
       <c r="G1079" s="22"/>
       <c r="H1079" s="22"/>
       <c r="I1079" s="23" t="s">
@@ -31563,7 +31571,7 @@
       <c r="E1080" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1080" s="24"/>
+      <c r="F1080" s="26"/>
       <c r="G1080" s="22"/>
       <c r="H1080" s="22"/>
       <c r="I1080" s="23" t="s">
@@ -31586,7 +31594,7 @@
       <c r="E1081" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1081" s="24"/>
+      <c r="F1081" s="26"/>
       <c r="G1081" s="22"/>
       <c r="H1081" s="22"/>
       <c r="I1081" s="23" t="s">
@@ -31609,7 +31617,7 @@
       <c r="E1082" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1082" s="24"/>
+      <c r="F1082" s="26"/>
       <c r="G1082" s="22"/>
       <c r="H1082" s="22"/>
       <c r="I1082" s="23" t="s">
@@ -31632,7 +31640,7 @@
       <c r="E1083" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1083" s="24"/>
+      <c r="F1083" s="26"/>
       <c r="G1083" s="22"/>
       <c r="H1083" s="22"/>
       <c r="I1083" s="23" t="s">
@@ -31655,7 +31663,7 @@
       <c r="E1084" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1084" s="24"/>
+      <c r="F1084" s="26"/>
       <c r="G1084" s="22"/>
       <c r="H1084" s="22"/>
       <c r="I1084" s="23" t="s">
@@ -31678,7 +31686,7 @@
       <c r="E1085" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1085" s="24"/>
+      <c r="F1085" s="26"/>
       <c r="G1085" s="22"/>
       <c r="H1085" s="22"/>
       <c r="I1085" s="23" t="s">
@@ -31776,7 +31784,7 @@
       <c r="E1089" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1089" s="24"/>
+      <c r="F1089" s="26"/>
       <c r="G1089" s="22"/>
       <c r="H1089" s="22"/>
       <c r="I1089" s="23" t="s">
@@ -31799,7 +31807,7 @@
       <c r="E1090" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1090" s="24"/>
+      <c r="F1090" s="26"/>
       <c r="G1090" s="22"/>
       <c r="H1090" s="22"/>
       <c r="I1090" s="23" t="s">
@@ -31822,7 +31830,7 @@
       <c r="E1091" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1091" s="24"/>
+      <c r="F1091" s="26"/>
       <c r="G1091" s="22"/>
       <c r="H1091" s="22"/>
       <c r="I1091" s="23" t="s">
@@ -31847,7 +31855,7 @@
       <c r="E1092" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1092" s="24"/>
+      <c r="F1092" s="26"/>
       <c r="G1092" s="22" t="s">
         <v>30</v>
       </c>
@@ -31872,7 +31880,7 @@
       <c r="E1093" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1093" s="24"/>
+      <c r="F1093" s="26"/>
       <c r="G1093" s="22"/>
       <c r="H1093" s="22"/>
       <c r="I1093" s="23" t="s">
@@ -31895,7 +31903,7 @@
       <c r="E1094" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1094" s="24"/>
+      <c r="F1094" s="26"/>
       <c r="G1094" s="22"/>
       <c r="H1094" s="22"/>
       <c r="I1094" s="23" t="s">
@@ -31918,7 +31926,7 @@
       <c r="E1095" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1095" s="24"/>
+      <c r="F1095" s="26"/>
       <c r="G1095" s="22"/>
       <c r="H1095" s="22"/>
       <c r="I1095" s="23" t="s">
@@ -31941,7 +31949,7 @@
       <c r="E1096" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1096" s="24"/>
+      <c r="F1096" s="26"/>
       <c r="G1096" s="22"/>
       <c r="H1096" s="22"/>
       <c r="I1096" s="23" t="s">
@@ -31964,7 +31972,7 @@
       <c r="E1097" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1097" s="24"/>
+      <c r="F1097" s="26"/>
       <c r="G1097" s="22" t="s">
         <v>30</v>
       </c>
@@ -31991,7 +31999,7 @@
       <c r="E1098" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1098" s="24"/>
+      <c r="F1098" s="26"/>
       <c r="G1098" s="22"/>
       <c r="H1098" s="22"/>
       <c r="I1098" s="23" t="s">
@@ -32014,7 +32022,7 @@
       <c r="E1099" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1099" s="24"/>
+      <c r="F1099" s="26"/>
       <c r="G1099" s="22"/>
       <c r="H1099" s="22"/>
       <c r="I1099" s="23" t="s">
@@ -32027,11 +32035,11 @@
       <c r="N1099" s="22"/>
     </row>
     <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1100" s="24"/>
+      <c r="B1100" s="26"/>
       <c r="C1100" s="22"/>
       <c r="D1100" s="22"/>
       <c r="E1100" s="22"/>
-      <c r="F1100" s="24"/>
+      <c r="F1100" s="26"/>
       <c r="G1100" s="22"/>
       <c r="H1100" s="22"/>
       <c r="I1100" s="23" t="s">
@@ -32054,7 +32062,7 @@
       <c r="E1101" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1101" s="24"/>
+      <c r="F1101" s="26"/>
       <c r="G1101" s="22" t="s">
         <v>30</v>
       </c>
@@ -32079,7 +32087,7 @@
       <c r="E1102" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1102" s="24"/>
+      <c r="F1102" s="26"/>
       <c r="G1102" s="22"/>
       <c r="H1102" s="22"/>
       <c r="I1102" s="23" t="s">
@@ -32102,7 +32110,7 @@
       <c r="E1103" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1103" s="24"/>
+      <c r="F1103" s="26"/>
       <c r="G1103" s="22"/>
       <c r="H1103" s="22"/>
       <c r="I1103" s="23" t="s">
@@ -32200,7 +32208,7 @@
       <c r="E1107" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1107" s="25" t="s">
+      <c r="F1107" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G1107" s="22"/>
@@ -32225,7 +32233,7 @@
       <c r="E1108" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1108" s="25" t="s">
+      <c r="F1108" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G1108" s="22"/>
@@ -32565,7 +32573,7 @@
       <c r="E1122" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1122" s="24"/>
+      <c r="F1122" s="26"/>
       <c r="G1122" s="22"/>
       <c r="H1122" s="22"/>
       <c r="I1122" s="23" t="s">
@@ -32588,7 +32596,7 @@
       <c r="E1123" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1123" s="24"/>
+      <c r="F1123" s="26"/>
       <c r="G1123" s="22"/>
       <c r="H1123" s="22"/>
       <c r="I1123" s="23" t="s">
@@ -32601,7 +32609,7 @@
       <c r="N1123" s="22"/>
     </row>
     <row r="1124" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1124" s="24"/>
+      <c r="B1124" s="26"/>
       <c r="C1124" s="22"/>
       <c r="D1124" s="22"/>
       <c r="E1124" s="22"/>
@@ -32628,7 +32636,7 @@
       <c r="E1125" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1125" s="24"/>
+      <c r="F1125" s="26"/>
       <c r="G1125" s="22"/>
       <c r="H1125" s="22"/>
       <c r="I1125" s="23" t="s">
@@ -32651,7 +32659,7 @@
       <c r="E1126" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1126" s="24"/>
+      <c r="F1126" s="26"/>
       <c r="G1126" s="22"/>
       <c r="H1126" s="22"/>
       <c r="I1126" s="23" t="s">
@@ -32674,7 +32682,7 @@
       <c r="E1127" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1127" s="24"/>
+      <c r="F1127" s="26"/>
       <c r="G1127" s="22"/>
       <c r="H1127" s="22"/>
       <c r="I1127" s="23" t="s">
@@ -32697,7 +32705,7 @@
       <c r="E1128" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1128" s="24"/>
+      <c r="F1128" s="26"/>
       <c r="G1128" s="22"/>
       <c r="H1128" s="22"/>
       <c r="I1128" s="23" t="s">
@@ -32720,7 +32728,7 @@
       <c r="E1129" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1129" s="24"/>
+      <c r="F1129" s="26"/>
       <c r="G1129" s="22"/>
       <c r="H1129" s="22"/>
       <c r="I1129" s="23" t="s">
@@ -32743,7 +32751,7 @@
       <c r="E1130" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1130" s="24"/>
+      <c r="F1130" s="26"/>
       <c r="G1130" s="22"/>
       <c r="H1130" s="22"/>
       <c r="I1130" s="23" t="s">
@@ -32766,7 +32774,7 @@
       <c r="E1131" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1131" s="24"/>
+      <c r="F1131" s="26"/>
       <c r="G1131" s="22"/>
       <c r="H1131" s="22"/>
       <c r="I1131" s="23" t="s">
@@ -32789,7 +32797,7 @@
       <c r="E1132" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1132" s="24"/>
+      <c r="F1132" s="26"/>
       <c r="G1132" s="22"/>
       <c r="H1132" s="22"/>
       <c r="I1132" s="23" t="s">
@@ -32812,7 +32820,7 @@
       <c r="E1133" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1133" s="24"/>
+      <c r="F1133" s="26"/>
       <c r="G1133" s="22"/>
       <c r="H1133" s="22"/>
       <c r="I1133" s="23" t="s">
@@ -32835,7 +32843,7 @@
       <c r="E1134" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1134" s="24"/>
+      <c r="F1134" s="26"/>
       <c r="G1134" s="22"/>
       <c r="H1134" s="22"/>
       <c r="I1134" s="23" t="s">
@@ -32858,7 +32866,7 @@
       <c r="E1135" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1135" s="24"/>
+      <c r="F1135" s="26"/>
       <c r="G1135" s="22"/>
       <c r="H1135" s="22"/>
       <c r="I1135" s="23" t="s">
@@ -32871,7 +32879,7 @@
       <c r="N1135" s="22"/>
     </row>
     <row r="1136" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1136" s="24"/>
+      <c r="B1136" s="26"/>
       <c r="C1136" s="22"/>
       <c r="D1136" s="22"/>
       <c r="E1136" s="22"/>
@@ -32915,7 +32923,7 @@
       <c r="E1138" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1138" s="24"/>
+      <c r="F1138" s="26"/>
       <c r="G1138" s="22"/>
       <c r="H1138" s="22"/>
       <c r="I1138" s="23" t="s">
@@ -32938,7 +32946,7 @@
       <c r="E1139" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1139" s="24"/>
+      <c r="F1139" s="26"/>
       <c r="G1139" s="22"/>
       <c r="H1139" s="22"/>
       <c r="I1139" s="23" t="s">
@@ -32961,7 +32969,7 @@
       <c r="E1140" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1140" s="24"/>
+      <c r="F1140" s="26"/>
       <c r="G1140" s="22"/>
       <c r="H1140" s="22"/>
       <c r="I1140" s="23" t="s">
@@ -32984,7 +32992,7 @@
       <c r="E1141" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1141" s="24"/>
+      <c r="F1141" s="26"/>
       <c r="G1141" s="22"/>
       <c r="H1141" s="22"/>
       <c r="I1141" s="23" t="s">
@@ -33041,7 +33049,7 @@
       <c r="E1144" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1144" s="24"/>
+      <c r="F1144" s="26"/>
       <c r="G1144" s="22"/>
       <c r="H1144" s="22"/>
       <c r="I1144" s="23" t="s">
@@ -33054,7 +33062,7 @@
       <c r="N1144" s="22"/>
     </row>
     <row r="1145" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1145" s="24"/>
+      <c r="B1145" s="26"/>
       <c r="C1145" s="22"/>
       <c r="D1145" s="22"/>
       <c r="E1145" s="22"/>
@@ -33071,7 +33079,7 @@
       <c r="N1145" s="22"/>
     </row>
     <row r="1146" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1146" s="24"/>
+      <c r="B1146" s="26"/>
       <c r="C1146" s="22"/>
       <c r="D1146" s="22"/>
       <c r="E1146" s="22"/>
@@ -33173,7 +33181,7 @@
       <c r="E1150" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1150" s="24"/>
+      <c r="F1150" s="26"/>
       <c r="G1150" s="22"/>
       <c r="H1150" s="22"/>
       <c r="I1150" s="23" t="s">
@@ -33196,7 +33204,7 @@
       <c r="E1151" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1151" s="24"/>
+      <c r="F1151" s="26"/>
       <c r="G1151" s="22"/>
       <c r="H1151" s="22"/>
       <c r="I1151" s="23" t="s">
@@ -33219,7 +33227,7 @@
       <c r="E1152" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1152" s="24"/>
+      <c r="F1152" s="26"/>
       <c r="G1152" s="22"/>
       <c r="H1152" s="22"/>
       <c r="I1152" s="23" t="s">
@@ -33242,7 +33250,7 @@
       <c r="E1153" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1153" s="24"/>
+      <c r="F1153" s="26"/>
       <c r="G1153" s="22"/>
       <c r="H1153" s="22"/>
       <c r="I1153" s="23" t="s">
@@ -33265,7 +33273,7 @@
       <c r="E1154" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1154" s="24"/>
+      <c r="F1154" s="26"/>
       <c r="G1154" s="22"/>
       <c r="H1154" s="22"/>
       <c r="I1154" s="23" t="s">
@@ -33363,7 +33371,7 @@
       <c r="E1158" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1158" s="24"/>
+      <c r="F1158" s="26"/>
       <c r="G1158" s="22" t="s">
         <v>30</v>
       </c>
@@ -33388,7 +33396,7 @@
       <c r="E1159" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1159" s="24"/>
+      <c r="F1159" s="26"/>
       <c r="G1159" s="22" t="s">
         <v>30</v>
       </c>
@@ -33413,7 +33421,7 @@
       <c r="E1160" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1160" s="24"/>
+      <c r="F1160" s="26"/>
       <c r="G1160" s="22" t="s">
         <v>30</v>
       </c>
@@ -33438,7 +33446,7 @@
       <c r="E1161" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1161" s="24"/>
+      <c r="F1161" s="26"/>
       <c r="G1161" s="22" t="s">
         <v>30</v>
       </c>
@@ -33463,7 +33471,7 @@
       <c r="E1162" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1162" s="24"/>
+      <c r="F1162" s="26"/>
       <c r="G1162" s="22" t="s">
         <v>30</v>
       </c>
@@ -33488,7 +33496,7 @@
       <c r="E1163" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1163" s="24"/>
+      <c r="F1163" s="26"/>
       <c r="G1163" s="22" t="s">
         <v>30</v>
       </c>
@@ -33659,7 +33667,7 @@
       <c r="E1171" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1171" s="24"/>
+      <c r="F1171" s="26"/>
       <c r="G1171" s="22"/>
       <c r="H1171" s="22"/>
       <c r="I1171" s="23" t="s">
@@ -33684,7 +33692,7 @@
       <c r="E1172" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1172" s="24"/>
+      <c r="F1172" s="26"/>
       <c r="G1172" s="22"/>
       <c r="H1172" s="22"/>
       <c r="I1172" s="23" t="s">
@@ -33709,7 +33717,7 @@
       <c r="E1173" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1173" s="24"/>
+      <c r="F1173" s="26"/>
       <c r="G1173" s="22"/>
       <c r="H1173" s="22"/>
       <c r="I1173" s="23" t="s">
@@ -33734,7 +33742,7 @@
       <c r="E1174" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1174" s="24"/>
+      <c r="F1174" s="26"/>
       <c r="G1174" s="22"/>
       <c r="H1174" s="22"/>
       <c r="I1174" s="23" t="s">
@@ -33832,7 +33840,7 @@
       <c r="E1178" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1178" s="24"/>
+      <c r="F1178" s="26"/>
       <c r="G1178" s="22" t="s">
         <v>30</v>
       </c>
@@ -33858,7 +33866,7 @@
       <c r="E1179" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1179" s="24"/>
+      <c r="F1179" s="26"/>
       <c r="G1179" s="22" t="s">
         <v>30</v>
       </c>
@@ -33884,7 +33892,7 @@
       <c r="E1180" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1180" s="24"/>
+      <c r="F1180" s="26"/>
       <c r="G1180" s="22" t="s">
         <v>30</v>
       </c>
@@ -33936,7 +33944,7 @@
       <c r="E1182" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1182" s="24"/>
+      <c r="F1182" s="26"/>
       <c r="G1182" s="22" t="s">
         <v>30</v>
       </c>
@@ -33962,7 +33970,7 @@
       <c r="E1183" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1183" s="24"/>
+      <c r="F1183" s="26"/>
       <c r="G1183" s="22"/>
       <c r="H1183" s="22"/>
       <c r="I1183" s="23" t="s">
@@ -34063,7 +34071,7 @@
       <c r="E1187" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1187" s="24"/>
+      <c r="F1187" s="26"/>
       <c r="G1187" s="22"/>
       <c r="H1187" s="22"/>
       <c r="I1187" s="23" t="s">
@@ -34089,7 +34097,7 @@
       <c r="E1188" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1188" s="24"/>
+      <c r="F1188" s="26"/>
       <c r="G1188" s="22"/>
       <c r="H1188" s="22"/>
       <c r="I1188" s="23" t="s">
@@ -34115,7 +34123,7 @@
       <c r="E1189" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1189" s="24"/>
+      <c r="F1189" s="26"/>
       <c r="G1189" s="22"/>
       <c r="H1189" s="22"/>
       <c r="I1189" s="23" t="s">
@@ -34138,7 +34146,7 @@
       <c r="E1190" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1190" s="24"/>
+      <c r="F1190" s="26"/>
       <c r="G1190" s="22"/>
       <c r="H1190" s="22"/>
       <c r="I1190" s="23" t="s">
@@ -34161,7 +34169,7 @@
       <c r="E1191" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1191" s="24"/>
+      <c r="F1191" s="26"/>
       <c r="G1191" s="22" t="s">
         <v>30</v>
       </c>
@@ -34186,7 +34194,7 @@
       <c r="E1192" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1192" s="24"/>
+      <c r="F1192" s="26"/>
       <c r="G1192" s="22" t="s">
         <v>30</v>
       </c>
@@ -34211,7 +34219,7 @@
       <c r="E1193" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1193" s="24"/>
+      <c r="F1193" s="26"/>
       <c r="G1193" s="22"/>
       <c r="H1193" s="22"/>
       <c r="I1193" s="23" t="s">
@@ -34234,7 +34242,7 @@
       <c r="E1194" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1194" s="24"/>
+      <c r="F1194" s="26"/>
       <c r="G1194" s="22"/>
       <c r="H1194" s="22"/>
       <c r="I1194" s="23" t="s">
@@ -34257,7 +34265,7 @@
       <c r="E1195" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1195" s="24"/>
+      <c r="F1195" s="26"/>
       <c r="G1195" s="22"/>
       <c r="H1195" s="22"/>
       <c r="I1195" s="23" t="s">
@@ -34280,7 +34288,7 @@
       <c r="E1196" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1196" s="24"/>
+      <c r="F1196" s="26"/>
       <c r="G1196" s="22"/>
       <c r="H1196" s="22"/>
       <c r="I1196" s="23" t="s">
@@ -34303,7 +34311,7 @@
       <c r="E1197" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1197" s="24"/>
+      <c r="F1197" s="26"/>
       <c r="G1197" s="22"/>
       <c r="H1197" s="22"/>
       <c r="I1197" s="23" t="s">
@@ -34604,7 +34612,7 @@
       <c r="E1209" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1209" s="24"/>
+      <c r="F1209" s="26"/>
       <c r="G1209" s="22"/>
       <c r="H1209" s="22"/>
       <c r="I1209" s="23" t="s">
@@ -34631,7 +34639,7 @@
       <c r="E1210" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1210" s="24"/>
+      <c r="F1210" s="26"/>
       <c r="G1210" s="22"/>
       <c r="H1210" s="22"/>
       <c r="I1210" s="23" t="s">
@@ -34658,7 +34666,7 @@
       <c r="E1211" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1211" s="24"/>
+      <c r="F1211" s="26"/>
       <c r="G1211" s="22"/>
       <c r="H1211" s="22"/>
       <c r="I1211" s="23" t="s">
@@ -34685,7 +34693,7 @@
       <c r="E1212" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1212" s="24"/>
+      <c r="F1212" s="26"/>
       <c r="G1212" s="22"/>
       <c r="H1212" s="22"/>
       <c r="I1212" s="23" t="s">
@@ -34712,7 +34720,7 @@
       <c r="E1213" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1213" s="24"/>
+      <c r="F1213" s="26"/>
       <c r="G1213" s="22"/>
       <c r="H1213" s="22"/>
       <c r="I1213" s="23" t="s">
@@ -34739,7 +34747,7 @@
       <c r="E1214" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1214" s="24"/>
+      <c r="F1214" s="26"/>
       <c r="G1214" s="22"/>
       <c r="H1214" s="22"/>
       <c r="I1214" s="23" t="s">
@@ -34766,7 +34774,7 @@
       <c r="E1215" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1215" s="24"/>
+      <c r="F1215" s="26"/>
       <c r="G1215" s="22"/>
       <c r="H1215" s="22"/>
       <c r="I1215" s="23" t="s">
@@ -34793,7 +34801,7 @@
       <c r="E1216" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1216" s="24"/>
+      <c r="F1216" s="26"/>
       <c r="G1216" s="22"/>
       <c r="H1216" s="22"/>
       <c r="I1216" s="23" t="s">
@@ -34820,7 +34828,7 @@
       <c r="E1217" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1217" s="24"/>
+      <c r="F1217" s="26"/>
       <c r="G1217" s="22"/>
       <c r="H1217" s="22"/>
       <c r="I1217" s="23" t="s">
@@ -34931,7 +34939,7 @@
       <c r="E1221" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1221" s="24"/>
+      <c r="F1221" s="26"/>
       <c r="G1221" s="22"/>
       <c r="H1221" s="22"/>
       <c r="I1221" s="23" t="s">
@@ -34958,7 +34966,7 @@
       <c r="E1222" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1222" s="24"/>
+      <c r="F1222" s="26"/>
       <c r="G1222" s="22"/>
       <c r="H1222" s="22"/>
       <c r="I1222" s="23" t="s">
@@ -34985,7 +34993,7 @@
       <c r="E1223" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1223" s="24"/>
+      <c r="F1223" s="26"/>
       <c r="G1223" s="22"/>
       <c r="H1223" s="22"/>
       <c r="I1223" s="23" t="s">
@@ -35012,7 +35020,7 @@
       <c r="E1224" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1224" s="24"/>
+      <c r="F1224" s="26"/>
       <c r="G1224" s="22"/>
       <c r="H1224" s="22"/>
       <c r="I1224" s="23" t="s">
@@ -35039,7 +35047,7 @@
       <c r="E1225" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1225" s="24"/>
+      <c r="F1225" s="26"/>
       <c r="G1225" s="22"/>
       <c r="H1225" s="22"/>
       <c r="I1225" s="23" t="s">
@@ -35066,7 +35074,7 @@
       <c r="E1226" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1226" s="24"/>
+      <c r="F1226" s="26"/>
       <c r="G1226" s="22"/>
       <c r="H1226" s="22"/>
       <c r="I1226" s="23" t="s">
@@ -35093,7 +35101,7 @@
       <c r="E1227" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1227" s="24"/>
+      <c r="F1227" s="26"/>
       <c r="G1227" s="22"/>
       <c r="H1227" s="22"/>
       <c r="I1227" s="23" t="s">
@@ -35120,7 +35128,7 @@
       <c r="E1228" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1228" s="24"/>
+      <c r="F1228" s="26"/>
       <c r="G1228" s="22"/>
       <c r="H1228" s="22"/>
       <c r="I1228" s="23" t="s">
@@ -35147,7 +35155,7 @@
       <c r="E1229" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1229" s="24"/>
+      <c r="F1229" s="26"/>
       <c r="G1229" s="22"/>
       <c r="H1229" s="22"/>
       <c r="I1229" s="23" t="s">
@@ -35174,7 +35182,7 @@
       <c r="E1230" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1230" s="24"/>
+      <c r="F1230" s="26"/>
       <c r="G1230" s="22"/>
       <c r="H1230" s="22"/>
       <c r="I1230" s="23" t="s">
@@ -35201,7 +35209,7 @@
       <c r="E1231" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1231" s="24"/>
+      <c r="F1231" s="26"/>
       <c r="G1231" s="22"/>
       <c r="H1231" s="22"/>
       <c r="I1231" s="23" t="s">
@@ -35228,7 +35236,7 @@
       <c r="E1232" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1232" s="24"/>
+      <c r="F1232" s="26"/>
       <c r="G1232" s="22"/>
       <c r="H1232" s="22"/>
       <c r="I1232" s="23" t="s">
@@ -35255,7 +35263,7 @@
       <c r="E1233" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1233" s="24"/>
+      <c r="F1233" s="26"/>
       <c r="G1233" s="22"/>
       <c r="H1233" s="22"/>
       <c r="I1233" s="23" t="s">
@@ -35282,7 +35290,7 @@
       <c r="E1234" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1234" s="24"/>
+      <c r="F1234" s="26"/>
       <c r="G1234" s="22"/>
       <c r="H1234" s="22"/>
       <c r="I1234" s="23" t="s">
@@ -35309,7 +35317,7 @@
       <c r="E1235" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1235" s="24"/>
+      <c r="F1235" s="26"/>
       <c r="G1235" s="22"/>
       <c r="H1235" s="22"/>
       <c r="I1235" s="23" t="s">
@@ -35336,7 +35344,7 @@
       <c r="E1236" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1236" s="24"/>
+      <c r="F1236" s="26"/>
       <c r="G1236" s="22"/>
       <c r="H1236" s="22"/>
       <c r="I1236" s="23" t="s">
@@ -35363,7 +35371,7 @@
       <c r="E1237" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1237" s="24"/>
+      <c r="F1237" s="26"/>
       <c r="G1237" s="22"/>
       <c r="H1237" s="22"/>
       <c r="I1237" s="23" t="s">
@@ -35390,7 +35398,7 @@
       <c r="E1238" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1238" s="24"/>
+      <c r="F1238" s="26"/>
       <c r="G1238" s="22"/>
       <c r="H1238" s="22"/>
       <c r="I1238" s="23" t="s">
@@ -35417,7 +35425,7 @@
       <c r="E1239" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1239" s="24"/>
+      <c r="F1239" s="26"/>
       <c r="G1239" s="22"/>
       <c r="H1239" s="22"/>
       <c r="I1239" s="23" t="s">
@@ -35444,7 +35452,7 @@
       <c r="E1240" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1240" s="24"/>
+      <c r="F1240" s="26"/>
       <c r="G1240" s="22"/>
       <c r="H1240" s="22"/>
       <c r="I1240" s="23" t="s">
@@ -35471,7 +35479,7 @@
       <c r="E1241" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1241" s="24"/>
+      <c r="F1241" s="26"/>
       <c r="G1241" s="22"/>
       <c r="H1241" s="22"/>
       <c r="I1241" s="23" t="s">
@@ -35498,7 +35506,7 @@
       <c r="E1242" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1242" s="24"/>
+      <c r="F1242" s="26"/>
       <c r="G1242" s="22"/>
       <c r="H1242" s="22"/>
       <c r="I1242" s="23" t="s">
@@ -35525,7 +35533,7 @@
       <c r="E1243" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1243" s="24"/>
+      <c r="F1243" s="26"/>
       <c r="G1243" s="22"/>
       <c r="H1243" s="22"/>
       <c r="I1243" s="23" t="s">
@@ -35552,7 +35560,7 @@
       <c r="E1244" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1244" s="24"/>
+      <c r="F1244" s="26"/>
       <c r="G1244" s="22"/>
       <c r="H1244" s="22"/>
       <c r="I1244" s="23" t="s">
@@ -35579,7 +35587,7 @@
       <c r="E1245" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1245" s="24"/>
+      <c r="F1245" s="26"/>
       <c r="G1245" s="22"/>
       <c r="H1245" s="22"/>
       <c r="I1245" s="23" t="s">
@@ -35606,7 +35614,7 @@
       <c r="E1246" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1246" s="24"/>
+      <c r="F1246" s="26"/>
       <c r="G1246" s="22"/>
       <c r="H1246" s="22"/>
       <c r="I1246" s="23" t="s">
@@ -35633,7 +35641,7 @@
       <c r="E1247" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1247" s="24"/>
+      <c r="F1247" s="26"/>
       <c r="G1247" s="22"/>
       <c r="H1247" s="22"/>
       <c r="I1247" s="23" t="s">
@@ -35660,7 +35668,7 @@
       <c r="E1248" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1248" s="24"/>
+      <c r="F1248" s="26"/>
       <c r="G1248" s="22"/>
       <c r="H1248" s="22"/>
       <c r="I1248" s="23" t="s">
@@ -35771,7 +35779,7 @@
       <c r="E1252" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1252" s="24"/>
+      <c r="F1252" s="26"/>
       <c r="G1252" s="22"/>
       <c r="H1252" s="22"/>
       <c r="I1252" s="23" t="s">
@@ -35798,7 +35806,7 @@
       <c r="E1253" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1253" s="24"/>
+      <c r="F1253" s="26"/>
       <c r="G1253" s="22"/>
       <c r="H1253" s="22"/>
       <c r="I1253" s="23" t="s">
@@ -35824,7 +35832,7 @@
       <c r="E1254" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1254" s="24"/>
+      <c r="F1254" s="26"/>
       <c r="G1254" s="22"/>
       <c r="H1254" s="22"/>
       <c r="I1254" s="23" t="s">
@@ -35850,7 +35858,7 @@
       <c r="E1255" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1255" s="24"/>
+      <c r="F1255" s="26"/>
       <c r="G1255" s="22"/>
       <c r="H1255" s="22"/>
       <c r="I1255" s="23" t="s">
@@ -35876,7 +35884,7 @@
       <c r="E1256" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1256" s="24"/>
+      <c r="F1256" s="26"/>
       <c r="G1256" s="22"/>
       <c r="H1256" s="22"/>
       <c r="I1256" s="23" t="s">
@@ -35892,7 +35900,7 @@
       <c r="Q1256" s="1"/>
     </row>
     <row r="1257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1257" s="24"/>
+      <c r="B1257" s="26"/>
       <c r="C1257" s="22"/>
       <c r="D1257" s="22"/>
       <c r="E1257" s="22"/>
@@ -35912,7 +35920,7 @@
       <c r="Q1257" s="1"/>
     </row>
     <row r="1258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1258" s="24"/>
+      <c r="B1258" s="26"/>
       <c r="C1258" s="22"/>
       <c r="D1258" s="22"/>
       <c r="E1258" s="22"/>
@@ -35932,7 +35940,7 @@
       <c r="Q1258" s="1"/>
     </row>
     <row r="1259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1259" s="24"/>
+      <c r="B1259" s="26"/>
       <c r="C1259" s="22"/>
       <c r="D1259" s="22"/>
       <c r="E1259" s="22"/>
@@ -35962,7 +35970,7 @@
       <c r="E1260" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1260" s="24"/>
+      <c r="F1260" s="26"/>
       <c r="G1260" s="22"/>
       <c r="H1260" s="22"/>
       <c r="I1260" s="23" t="s">
@@ -35990,7 +35998,7 @@
       <c r="E1261" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1261" s="24"/>
+      <c r="F1261" s="26"/>
       <c r="G1261" s="22"/>
       <c r="H1261" s="22"/>
       <c r="I1261" s="23" t="s">
@@ -36016,7 +36024,7 @@
       <c r="E1262" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1262" s="24"/>
+      <c r="F1262" s="26"/>
       <c r="G1262" s="22"/>
       <c r="H1262" s="22"/>
       <c r="I1262" s="23" t="s">
@@ -36042,7 +36050,7 @@
       <c r="E1263" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1263" s="24"/>
+      <c r="F1263" s="26"/>
       <c r="G1263" s="22"/>
       <c r="H1263" s="22"/>
       <c r="I1263" s="23" t="s">
@@ -36070,7 +36078,7 @@
       <c r="E1264" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1264" s="24"/>
+      <c r="F1264" s="26"/>
       <c r="G1264" s="22"/>
       <c r="H1264" s="22"/>
       <c r="I1264" s="23" t="s">
@@ -36098,7 +36106,7 @@
       <c r="E1265" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1265" s="24"/>
+      <c r="F1265" s="26"/>
       <c r="G1265" s="22"/>
       <c r="H1265" s="22"/>
       <c r="I1265" s="23" t="s">
@@ -36124,7 +36132,7 @@
       <c r="E1266" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1266" s="24"/>
+      <c r="F1266" s="26"/>
       <c r="G1266" s="22"/>
       <c r="H1266" s="22"/>
       <c r="I1266" s="23" t="s">
@@ -36150,7 +36158,7 @@
       <c r="E1267" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1267" s="24"/>
+      <c r="F1267" s="26"/>
       <c r="G1267" s="22"/>
       <c r="H1267" s="22"/>
       <c r="I1267" s="23" t="s">
@@ -36242,7 +36250,7 @@
       <c r="E1270" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1270" s="24"/>
+      <c r="F1270" s="26"/>
       <c r="G1270" s="22"/>
       <c r="H1270" s="22"/>
       <c r="I1270" s="23" t="s">
@@ -36269,7 +36277,7 @@
       <c r="E1271" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1271" s="24"/>
+      <c r="F1271" s="26"/>
       <c r="G1271" s="22"/>
       <c r="H1271" s="22"/>
       <c r="I1271" s="23" t="s">
@@ -36296,7 +36304,7 @@
       <c r="E1272" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1272" s="24"/>
+      <c r="F1272" s="26"/>
       <c r="G1272" s="22"/>
       <c r="H1272" s="22"/>
       <c r="I1272" s="23" t="s">
@@ -36313,7 +36321,7 @@
     </row>
     <row r="1273" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="21"/>
-      <c r="B1273" s="24"/>
+      <c r="B1273" s="26"/>
       <c r="C1273" s="22"/>
       <c r="D1273" s="22"/>
       <c r="E1273" s="22"/>
@@ -36336,7 +36344,7 @@
     </row>
     <row r="1274" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="21"/>
-      <c r="B1274" s="24"/>
+      <c r="B1274" s="26"/>
       <c r="C1274" s="22"/>
       <c r="D1274" s="22"/>
       <c r="E1274" s="22"/>
@@ -36359,7 +36367,7 @@
     </row>
     <row r="1275" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="21"/>
-      <c r="B1275" s="24"/>
+      <c r="B1275" s="26"/>
       <c r="C1275" s="22"/>
       <c r="D1275" s="22"/>
       <c r="E1275" s="22"/>
@@ -36392,7 +36400,7 @@
       <c r="E1276" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1276" s="24"/>
+      <c r="F1276" s="26"/>
       <c r="G1276" s="22"/>
       <c r="H1276" s="22"/>
       <c r="I1276" s="23" t="s">
@@ -36419,7 +36427,7 @@
       <c r="E1277" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1277" s="24"/>
+      <c r="F1277" s="26"/>
       <c r="G1277" s="22"/>
       <c r="H1277" s="22"/>
       <c r="I1277" s="23" t="s">
@@ -36446,7 +36454,7 @@
       <c r="E1278" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1278" s="24"/>
+      <c r="F1278" s="26"/>
       <c r="G1278" s="22"/>
       <c r="H1278" s="22"/>
       <c r="I1278" s="23" t="s">
@@ -36473,7 +36481,7 @@
       <c r="E1279" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1279" s="24"/>
+      <c r="F1279" s="26"/>
       <c r="G1279" s="22"/>
       <c r="H1279" s="22"/>
       <c r="I1279" s="23" t="s">
@@ -36584,7 +36592,7 @@
       <c r="E1283" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1283" s="24"/>
+      <c r="F1283" s="26"/>
       <c r="G1283" s="22"/>
       <c r="H1283" s="22"/>
       <c r="I1283" s="23" t="s">
@@ -36634,7 +36642,7 @@
       <c r="E1285" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1285" s="24"/>
+      <c r="F1285" s="26"/>
       <c r="G1285" s="22"/>
       <c r="H1285" s="22"/>
       <c r="I1285" s="23" t="s">
@@ -36661,7 +36669,7 @@
       <c r="E1286" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1286" s="24"/>
+      <c r="F1286" s="26"/>
       <c r="G1286" s="22"/>
       <c r="H1286" s="22"/>
       <c r="I1286" s="23" t="s">
@@ -36688,7 +36696,7 @@
       <c r="E1287" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1287" s="24"/>
+      <c r="F1287" s="26"/>
       <c r="G1287" s="22"/>
       <c r="H1287" s="22"/>
       <c r="I1287" s="23" t="s">
@@ -36705,7 +36713,7 @@
     </row>
     <row r="1288" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="21"/>
-      <c r="B1288" s="24"/>
+      <c r="B1288" s="26"/>
       <c r="C1288" s="22"/>
       <c r="D1288" s="22"/>
       <c r="E1288" s="22"/>
@@ -36736,7 +36744,7 @@
       <c r="E1289" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1289" s="24"/>
+      <c r="F1289" s="26"/>
       <c r="G1289" s="22"/>
       <c r="H1289" s="22"/>
       <c r="I1289" s="23" t="s">
@@ -36765,7 +36773,7 @@
       <c r="E1290" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1290" s="24"/>
+      <c r="F1290" s="26"/>
       <c r="G1290" s="22"/>
       <c r="H1290" s="22"/>
       <c r="I1290" s="23" t="s">
@@ -36792,7 +36800,7 @@
       <c r="E1291" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1291" s="24"/>
+      <c r="F1291" s="26"/>
       <c r="G1291" s="22"/>
       <c r="H1291" s="22"/>
       <c r="I1291" s="23" t="s">
@@ -36819,7 +36827,7 @@
       <c r="E1292" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1292" s="24"/>
+      <c r="F1292" s="26"/>
       <c r="G1292" s="22"/>
       <c r="H1292" s="22"/>
       <c r="I1292" s="23" t="s">
@@ -36846,7 +36854,7 @@
       <c r="E1293" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1293" s="24"/>
+      <c r="F1293" s="26"/>
       <c r="G1293" s="22"/>
       <c r="H1293" s="22"/>
       <c r="I1293" s="23" t="s">
@@ -36873,7 +36881,7 @@
       <c r="E1294" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1294" s="24"/>
+      <c r="F1294" s="26"/>
       <c r="G1294" s="22"/>
       <c r="H1294" s="22"/>
       <c r="I1294" s="23" t="s">
@@ -36902,7 +36910,7 @@
       <c r="E1295" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1295" s="24"/>
+      <c r="F1295" s="26"/>
       <c r="G1295" s="22"/>
       <c r="H1295" s="22"/>
       <c r="I1295" s="23" t="s">
@@ -36995,7 +37003,7 @@
       <c r="E1298" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1298" s="24"/>
+      <c r="F1298" s="26"/>
       <c r="G1298" s="22"/>
       <c r="H1298" s="22"/>
       <c r="I1298" s="23" t="s">
@@ -37022,7 +37030,7 @@
       <c r="E1299" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1299" s="24"/>
+      <c r="F1299" s="26"/>
       <c r="G1299" s="22"/>
       <c r="H1299" s="22"/>
       <c r="I1299" s="23" t="s">
@@ -37049,7 +37057,7 @@
       <c r="E1300" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1300" s="24"/>
+      <c r="F1300" s="26"/>
       <c r="G1300" s="22"/>
       <c r="H1300" s="22"/>
       <c r="I1300" s="23" t="s">
@@ -37076,7 +37084,7 @@
       <c r="E1301" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1301" s="24"/>
+      <c r="F1301" s="26"/>
       <c r="G1301" s="22"/>
       <c r="H1301" s="22"/>
       <c r="I1301" s="23" t="s">
@@ -37103,7 +37111,7 @@
       <c r="E1302" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1302" s="24"/>
+      <c r="F1302" s="26"/>
       <c r="G1302" s="22"/>
       <c r="H1302" s="22"/>
       <c r="I1302" s="23" t="s">
@@ -37130,7 +37138,7 @@
       <c r="E1303" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1303" s="24"/>
+      <c r="F1303" s="26"/>
       <c r="G1303" s="22"/>
       <c r="H1303" s="22"/>
       <c r="I1303" s="23" t="s">
@@ -37157,7 +37165,7 @@
       <c r="E1304" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1304" s="24"/>
+      <c r="F1304" s="26"/>
       <c r="G1304" s="22"/>
       <c r="H1304" s="22"/>
       <c r="I1304" s="23" t="s">
@@ -37184,7 +37192,7 @@
       <c r="E1305" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1305" s="24"/>
+      <c r="F1305" s="26"/>
       <c r="G1305" s="22"/>
       <c r="H1305" s="22"/>
       <c r="I1305" s="23" t="s">
@@ -37211,7 +37219,7 @@
       <c r="E1306" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1306" s="24"/>
+      <c r="F1306" s="26"/>
       <c r="G1306" s="22"/>
       <c r="H1306" s="22"/>
       <c r="I1306" s="23" t="s">
@@ -37238,7 +37246,7 @@
       <c r="E1307" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1307" s="24"/>
+      <c r="F1307" s="26"/>
       <c r="G1307" s="22"/>
       <c r="H1307" s="22"/>
       <c r="I1307" s="23" t="s">
@@ -37265,7 +37273,7 @@
       <c r="E1308" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1308" s="24"/>
+      <c r="F1308" s="26"/>
       <c r="G1308" s="22"/>
       <c r="H1308" s="22"/>
       <c r="I1308" s="23" t="s">
@@ -37292,7 +37300,7 @@
       <c r="E1309" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1309" s="24"/>
+      <c r="F1309" s="26"/>
       <c r="G1309" s="22"/>
       <c r="H1309" s="22"/>
       <c r="I1309" s="23" t="s">
@@ -37319,7 +37327,7 @@
       <c r="E1310" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1310" s="24"/>
+      <c r="F1310" s="26"/>
       <c r="G1310" s="22"/>
       <c r="H1310" s="22"/>
       <c r="I1310" s="23" t="s">
@@ -37346,7 +37354,7 @@
       <c r="E1311" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1311" s="24"/>
+      <c r="F1311" s="26"/>
       <c r="G1311" s="22"/>
       <c r="H1311" s="22"/>
       <c r="I1311" s="23" t="s">
@@ -39025,7 +39033,7 @@
       <c r="N1387" s="22"/>
     </row>
     <row r="1388" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1388" s="24"/>
+      <c r="B1388" s="26"/>
       <c r="C1388" s="22"/>
       <c r="D1388" s="22"/>
       <c r="E1388" s="22"/>
@@ -39042,7 +39050,7 @@
       <c r="N1388" s="22"/>
     </row>
     <row r="1389" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1389" s="24"/>
+      <c r="B1389" s="26"/>
       <c r="C1389" s="22"/>
       <c r="D1389" s="22"/>
       <c r="E1389" s="22"/>
@@ -39379,7 +39387,7 @@
       <c r="E1403" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1403" s="25" t="s">
+      <c r="F1403" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G1403" s="22"/>
@@ -39437,7 +39445,7 @@
       <c r="E1405" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1405" s="25" t="s">
+      <c r="F1405" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G1405" s="22"/>
@@ -39495,7 +39503,7 @@
       <c r="E1407" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1407" s="25" t="s">
+      <c r="F1407" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G1407" s="22"/>
@@ -40198,7 +40206,7 @@
       <c r="E1434" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1434" s="24"/>
+      <c r="F1434" s="26"/>
       <c r="G1434" s="22"/>
       <c r="H1434" s="22"/>
       <c r="I1434" s="23" t="s">
@@ -40221,7 +40229,7 @@
       <c r="E1435" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1435" s="24"/>
+      <c r="F1435" s="26"/>
       <c r="G1435" s="22"/>
       <c r="H1435" s="22"/>
       <c r="I1435" s="23" t="s">
@@ -40244,7 +40252,7 @@
       <c r="E1436" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1436" s="24"/>
+      <c r="F1436" s="26"/>
       <c r="G1436" s="22"/>
       <c r="H1436" s="22"/>
       <c r="I1436" s="23" t="s">
@@ -40267,7 +40275,7 @@
       <c r="E1437" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1437" s="24"/>
+      <c r="F1437" s="26"/>
       <c r="G1437" s="22"/>
       <c r="H1437" s="22"/>
       <c r="I1437" s="23" t="s">
@@ -40415,7 +40423,7 @@
       <c r="E1443" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1443" s="24"/>
+      <c r="F1443" s="26"/>
       <c r="G1443" s="22"/>
       <c r="H1443" s="22"/>
       <c r="I1443" s="23" t="s">
@@ -40622,7 +40630,7 @@
       <c r="E1452" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1452" s="24"/>
+      <c r="F1452" s="26"/>
       <c r="G1452" s="22"/>
       <c r="H1452" s="22"/>
       <c r="I1452" s="23" t="s">
@@ -40795,7 +40803,7 @@
       <c r="E1459" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1459" s="24"/>
+      <c r="F1459" s="26"/>
       <c r="G1459" s="22"/>
       <c r="H1459" s="22"/>
       <c r="I1459" s="23" t="s">
@@ -40893,7 +40901,7 @@
       <c r="E1463" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1463" s="24"/>
+      <c r="F1463" s="26"/>
       <c r="G1463" s="22"/>
       <c r="H1463" s="22"/>
       <c r="I1463" s="23" t="s">
@@ -40916,7 +40924,7 @@
       <c r="E1464" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1464" s="24"/>
+      <c r="F1464" s="26"/>
       <c r="G1464" s="22"/>
       <c r="H1464" s="22"/>
       <c r="I1464" s="23" t="s">
@@ -41016,7 +41024,7 @@
       <c r="E1468" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1468" s="24"/>
+      <c r="F1468" s="26"/>
       <c r="G1468" s="22"/>
       <c r="H1468" s="22"/>
       <c r="I1468" s="23" t="s">
@@ -41041,7 +41049,7 @@
       <c r="E1469" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1469" s="24"/>
+      <c r="F1469" s="26"/>
       <c r="G1469" s="22"/>
       <c r="H1469" s="22"/>
       <c r="I1469" s="23" t="s">
@@ -41056,11 +41064,11 @@
       <c r="N1469" s="22"/>
     </row>
     <row r="1470" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1470" s="24"/>
-      <c r="C1470" s="24"/>
-      <c r="D1470" s="24"/>
-      <c r="E1470" s="24"/>
-      <c r="F1470" s="24"/>
+      <c r="B1470" s="26"/>
+      <c r="C1470" s="26"/>
+      <c r="D1470" s="26"/>
+      <c r="E1470" s="26"/>
+      <c r="F1470" s="26"/>
       <c r="G1470" s="22"/>
       <c r="H1470" s="22"/>
       <c r="I1470" s="23" t="s">
@@ -41087,7 +41095,7 @@
       <c r="E1471" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1471" s="24"/>
+      <c r="F1471" s="26"/>
       <c r="G1471" s="22" t="s">
         <v>30</v>
       </c>
@@ -41114,7 +41122,7 @@
       <c r="E1472" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1472" s="24"/>
+      <c r="F1472" s="26"/>
       <c r="G1472" s="22" t="s">
         <v>30</v>
       </c>
@@ -41139,7 +41147,7 @@
       <c r="E1473" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1473" s="24"/>
+      <c r="F1473" s="26"/>
       <c r="G1473" s="22"/>
       <c r="H1473" s="22"/>
       <c r="I1473" s="23" t="s">
@@ -41162,7 +41170,7 @@
       <c r="E1474" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1474" s="24"/>
+      <c r="F1474" s="26"/>
       <c r="G1474" s="22" t="s">
         <v>30</v>
       </c>
@@ -41187,7 +41195,7 @@
       <c r="E1475" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1475" s="24"/>
+      <c r="F1475" s="26"/>
       <c r="G1475" s="22"/>
       <c r="H1475" s="22"/>
       <c r="I1475" s="23" t="s">
@@ -42308,7 +42316,7 @@
       <c r="E1482" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1482" s="24"/>
+      <c r="F1482" s="26"/>
       <c r="G1482" s="22"/>
       <c r="H1482" s="22"/>
       <c r="I1482" s="23" t="s">
@@ -42331,7 +42339,7 @@
       <c r="E1483" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1483" s="24"/>
+      <c r="F1483" s="26"/>
       <c r="G1483" s="22"/>
       <c r="H1483" s="22"/>
       <c r="I1483" s="23" t="s">
@@ -42354,7 +42362,7 @@
       <c r="E1484" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1484" s="24"/>
+      <c r="F1484" s="26"/>
       <c r="G1484" s="22"/>
       <c r="H1484" s="22"/>
       <c r="I1484" s="23" t="s">
@@ -42377,7 +42385,7 @@
       <c r="E1485" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1485" s="24"/>
+      <c r="F1485" s="26"/>
       <c r="G1485" s="22"/>
       <c r="H1485" s="22"/>
       <c r="I1485" s="23" t="s">
@@ -42400,7 +42408,7 @@
       <c r="E1486" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1486" s="24"/>
+      <c r="F1486" s="26"/>
       <c r="G1486" s="22"/>
       <c r="H1486" s="22"/>
       <c r="I1486" s="23" t="s">
@@ -42570,12 +42578,12 @@
       <c r="B1494" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1494" s="24"/>
+      <c r="C1494" s="26"/>
       <c r="D1494" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1494" s="24"/>
-      <c r="F1494" s="24"/>
+      <c r="E1494" s="26"/>
+      <c r="F1494" s="26"/>
       <c r="G1494" s="22"/>
       <c r="H1494" s="22"/>
       <c r="I1494" s="23" t="s">
@@ -42593,12 +42601,12 @@
       <c r="B1495" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1495" s="24"/>
+      <c r="C1495" s="26"/>
       <c r="D1495" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1495" s="24"/>
-      <c r="F1495" s="24"/>
+      <c r="E1495" s="26"/>
+      <c r="F1495" s="26"/>
       <c r="G1495" s="22"/>
       <c r="H1495" s="22"/>
       <c r="I1495" s="23" t="s">
@@ -42616,12 +42624,12 @@
       <c r="B1496" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1496" s="24"/>
+      <c r="C1496" s="26"/>
       <c r="D1496" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1496" s="24"/>
-      <c r="F1496" s="24"/>
+      <c r="E1496" s="26"/>
+      <c r="F1496" s="26"/>
       <c r="G1496" s="22"/>
       <c r="H1496" s="22"/>
       <c r="I1496" s="23" t="s">
@@ -42820,7 +42828,7 @@
       <c r="B1507" s="28" t="s">
         <v>1503</v>
       </c>
-      <c r="C1507" s="24"/>
+      <c r="C1507" s="26"/>
       <c r="D1507" s="22" t="s">
         <v>30</v>
       </c>
@@ -43424,7 +43432,7 @@
       <c r="B1531" s="22" t="s">
         <v>1500</v>
       </c>
-      <c r="C1531" s="24"/>
+      <c r="C1531" s="26"/>
       <c r="D1531" s="22" t="s">
         <v>30</v>
       </c>
@@ -44678,7 +44686,7 @@
       <c r="D1581" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1581" s="24"/>
+      <c r="E1581" s="26"/>
       <c r="F1581" s="22" t="s">
         <v>941</v>
       </c>
@@ -45070,11 +45078,11 @@
       <c r="B1597" s="28" t="s">
         <v>1503</v>
       </c>
-      <c r="C1597" s="24"/>
+      <c r="C1597" s="26"/>
       <c r="D1597" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1597" s="24"/>
+      <c r="E1597" s="26"/>
       <c r="F1597" s="22" t="s">
         <v>941</v>
       </c>

--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="1626">
-  <si>
-    <t xml:space="preserve">FRC LabVIEW Trajectory Library – VI Implementation List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision 2.X   11/06/2022 – added various routines</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7841" uniqueCount="1626">
+  <si>
+    <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision 3.X   1/11/2023 – renamed library.  Added additional documentation.</t>
   </si>
   <si>
     <t xml:space="preserve">This documents which Java/C++ WPILIB routines have been </t>
@@ -5375,8 +5375,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1595" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1625" activeCellId="0" sqref="E1625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="13" t="n">
         <f aca="false">COUNTIF(D24:D1948,"X")</f>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="F9" s="13" t="n">
         <f aca="false">COUNTIF(F24:F1948,"S")+COUNTIF(F24:F1948,"I")+COUNTIF(F24:F1948,"X")+COUNTIF(F24:F1948,"SI")+COUNTIF(F24:F1948,"IS")+COUNTIF(F24:F1948,"N/A")</f>
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G9" s="13" t="n">
         <f aca="false">COUNTIF(G24:G1948,"S")+COUNTIF(G24:G1948,"I")+COUNTIF(G24:G1948,"X")+COUNTIF(G24:G1948,"SI")+COUNTIF(G24:G1948,"IS")+COUNTIF(G24:G1948,"N/A")</f>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.990974729241877</v>
+        <v>0.993682310469314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="C10" s="13" t="n">
         <f aca="false">COUNTIF(C24:C1948,"X")</f>
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.567689530685921</v>
+        <v>0.570397111913357</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42578,12 +42578,16 @@
       <c r="B1494" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1494" s="26"/>
+      <c r="C1494" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D1494" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E1494" s="26"/>
-      <c r="F1494" s="26"/>
+      <c r="F1494" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G1494" s="22"/>
       <c r="H1494" s="22"/>
       <c r="I1494" s="23" t="s">
@@ -42601,12 +42605,16 @@
       <c r="B1495" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1495" s="26"/>
+      <c r="C1495" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D1495" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E1495" s="26"/>
-      <c r="F1495" s="26"/>
+      <c r="F1495" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G1495" s="22"/>
       <c r="H1495" s="22"/>
       <c r="I1495" s="23" t="s">
@@ -42624,12 +42632,16 @@
       <c r="B1496" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1496" s="26"/>
+      <c r="C1496" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D1496" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E1496" s="26"/>
-      <c r="F1496" s="26"/>
+      <c r="F1496" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G1496" s="22"/>
       <c r="H1496" s="22"/>
       <c r="I1496" s="23" t="s">

--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9610" uniqueCount="1652">
   <si>
     <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
   </si>
@@ -4510,6 +4510,63 @@
     <t xml:space="preserve">CompVisionUtil_EstimateFieldToRobot_Alt.vi</t>
   </si>
   <si>
+    <t xml:space="preserve">APRIL TAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTag_Equals.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTag_GetAll.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTag_New.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APRIL TAG FIELD LAYOUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_GetField.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_GetOriginPosition.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_GetTagPose.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_GetTags.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_New.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_New2022.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_New2023.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_NewSelect.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_SetOrigin.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_SetOrigin_Position.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APRIL TAG POSE ESTIMATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagPoseEstimate_GetAll.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagPoseEstimate_GetAmbiguity.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagPoseEstimate_New.vi</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMUNICATIONS</t>
   </si>
   <si>
@@ -4532,6 +4589,21 @@
   </si>
   <si>
     <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTag.ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout,ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayoutOriginPosition_ENUM.ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagPoseEstimate.ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFields_ENUM.ctl</t>
   </si>
   <si>
     <t xml:space="preserve">ARM_FF.CTL</t>
@@ -5315,64 +5387,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF33FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5443,8 +5457,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1499" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1511" activeCellId="0" sqref="F1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5554,35 +5568,35 @@
       </c>
       <c r="B9" s="13" t="n">
         <f aca="false">B10+B11</f>
-        <v>1108</v>
+        <v>1129</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1107</v>
+        <v>1128</v>
       </c>
       <c r="D9" s="13" t="n">
-        <f aca="false">COUNTIF(D24:D1948,"X")</f>
-        <v>342</v>
+        <f aca="false">COUNTIF(D24:D1978,"X")</f>
+        <v>348</v>
       </c>
       <c r="E9" s="13" t="n">
-        <f aca="false">COUNTIF(E24:E1948,"X")</f>
-        <v>1030</v>
+        <f aca="false">COUNTIF(E24:E1978,"X")</f>
+        <v>1033</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">COUNTIF(F24:F1948,"S")+COUNTIF(F24:F1948,"I")+COUNTIF(F24:F1948,"X")+COUNTIF(F24:F1948,"SI")+COUNTIF(F24:F1948,"IS")+COUNTIF(F24:F1948,"N/A")</f>
-        <v>632</v>
+        <f aca="false">COUNTIF(F24:F1978,"S")+COUNTIF(F24:F1978,"I")+COUNTIF(F24:F1978,"X")+COUNTIF(F24:F1978,"SI")+COUNTIF(F24:F1978,"IS")+COUNTIF(F24:F1978,"N/A")</f>
+        <v>653</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">COUNTIF(G24:G1948,"S")+COUNTIF(G24:G1948,"I")+COUNTIF(G24:G1948,"X")+COUNTIF(G24:G1948,"SI")+COUNTIF(G24:G1948,"IS")+COUNTIF(G24:G1948,"N/A")</f>
+        <f aca="false">COUNTIF(G24:G1978,"S")+COUNTIF(G24:G1978,"I")+COUNTIF(G24:G1978,"X")+COUNTIF(G24:G1978,"SI")+COUNTIF(G24:G1978,"IS")+COUNTIF(G24:G1978,"N/A")</f>
         <v>49</v>
       </c>
       <c r="H9" s="13" t="n">
-        <f aca="false">COUNTIF(H24:H1948,"S")+COUNTIF(H24:H1948,"I")+COUNTIF(H24:H1948,"X")+COUNTIF(H24:H1948,"SI")+COUNTIF(H24:H1948,"IS")+COUNTIF(H24:H1948,"N/A")</f>
+        <f aca="false">COUNTIF(H24:H1978,"S")+COUNTIF(H24:H1978,"I")+COUNTIF(H24:H1978,"X")+COUNTIF(H24:H1978,"SI")+COUNTIF(H24:H1978,"IS")+COUNTIF(H24:H1978,"N/A")</f>
         <v>12</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.999097472924188</v>
+        <v>0.99911426040744</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,12 +5604,12 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1948,"X")</f>
-        <v>995</v>
+        <f aca="false">COUNTIF(B24:B1978,"X")</f>
+        <v>1011</v>
       </c>
       <c r="C10" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C1948,"X")</f>
-        <v>995</v>
+        <f aca="false">COUNTIF(C24:C1978,"X")</f>
+        <v>1011</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -5606,16 +5620,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1948,"Z")</f>
-        <v>113</v>
+        <f aca="false">COUNTIF(B24:B1978,"Z")</f>
+        <v>118</v>
       </c>
       <c r="C11" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C1948,"Z")</f>
-        <v>112</v>
+        <f aca="false">COUNTIF(C24:C1978,"Z")</f>
+        <v>117</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.570397111913357</v>
+        <v>0.578387953941541</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,7 +5637,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1948,"/")</f>
+        <f aca="false">COUNTIF(B24:B1978,"/")</f>
         <v>3</v>
       </c>
       <c r="I12" s="4"/>
@@ -5633,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1948,"\")</f>
+        <f aca="false">COUNTIF(B24:B1978,"\")</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -46815,217 +46829,2233 @@
       <c r="O1488" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="1489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1489" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1489" s="17"/>
-      <c r="C1489" s="18"/>
-      <c r="D1489" s="18"/>
-      <c r="E1489" s="18"/>
-      <c r="F1489" s="18"/>
-      <c r="G1489" s="18"/>
-      <c r="H1489" s="18"/>
-      <c r="I1489" s="1"/>
-      <c r="J1489" s="1"/>
-      <c r="K1489" s="1"/>
-      <c r="L1489" s="1"/>
-      <c r="M1489" s="1"/>
-      <c r="N1489" s="1"/>
+      <c r="Y1488" s="0"/>
+      <c r="Z1488" s="0"/>
+      <c r="AA1488" s="0"/>
+      <c r="AB1488" s="0"/>
+      <c r="AC1488" s="0"/>
+      <c r="AD1488" s="0"/>
+      <c r="AE1488" s="0"/>
+      <c r="AF1488" s="0"/>
+      <c r="AG1488" s="0"/>
+      <c r="AH1488" s="0"/>
+      <c r="AI1488" s="0"/>
+      <c r="AJ1488" s="0"/>
+      <c r="AK1488" s="0"/>
+      <c r="AL1488" s="0"/>
+      <c r="AM1488" s="0"/>
+      <c r="AN1488" s="0"/>
+      <c r="AO1488" s="0"/>
+      <c r="AP1488" s="0"/>
+      <c r="AQ1488" s="0"/>
+      <c r="AR1488" s="0"/>
+      <c r="AS1488" s="0"/>
+      <c r="AT1488" s="0"/>
+      <c r="AU1488" s="0"/>
+      <c r="AV1488" s="0"/>
+      <c r="AW1488" s="0"/>
+      <c r="AX1488" s="0"/>
+      <c r="AY1488" s="0"/>
+      <c r="AZ1488" s="0"/>
+      <c r="BA1488" s="0"/>
+      <c r="BB1488" s="0"/>
+      <c r="BC1488" s="0"/>
+      <c r="BD1488" s="0"/>
+      <c r="BE1488" s="0"/>
+      <c r="BF1488" s="0"/>
+      <c r="BG1488" s="0"/>
+      <c r="BH1488" s="0"/>
+      <c r="BI1488" s="0"/>
+      <c r="BJ1488" s="0"/>
+      <c r="BK1488" s="0"/>
+      <c r="BL1488" s="0"/>
+      <c r="BM1488" s="0"/>
+      <c r="BN1488" s="0"/>
+      <c r="BO1488" s="0"/>
+      <c r="BP1488" s="0"/>
+      <c r="BQ1488" s="0"/>
+      <c r="BR1488" s="0"/>
+      <c r="BS1488" s="0"/>
+      <c r="BT1488" s="0"/>
+      <c r="BU1488" s="0"/>
+      <c r="BV1488" s="0"/>
+      <c r="BW1488" s="0"/>
+      <c r="BX1488" s="0"/>
+      <c r="BY1488" s="0"/>
+      <c r="BZ1488" s="0"/>
+      <c r="CA1488" s="0"/>
+      <c r="CB1488" s="0"/>
+      <c r="CC1488" s="0"/>
+      <c r="CD1488" s="0"/>
+      <c r="CE1488" s="0"/>
+      <c r="CF1488" s="0"/>
+      <c r="CG1488" s="0"/>
+      <c r="CH1488" s="0"/>
+      <c r="CI1488" s="0"/>
+      <c r="CJ1488" s="0"/>
+      <c r="CK1488" s="0"/>
+      <c r="CL1488" s="0"/>
+      <c r="CM1488" s="0"/>
+      <c r="CN1488" s="0"/>
+      <c r="CO1488" s="0"/>
+      <c r="CP1488" s="0"/>
+      <c r="CQ1488" s="0"/>
+      <c r="CR1488" s="0"/>
+      <c r="CS1488" s="0"/>
+      <c r="CT1488" s="0"/>
+      <c r="CU1488" s="0"/>
+      <c r="CV1488" s="0"/>
+      <c r="CW1488" s="0"/>
+      <c r="CX1488" s="0"/>
+      <c r="CY1488" s="0"/>
+      <c r="CZ1488" s="0"/>
+      <c r="DA1488" s="0"/>
+      <c r="DB1488" s="0"/>
+      <c r="DC1488" s="0"/>
+      <c r="DD1488" s="0"/>
+      <c r="DE1488" s="0"/>
+      <c r="DF1488" s="0"/>
+      <c r="DG1488" s="0"/>
+      <c r="DH1488" s="0"/>
+      <c r="DI1488" s="0"/>
+      <c r="DJ1488" s="0"/>
+      <c r="DK1488" s="0"/>
+      <c r="DL1488" s="0"/>
+      <c r="DM1488" s="0"/>
+      <c r="DN1488" s="0"/>
+      <c r="DO1488" s="0"/>
+      <c r="DP1488" s="0"/>
+      <c r="DQ1488" s="0"/>
+      <c r="DR1488" s="0"/>
+      <c r="DS1488" s="0"/>
+      <c r="DT1488" s="0"/>
+      <c r="DU1488" s="0"/>
+      <c r="DV1488" s="0"/>
+      <c r="DW1488" s="0"/>
+      <c r="DX1488" s="0"/>
+      <c r="DY1488" s="0"/>
+      <c r="DZ1488" s="0"/>
+      <c r="EA1488" s="0"/>
+      <c r="EB1488" s="0"/>
+      <c r="EC1488" s="0"/>
+      <c r="ED1488" s="0"/>
+      <c r="EE1488" s="0"/>
+      <c r="EF1488" s="0"/>
+      <c r="EG1488" s="0"/>
+      <c r="EH1488" s="0"/>
+      <c r="EI1488" s="0"/>
+      <c r="EJ1488" s="0"/>
+      <c r="EK1488" s="0"/>
+      <c r="EL1488" s="0"/>
+      <c r="EM1488" s="0"/>
+      <c r="EN1488" s="0"/>
+      <c r="EO1488" s="0"/>
+      <c r="EP1488" s="0"/>
+      <c r="EQ1488" s="0"/>
+      <c r="ER1488" s="0"/>
+      <c r="ES1488" s="0"/>
+      <c r="ET1488" s="0"/>
+      <c r="EU1488" s="0"/>
+      <c r="EV1488" s="0"/>
+      <c r="EW1488" s="0"/>
+      <c r="EX1488" s="0"/>
+      <c r="EY1488" s="0"/>
+      <c r="EZ1488" s="0"/>
+      <c r="FA1488" s="0"/>
+      <c r="FB1488" s="0"/>
+      <c r="FC1488" s="0"/>
+      <c r="FD1488" s="0"/>
+      <c r="FE1488" s="0"/>
+      <c r="FF1488" s="0"/>
+      <c r="FG1488" s="0"/>
+      <c r="FH1488" s="0"/>
+      <c r="FI1488" s="0"/>
+      <c r="FJ1488" s="0"/>
+      <c r="FK1488" s="0"/>
+      <c r="FL1488" s="0"/>
+      <c r="FM1488" s="0"/>
+      <c r="FN1488" s="0"/>
+      <c r="FO1488" s="0"/>
+      <c r="FP1488" s="0"/>
+      <c r="FQ1488" s="0"/>
+      <c r="FR1488" s="0"/>
+      <c r="FS1488" s="0"/>
+      <c r="FT1488" s="0"/>
+      <c r="FU1488" s="0"/>
+      <c r="FV1488" s="0"/>
+      <c r="FW1488" s="0"/>
+      <c r="FX1488" s="0"/>
+      <c r="FY1488" s="0"/>
+      <c r="FZ1488" s="0"/>
+      <c r="GA1488" s="0"/>
+      <c r="GB1488" s="0"/>
+      <c r="GC1488" s="0"/>
+      <c r="GD1488" s="0"/>
+      <c r="GE1488" s="0"/>
+      <c r="GF1488" s="0"/>
+      <c r="GG1488" s="0"/>
+      <c r="GH1488" s="0"/>
+      <c r="GI1488" s="0"/>
+      <c r="GJ1488" s="0"/>
+      <c r="GK1488" s="0"/>
+      <c r="GL1488" s="0"/>
+      <c r="GM1488" s="0"/>
+      <c r="GN1488" s="0"/>
+      <c r="GO1488" s="0"/>
+      <c r="GP1488" s="0"/>
+      <c r="GQ1488" s="0"/>
+      <c r="GR1488" s="0"/>
+      <c r="GS1488" s="0"/>
+      <c r="GT1488" s="0"/>
+      <c r="GU1488" s="0"/>
+      <c r="GV1488" s="0"/>
+      <c r="GW1488" s="0"/>
+      <c r="GX1488" s="0"/>
+      <c r="GY1488" s="0"/>
+      <c r="GZ1488" s="0"/>
+      <c r="HA1488" s="0"/>
+      <c r="HB1488" s="0"/>
+      <c r="HC1488" s="0"/>
+      <c r="HD1488" s="0"/>
+      <c r="HE1488" s="0"/>
+      <c r="HF1488" s="0"/>
+      <c r="HG1488" s="0"/>
+      <c r="HH1488" s="0"/>
+      <c r="HI1488" s="0"/>
+      <c r="HJ1488" s="0"/>
+      <c r="HK1488" s="0"/>
+      <c r="HL1488" s="0"/>
+      <c r="HM1488" s="0"/>
+      <c r="HN1488" s="0"/>
+      <c r="HO1488" s="0"/>
+      <c r="HP1488" s="0"/>
+      <c r="HQ1488" s="0"/>
+      <c r="HR1488" s="0"/>
+      <c r="HS1488" s="0"/>
+      <c r="HT1488" s="0"/>
+      <c r="HU1488" s="0"/>
+      <c r="HV1488" s="0"/>
+      <c r="HW1488" s="0"/>
+      <c r="HX1488" s="0"/>
+      <c r="HY1488" s="0"/>
+      <c r="HZ1488" s="0"/>
+      <c r="IA1488" s="0"/>
+      <c r="IB1488" s="0"/>
+      <c r="IC1488" s="0"/>
+      <c r="ID1488" s="0"/>
+      <c r="IE1488" s="0"/>
+      <c r="IF1488" s="0"/>
+      <c r="IG1488" s="0"/>
+      <c r="IH1488" s="0"/>
+      <c r="II1488" s="0"/>
+      <c r="IJ1488" s="0"/>
+      <c r="IK1488" s="0"/>
+      <c r="IL1488" s="0"/>
+      <c r="IM1488" s="0"/>
+      <c r="IN1488" s="0"/>
+      <c r="IO1488" s="0"/>
+      <c r="IP1488" s="0"/>
+      <c r="IQ1488" s="0"/>
+      <c r="IR1488" s="0"/>
+      <c r="IS1488" s="0"/>
+      <c r="IT1488" s="0"/>
+      <c r="IU1488" s="0"/>
+      <c r="IV1488" s="0"/>
+      <c r="IW1488" s="0"/>
+      <c r="IX1488" s="0"/>
+      <c r="IY1488" s="0"/>
+      <c r="IZ1488" s="0"/>
+      <c r="JA1488" s="0"/>
+      <c r="JB1488" s="0"/>
+      <c r="JC1488" s="0"/>
+      <c r="JD1488" s="0"/>
+      <c r="JE1488" s="0"/>
+      <c r="JF1488" s="0"/>
+      <c r="JG1488" s="0"/>
+      <c r="JH1488" s="0"/>
+      <c r="JI1488" s="0"/>
+      <c r="JJ1488" s="0"/>
+      <c r="JK1488" s="0"/>
+      <c r="JL1488" s="0"/>
+      <c r="JM1488" s="0"/>
+      <c r="JN1488" s="0"/>
+      <c r="JO1488" s="0"/>
+      <c r="JP1488" s="0"/>
+      <c r="JQ1488" s="0"/>
+      <c r="JR1488" s="0"/>
+      <c r="JS1488" s="0"/>
+      <c r="JT1488" s="0"/>
+      <c r="JU1488" s="0"/>
+      <c r="JV1488" s="0"/>
+      <c r="JW1488" s="0"/>
+      <c r="JX1488" s="0"/>
+      <c r="JY1488" s="0"/>
+      <c r="JZ1488" s="0"/>
+      <c r="KA1488" s="0"/>
+      <c r="KB1488" s="0"/>
+      <c r="KC1488" s="0"/>
+      <c r="KD1488" s="0"/>
+      <c r="KE1488" s="0"/>
+      <c r="KF1488" s="0"/>
+      <c r="KG1488" s="0"/>
+      <c r="KH1488" s="0"/>
+      <c r="KI1488" s="0"/>
+      <c r="KJ1488" s="0"/>
+      <c r="KK1488" s="0"/>
+      <c r="KL1488" s="0"/>
+      <c r="KM1488" s="0"/>
+      <c r="KN1488" s="0"/>
+      <c r="KO1488" s="0"/>
+      <c r="KP1488" s="0"/>
+      <c r="KQ1488" s="0"/>
+      <c r="KR1488" s="0"/>
+      <c r="KS1488" s="0"/>
+      <c r="KT1488" s="0"/>
+      <c r="KU1488" s="0"/>
+      <c r="KV1488" s="0"/>
+      <c r="KW1488" s="0"/>
+      <c r="KX1488" s="0"/>
+      <c r="KY1488" s="0"/>
+      <c r="KZ1488" s="0"/>
+      <c r="LA1488" s="0"/>
+      <c r="LB1488" s="0"/>
+      <c r="LC1488" s="0"/>
+      <c r="LD1488" s="0"/>
+      <c r="LE1488" s="0"/>
+      <c r="LF1488" s="0"/>
+      <c r="LG1488" s="0"/>
+      <c r="LH1488" s="0"/>
+      <c r="LI1488" s="0"/>
+      <c r="LJ1488" s="0"/>
+      <c r="LK1488" s="0"/>
+      <c r="LL1488" s="0"/>
+      <c r="LM1488" s="0"/>
+      <c r="LN1488" s="0"/>
+      <c r="LO1488" s="0"/>
+      <c r="LP1488" s="0"/>
+      <c r="LQ1488" s="0"/>
+      <c r="LR1488" s="0"/>
+      <c r="LS1488" s="0"/>
+      <c r="LT1488" s="0"/>
+      <c r="LU1488" s="0"/>
+      <c r="LV1488" s="0"/>
+      <c r="LW1488" s="0"/>
+      <c r="LX1488" s="0"/>
+      <c r="LY1488" s="0"/>
+      <c r="LZ1488" s="0"/>
+      <c r="MA1488" s="0"/>
+      <c r="MB1488" s="0"/>
+      <c r="MC1488" s="0"/>
+      <c r="MD1488" s="0"/>
+      <c r="ME1488" s="0"/>
+      <c r="MF1488" s="0"/>
+      <c r="MG1488" s="0"/>
+      <c r="MH1488" s="0"/>
+      <c r="MI1488" s="0"/>
+      <c r="MJ1488" s="0"/>
+      <c r="MK1488" s="0"/>
+      <c r="ML1488" s="0"/>
+      <c r="MM1488" s="0"/>
+      <c r="MN1488" s="0"/>
+      <c r="MO1488" s="0"/>
+      <c r="MP1488" s="0"/>
+      <c r="MQ1488" s="0"/>
+      <c r="MR1488" s="0"/>
+      <c r="MS1488" s="0"/>
+      <c r="MT1488" s="0"/>
+      <c r="MU1488" s="0"/>
+      <c r="MV1488" s="0"/>
+      <c r="MW1488" s="0"/>
+      <c r="MX1488" s="0"/>
+      <c r="MY1488" s="0"/>
+      <c r="MZ1488" s="0"/>
+      <c r="NA1488" s="0"/>
+      <c r="NB1488" s="0"/>
+      <c r="NC1488" s="0"/>
+      <c r="ND1488" s="0"/>
+      <c r="NE1488" s="0"/>
+      <c r="NF1488" s="0"/>
+      <c r="NG1488" s="0"/>
+      <c r="NH1488" s="0"/>
+      <c r="NI1488" s="0"/>
+      <c r="NJ1488" s="0"/>
+      <c r="NK1488" s="0"/>
+      <c r="NL1488" s="0"/>
+      <c r="NM1488" s="0"/>
+      <c r="NN1488" s="0"/>
+      <c r="NO1488" s="0"/>
+      <c r="NP1488" s="0"/>
+      <c r="NQ1488" s="0"/>
+      <c r="NR1488" s="0"/>
+      <c r="NS1488" s="0"/>
+      <c r="NT1488" s="0"/>
+      <c r="NU1488" s="0"/>
+      <c r="NV1488" s="0"/>
+      <c r="NW1488" s="0"/>
+      <c r="NX1488" s="0"/>
+      <c r="NY1488" s="0"/>
+      <c r="NZ1488" s="0"/>
+      <c r="OA1488" s="0"/>
+      <c r="OB1488" s="0"/>
+      <c r="OC1488" s="0"/>
+      <c r="OD1488" s="0"/>
+      <c r="OE1488" s="0"/>
+      <c r="OF1488" s="0"/>
+      <c r="OG1488" s="0"/>
+      <c r="OH1488" s="0"/>
+      <c r="OI1488" s="0"/>
+      <c r="OJ1488" s="0"/>
+      <c r="OK1488" s="0"/>
+      <c r="OL1488" s="0"/>
+      <c r="OM1488" s="0"/>
+      <c r="ON1488" s="0"/>
+      <c r="OO1488" s="0"/>
+      <c r="OP1488" s="0"/>
+      <c r="OQ1488" s="0"/>
+      <c r="OR1488" s="0"/>
+      <c r="OS1488" s="0"/>
+      <c r="OT1488" s="0"/>
+      <c r="OU1488" s="0"/>
+      <c r="OV1488" s="0"/>
+      <c r="OW1488" s="0"/>
+      <c r="OX1488" s="0"/>
+      <c r="OY1488" s="0"/>
+      <c r="OZ1488" s="0"/>
+      <c r="PA1488" s="0"/>
+      <c r="PB1488" s="0"/>
+      <c r="PC1488" s="0"/>
+      <c r="PD1488" s="0"/>
+      <c r="PE1488" s="0"/>
+      <c r="PF1488" s="0"/>
+      <c r="PG1488" s="0"/>
+      <c r="PH1488" s="0"/>
+      <c r="PI1488" s="0"/>
+      <c r="PJ1488" s="0"/>
+      <c r="PK1488" s="0"/>
+      <c r="PL1488" s="0"/>
+      <c r="PM1488" s="0"/>
+      <c r="PN1488" s="0"/>
+      <c r="PO1488" s="0"/>
+      <c r="PP1488" s="0"/>
+      <c r="PQ1488" s="0"/>
+      <c r="PR1488" s="0"/>
+      <c r="PS1488" s="0"/>
+      <c r="PT1488" s="0"/>
+      <c r="PU1488" s="0"/>
+      <c r="PV1488" s="0"/>
+      <c r="PW1488" s="0"/>
+      <c r="PX1488" s="0"/>
+      <c r="PY1488" s="0"/>
+      <c r="PZ1488" s="0"/>
+      <c r="QA1488" s="0"/>
+      <c r="QB1488" s="0"/>
+      <c r="QC1488" s="0"/>
+      <c r="QD1488" s="0"/>
+      <c r="QE1488" s="0"/>
+      <c r="QF1488" s="0"/>
+      <c r="QG1488" s="0"/>
+      <c r="QH1488" s="0"/>
+      <c r="QI1488" s="0"/>
+      <c r="QJ1488" s="0"/>
+      <c r="QK1488" s="0"/>
+      <c r="QL1488" s="0"/>
+      <c r="QM1488" s="0"/>
+      <c r="QN1488" s="0"/>
+      <c r="QO1488" s="0"/>
+      <c r="QP1488" s="0"/>
+      <c r="QQ1488" s="0"/>
+      <c r="QR1488" s="0"/>
+      <c r="QS1488" s="0"/>
+      <c r="QT1488" s="0"/>
+      <c r="QU1488" s="0"/>
+      <c r="QV1488" s="0"/>
+      <c r="QW1488" s="0"/>
+      <c r="QX1488" s="0"/>
+      <c r="QY1488" s="0"/>
+      <c r="QZ1488" s="0"/>
+      <c r="RA1488" s="0"/>
+      <c r="RB1488" s="0"/>
+      <c r="RC1488" s="0"/>
+      <c r="RD1488" s="0"/>
+      <c r="RE1488" s="0"/>
+      <c r="RF1488" s="0"/>
+      <c r="RG1488" s="0"/>
+      <c r="RH1488" s="0"/>
+      <c r="RI1488" s="0"/>
+      <c r="RJ1488" s="0"/>
+      <c r="RK1488" s="0"/>
+      <c r="RL1488" s="0"/>
+      <c r="RM1488" s="0"/>
+      <c r="RN1488" s="0"/>
+      <c r="RO1488" s="0"/>
+      <c r="RP1488" s="0"/>
+      <c r="RQ1488" s="0"/>
+      <c r="RR1488" s="0"/>
+      <c r="RS1488" s="0"/>
+      <c r="RT1488" s="0"/>
+      <c r="RU1488" s="0"/>
+      <c r="RV1488" s="0"/>
+      <c r="RW1488" s="0"/>
+      <c r="RX1488" s="0"/>
+      <c r="RY1488" s="0"/>
+      <c r="RZ1488" s="0"/>
+      <c r="SA1488" s="0"/>
+      <c r="SB1488" s="0"/>
+      <c r="SC1488" s="0"/>
+      <c r="SD1488" s="0"/>
+      <c r="SE1488" s="0"/>
+      <c r="SF1488" s="0"/>
+      <c r="SG1488" s="0"/>
+      <c r="SH1488" s="0"/>
+      <c r="SI1488" s="0"/>
+      <c r="SJ1488" s="0"/>
+      <c r="SK1488" s="0"/>
+      <c r="SL1488" s="0"/>
+      <c r="SM1488" s="0"/>
+      <c r="SN1488" s="0"/>
+      <c r="SO1488" s="0"/>
+      <c r="SP1488" s="0"/>
+      <c r="SQ1488" s="0"/>
+      <c r="SR1488" s="0"/>
+      <c r="SS1488" s="0"/>
+      <c r="ST1488" s="0"/>
+      <c r="SU1488" s="0"/>
+      <c r="SV1488" s="0"/>
+      <c r="SW1488" s="0"/>
+      <c r="SX1488" s="0"/>
+      <c r="SY1488" s="0"/>
+      <c r="SZ1488" s="0"/>
+      <c r="TA1488" s="0"/>
+      <c r="TB1488" s="0"/>
+      <c r="TC1488" s="0"/>
+      <c r="TD1488" s="0"/>
+      <c r="TE1488" s="0"/>
+      <c r="TF1488" s="0"/>
+      <c r="TG1488" s="0"/>
+      <c r="TH1488" s="0"/>
+      <c r="TI1488" s="0"/>
+      <c r="TJ1488" s="0"/>
+      <c r="TK1488" s="0"/>
+      <c r="TL1488" s="0"/>
+      <c r="TM1488" s="0"/>
+      <c r="TN1488" s="0"/>
+      <c r="TO1488" s="0"/>
+      <c r="TP1488" s="0"/>
+      <c r="TQ1488" s="0"/>
+      <c r="TR1488" s="0"/>
+      <c r="TS1488" s="0"/>
+      <c r="TT1488" s="0"/>
+      <c r="TU1488" s="0"/>
+      <c r="TV1488" s="0"/>
+      <c r="TW1488" s="0"/>
+      <c r="TX1488" s="0"/>
+      <c r="TY1488" s="0"/>
+      <c r="TZ1488" s="0"/>
+      <c r="UA1488" s="0"/>
+      <c r="UB1488" s="0"/>
+      <c r="UC1488" s="0"/>
+      <c r="UD1488" s="0"/>
+      <c r="UE1488" s="0"/>
+      <c r="UF1488" s="0"/>
+      <c r="UG1488" s="0"/>
+      <c r="UH1488" s="0"/>
+      <c r="UI1488" s="0"/>
+      <c r="UJ1488" s="0"/>
+      <c r="UK1488" s="0"/>
+      <c r="UL1488" s="0"/>
+      <c r="UM1488" s="0"/>
+      <c r="UN1488" s="0"/>
+      <c r="UO1488" s="0"/>
+      <c r="UP1488" s="0"/>
+      <c r="UQ1488" s="0"/>
+      <c r="UR1488" s="0"/>
+      <c r="US1488" s="0"/>
+      <c r="UT1488" s="0"/>
+      <c r="UU1488" s="0"/>
+      <c r="UV1488" s="0"/>
+      <c r="UW1488" s="0"/>
+      <c r="UX1488" s="0"/>
+      <c r="UY1488" s="0"/>
+      <c r="UZ1488" s="0"/>
+      <c r="VA1488" s="0"/>
+      <c r="VB1488" s="0"/>
+      <c r="VC1488" s="0"/>
+      <c r="VD1488" s="0"/>
+      <c r="VE1488" s="0"/>
+      <c r="VF1488" s="0"/>
+      <c r="VG1488" s="0"/>
+      <c r="VH1488" s="0"/>
+      <c r="VI1488" s="0"/>
+      <c r="VJ1488" s="0"/>
+      <c r="VK1488" s="0"/>
+      <c r="VL1488" s="0"/>
+      <c r="VM1488" s="0"/>
+      <c r="VN1488" s="0"/>
+      <c r="VO1488" s="0"/>
+      <c r="VP1488" s="0"/>
+      <c r="VQ1488" s="0"/>
+      <c r="VR1488" s="0"/>
+      <c r="VS1488" s="0"/>
+      <c r="VT1488" s="0"/>
+      <c r="VU1488" s="0"/>
+      <c r="VV1488" s="0"/>
+      <c r="VW1488" s="0"/>
+      <c r="VX1488" s="0"/>
+      <c r="VY1488" s="0"/>
+      <c r="VZ1488" s="0"/>
+      <c r="WA1488" s="0"/>
+      <c r="WB1488" s="0"/>
+      <c r="WC1488" s="0"/>
+      <c r="WD1488" s="0"/>
+      <c r="WE1488" s="0"/>
+      <c r="WF1488" s="0"/>
+      <c r="WG1488" s="0"/>
+      <c r="WH1488" s="0"/>
+      <c r="WI1488" s="0"/>
+      <c r="WJ1488" s="0"/>
+      <c r="WK1488" s="0"/>
+      <c r="WL1488" s="0"/>
+      <c r="WM1488" s="0"/>
+      <c r="WN1488" s="0"/>
+      <c r="WO1488" s="0"/>
+      <c r="WP1488" s="0"/>
+      <c r="WQ1488" s="0"/>
+      <c r="WR1488" s="0"/>
+      <c r="WS1488" s="0"/>
+      <c r="WT1488" s="0"/>
+      <c r="WU1488" s="0"/>
+      <c r="WV1488" s="0"/>
+      <c r="WW1488" s="0"/>
+      <c r="WX1488" s="0"/>
+      <c r="WY1488" s="0"/>
+      <c r="WZ1488" s="0"/>
+      <c r="XA1488" s="0"/>
+      <c r="XB1488" s="0"/>
+      <c r="XC1488" s="0"/>
+      <c r="XD1488" s="0"/>
+      <c r="XE1488" s="0"/>
+      <c r="XF1488" s="0"/>
+      <c r="XG1488" s="0"/>
+      <c r="XH1488" s="0"/>
+      <c r="XI1488" s="0"/>
+      <c r="XJ1488" s="0"/>
+      <c r="XK1488" s="0"/>
+      <c r="XL1488" s="0"/>
+      <c r="XM1488" s="0"/>
+      <c r="XN1488" s="0"/>
+      <c r="XO1488" s="0"/>
+      <c r="XP1488" s="0"/>
+      <c r="XQ1488" s="0"/>
+      <c r="XR1488" s="0"/>
+      <c r="XS1488" s="0"/>
+      <c r="XT1488" s="0"/>
+      <c r="XU1488" s="0"/>
+      <c r="XV1488" s="0"/>
+      <c r="XW1488" s="0"/>
+      <c r="XX1488" s="0"/>
+      <c r="XY1488" s="0"/>
+      <c r="XZ1488" s="0"/>
+      <c r="YA1488" s="0"/>
+      <c r="YB1488" s="0"/>
+      <c r="YC1488" s="0"/>
+      <c r="YD1488" s="0"/>
+      <c r="YE1488" s="0"/>
+      <c r="YF1488" s="0"/>
+      <c r="YG1488" s="0"/>
+      <c r="YH1488" s="0"/>
+      <c r="YI1488" s="0"/>
+      <c r="YJ1488" s="0"/>
+      <c r="YK1488" s="0"/>
+      <c r="YL1488" s="0"/>
+      <c r="YM1488" s="0"/>
+      <c r="YN1488" s="0"/>
+      <c r="YO1488" s="0"/>
+      <c r="YP1488" s="0"/>
+      <c r="YQ1488" s="0"/>
+      <c r="YR1488" s="0"/>
+      <c r="YS1488" s="0"/>
+      <c r="YT1488" s="0"/>
+      <c r="YU1488" s="0"/>
+      <c r="YV1488" s="0"/>
+      <c r="YW1488" s="0"/>
+      <c r="YX1488" s="0"/>
+      <c r="YY1488" s="0"/>
+      <c r="YZ1488" s="0"/>
+      <c r="ZA1488" s="0"/>
+      <c r="ZB1488" s="0"/>
+      <c r="ZC1488" s="0"/>
+      <c r="ZD1488" s="0"/>
+      <c r="ZE1488" s="0"/>
+      <c r="ZF1488" s="0"/>
+      <c r="ZG1488" s="0"/>
+      <c r="ZH1488" s="0"/>
+      <c r="ZI1488" s="0"/>
+      <c r="ZJ1488" s="0"/>
+      <c r="ZK1488" s="0"/>
+      <c r="ZL1488" s="0"/>
+      <c r="ZM1488" s="0"/>
+      <c r="ZN1488" s="0"/>
+      <c r="ZO1488" s="0"/>
+      <c r="ZP1488" s="0"/>
+      <c r="ZQ1488" s="0"/>
+      <c r="ZR1488" s="0"/>
+      <c r="ZS1488" s="0"/>
+      <c r="ZT1488" s="0"/>
+      <c r="ZU1488" s="0"/>
+      <c r="ZV1488" s="0"/>
+      <c r="ZW1488" s="0"/>
+      <c r="ZX1488" s="0"/>
+      <c r="ZY1488" s="0"/>
+      <c r="ZZ1488" s="0"/>
+      <c r="AAA1488" s="0"/>
+      <c r="AAB1488" s="0"/>
+      <c r="AAC1488" s="0"/>
+      <c r="AAD1488" s="0"/>
+      <c r="AAE1488" s="0"/>
+      <c r="AAF1488" s="0"/>
+      <c r="AAG1488" s="0"/>
+      <c r="AAH1488" s="0"/>
+      <c r="AAI1488" s="0"/>
+      <c r="AAJ1488" s="0"/>
+      <c r="AAK1488" s="0"/>
+      <c r="AAL1488" s="0"/>
+      <c r="AAM1488" s="0"/>
+      <c r="AAN1488" s="0"/>
+      <c r="AAO1488" s="0"/>
+      <c r="AAP1488" s="0"/>
+      <c r="AAQ1488" s="0"/>
+      <c r="AAR1488" s="0"/>
+      <c r="AAS1488" s="0"/>
+      <c r="AAT1488" s="0"/>
+      <c r="AAU1488" s="0"/>
+      <c r="AAV1488" s="0"/>
+      <c r="AAW1488" s="0"/>
+      <c r="AAX1488" s="0"/>
+      <c r="AAY1488" s="0"/>
+      <c r="AAZ1488" s="0"/>
+      <c r="ABA1488" s="0"/>
+      <c r="ABB1488" s="0"/>
+      <c r="ABC1488" s="0"/>
+      <c r="ABD1488" s="0"/>
+      <c r="ABE1488" s="0"/>
+      <c r="ABF1488" s="0"/>
+      <c r="ABG1488" s="0"/>
+      <c r="ABH1488" s="0"/>
+      <c r="ABI1488" s="0"/>
+      <c r="ABJ1488" s="0"/>
+      <c r="ABK1488" s="0"/>
+      <c r="ABL1488" s="0"/>
+      <c r="ABM1488" s="0"/>
+      <c r="ABN1488" s="0"/>
+      <c r="ABO1488" s="0"/>
+      <c r="ABP1488" s="0"/>
+      <c r="ABQ1488" s="0"/>
+      <c r="ABR1488" s="0"/>
+      <c r="ABS1488" s="0"/>
+      <c r="ABT1488" s="0"/>
+      <c r="ABU1488" s="0"/>
+      <c r="ABV1488" s="0"/>
+      <c r="ABW1488" s="0"/>
+      <c r="ABX1488" s="0"/>
+      <c r="ABY1488" s="0"/>
+      <c r="ABZ1488" s="0"/>
+      <c r="ACA1488" s="0"/>
+      <c r="ACB1488" s="0"/>
+      <c r="ACC1488" s="0"/>
+      <c r="ACD1488" s="0"/>
+      <c r="ACE1488" s="0"/>
+      <c r="ACF1488" s="0"/>
+      <c r="ACG1488" s="0"/>
+      <c r="ACH1488" s="0"/>
+      <c r="ACI1488" s="0"/>
+      <c r="ACJ1488" s="0"/>
+      <c r="ACK1488" s="0"/>
+      <c r="ACL1488" s="0"/>
+      <c r="ACM1488" s="0"/>
+      <c r="ACN1488" s="0"/>
+      <c r="ACO1488" s="0"/>
+      <c r="ACP1488" s="0"/>
+      <c r="ACQ1488" s="0"/>
+      <c r="ACR1488" s="0"/>
+      <c r="ACS1488" s="0"/>
+      <c r="ACT1488" s="0"/>
+      <c r="ACU1488" s="0"/>
+      <c r="ACV1488" s="0"/>
+      <c r="ACW1488" s="0"/>
+      <c r="ACX1488" s="0"/>
+      <c r="ACY1488" s="0"/>
+      <c r="ACZ1488" s="0"/>
+      <c r="ADA1488" s="0"/>
+      <c r="ADB1488" s="0"/>
+      <c r="ADC1488" s="0"/>
+      <c r="ADD1488" s="0"/>
+      <c r="ADE1488" s="0"/>
+      <c r="ADF1488" s="0"/>
+      <c r="ADG1488" s="0"/>
+      <c r="ADH1488" s="0"/>
+      <c r="ADI1488" s="0"/>
+      <c r="ADJ1488" s="0"/>
+      <c r="ADK1488" s="0"/>
+      <c r="ADL1488" s="0"/>
+      <c r="ADM1488" s="0"/>
+      <c r="ADN1488" s="0"/>
+      <c r="ADO1488" s="0"/>
+      <c r="ADP1488" s="0"/>
+      <c r="ADQ1488" s="0"/>
+      <c r="ADR1488" s="0"/>
+      <c r="ADS1488" s="0"/>
+      <c r="ADT1488" s="0"/>
+      <c r="ADU1488" s="0"/>
+      <c r="ADV1488" s="0"/>
+      <c r="ADW1488" s="0"/>
+      <c r="ADX1488" s="0"/>
+      <c r="ADY1488" s="0"/>
+      <c r="ADZ1488" s="0"/>
+      <c r="AEA1488" s="0"/>
+      <c r="AEB1488" s="0"/>
+      <c r="AEC1488" s="0"/>
+      <c r="AED1488" s="0"/>
+      <c r="AEE1488" s="0"/>
+      <c r="AEF1488" s="0"/>
+      <c r="AEG1488" s="0"/>
+      <c r="AEH1488" s="0"/>
+      <c r="AEI1488" s="0"/>
+      <c r="AEJ1488" s="0"/>
+      <c r="AEK1488" s="0"/>
+      <c r="AEL1488" s="0"/>
+      <c r="AEM1488" s="0"/>
+      <c r="AEN1488" s="0"/>
+      <c r="AEO1488" s="0"/>
+      <c r="AEP1488" s="0"/>
+      <c r="AEQ1488" s="0"/>
+      <c r="AER1488" s="0"/>
+      <c r="AES1488" s="0"/>
+      <c r="AET1488" s="0"/>
+      <c r="AEU1488" s="0"/>
+      <c r="AEV1488" s="0"/>
+      <c r="AEW1488" s="0"/>
+      <c r="AEX1488" s="0"/>
+      <c r="AEY1488" s="0"/>
+      <c r="AEZ1488" s="0"/>
+      <c r="AFA1488" s="0"/>
+      <c r="AFB1488" s="0"/>
+      <c r="AFC1488" s="0"/>
+      <c r="AFD1488" s="0"/>
+      <c r="AFE1488" s="0"/>
+      <c r="AFF1488" s="0"/>
+      <c r="AFG1488" s="0"/>
+      <c r="AFH1488" s="0"/>
+      <c r="AFI1488" s="0"/>
+      <c r="AFJ1488" s="0"/>
+      <c r="AFK1488" s="0"/>
+      <c r="AFL1488" s="0"/>
+      <c r="AFM1488" s="0"/>
+      <c r="AFN1488" s="0"/>
+      <c r="AFO1488" s="0"/>
+      <c r="AFP1488" s="0"/>
+      <c r="AFQ1488" s="0"/>
+      <c r="AFR1488" s="0"/>
+      <c r="AFS1488" s="0"/>
+      <c r="AFT1488" s="0"/>
+      <c r="AFU1488" s="0"/>
+      <c r="AFV1488" s="0"/>
+      <c r="AFW1488" s="0"/>
+      <c r="AFX1488" s="0"/>
+      <c r="AFY1488" s="0"/>
+      <c r="AFZ1488" s="0"/>
+      <c r="AGA1488" s="0"/>
+      <c r="AGB1488" s="0"/>
+      <c r="AGC1488" s="0"/>
+      <c r="AGD1488" s="0"/>
+      <c r="AGE1488" s="0"/>
+      <c r="AGF1488" s="0"/>
+      <c r="AGG1488" s="0"/>
+      <c r="AGH1488" s="0"/>
+      <c r="AGI1488" s="0"/>
+      <c r="AGJ1488" s="0"/>
+      <c r="AGK1488" s="0"/>
+      <c r="AGL1488" s="0"/>
+      <c r="AGM1488" s="0"/>
+      <c r="AGN1488" s="0"/>
+      <c r="AGO1488" s="0"/>
+      <c r="AGP1488" s="0"/>
+      <c r="AGQ1488" s="0"/>
+      <c r="AGR1488" s="0"/>
+      <c r="AGS1488" s="0"/>
+      <c r="AGT1488" s="0"/>
+      <c r="AGU1488" s="0"/>
+      <c r="AGV1488" s="0"/>
+      <c r="AGW1488" s="0"/>
+      <c r="AGX1488" s="0"/>
+      <c r="AGY1488" s="0"/>
+      <c r="AGZ1488" s="0"/>
+      <c r="AHA1488" s="0"/>
+      <c r="AHB1488" s="0"/>
+      <c r="AHC1488" s="0"/>
+      <c r="AHD1488" s="0"/>
+      <c r="AHE1488" s="0"/>
+      <c r="AHF1488" s="0"/>
+      <c r="AHG1488" s="0"/>
+      <c r="AHH1488" s="0"/>
+      <c r="AHI1488" s="0"/>
+      <c r="AHJ1488" s="0"/>
+      <c r="AHK1488" s="0"/>
+      <c r="AHL1488" s="0"/>
+      <c r="AHM1488" s="0"/>
+      <c r="AHN1488" s="0"/>
+      <c r="AHO1488" s="0"/>
+      <c r="AHP1488" s="0"/>
+      <c r="AHQ1488" s="0"/>
+      <c r="AHR1488" s="0"/>
+      <c r="AHS1488" s="0"/>
+      <c r="AHT1488" s="0"/>
+      <c r="AHU1488" s="0"/>
+      <c r="AHV1488" s="0"/>
+      <c r="AHW1488" s="0"/>
+      <c r="AHX1488" s="0"/>
+      <c r="AHY1488" s="0"/>
+      <c r="AHZ1488" s="0"/>
+      <c r="AIA1488" s="0"/>
+      <c r="AIB1488" s="0"/>
+      <c r="AIC1488" s="0"/>
+      <c r="AID1488" s="0"/>
+      <c r="AIE1488" s="0"/>
+      <c r="AIF1488" s="0"/>
+      <c r="AIG1488" s="0"/>
+      <c r="AIH1488" s="0"/>
+      <c r="AII1488" s="0"/>
+      <c r="AIJ1488" s="0"/>
+      <c r="AIK1488" s="0"/>
+      <c r="AIL1488" s="0"/>
+      <c r="AIM1488" s="0"/>
+      <c r="AIN1488" s="0"/>
+      <c r="AIO1488" s="0"/>
+      <c r="AIP1488" s="0"/>
+      <c r="AIQ1488" s="0"/>
+      <c r="AIR1488" s="0"/>
+      <c r="AIS1488" s="0"/>
+      <c r="AIT1488" s="0"/>
+      <c r="AIU1488" s="0"/>
+      <c r="AIV1488" s="0"/>
+      <c r="AIW1488" s="0"/>
+      <c r="AIX1488" s="0"/>
+      <c r="AIY1488" s="0"/>
+      <c r="AIZ1488" s="0"/>
+      <c r="AJA1488" s="0"/>
+      <c r="AJB1488" s="0"/>
+      <c r="AJC1488" s="0"/>
+      <c r="AJD1488" s="0"/>
+      <c r="AJE1488" s="0"/>
+      <c r="AJF1488" s="0"/>
+      <c r="AJG1488" s="0"/>
+      <c r="AJH1488" s="0"/>
+      <c r="AJI1488" s="0"/>
+      <c r="AJJ1488" s="0"/>
+      <c r="AJK1488" s="0"/>
+      <c r="AJL1488" s="0"/>
+      <c r="AJM1488" s="0"/>
+      <c r="AJN1488" s="0"/>
+      <c r="AJO1488" s="0"/>
+      <c r="AJP1488" s="0"/>
+      <c r="AJQ1488" s="0"/>
+      <c r="AJR1488" s="0"/>
+      <c r="AJS1488" s="0"/>
+      <c r="AJT1488" s="0"/>
+      <c r="AJU1488" s="0"/>
+      <c r="AJV1488" s="0"/>
+      <c r="AJW1488" s="0"/>
+      <c r="AJX1488" s="0"/>
+      <c r="AJY1488" s="0"/>
+      <c r="AJZ1488" s="0"/>
+      <c r="AKA1488" s="0"/>
+      <c r="AKB1488" s="0"/>
+      <c r="AKC1488" s="0"/>
+      <c r="AKD1488" s="0"/>
+      <c r="AKE1488" s="0"/>
+      <c r="AKF1488" s="0"/>
+      <c r="AKG1488" s="0"/>
+      <c r="AKH1488" s="0"/>
+      <c r="AKI1488" s="0"/>
+      <c r="AKJ1488" s="0"/>
+      <c r="AKK1488" s="0"/>
+      <c r="AKL1488" s="0"/>
+      <c r="AKM1488" s="0"/>
+      <c r="AKN1488" s="0"/>
+      <c r="AKO1488" s="0"/>
+      <c r="AKP1488" s="0"/>
+      <c r="AKQ1488" s="0"/>
+      <c r="AKR1488" s="0"/>
+      <c r="AKS1488" s="0"/>
+      <c r="AKT1488" s="0"/>
+      <c r="AKU1488" s="0"/>
+      <c r="AKV1488" s="0"/>
+      <c r="AKW1488" s="0"/>
+      <c r="AKX1488" s="0"/>
+      <c r="AKY1488" s="0"/>
+      <c r="AKZ1488" s="0"/>
+      <c r="ALA1488" s="0"/>
+      <c r="ALB1488" s="0"/>
+      <c r="ALC1488" s="0"/>
+      <c r="ALD1488" s="0"/>
+      <c r="ALE1488" s="0"/>
+      <c r="ALF1488" s="0"/>
+      <c r="ALG1488" s="0"/>
+      <c r="ALH1488" s="0"/>
+      <c r="ALI1488" s="0"/>
+      <c r="ALJ1488" s="0"/>
+      <c r="ALK1488" s="0"/>
+      <c r="ALL1488" s="0"/>
+      <c r="ALM1488" s="0"/>
+      <c r="ALN1488" s="0"/>
+      <c r="ALO1488" s="0"/>
+      <c r="ALP1488" s="0"/>
+      <c r="ALQ1488" s="0"/>
+      <c r="ALR1488" s="0"/>
+      <c r="ALS1488" s="0"/>
+      <c r="ALT1488" s="0"/>
+      <c r="ALU1488" s="0"/>
+      <c r="ALV1488" s="0"/>
+      <c r="ALW1488" s="0"/>
+      <c r="ALX1488" s="0"/>
+      <c r="ALY1488" s="0"/>
+      <c r="ALZ1488" s="0"/>
+      <c r="AMA1488" s="0"/>
+      <c r="AMB1488" s="0"/>
+      <c r="AMC1488" s="0"/>
+      <c r="AMD1488" s="0"/>
+      <c r="AME1488" s="0"/>
+      <c r="AMF1488" s="0"/>
+      <c r="AMG1488" s="0"/>
+      <c r="AMH1488" s="0"/>
+      <c r="AMI1488" s="0"/>
+    </row>
+    <row r="1489" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="19"/>
+      <c r="B1489" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1489" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1489" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1489" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1489" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1489" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1489" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1489" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1489" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1489" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1489" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1489" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1489" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="O1489" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1489" s="1"/>
     </row>
     <row r="1490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1490" s="16" t="s">
+      <c r="A1490" s="22" t="s">
         <v>1495</v>
       </c>
-      <c r="B1490" s="17"/>
-      <c r="C1490" s="18"/>
-      <c r="D1490" s="18"/>
-      <c r="E1490" s="18"/>
-      <c r="F1490" s="18"/>
-      <c r="G1490" s="18"/>
-      <c r="H1490" s="18"/>
-      <c r="I1490" s="1"/>
-      <c r="J1490" s="1"/>
-      <c r="K1490" s="1"/>
-      <c r="L1490" s="1"/>
-      <c r="M1490" s="1"/>
-      <c r="N1490" s="1"/>
+      <c r="B1490" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1490" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1490" s="23"/>
+      <c r="E1490" s="28"/>
+      <c r="F1490" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1490" s="23"/>
+      <c r="H1490" s="23"/>
+      <c r="I1490" s="24" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J1490" s="24"/>
+      <c r="K1490" s="24"/>
+      <c r="L1490" s="23"/>
+      <c r="M1490" s="23"/>
+      <c r="N1490" s="23"/>
       <c r="O1490" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1490" s="1"/>
     </row>
     <row r="1491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1491" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1491" s="17"/>
-      <c r="C1491" s="18"/>
-      <c r="D1491" s="18"/>
-      <c r="E1491" s="18"/>
-      <c r="F1491" s="18"/>
-      <c r="G1491" s="18"/>
-      <c r="H1491" s="18"/>
-      <c r="I1491" s="1"/>
-      <c r="J1491" s="1"/>
-      <c r="K1491" s="1"/>
-      <c r="L1491" s="1"/>
-      <c r="M1491" s="1"/>
-      <c r="N1491" s="1"/>
+      <c r="B1491" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1491" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1491" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1491" s="28"/>
+      <c r="F1491" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1491" s="23"/>
+      <c r="H1491" s="23"/>
+      <c r="I1491" s="24" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J1491" s="24"/>
+      <c r="K1491" s="24"/>
+      <c r="L1491" s="23"/>
+      <c r="M1491" s="23"/>
+      <c r="N1491" s="23"/>
       <c r="O1491" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1491" s="1"/>
     </row>
     <row r="1492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1492" s="1"/>
-      <c r="C1492" s="1"/>
-      <c r="D1492" s="1"/>
-      <c r="E1492" s="1"/>
-      <c r="F1492" s="1"/>
-      <c r="G1492" s="1"/>
-      <c r="H1492" s="1"/>
-      <c r="I1492" s="1"/>
-      <c r="J1492" s="1"/>
-      <c r="K1492" s="1"/>
-      <c r="L1492" s="1"/>
-      <c r="M1492" s="1"/>
-      <c r="N1492" s="1"/>
+      <c r="B1492" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1492" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1492" s="23"/>
+      <c r="E1492" s="28"/>
+      <c r="F1492" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1492" s="23"/>
+      <c r="H1492" s="23"/>
+      <c r="I1492" s="24" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J1492" s="24"/>
+      <c r="K1492" s="24"/>
+      <c r="L1492" s="23"/>
+      <c r="M1492" s="23"/>
+      <c r="N1492" s="23"/>
       <c r="O1492" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1492" s="1"/>
-    </row>
-    <row r="1493" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1493" s="19"/>
-      <c r="B1493" s="11" t="s">
+    </row>
+    <row r="1493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1493" s="23"/>
+      <c r="C1493" s="23"/>
+      <c r="D1493" s="23"/>
+      <c r="E1493" s="23"/>
+      <c r="F1493" s="23"/>
+      <c r="G1493" s="23"/>
+      <c r="H1493" s="23"/>
+      <c r="I1493" s="24"/>
+      <c r="J1493" s="24"/>
+      <c r="K1493" s="24"/>
+      <c r="L1493" s="23"/>
+      <c r="M1493" s="23"/>
+      <c r="N1493" s="23"/>
+      <c r="O1493" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1494" s="25"/>
+      <c r="C1494" s="1"/>
+      <c r="D1494" s="1"/>
+      <c r="E1494" s="1"/>
+      <c r="F1494" s="1"/>
+      <c r="G1494" s="1"/>
+      <c r="H1494" s="1"/>
+      <c r="I1494" s="1"/>
+      <c r="J1494" s="1"/>
+      <c r="K1494" s="1"/>
+      <c r="L1494" s="1"/>
+      <c r="M1494" s="1"/>
+      <c r="N1494" s="1"/>
+      <c r="O1494" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1494" s="0"/>
+      <c r="Z1494" s="0"/>
+      <c r="AA1494" s="0"/>
+      <c r="AB1494" s="0"/>
+      <c r="AC1494" s="0"/>
+      <c r="AD1494" s="0"/>
+      <c r="AE1494" s="0"/>
+      <c r="AF1494" s="0"/>
+      <c r="AG1494" s="0"/>
+      <c r="AH1494" s="0"/>
+      <c r="AI1494" s="0"/>
+      <c r="AJ1494" s="0"/>
+      <c r="AK1494" s="0"/>
+      <c r="AL1494" s="0"/>
+      <c r="AM1494" s="0"/>
+      <c r="AN1494" s="0"/>
+      <c r="AO1494" s="0"/>
+      <c r="AP1494" s="0"/>
+      <c r="AQ1494" s="0"/>
+      <c r="AR1494" s="0"/>
+      <c r="AS1494" s="0"/>
+      <c r="AT1494" s="0"/>
+      <c r="AU1494" s="0"/>
+      <c r="AV1494" s="0"/>
+      <c r="AW1494" s="0"/>
+      <c r="AX1494" s="0"/>
+      <c r="AY1494" s="0"/>
+      <c r="AZ1494" s="0"/>
+      <c r="BA1494" s="0"/>
+      <c r="BB1494" s="0"/>
+      <c r="BC1494" s="0"/>
+      <c r="BD1494" s="0"/>
+      <c r="BE1494" s="0"/>
+      <c r="BF1494" s="0"/>
+      <c r="BG1494" s="0"/>
+      <c r="BH1494" s="0"/>
+      <c r="BI1494" s="0"/>
+      <c r="BJ1494" s="0"/>
+      <c r="BK1494" s="0"/>
+      <c r="BL1494" s="0"/>
+      <c r="BM1494" s="0"/>
+      <c r="BN1494" s="0"/>
+      <c r="BO1494" s="0"/>
+      <c r="BP1494" s="0"/>
+      <c r="BQ1494" s="0"/>
+      <c r="BR1494" s="0"/>
+      <c r="BS1494" s="0"/>
+      <c r="BT1494" s="0"/>
+      <c r="BU1494" s="0"/>
+      <c r="BV1494" s="0"/>
+      <c r="BW1494" s="0"/>
+      <c r="BX1494" s="0"/>
+      <c r="BY1494" s="0"/>
+      <c r="BZ1494" s="0"/>
+      <c r="CA1494" s="0"/>
+      <c r="CB1494" s="0"/>
+      <c r="CC1494" s="0"/>
+      <c r="CD1494" s="0"/>
+      <c r="CE1494" s="0"/>
+      <c r="CF1494" s="0"/>
+      <c r="CG1494" s="0"/>
+      <c r="CH1494" s="0"/>
+      <c r="CI1494" s="0"/>
+      <c r="CJ1494" s="0"/>
+      <c r="CK1494" s="0"/>
+      <c r="CL1494" s="0"/>
+      <c r="CM1494" s="0"/>
+      <c r="CN1494" s="0"/>
+      <c r="CO1494" s="0"/>
+      <c r="CP1494" s="0"/>
+      <c r="CQ1494" s="0"/>
+      <c r="CR1494" s="0"/>
+      <c r="CS1494" s="0"/>
+      <c r="CT1494" s="0"/>
+      <c r="CU1494" s="0"/>
+      <c r="CV1494" s="0"/>
+      <c r="CW1494" s="0"/>
+      <c r="CX1494" s="0"/>
+      <c r="CY1494" s="0"/>
+      <c r="CZ1494" s="0"/>
+      <c r="DA1494" s="0"/>
+      <c r="DB1494" s="0"/>
+      <c r="DC1494" s="0"/>
+      <c r="DD1494" s="0"/>
+      <c r="DE1494" s="0"/>
+      <c r="DF1494" s="0"/>
+      <c r="DG1494" s="0"/>
+      <c r="DH1494" s="0"/>
+      <c r="DI1494" s="0"/>
+      <c r="DJ1494" s="0"/>
+      <c r="DK1494" s="0"/>
+      <c r="DL1494" s="0"/>
+      <c r="DM1494" s="0"/>
+      <c r="DN1494" s="0"/>
+      <c r="DO1494" s="0"/>
+      <c r="DP1494" s="0"/>
+      <c r="DQ1494" s="0"/>
+      <c r="DR1494" s="0"/>
+      <c r="DS1494" s="0"/>
+      <c r="DT1494" s="0"/>
+      <c r="DU1494" s="0"/>
+      <c r="DV1494" s="0"/>
+      <c r="DW1494" s="0"/>
+      <c r="DX1494" s="0"/>
+      <c r="DY1494" s="0"/>
+      <c r="DZ1494" s="0"/>
+      <c r="EA1494" s="0"/>
+      <c r="EB1494" s="0"/>
+      <c r="EC1494" s="0"/>
+      <c r="ED1494" s="0"/>
+      <c r="EE1494" s="0"/>
+      <c r="EF1494" s="0"/>
+      <c r="EG1494" s="0"/>
+      <c r="EH1494" s="0"/>
+      <c r="EI1494" s="0"/>
+      <c r="EJ1494" s="0"/>
+      <c r="EK1494" s="0"/>
+      <c r="EL1494" s="0"/>
+      <c r="EM1494" s="0"/>
+      <c r="EN1494" s="0"/>
+      <c r="EO1494" s="0"/>
+      <c r="EP1494" s="0"/>
+      <c r="EQ1494" s="0"/>
+      <c r="ER1494" s="0"/>
+      <c r="ES1494" s="0"/>
+      <c r="ET1494" s="0"/>
+      <c r="EU1494" s="0"/>
+      <c r="EV1494" s="0"/>
+      <c r="EW1494" s="0"/>
+      <c r="EX1494" s="0"/>
+      <c r="EY1494" s="0"/>
+      <c r="EZ1494" s="0"/>
+      <c r="FA1494" s="0"/>
+      <c r="FB1494" s="0"/>
+      <c r="FC1494" s="0"/>
+      <c r="FD1494" s="0"/>
+      <c r="FE1494" s="0"/>
+      <c r="FF1494" s="0"/>
+      <c r="FG1494" s="0"/>
+      <c r="FH1494" s="0"/>
+      <c r="FI1494" s="0"/>
+      <c r="FJ1494" s="0"/>
+      <c r="FK1494" s="0"/>
+      <c r="FL1494" s="0"/>
+      <c r="FM1494" s="0"/>
+      <c r="FN1494" s="0"/>
+      <c r="FO1494" s="0"/>
+      <c r="FP1494" s="0"/>
+      <c r="FQ1494" s="0"/>
+      <c r="FR1494" s="0"/>
+      <c r="FS1494" s="0"/>
+      <c r="FT1494" s="0"/>
+      <c r="FU1494" s="0"/>
+      <c r="FV1494" s="0"/>
+      <c r="FW1494" s="0"/>
+      <c r="FX1494" s="0"/>
+      <c r="FY1494" s="0"/>
+      <c r="FZ1494" s="0"/>
+      <c r="GA1494" s="0"/>
+      <c r="GB1494" s="0"/>
+      <c r="GC1494" s="0"/>
+      <c r="GD1494" s="0"/>
+      <c r="GE1494" s="0"/>
+      <c r="GF1494" s="0"/>
+      <c r="GG1494" s="0"/>
+      <c r="GH1494" s="0"/>
+      <c r="GI1494" s="0"/>
+      <c r="GJ1494" s="0"/>
+      <c r="GK1494" s="0"/>
+      <c r="GL1494" s="0"/>
+      <c r="GM1494" s="0"/>
+      <c r="GN1494" s="0"/>
+      <c r="GO1494" s="0"/>
+      <c r="GP1494" s="0"/>
+      <c r="GQ1494" s="0"/>
+      <c r="GR1494" s="0"/>
+      <c r="GS1494" s="0"/>
+      <c r="GT1494" s="0"/>
+      <c r="GU1494" s="0"/>
+      <c r="GV1494" s="0"/>
+      <c r="GW1494" s="0"/>
+      <c r="GX1494" s="0"/>
+      <c r="GY1494" s="0"/>
+      <c r="GZ1494" s="0"/>
+      <c r="HA1494" s="0"/>
+      <c r="HB1494" s="0"/>
+      <c r="HC1494" s="0"/>
+      <c r="HD1494" s="0"/>
+      <c r="HE1494" s="0"/>
+      <c r="HF1494" s="0"/>
+      <c r="HG1494" s="0"/>
+      <c r="HH1494" s="0"/>
+      <c r="HI1494" s="0"/>
+      <c r="HJ1494" s="0"/>
+      <c r="HK1494" s="0"/>
+      <c r="HL1494" s="0"/>
+      <c r="HM1494" s="0"/>
+      <c r="HN1494" s="0"/>
+      <c r="HO1494" s="0"/>
+      <c r="HP1494" s="0"/>
+      <c r="HQ1494" s="0"/>
+      <c r="HR1494" s="0"/>
+      <c r="HS1494" s="0"/>
+      <c r="HT1494" s="0"/>
+      <c r="HU1494" s="0"/>
+      <c r="HV1494" s="0"/>
+      <c r="HW1494" s="0"/>
+      <c r="HX1494" s="0"/>
+      <c r="HY1494" s="0"/>
+      <c r="HZ1494" s="0"/>
+      <c r="IA1494" s="0"/>
+      <c r="IB1494" s="0"/>
+      <c r="IC1494" s="0"/>
+      <c r="ID1494" s="0"/>
+      <c r="IE1494" s="0"/>
+      <c r="IF1494" s="0"/>
+      <c r="IG1494" s="0"/>
+      <c r="IH1494" s="0"/>
+      <c r="II1494" s="0"/>
+      <c r="IJ1494" s="0"/>
+      <c r="IK1494" s="0"/>
+      <c r="IL1494" s="0"/>
+      <c r="IM1494" s="0"/>
+      <c r="IN1494" s="0"/>
+      <c r="IO1494" s="0"/>
+      <c r="IP1494" s="0"/>
+      <c r="IQ1494" s="0"/>
+      <c r="IR1494" s="0"/>
+      <c r="IS1494" s="0"/>
+      <c r="IT1494" s="0"/>
+      <c r="IU1494" s="0"/>
+      <c r="IV1494" s="0"/>
+      <c r="IW1494" s="0"/>
+      <c r="IX1494" s="0"/>
+      <c r="IY1494" s="0"/>
+      <c r="IZ1494" s="0"/>
+      <c r="JA1494" s="0"/>
+      <c r="JB1494" s="0"/>
+      <c r="JC1494" s="0"/>
+      <c r="JD1494" s="0"/>
+      <c r="JE1494" s="0"/>
+      <c r="JF1494" s="0"/>
+      <c r="JG1494" s="0"/>
+      <c r="JH1494" s="0"/>
+      <c r="JI1494" s="0"/>
+      <c r="JJ1494" s="0"/>
+      <c r="JK1494" s="0"/>
+      <c r="JL1494" s="0"/>
+      <c r="JM1494" s="0"/>
+      <c r="JN1494" s="0"/>
+      <c r="JO1494" s="0"/>
+      <c r="JP1494" s="0"/>
+      <c r="JQ1494" s="0"/>
+      <c r="JR1494" s="0"/>
+      <c r="JS1494" s="0"/>
+      <c r="JT1494" s="0"/>
+      <c r="JU1494" s="0"/>
+      <c r="JV1494" s="0"/>
+      <c r="JW1494" s="0"/>
+      <c r="JX1494" s="0"/>
+      <c r="JY1494" s="0"/>
+      <c r="JZ1494" s="0"/>
+      <c r="KA1494" s="0"/>
+      <c r="KB1494" s="0"/>
+      <c r="KC1494" s="0"/>
+      <c r="KD1494" s="0"/>
+      <c r="KE1494" s="0"/>
+      <c r="KF1494" s="0"/>
+      <c r="KG1494" s="0"/>
+      <c r="KH1494" s="0"/>
+      <c r="KI1494" s="0"/>
+      <c r="KJ1494" s="0"/>
+      <c r="KK1494" s="0"/>
+      <c r="KL1494" s="0"/>
+      <c r="KM1494" s="0"/>
+      <c r="KN1494" s="0"/>
+      <c r="KO1494" s="0"/>
+      <c r="KP1494" s="0"/>
+      <c r="KQ1494" s="0"/>
+      <c r="KR1494" s="0"/>
+      <c r="KS1494" s="0"/>
+      <c r="KT1494" s="0"/>
+      <c r="KU1494" s="0"/>
+      <c r="KV1494" s="0"/>
+      <c r="KW1494" s="0"/>
+      <c r="KX1494" s="0"/>
+      <c r="KY1494" s="0"/>
+      <c r="KZ1494" s="0"/>
+      <c r="LA1494" s="0"/>
+      <c r="LB1494" s="0"/>
+      <c r="LC1494" s="0"/>
+      <c r="LD1494" s="0"/>
+      <c r="LE1494" s="0"/>
+      <c r="LF1494" s="0"/>
+      <c r="LG1494" s="0"/>
+      <c r="LH1494" s="0"/>
+      <c r="LI1494" s="0"/>
+      <c r="LJ1494" s="0"/>
+      <c r="LK1494" s="0"/>
+      <c r="LL1494" s="0"/>
+      <c r="LM1494" s="0"/>
+      <c r="LN1494" s="0"/>
+      <c r="LO1494" s="0"/>
+      <c r="LP1494" s="0"/>
+      <c r="LQ1494" s="0"/>
+      <c r="LR1494" s="0"/>
+      <c r="LS1494" s="0"/>
+      <c r="LT1494" s="0"/>
+      <c r="LU1494" s="0"/>
+      <c r="LV1494" s="0"/>
+      <c r="LW1494" s="0"/>
+      <c r="LX1494" s="0"/>
+      <c r="LY1494" s="0"/>
+      <c r="LZ1494" s="0"/>
+      <c r="MA1494" s="0"/>
+      <c r="MB1494" s="0"/>
+      <c r="MC1494" s="0"/>
+      <c r="MD1494" s="0"/>
+      <c r="ME1494" s="0"/>
+      <c r="MF1494" s="0"/>
+      <c r="MG1494" s="0"/>
+      <c r="MH1494" s="0"/>
+      <c r="MI1494" s="0"/>
+      <c r="MJ1494" s="0"/>
+      <c r="MK1494" s="0"/>
+      <c r="ML1494" s="0"/>
+      <c r="MM1494" s="0"/>
+      <c r="MN1494" s="0"/>
+      <c r="MO1494" s="0"/>
+      <c r="MP1494" s="0"/>
+      <c r="MQ1494" s="0"/>
+      <c r="MR1494" s="0"/>
+      <c r="MS1494" s="0"/>
+      <c r="MT1494" s="0"/>
+      <c r="MU1494" s="0"/>
+      <c r="MV1494" s="0"/>
+      <c r="MW1494" s="0"/>
+      <c r="MX1494" s="0"/>
+      <c r="MY1494" s="0"/>
+      <c r="MZ1494" s="0"/>
+      <c r="NA1494" s="0"/>
+      <c r="NB1494" s="0"/>
+      <c r="NC1494" s="0"/>
+      <c r="ND1494" s="0"/>
+      <c r="NE1494" s="0"/>
+      <c r="NF1494" s="0"/>
+      <c r="NG1494" s="0"/>
+      <c r="NH1494" s="0"/>
+      <c r="NI1494" s="0"/>
+      <c r="NJ1494" s="0"/>
+      <c r="NK1494" s="0"/>
+      <c r="NL1494" s="0"/>
+      <c r="NM1494" s="0"/>
+      <c r="NN1494" s="0"/>
+      <c r="NO1494" s="0"/>
+      <c r="NP1494" s="0"/>
+      <c r="NQ1494" s="0"/>
+      <c r="NR1494" s="0"/>
+      <c r="NS1494" s="0"/>
+      <c r="NT1494" s="0"/>
+      <c r="NU1494" s="0"/>
+      <c r="NV1494" s="0"/>
+      <c r="NW1494" s="0"/>
+      <c r="NX1494" s="0"/>
+      <c r="NY1494" s="0"/>
+      <c r="NZ1494" s="0"/>
+      <c r="OA1494" s="0"/>
+      <c r="OB1494" s="0"/>
+      <c r="OC1494" s="0"/>
+      <c r="OD1494" s="0"/>
+      <c r="OE1494" s="0"/>
+      <c r="OF1494" s="0"/>
+      <c r="OG1494" s="0"/>
+      <c r="OH1494" s="0"/>
+      <c r="OI1494" s="0"/>
+      <c r="OJ1494" s="0"/>
+      <c r="OK1494" s="0"/>
+      <c r="OL1494" s="0"/>
+      <c r="OM1494" s="0"/>
+      <c r="ON1494" s="0"/>
+      <c r="OO1494" s="0"/>
+      <c r="OP1494" s="0"/>
+      <c r="OQ1494" s="0"/>
+      <c r="OR1494" s="0"/>
+      <c r="OS1494" s="0"/>
+      <c r="OT1494" s="0"/>
+      <c r="OU1494" s="0"/>
+      <c r="OV1494" s="0"/>
+      <c r="OW1494" s="0"/>
+      <c r="OX1494" s="0"/>
+      <c r="OY1494" s="0"/>
+      <c r="OZ1494" s="0"/>
+      <c r="PA1494" s="0"/>
+      <c r="PB1494" s="0"/>
+      <c r="PC1494" s="0"/>
+      <c r="PD1494" s="0"/>
+      <c r="PE1494" s="0"/>
+      <c r="PF1494" s="0"/>
+      <c r="PG1494" s="0"/>
+      <c r="PH1494" s="0"/>
+      <c r="PI1494" s="0"/>
+      <c r="PJ1494" s="0"/>
+      <c r="PK1494" s="0"/>
+      <c r="PL1494" s="0"/>
+      <c r="PM1494" s="0"/>
+      <c r="PN1494" s="0"/>
+      <c r="PO1494" s="0"/>
+      <c r="PP1494" s="0"/>
+      <c r="PQ1494" s="0"/>
+      <c r="PR1494" s="0"/>
+      <c r="PS1494" s="0"/>
+      <c r="PT1494" s="0"/>
+      <c r="PU1494" s="0"/>
+      <c r="PV1494" s="0"/>
+      <c r="PW1494" s="0"/>
+      <c r="PX1494" s="0"/>
+      <c r="PY1494" s="0"/>
+      <c r="PZ1494" s="0"/>
+      <c r="QA1494" s="0"/>
+      <c r="QB1494" s="0"/>
+      <c r="QC1494" s="0"/>
+      <c r="QD1494" s="0"/>
+      <c r="QE1494" s="0"/>
+      <c r="QF1494" s="0"/>
+      <c r="QG1494" s="0"/>
+      <c r="QH1494" s="0"/>
+      <c r="QI1494" s="0"/>
+      <c r="QJ1494" s="0"/>
+      <c r="QK1494" s="0"/>
+      <c r="QL1494" s="0"/>
+      <c r="QM1494" s="0"/>
+      <c r="QN1494" s="0"/>
+      <c r="QO1494" s="0"/>
+      <c r="QP1494" s="0"/>
+      <c r="QQ1494" s="0"/>
+      <c r="QR1494" s="0"/>
+      <c r="QS1494" s="0"/>
+      <c r="QT1494" s="0"/>
+      <c r="QU1494" s="0"/>
+      <c r="QV1494" s="0"/>
+      <c r="QW1494" s="0"/>
+      <c r="QX1494" s="0"/>
+      <c r="QY1494" s="0"/>
+      <c r="QZ1494" s="0"/>
+      <c r="RA1494" s="0"/>
+      <c r="RB1494" s="0"/>
+      <c r="RC1494" s="0"/>
+      <c r="RD1494" s="0"/>
+      <c r="RE1494" s="0"/>
+      <c r="RF1494" s="0"/>
+      <c r="RG1494" s="0"/>
+      <c r="RH1494" s="0"/>
+      <c r="RI1494" s="0"/>
+      <c r="RJ1494" s="0"/>
+      <c r="RK1494" s="0"/>
+      <c r="RL1494" s="0"/>
+      <c r="RM1494" s="0"/>
+      <c r="RN1494" s="0"/>
+      <c r="RO1494" s="0"/>
+      <c r="RP1494" s="0"/>
+      <c r="RQ1494" s="0"/>
+      <c r="RR1494" s="0"/>
+      <c r="RS1494" s="0"/>
+      <c r="RT1494" s="0"/>
+      <c r="RU1494" s="0"/>
+      <c r="RV1494" s="0"/>
+      <c r="RW1494" s="0"/>
+      <c r="RX1494" s="0"/>
+      <c r="RY1494" s="0"/>
+      <c r="RZ1494" s="0"/>
+      <c r="SA1494" s="0"/>
+      <c r="SB1494" s="0"/>
+      <c r="SC1494" s="0"/>
+      <c r="SD1494" s="0"/>
+      <c r="SE1494" s="0"/>
+      <c r="SF1494" s="0"/>
+      <c r="SG1494" s="0"/>
+      <c r="SH1494" s="0"/>
+      <c r="SI1494" s="0"/>
+      <c r="SJ1494" s="0"/>
+      <c r="SK1494" s="0"/>
+      <c r="SL1494" s="0"/>
+      <c r="SM1494" s="0"/>
+      <c r="SN1494" s="0"/>
+      <c r="SO1494" s="0"/>
+      <c r="SP1494" s="0"/>
+      <c r="SQ1494" s="0"/>
+      <c r="SR1494" s="0"/>
+      <c r="SS1494" s="0"/>
+      <c r="ST1494" s="0"/>
+      <c r="SU1494" s="0"/>
+      <c r="SV1494" s="0"/>
+      <c r="SW1494" s="0"/>
+      <c r="SX1494" s="0"/>
+      <c r="SY1494" s="0"/>
+      <c r="SZ1494" s="0"/>
+      <c r="TA1494" s="0"/>
+      <c r="TB1494" s="0"/>
+      <c r="TC1494" s="0"/>
+      <c r="TD1494" s="0"/>
+      <c r="TE1494" s="0"/>
+      <c r="TF1494" s="0"/>
+      <c r="TG1494" s="0"/>
+      <c r="TH1494" s="0"/>
+      <c r="TI1494" s="0"/>
+      <c r="TJ1494" s="0"/>
+      <c r="TK1494" s="0"/>
+      <c r="TL1494" s="0"/>
+      <c r="TM1494" s="0"/>
+      <c r="TN1494" s="0"/>
+      <c r="TO1494" s="0"/>
+      <c r="TP1494" s="0"/>
+      <c r="TQ1494" s="0"/>
+      <c r="TR1494" s="0"/>
+      <c r="TS1494" s="0"/>
+      <c r="TT1494" s="0"/>
+      <c r="TU1494" s="0"/>
+      <c r="TV1494" s="0"/>
+      <c r="TW1494" s="0"/>
+      <c r="TX1494" s="0"/>
+      <c r="TY1494" s="0"/>
+      <c r="TZ1494" s="0"/>
+      <c r="UA1494" s="0"/>
+      <c r="UB1494" s="0"/>
+      <c r="UC1494" s="0"/>
+      <c r="UD1494" s="0"/>
+      <c r="UE1494" s="0"/>
+      <c r="UF1494" s="0"/>
+      <c r="UG1494" s="0"/>
+      <c r="UH1494" s="0"/>
+      <c r="UI1494" s="0"/>
+      <c r="UJ1494" s="0"/>
+      <c r="UK1494" s="0"/>
+      <c r="UL1494" s="0"/>
+      <c r="UM1494" s="0"/>
+      <c r="UN1494" s="0"/>
+      <c r="UO1494" s="0"/>
+      <c r="UP1494" s="0"/>
+      <c r="UQ1494" s="0"/>
+      <c r="UR1494" s="0"/>
+      <c r="US1494" s="0"/>
+      <c r="UT1494" s="0"/>
+      <c r="UU1494" s="0"/>
+      <c r="UV1494" s="0"/>
+      <c r="UW1494" s="0"/>
+      <c r="UX1494" s="0"/>
+      <c r="UY1494" s="0"/>
+      <c r="UZ1494" s="0"/>
+      <c r="VA1494" s="0"/>
+      <c r="VB1494" s="0"/>
+      <c r="VC1494" s="0"/>
+      <c r="VD1494" s="0"/>
+      <c r="VE1494" s="0"/>
+      <c r="VF1494" s="0"/>
+      <c r="VG1494" s="0"/>
+      <c r="VH1494" s="0"/>
+      <c r="VI1494" s="0"/>
+      <c r="VJ1494" s="0"/>
+      <c r="VK1494" s="0"/>
+      <c r="VL1494" s="0"/>
+      <c r="VM1494" s="0"/>
+      <c r="VN1494" s="0"/>
+      <c r="VO1494" s="0"/>
+      <c r="VP1494" s="0"/>
+      <c r="VQ1494" s="0"/>
+      <c r="VR1494" s="0"/>
+      <c r="VS1494" s="0"/>
+      <c r="VT1494" s="0"/>
+      <c r="VU1494" s="0"/>
+      <c r="VV1494" s="0"/>
+      <c r="VW1494" s="0"/>
+      <c r="VX1494" s="0"/>
+      <c r="VY1494" s="0"/>
+      <c r="VZ1494" s="0"/>
+      <c r="WA1494" s="0"/>
+      <c r="WB1494" s="0"/>
+      <c r="WC1494" s="0"/>
+      <c r="WD1494" s="0"/>
+      <c r="WE1494" s="0"/>
+      <c r="WF1494" s="0"/>
+      <c r="WG1494" s="0"/>
+      <c r="WH1494" s="0"/>
+      <c r="WI1494" s="0"/>
+      <c r="WJ1494" s="0"/>
+      <c r="WK1494" s="0"/>
+      <c r="WL1494" s="0"/>
+      <c r="WM1494" s="0"/>
+      <c r="WN1494" s="0"/>
+      <c r="WO1494" s="0"/>
+      <c r="WP1494" s="0"/>
+      <c r="WQ1494" s="0"/>
+      <c r="WR1494" s="0"/>
+      <c r="WS1494" s="0"/>
+      <c r="WT1494" s="0"/>
+      <c r="WU1494" s="0"/>
+      <c r="WV1494" s="0"/>
+      <c r="WW1494" s="0"/>
+      <c r="WX1494" s="0"/>
+      <c r="WY1494" s="0"/>
+      <c r="WZ1494" s="0"/>
+      <c r="XA1494" s="0"/>
+      <c r="XB1494" s="0"/>
+      <c r="XC1494" s="0"/>
+      <c r="XD1494" s="0"/>
+      <c r="XE1494" s="0"/>
+      <c r="XF1494" s="0"/>
+      <c r="XG1494" s="0"/>
+      <c r="XH1494" s="0"/>
+      <c r="XI1494" s="0"/>
+      <c r="XJ1494" s="0"/>
+      <c r="XK1494" s="0"/>
+      <c r="XL1494" s="0"/>
+      <c r="XM1494" s="0"/>
+      <c r="XN1494" s="0"/>
+      <c r="XO1494" s="0"/>
+      <c r="XP1494" s="0"/>
+      <c r="XQ1494" s="0"/>
+      <c r="XR1494" s="0"/>
+      <c r="XS1494" s="0"/>
+      <c r="XT1494" s="0"/>
+      <c r="XU1494" s="0"/>
+      <c r="XV1494" s="0"/>
+      <c r="XW1494" s="0"/>
+      <c r="XX1494" s="0"/>
+      <c r="XY1494" s="0"/>
+      <c r="XZ1494" s="0"/>
+      <c r="YA1494" s="0"/>
+      <c r="YB1494" s="0"/>
+      <c r="YC1494" s="0"/>
+      <c r="YD1494" s="0"/>
+      <c r="YE1494" s="0"/>
+      <c r="YF1494" s="0"/>
+      <c r="YG1494" s="0"/>
+      <c r="YH1494" s="0"/>
+      <c r="YI1494" s="0"/>
+      <c r="YJ1494" s="0"/>
+      <c r="YK1494" s="0"/>
+      <c r="YL1494" s="0"/>
+      <c r="YM1494" s="0"/>
+      <c r="YN1494" s="0"/>
+      <c r="YO1494" s="0"/>
+      <c r="YP1494" s="0"/>
+      <c r="YQ1494" s="0"/>
+      <c r="YR1494" s="0"/>
+      <c r="YS1494" s="0"/>
+      <c r="YT1494" s="0"/>
+      <c r="YU1494" s="0"/>
+      <c r="YV1494" s="0"/>
+      <c r="YW1494" s="0"/>
+      <c r="YX1494" s="0"/>
+      <c r="YY1494" s="0"/>
+      <c r="YZ1494" s="0"/>
+      <c r="ZA1494" s="0"/>
+      <c r="ZB1494" s="0"/>
+      <c r="ZC1494" s="0"/>
+      <c r="ZD1494" s="0"/>
+      <c r="ZE1494" s="0"/>
+      <c r="ZF1494" s="0"/>
+      <c r="ZG1494" s="0"/>
+      <c r="ZH1494" s="0"/>
+      <c r="ZI1494" s="0"/>
+      <c r="ZJ1494" s="0"/>
+      <c r="ZK1494" s="0"/>
+      <c r="ZL1494" s="0"/>
+      <c r="ZM1494" s="0"/>
+      <c r="ZN1494" s="0"/>
+      <c r="ZO1494" s="0"/>
+      <c r="ZP1494" s="0"/>
+      <c r="ZQ1494" s="0"/>
+      <c r="ZR1494" s="0"/>
+      <c r="ZS1494" s="0"/>
+      <c r="ZT1494" s="0"/>
+      <c r="ZU1494" s="0"/>
+      <c r="ZV1494" s="0"/>
+      <c r="ZW1494" s="0"/>
+      <c r="ZX1494" s="0"/>
+      <c r="ZY1494" s="0"/>
+      <c r="ZZ1494" s="0"/>
+      <c r="AAA1494" s="0"/>
+      <c r="AAB1494" s="0"/>
+      <c r="AAC1494" s="0"/>
+      <c r="AAD1494" s="0"/>
+      <c r="AAE1494" s="0"/>
+      <c r="AAF1494" s="0"/>
+      <c r="AAG1494" s="0"/>
+      <c r="AAH1494" s="0"/>
+      <c r="AAI1494" s="0"/>
+      <c r="AAJ1494" s="0"/>
+      <c r="AAK1494" s="0"/>
+      <c r="AAL1494" s="0"/>
+      <c r="AAM1494" s="0"/>
+      <c r="AAN1494" s="0"/>
+      <c r="AAO1494" s="0"/>
+      <c r="AAP1494" s="0"/>
+      <c r="AAQ1494" s="0"/>
+      <c r="AAR1494" s="0"/>
+      <c r="AAS1494" s="0"/>
+      <c r="AAT1494" s="0"/>
+      <c r="AAU1494" s="0"/>
+      <c r="AAV1494" s="0"/>
+      <c r="AAW1494" s="0"/>
+      <c r="AAX1494" s="0"/>
+      <c r="AAY1494" s="0"/>
+      <c r="AAZ1494" s="0"/>
+      <c r="ABA1494" s="0"/>
+      <c r="ABB1494" s="0"/>
+      <c r="ABC1494" s="0"/>
+      <c r="ABD1494" s="0"/>
+      <c r="ABE1494" s="0"/>
+      <c r="ABF1494" s="0"/>
+      <c r="ABG1494" s="0"/>
+      <c r="ABH1494" s="0"/>
+      <c r="ABI1494" s="0"/>
+      <c r="ABJ1494" s="0"/>
+      <c r="ABK1494" s="0"/>
+      <c r="ABL1494" s="0"/>
+      <c r="ABM1494" s="0"/>
+      <c r="ABN1494" s="0"/>
+      <c r="ABO1494" s="0"/>
+      <c r="ABP1494" s="0"/>
+      <c r="ABQ1494" s="0"/>
+      <c r="ABR1494" s="0"/>
+      <c r="ABS1494" s="0"/>
+      <c r="ABT1494" s="0"/>
+      <c r="ABU1494" s="0"/>
+      <c r="ABV1494" s="0"/>
+      <c r="ABW1494" s="0"/>
+      <c r="ABX1494" s="0"/>
+      <c r="ABY1494" s="0"/>
+      <c r="ABZ1494" s="0"/>
+      <c r="ACA1494" s="0"/>
+      <c r="ACB1494" s="0"/>
+      <c r="ACC1494" s="0"/>
+      <c r="ACD1494" s="0"/>
+      <c r="ACE1494" s="0"/>
+      <c r="ACF1494" s="0"/>
+      <c r="ACG1494" s="0"/>
+      <c r="ACH1494" s="0"/>
+      <c r="ACI1494" s="0"/>
+      <c r="ACJ1494" s="0"/>
+      <c r="ACK1494" s="0"/>
+      <c r="ACL1494" s="0"/>
+      <c r="ACM1494" s="0"/>
+      <c r="ACN1494" s="0"/>
+      <c r="ACO1494" s="0"/>
+      <c r="ACP1494" s="0"/>
+      <c r="ACQ1494" s="0"/>
+      <c r="ACR1494" s="0"/>
+      <c r="ACS1494" s="0"/>
+      <c r="ACT1494" s="0"/>
+      <c r="ACU1494" s="0"/>
+      <c r="ACV1494" s="0"/>
+      <c r="ACW1494" s="0"/>
+      <c r="ACX1494" s="0"/>
+      <c r="ACY1494" s="0"/>
+      <c r="ACZ1494" s="0"/>
+      <c r="ADA1494" s="0"/>
+      <c r="ADB1494" s="0"/>
+      <c r="ADC1494" s="0"/>
+      <c r="ADD1494" s="0"/>
+      <c r="ADE1494" s="0"/>
+      <c r="ADF1494" s="0"/>
+      <c r="ADG1494" s="0"/>
+      <c r="ADH1494" s="0"/>
+      <c r="ADI1494" s="0"/>
+      <c r="ADJ1494" s="0"/>
+      <c r="ADK1494" s="0"/>
+      <c r="ADL1494" s="0"/>
+      <c r="ADM1494" s="0"/>
+      <c r="ADN1494" s="0"/>
+      <c r="ADO1494" s="0"/>
+      <c r="ADP1494" s="0"/>
+      <c r="ADQ1494" s="0"/>
+      <c r="ADR1494" s="0"/>
+      <c r="ADS1494" s="0"/>
+      <c r="ADT1494" s="0"/>
+      <c r="ADU1494" s="0"/>
+      <c r="ADV1494" s="0"/>
+      <c r="ADW1494" s="0"/>
+      <c r="ADX1494" s="0"/>
+      <c r="ADY1494" s="0"/>
+      <c r="ADZ1494" s="0"/>
+      <c r="AEA1494" s="0"/>
+      <c r="AEB1494" s="0"/>
+      <c r="AEC1494" s="0"/>
+      <c r="AED1494" s="0"/>
+      <c r="AEE1494" s="0"/>
+      <c r="AEF1494" s="0"/>
+      <c r="AEG1494" s="0"/>
+      <c r="AEH1494" s="0"/>
+      <c r="AEI1494" s="0"/>
+      <c r="AEJ1494" s="0"/>
+      <c r="AEK1494" s="0"/>
+      <c r="AEL1494" s="0"/>
+      <c r="AEM1494" s="0"/>
+      <c r="AEN1494" s="0"/>
+      <c r="AEO1494" s="0"/>
+      <c r="AEP1494" s="0"/>
+      <c r="AEQ1494" s="0"/>
+      <c r="AER1494" s="0"/>
+      <c r="AES1494" s="0"/>
+      <c r="AET1494" s="0"/>
+      <c r="AEU1494" s="0"/>
+      <c r="AEV1494" s="0"/>
+      <c r="AEW1494" s="0"/>
+      <c r="AEX1494" s="0"/>
+      <c r="AEY1494" s="0"/>
+      <c r="AEZ1494" s="0"/>
+      <c r="AFA1494" s="0"/>
+      <c r="AFB1494" s="0"/>
+      <c r="AFC1494" s="0"/>
+      <c r="AFD1494" s="0"/>
+      <c r="AFE1494" s="0"/>
+      <c r="AFF1494" s="0"/>
+      <c r="AFG1494" s="0"/>
+      <c r="AFH1494" s="0"/>
+      <c r="AFI1494" s="0"/>
+      <c r="AFJ1494" s="0"/>
+      <c r="AFK1494" s="0"/>
+      <c r="AFL1494" s="0"/>
+      <c r="AFM1494" s="0"/>
+      <c r="AFN1494" s="0"/>
+      <c r="AFO1494" s="0"/>
+      <c r="AFP1494" s="0"/>
+      <c r="AFQ1494" s="0"/>
+      <c r="AFR1494" s="0"/>
+      <c r="AFS1494" s="0"/>
+      <c r="AFT1494" s="0"/>
+      <c r="AFU1494" s="0"/>
+      <c r="AFV1494" s="0"/>
+      <c r="AFW1494" s="0"/>
+      <c r="AFX1494" s="0"/>
+      <c r="AFY1494" s="0"/>
+      <c r="AFZ1494" s="0"/>
+      <c r="AGA1494" s="0"/>
+      <c r="AGB1494" s="0"/>
+      <c r="AGC1494" s="0"/>
+      <c r="AGD1494" s="0"/>
+      <c r="AGE1494" s="0"/>
+      <c r="AGF1494" s="0"/>
+      <c r="AGG1494" s="0"/>
+      <c r="AGH1494" s="0"/>
+      <c r="AGI1494" s="0"/>
+      <c r="AGJ1494" s="0"/>
+      <c r="AGK1494" s="0"/>
+      <c r="AGL1494" s="0"/>
+      <c r="AGM1494" s="0"/>
+      <c r="AGN1494" s="0"/>
+      <c r="AGO1494" s="0"/>
+      <c r="AGP1494" s="0"/>
+      <c r="AGQ1494" s="0"/>
+      <c r="AGR1494" s="0"/>
+      <c r="AGS1494" s="0"/>
+      <c r="AGT1494" s="0"/>
+      <c r="AGU1494" s="0"/>
+      <c r="AGV1494" s="0"/>
+      <c r="AGW1494" s="0"/>
+      <c r="AGX1494" s="0"/>
+      <c r="AGY1494" s="0"/>
+      <c r="AGZ1494" s="0"/>
+      <c r="AHA1494" s="0"/>
+      <c r="AHB1494" s="0"/>
+      <c r="AHC1494" s="0"/>
+      <c r="AHD1494" s="0"/>
+      <c r="AHE1494" s="0"/>
+      <c r="AHF1494" s="0"/>
+      <c r="AHG1494" s="0"/>
+      <c r="AHH1494" s="0"/>
+      <c r="AHI1494" s="0"/>
+      <c r="AHJ1494" s="0"/>
+      <c r="AHK1494" s="0"/>
+      <c r="AHL1494" s="0"/>
+      <c r="AHM1494" s="0"/>
+      <c r="AHN1494" s="0"/>
+      <c r="AHO1494" s="0"/>
+      <c r="AHP1494" s="0"/>
+      <c r="AHQ1494" s="0"/>
+      <c r="AHR1494" s="0"/>
+      <c r="AHS1494" s="0"/>
+      <c r="AHT1494" s="0"/>
+      <c r="AHU1494" s="0"/>
+      <c r="AHV1494" s="0"/>
+      <c r="AHW1494" s="0"/>
+      <c r="AHX1494" s="0"/>
+      <c r="AHY1494" s="0"/>
+      <c r="AHZ1494" s="0"/>
+      <c r="AIA1494" s="0"/>
+      <c r="AIB1494" s="0"/>
+      <c r="AIC1494" s="0"/>
+      <c r="AID1494" s="0"/>
+      <c r="AIE1494" s="0"/>
+      <c r="AIF1494" s="0"/>
+      <c r="AIG1494" s="0"/>
+      <c r="AIH1494" s="0"/>
+      <c r="AII1494" s="0"/>
+      <c r="AIJ1494" s="0"/>
+      <c r="AIK1494" s="0"/>
+      <c r="AIL1494" s="0"/>
+      <c r="AIM1494" s="0"/>
+      <c r="AIN1494" s="0"/>
+      <c r="AIO1494" s="0"/>
+      <c r="AIP1494" s="0"/>
+      <c r="AIQ1494" s="0"/>
+      <c r="AIR1494" s="0"/>
+      <c r="AIS1494" s="0"/>
+      <c r="AIT1494" s="0"/>
+      <c r="AIU1494" s="0"/>
+      <c r="AIV1494" s="0"/>
+      <c r="AIW1494" s="0"/>
+      <c r="AIX1494" s="0"/>
+      <c r="AIY1494" s="0"/>
+      <c r="AIZ1494" s="0"/>
+      <c r="AJA1494" s="0"/>
+      <c r="AJB1494" s="0"/>
+      <c r="AJC1494" s="0"/>
+      <c r="AJD1494" s="0"/>
+      <c r="AJE1494" s="0"/>
+      <c r="AJF1494" s="0"/>
+      <c r="AJG1494" s="0"/>
+      <c r="AJH1494" s="0"/>
+      <c r="AJI1494" s="0"/>
+      <c r="AJJ1494" s="0"/>
+      <c r="AJK1494" s="0"/>
+      <c r="AJL1494" s="0"/>
+      <c r="AJM1494" s="0"/>
+      <c r="AJN1494" s="0"/>
+      <c r="AJO1494" s="0"/>
+      <c r="AJP1494" s="0"/>
+      <c r="AJQ1494" s="0"/>
+      <c r="AJR1494" s="0"/>
+      <c r="AJS1494" s="0"/>
+      <c r="AJT1494" s="0"/>
+      <c r="AJU1494" s="0"/>
+      <c r="AJV1494" s="0"/>
+      <c r="AJW1494" s="0"/>
+      <c r="AJX1494" s="0"/>
+      <c r="AJY1494" s="0"/>
+      <c r="AJZ1494" s="0"/>
+      <c r="AKA1494" s="0"/>
+      <c r="AKB1494" s="0"/>
+      <c r="AKC1494" s="0"/>
+      <c r="AKD1494" s="0"/>
+      <c r="AKE1494" s="0"/>
+      <c r="AKF1494" s="0"/>
+      <c r="AKG1494" s="0"/>
+      <c r="AKH1494" s="0"/>
+      <c r="AKI1494" s="0"/>
+      <c r="AKJ1494" s="0"/>
+      <c r="AKK1494" s="0"/>
+      <c r="AKL1494" s="0"/>
+      <c r="AKM1494" s="0"/>
+      <c r="AKN1494" s="0"/>
+      <c r="AKO1494" s="0"/>
+      <c r="AKP1494" s="0"/>
+      <c r="AKQ1494" s="0"/>
+      <c r="AKR1494" s="0"/>
+      <c r="AKS1494" s="0"/>
+      <c r="AKT1494" s="0"/>
+      <c r="AKU1494" s="0"/>
+      <c r="AKV1494" s="0"/>
+      <c r="AKW1494" s="0"/>
+      <c r="AKX1494" s="0"/>
+      <c r="AKY1494" s="0"/>
+      <c r="AKZ1494" s="0"/>
+      <c r="ALA1494" s="0"/>
+      <c r="ALB1494" s="0"/>
+      <c r="ALC1494" s="0"/>
+      <c r="ALD1494" s="0"/>
+      <c r="ALE1494" s="0"/>
+      <c r="ALF1494" s="0"/>
+      <c r="ALG1494" s="0"/>
+      <c r="ALH1494" s="0"/>
+      <c r="ALI1494" s="0"/>
+      <c r="ALJ1494" s="0"/>
+      <c r="ALK1494" s="0"/>
+      <c r="ALL1494" s="0"/>
+      <c r="ALM1494" s="0"/>
+      <c r="ALN1494" s="0"/>
+      <c r="ALO1494" s="0"/>
+      <c r="ALP1494" s="0"/>
+      <c r="ALQ1494" s="0"/>
+      <c r="ALR1494" s="0"/>
+      <c r="ALS1494" s="0"/>
+      <c r="ALT1494" s="0"/>
+      <c r="ALU1494" s="0"/>
+      <c r="ALV1494" s="0"/>
+      <c r="ALW1494" s="0"/>
+      <c r="ALX1494" s="0"/>
+      <c r="ALY1494" s="0"/>
+      <c r="ALZ1494" s="0"/>
+      <c r="AMA1494" s="0"/>
+      <c r="AMB1494" s="0"/>
+      <c r="AMC1494" s="0"/>
+      <c r="AMD1494" s="0"/>
+      <c r="AME1494" s="0"/>
+      <c r="AMF1494" s="0"/>
+      <c r="AMG1494" s="0"/>
+      <c r="AMH1494" s="0"/>
+      <c r="AMI1494" s="0"/>
+    </row>
+    <row r="1495" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="19"/>
+      <c r="B1495" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1493" s="11" t="s">
+      <c r="C1495" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1493" s="11" t="s">
+      <c r="D1495" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1493" s="11" t="s">
+      <c r="E1495" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1493" s="11" t="s">
+      <c r="F1495" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1493" s="11" t="s">
+      <c r="G1495" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1493" s="11" t="s">
+      <c r="H1495" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1493" s="21" t="s">
+      <c r="I1495" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1493" s="21" t="s">
+      <c r="J1495" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1493" s="21" t="s">
+      <c r="K1495" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1493" s="11" t="s">
+      <c r="L1495" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1493" s="11" t="s">
+      <c r="M1495" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1493" s="11" t="s">
+      <c r="N1495" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1493" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1493" s="1"/>
-    </row>
-    <row r="1494" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1494" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B1494" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1494" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1494" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1494" s="28"/>
-      <c r="F1494" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1494" s="23"/>
-      <c r="H1494" s="23"/>
-      <c r="I1494" s="24" t="s">
-        <v>1497</v>
-      </c>
-      <c r="J1494" s="24"/>
-      <c r="K1494" s="24"/>
-      <c r="L1494" s="23"/>
-      <c r="M1494" s="23"/>
-      <c r="N1494" s="23"/>
-      <c r="O1494" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1494" s="1"/>
-    </row>
-    <row r="1495" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1495" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1495" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1495" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1495" s="28"/>
-      <c r="F1495" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1495" s="23"/>
-      <c r="H1495" s="23"/>
-      <c r="I1495" s="24" t="s">
-        <v>1498</v>
-      </c>
-      <c r="J1495" s="24"/>
-      <c r="K1495" s="24"/>
-      <c r="L1495" s="23"/>
-      <c r="M1495" s="23"/>
-      <c r="N1495" s="23"/>
       <c r="O1495" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1495" s="1"/>
-    </row>
-    <row r="1496" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="1496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="22" t="s">
+        <v>1499</v>
+      </c>
       <c r="B1496" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C1496" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D1496" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="D1496" s="23"/>
       <c r="E1496" s="28"/>
       <c r="F1496" s="23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G1496" s="23"/>
       <c r="H1496" s="23"/>
       <c r="I1496" s="24" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="J1496" s="24"/>
       <c r="K1496" s="24"/>
@@ -47035,17 +49065,24 @@
       <c r="O1496" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1496" s="1"/>
-    </row>
-    <row r="1497" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1497" s="23"/>
-      <c r="C1497" s="23"/>
+    </row>
+    <row r="1497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1497" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1497" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1497" s="23"/>
-      <c r="E1497" s="23"/>
-      <c r="F1497" s="23"/>
+      <c r="E1497" s="28"/>
+      <c r="F1497" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G1497" s="23"/>
       <c r="H1497" s="23"/>
-      <c r="I1497" s="24"/>
+      <c r="I1497" s="24" t="s">
+        <v>1501</v>
+      </c>
       <c r="J1497" s="24"/>
       <c r="K1497" s="24"/>
       <c r="L1497" s="23"/>
@@ -47054,541 +49091,1538 @@
       <c r="O1497" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1497" s="1"/>
     </row>
     <row r="1498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1498" s="25"/>
-      <c r="C1498" s="1"/>
-      <c r="D1498" s="1"/>
-      <c r="E1498" s="1"/>
-      <c r="F1498" s="1"/>
-      <c r="G1498" s="1"/>
-      <c r="H1498" s="1"/>
-      <c r="I1498" s="1"/>
-      <c r="J1498" s="1"/>
-      <c r="K1498" s="1"/>
-      <c r="L1498" s="1"/>
-      <c r="M1498" s="1"/>
-      <c r="N1498" s="1"/>
+      <c r="B1498" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1498" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1498" s="23"/>
+      <c r="E1498" s="28"/>
+      <c r="F1498" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1498" s="23"/>
+      <c r="H1498" s="23"/>
+      <c r="I1498" s="24" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J1498" s="24"/>
+      <c r="K1498" s="24"/>
+      <c r="L1498" s="23"/>
+      <c r="M1498" s="23"/>
+      <c r="N1498" s="23"/>
       <c r="O1498" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1499" s="25"/>
-      <c r="C1499" s="1"/>
-      <c r="D1499" s="1"/>
-      <c r="E1499" s="1"/>
-      <c r="F1499" s="1"/>
-      <c r="G1499" s="1"/>
-      <c r="H1499" s="1"/>
-      <c r="I1499" s="1"/>
-      <c r="J1499" s="1"/>
-      <c r="K1499" s="1"/>
-      <c r="L1499" s="1"/>
-      <c r="M1499" s="1"/>
-      <c r="N1499" s="1"/>
+      <c r="B1499" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1499" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1499" s="23"/>
+      <c r="E1499" s="28"/>
+      <c r="F1499" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1499" s="23"/>
+      <c r="H1499" s="23"/>
+      <c r="I1499" s="24" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J1499" s="24"/>
+      <c r="K1499" s="24"/>
+      <c r="L1499" s="23"/>
+      <c r="M1499" s="23"/>
+      <c r="N1499" s="23"/>
       <c r="O1499" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1500" s="9"/>
-      <c r="O1500" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1500" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1500" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1500" s="23"/>
+      <c r="E1500" s="28"/>
+      <c r="F1500" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1500" s="23"/>
+      <c r="H1500" s="23"/>
+      <c r="I1500" s="24" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J1500" s="24"/>
+      <c r="K1500" s="24"/>
+      <c r="L1500" s="23"/>
+      <c r="M1500" s="23"/>
+      <c r="N1500" s="23"/>
+      <c r="O1500" s="25"/>
     </row>
     <row r="1501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1501" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1501" s="17"/>
-      <c r="C1501" s="18"/>
-      <c r="D1501" s="18"/>
-      <c r="E1501" s="18"/>
-      <c r="F1501" s="18"/>
-      <c r="G1501" s="18"/>
-      <c r="H1501" s="18"/>
-      <c r="O1501" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1501" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1501" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1501" s="23"/>
+      <c r="E1501" s="28"/>
+      <c r="F1501" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1501" s="23"/>
+      <c r="H1501" s="23"/>
+      <c r="I1501" s="24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J1501" s="24"/>
+      <c r="K1501" s="24"/>
+      <c r="L1501" s="23"/>
+      <c r="M1501" s="23"/>
+      <c r="N1501" s="23"/>
+      <c r="O1501" s="25"/>
     </row>
     <row r="1502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1502" s="16" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B1502" s="17"/>
-      <c r="C1502" s="18"/>
-      <c r="D1502" s="18"/>
-      <c r="E1502" s="18"/>
-      <c r="F1502" s="18"/>
-      <c r="G1502" s="18"/>
-      <c r="H1502" s="18"/>
-      <c r="O1502" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1502" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1502" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1502" s="23"/>
+      <c r="E1502" s="28"/>
+      <c r="F1502" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1502" s="23"/>
+      <c r="H1502" s="23"/>
+      <c r="I1502" s="24" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J1502" s="24"/>
+      <c r="K1502" s="24"/>
+      <c r="L1502" s="23"/>
+      <c r="M1502" s="23"/>
+      <c r="N1502" s="23"/>
+      <c r="O1502" s="25"/>
     </row>
     <row r="1503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1503" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1503" s="17"/>
-      <c r="C1503" s="18"/>
-      <c r="D1503" s="18"/>
-      <c r="E1503" s="18"/>
-      <c r="F1503" s="18"/>
-      <c r="G1503" s="18"/>
-      <c r="H1503" s="18"/>
-      <c r="O1503" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1504" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1504" s="9"/>
-      <c r="B1504" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1504" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1504" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1504" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1504" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1504" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1504" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1504" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1504" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1504" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1504" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1504" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1504" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1504" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1505" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1505" s="22" t="s">
-        <v>1501</v>
-      </c>
+      <c r="B1503" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1503" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1503" s="23"/>
+      <c r="E1503" s="28"/>
+      <c r="F1503" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1503" s="23"/>
+      <c r="H1503" s="23"/>
+      <c r="I1503" s="24" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J1503" s="24"/>
+      <c r="K1503" s="24"/>
+      <c r="L1503" s="23"/>
+      <c r="M1503" s="23"/>
+      <c r="N1503" s="23"/>
+      <c r="O1503" s="25"/>
+    </row>
+    <row r="1504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1504" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1504" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1504" s="23"/>
+      <c r="E1504" s="28"/>
+      <c r="F1504" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1504" s="23"/>
+      <c r="H1504" s="23"/>
+      <c r="I1504" s="24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J1504" s="24"/>
+      <c r="K1504" s="24"/>
+      <c r="L1504" s="23"/>
+      <c r="M1504" s="23"/>
+      <c r="N1504" s="23"/>
+      <c r="O1504" s="25"/>
+    </row>
+    <row r="1505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1505" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1505" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1505" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1505" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1505" s="23"/>
+      <c r="E1505" s="28"/>
       <c r="F1505" s="23" t="s">
-        <v>943</v>
+        <v>43</v>
       </c>
       <c r="G1505" s="23"/>
       <c r="H1505" s="23"/>
       <c r="I1505" s="24" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="J1505" s="24"/>
       <c r="K1505" s="24"/>
-      <c r="O1505" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1506" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1506" s="22"/>
-      <c r="B1506" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1506" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1506" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1506" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1506" s="23" t="s">
-        <v>943</v>
-      </c>
+      <c r="L1505" s="23"/>
+      <c r="M1505" s="23"/>
+      <c r="N1505" s="23"/>
+      <c r="O1505" s="25"/>
+    </row>
+    <row r="1506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1506" s="23"/>
+      <c r="C1506" s="23"/>
+      <c r="D1506" s="23"/>
+      <c r="E1506" s="23"/>
+      <c r="F1506" s="23"/>
       <c r="G1506" s="23"/>
       <c r="H1506" s="23"/>
-      <c r="I1506" s="24" t="s">
-        <v>1504</v>
-      </c>
+      <c r="I1506" s="24"/>
       <c r="J1506" s="24"/>
       <c r="K1506" s="24"/>
-      <c r="O1506" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1507" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1507" s="22"/>
-      <c r="B1507" s="30" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C1507" s="28"/>
-      <c r="D1507" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1507" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1507" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1507" s="23"/>
-      <c r="H1507" s="23"/>
-      <c r="I1507" s="24" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J1507" s="24"/>
-      <c r="K1507" s="24" t="s">
-        <v>1507</v>
-      </c>
+      <c r="L1506" s="23"/>
+      <c r="M1506" s="23"/>
+      <c r="N1506" s="23"/>
+      <c r="O1506" s="25"/>
+    </row>
+    <row r="1507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1507" s="25"/>
+      <c r="C1507" s="1"/>
+      <c r="D1507" s="1"/>
+      <c r="E1507" s="1"/>
+      <c r="F1507" s="1"/>
+      <c r="G1507" s="1"/>
+      <c r="H1507" s="1"/>
+      <c r="I1507" s="1"/>
+      <c r="J1507" s="1"/>
+      <c r="K1507" s="1"/>
+      <c r="L1507" s="1"/>
+      <c r="M1507" s="1"/>
+      <c r="N1507" s="1"/>
       <c r="O1507" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="1508" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1508" s="22"/>
-      <c r="B1508" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1508" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1508" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1508" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1508" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1508" s="23"/>
-      <c r="H1508" s="23"/>
-      <c r="I1508" s="24" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J1508" s="24"/>
-      <c r="K1508" s="24"/>
+      <c r="Y1507" s="0"/>
+      <c r="Z1507" s="0"/>
+      <c r="AA1507" s="0"/>
+      <c r="AB1507" s="0"/>
+      <c r="AC1507" s="0"/>
+      <c r="AD1507" s="0"/>
+      <c r="AE1507" s="0"/>
+      <c r="AF1507" s="0"/>
+      <c r="AG1507" s="0"/>
+      <c r="AH1507" s="0"/>
+      <c r="AI1507" s="0"/>
+      <c r="AJ1507" s="0"/>
+      <c r="AK1507" s="0"/>
+      <c r="AL1507" s="0"/>
+      <c r="AM1507" s="0"/>
+      <c r="AN1507" s="0"/>
+      <c r="AO1507" s="0"/>
+      <c r="AP1507" s="0"/>
+      <c r="AQ1507" s="0"/>
+      <c r="AR1507" s="0"/>
+      <c r="AS1507" s="0"/>
+      <c r="AT1507" s="0"/>
+      <c r="AU1507" s="0"/>
+      <c r="AV1507" s="0"/>
+      <c r="AW1507" s="0"/>
+      <c r="AX1507" s="0"/>
+      <c r="AY1507" s="0"/>
+      <c r="AZ1507" s="0"/>
+      <c r="BA1507" s="0"/>
+      <c r="BB1507" s="0"/>
+      <c r="BC1507" s="0"/>
+      <c r="BD1507" s="0"/>
+      <c r="BE1507" s="0"/>
+      <c r="BF1507" s="0"/>
+      <c r="BG1507" s="0"/>
+      <c r="BH1507" s="0"/>
+      <c r="BI1507" s="0"/>
+      <c r="BJ1507" s="0"/>
+      <c r="BK1507" s="0"/>
+      <c r="BL1507" s="0"/>
+      <c r="BM1507" s="0"/>
+      <c r="BN1507" s="0"/>
+      <c r="BO1507" s="0"/>
+      <c r="BP1507" s="0"/>
+      <c r="BQ1507" s="0"/>
+      <c r="BR1507" s="0"/>
+      <c r="BS1507" s="0"/>
+      <c r="BT1507" s="0"/>
+      <c r="BU1507" s="0"/>
+      <c r="BV1507" s="0"/>
+      <c r="BW1507" s="0"/>
+      <c r="BX1507" s="0"/>
+      <c r="BY1507" s="0"/>
+      <c r="BZ1507" s="0"/>
+      <c r="CA1507" s="0"/>
+      <c r="CB1507" s="0"/>
+      <c r="CC1507" s="0"/>
+      <c r="CD1507" s="0"/>
+      <c r="CE1507" s="0"/>
+      <c r="CF1507" s="0"/>
+      <c r="CG1507" s="0"/>
+      <c r="CH1507" s="0"/>
+      <c r="CI1507" s="0"/>
+      <c r="CJ1507" s="0"/>
+      <c r="CK1507" s="0"/>
+      <c r="CL1507" s="0"/>
+      <c r="CM1507" s="0"/>
+      <c r="CN1507" s="0"/>
+      <c r="CO1507" s="0"/>
+      <c r="CP1507" s="0"/>
+      <c r="CQ1507" s="0"/>
+      <c r="CR1507" s="0"/>
+      <c r="CS1507" s="0"/>
+      <c r="CT1507" s="0"/>
+      <c r="CU1507" s="0"/>
+      <c r="CV1507" s="0"/>
+      <c r="CW1507" s="0"/>
+      <c r="CX1507" s="0"/>
+      <c r="CY1507" s="0"/>
+      <c r="CZ1507" s="0"/>
+      <c r="DA1507" s="0"/>
+      <c r="DB1507" s="0"/>
+      <c r="DC1507" s="0"/>
+      <c r="DD1507" s="0"/>
+      <c r="DE1507" s="0"/>
+      <c r="DF1507" s="0"/>
+      <c r="DG1507" s="0"/>
+      <c r="DH1507" s="0"/>
+      <c r="DI1507" s="0"/>
+      <c r="DJ1507" s="0"/>
+      <c r="DK1507" s="0"/>
+      <c r="DL1507" s="0"/>
+      <c r="DM1507" s="0"/>
+      <c r="DN1507" s="0"/>
+      <c r="DO1507" s="0"/>
+      <c r="DP1507" s="0"/>
+      <c r="DQ1507" s="0"/>
+      <c r="DR1507" s="0"/>
+      <c r="DS1507" s="0"/>
+      <c r="DT1507" s="0"/>
+      <c r="DU1507" s="0"/>
+      <c r="DV1507" s="0"/>
+      <c r="DW1507" s="0"/>
+      <c r="DX1507" s="0"/>
+      <c r="DY1507" s="0"/>
+      <c r="DZ1507" s="0"/>
+      <c r="EA1507" s="0"/>
+      <c r="EB1507" s="0"/>
+      <c r="EC1507" s="0"/>
+      <c r="ED1507" s="0"/>
+      <c r="EE1507" s="0"/>
+      <c r="EF1507" s="0"/>
+      <c r="EG1507" s="0"/>
+      <c r="EH1507" s="0"/>
+      <c r="EI1507" s="0"/>
+      <c r="EJ1507" s="0"/>
+      <c r="EK1507" s="0"/>
+      <c r="EL1507" s="0"/>
+      <c r="EM1507" s="0"/>
+      <c r="EN1507" s="0"/>
+      <c r="EO1507" s="0"/>
+      <c r="EP1507" s="0"/>
+      <c r="EQ1507" s="0"/>
+      <c r="ER1507" s="0"/>
+      <c r="ES1507" s="0"/>
+      <c r="ET1507" s="0"/>
+      <c r="EU1507" s="0"/>
+      <c r="EV1507" s="0"/>
+      <c r="EW1507" s="0"/>
+      <c r="EX1507" s="0"/>
+      <c r="EY1507" s="0"/>
+      <c r="EZ1507" s="0"/>
+      <c r="FA1507" s="0"/>
+      <c r="FB1507" s="0"/>
+      <c r="FC1507" s="0"/>
+      <c r="FD1507" s="0"/>
+      <c r="FE1507" s="0"/>
+      <c r="FF1507" s="0"/>
+      <c r="FG1507" s="0"/>
+      <c r="FH1507" s="0"/>
+      <c r="FI1507" s="0"/>
+      <c r="FJ1507" s="0"/>
+      <c r="FK1507" s="0"/>
+      <c r="FL1507" s="0"/>
+      <c r="FM1507" s="0"/>
+      <c r="FN1507" s="0"/>
+      <c r="FO1507" s="0"/>
+      <c r="FP1507" s="0"/>
+      <c r="FQ1507" s="0"/>
+      <c r="FR1507" s="0"/>
+      <c r="FS1507" s="0"/>
+      <c r="FT1507" s="0"/>
+      <c r="FU1507" s="0"/>
+      <c r="FV1507" s="0"/>
+      <c r="FW1507" s="0"/>
+      <c r="FX1507" s="0"/>
+      <c r="FY1507" s="0"/>
+      <c r="FZ1507" s="0"/>
+      <c r="GA1507" s="0"/>
+      <c r="GB1507" s="0"/>
+      <c r="GC1507" s="0"/>
+      <c r="GD1507" s="0"/>
+      <c r="GE1507" s="0"/>
+      <c r="GF1507" s="0"/>
+      <c r="GG1507" s="0"/>
+      <c r="GH1507" s="0"/>
+      <c r="GI1507" s="0"/>
+      <c r="GJ1507" s="0"/>
+      <c r="GK1507" s="0"/>
+      <c r="GL1507" s="0"/>
+      <c r="GM1507" s="0"/>
+      <c r="GN1507" s="0"/>
+      <c r="GO1507" s="0"/>
+      <c r="GP1507" s="0"/>
+      <c r="GQ1507" s="0"/>
+      <c r="GR1507" s="0"/>
+      <c r="GS1507" s="0"/>
+      <c r="GT1507" s="0"/>
+      <c r="GU1507" s="0"/>
+      <c r="GV1507" s="0"/>
+      <c r="GW1507" s="0"/>
+      <c r="GX1507" s="0"/>
+      <c r="GY1507" s="0"/>
+      <c r="GZ1507" s="0"/>
+      <c r="HA1507" s="0"/>
+      <c r="HB1507" s="0"/>
+      <c r="HC1507" s="0"/>
+      <c r="HD1507" s="0"/>
+      <c r="HE1507" s="0"/>
+      <c r="HF1507" s="0"/>
+      <c r="HG1507" s="0"/>
+      <c r="HH1507" s="0"/>
+      <c r="HI1507" s="0"/>
+      <c r="HJ1507" s="0"/>
+      <c r="HK1507" s="0"/>
+      <c r="HL1507" s="0"/>
+      <c r="HM1507" s="0"/>
+      <c r="HN1507" s="0"/>
+      <c r="HO1507" s="0"/>
+      <c r="HP1507" s="0"/>
+      <c r="HQ1507" s="0"/>
+      <c r="HR1507" s="0"/>
+      <c r="HS1507" s="0"/>
+      <c r="HT1507" s="0"/>
+      <c r="HU1507" s="0"/>
+      <c r="HV1507" s="0"/>
+      <c r="HW1507" s="0"/>
+      <c r="HX1507" s="0"/>
+      <c r="HY1507" s="0"/>
+      <c r="HZ1507" s="0"/>
+      <c r="IA1507" s="0"/>
+      <c r="IB1507" s="0"/>
+      <c r="IC1507" s="0"/>
+      <c r="ID1507" s="0"/>
+      <c r="IE1507" s="0"/>
+      <c r="IF1507" s="0"/>
+      <c r="IG1507" s="0"/>
+      <c r="IH1507" s="0"/>
+      <c r="II1507" s="0"/>
+      <c r="IJ1507" s="0"/>
+      <c r="IK1507" s="0"/>
+      <c r="IL1507" s="0"/>
+      <c r="IM1507" s="0"/>
+      <c r="IN1507" s="0"/>
+      <c r="IO1507" s="0"/>
+      <c r="IP1507" s="0"/>
+      <c r="IQ1507" s="0"/>
+      <c r="IR1507" s="0"/>
+      <c r="IS1507" s="0"/>
+      <c r="IT1507" s="0"/>
+      <c r="IU1507" s="0"/>
+      <c r="IV1507" s="0"/>
+      <c r="IW1507" s="0"/>
+      <c r="IX1507" s="0"/>
+      <c r="IY1507" s="0"/>
+      <c r="IZ1507" s="0"/>
+      <c r="JA1507" s="0"/>
+      <c r="JB1507" s="0"/>
+      <c r="JC1507" s="0"/>
+      <c r="JD1507" s="0"/>
+      <c r="JE1507" s="0"/>
+      <c r="JF1507" s="0"/>
+      <c r="JG1507" s="0"/>
+      <c r="JH1507" s="0"/>
+      <c r="JI1507" s="0"/>
+      <c r="JJ1507" s="0"/>
+      <c r="JK1507" s="0"/>
+      <c r="JL1507" s="0"/>
+      <c r="JM1507" s="0"/>
+      <c r="JN1507" s="0"/>
+      <c r="JO1507" s="0"/>
+      <c r="JP1507" s="0"/>
+      <c r="JQ1507" s="0"/>
+      <c r="JR1507" s="0"/>
+      <c r="JS1507" s="0"/>
+      <c r="JT1507" s="0"/>
+      <c r="JU1507" s="0"/>
+      <c r="JV1507" s="0"/>
+      <c r="JW1507" s="0"/>
+      <c r="JX1507" s="0"/>
+      <c r="JY1507" s="0"/>
+      <c r="JZ1507" s="0"/>
+      <c r="KA1507" s="0"/>
+      <c r="KB1507" s="0"/>
+      <c r="KC1507" s="0"/>
+      <c r="KD1507" s="0"/>
+      <c r="KE1507" s="0"/>
+      <c r="KF1507" s="0"/>
+      <c r="KG1507" s="0"/>
+      <c r="KH1507" s="0"/>
+      <c r="KI1507" s="0"/>
+      <c r="KJ1507" s="0"/>
+      <c r="KK1507" s="0"/>
+      <c r="KL1507" s="0"/>
+      <c r="KM1507" s="0"/>
+      <c r="KN1507" s="0"/>
+      <c r="KO1507" s="0"/>
+      <c r="KP1507" s="0"/>
+      <c r="KQ1507" s="0"/>
+      <c r="KR1507" s="0"/>
+      <c r="KS1507" s="0"/>
+      <c r="KT1507" s="0"/>
+      <c r="KU1507" s="0"/>
+      <c r="KV1507" s="0"/>
+      <c r="KW1507" s="0"/>
+      <c r="KX1507" s="0"/>
+      <c r="KY1507" s="0"/>
+      <c r="KZ1507" s="0"/>
+      <c r="LA1507" s="0"/>
+      <c r="LB1507" s="0"/>
+      <c r="LC1507" s="0"/>
+      <c r="LD1507" s="0"/>
+      <c r="LE1507" s="0"/>
+      <c r="LF1507" s="0"/>
+      <c r="LG1507" s="0"/>
+      <c r="LH1507" s="0"/>
+      <c r="LI1507" s="0"/>
+      <c r="LJ1507" s="0"/>
+      <c r="LK1507" s="0"/>
+      <c r="LL1507" s="0"/>
+      <c r="LM1507" s="0"/>
+      <c r="LN1507" s="0"/>
+      <c r="LO1507" s="0"/>
+      <c r="LP1507" s="0"/>
+      <c r="LQ1507" s="0"/>
+      <c r="LR1507" s="0"/>
+      <c r="LS1507" s="0"/>
+      <c r="LT1507" s="0"/>
+      <c r="LU1507" s="0"/>
+      <c r="LV1507" s="0"/>
+      <c r="LW1507" s="0"/>
+      <c r="LX1507" s="0"/>
+      <c r="LY1507" s="0"/>
+      <c r="LZ1507" s="0"/>
+      <c r="MA1507" s="0"/>
+      <c r="MB1507" s="0"/>
+      <c r="MC1507" s="0"/>
+      <c r="MD1507" s="0"/>
+      <c r="ME1507" s="0"/>
+      <c r="MF1507" s="0"/>
+      <c r="MG1507" s="0"/>
+      <c r="MH1507" s="0"/>
+      <c r="MI1507" s="0"/>
+      <c r="MJ1507" s="0"/>
+      <c r="MK1507" s="0"/>
+      <c r="ML1507" s="0"/>
+      <c r="MM1507" s="0"/>
+      <c r="MN1507" s="0"/>
+      <c r="MO1507" s="0"/>
+      <c r="MP1507" s="0"/>
+      <c r="MQ1507" s="0"/>
+      <c r="MR1507" s="0"/>
+      <c r="MS1507" s="0"/>
+      <c r="MT1507" s="0"/>
+      <c r="MU1507" s="0"/>
+      <c r="MV1507" s="0"/>
+      <c r="MW1507" s="0"/>
+      <c r="MX1507" s="0"/>
+      <c r="MY1507" s="0"/>
+      <c r="MZ1507" s="0"/>
+      <c r="NA1507" s="0"/>
+      <c r="NB1507" s="0"/>
+      <c r="NC1507" s="0"/>
+      <c r="ND1507" s="0"/>
+      <c r="NE1507" s="0"/>
+      <c r="NF1507" s="0"/>
+      <c r="NG1507" s="0"/>
+      <c r="NH1507" s="0"/>
+      <c r="NI1507" s="0"/>
+      <c r="NJ1507" s="0"/>
+      <c r="NK1507" s="0"/>
+      <c r="NL1507" s="0"/>
+      <c r="NM1507" s="0"/>
+      <c r="NN1507" s="0"/>
+      <c r="NO1507" s="0"/>
+      <c r="NP1507" s="0"/>
+      <c r="NQ1507" s="0"/>
+      <c r="NR1507" s="0"/>
+      <c r="NS1507" s="0"/>
+      <c r="NT1507" s="0"/>
+      <c r="NU1507" s="0"/>
+      <c r="NV1507" s="0"/>
+      <c r="NW1507" s="0"/>
+      <c r="NX1507" s="0"/>
+      <c r="NY1507" s="0"/>
+      <c r="NZ1507" s="0"/>
+      <c r="OA1507" s="0"/>
+      <c r="OB1507" s="0"/>
+      <c r="OC1507" s="0"/>
+      <c r="OD1507" s="0"/>
+      <c r="OE1507" s="0"/>
+      <c r="OF1507" s="0"/>
+      <c r="OG1507" s="0"/>
+      <c r="OH1507" s="0"/>
+      <c r="OI1507" s="0"/>
+      <c r="OJ1507" s="0"/>
+      <c r="OK1507" s="0"/>
+      <c r="OL1507" s="0"/>
+      <c r="OM1507" s="0"/>
+      <c r="ON1507" s="0"/>
+      <c r="OO1507" s="0"/>
+      <c r="OP1507" s="0"/>
+      <c r="OQ1507" s="0"/>
+      <c r="OR1507" s="0"/>
+      <c r="OS1507" s="0"/>
+      <c r="OT1507" s="0"/>
+      <c r="OU1507" s="0"/>
+      <c r="OV1507" s="0"/>
+      <c r="OW1507" s="0"/>
+      <c r="OX1507" s="0"/>
+      <c r="OY1507" s="0"/>
+      <c r="OZ1507" s="0"/>
+      <c r="PA1507" s="0"/>
+      <c r="PB1507" s="0"/>
+      <c r="PC1507" s="0"/>
+      <c r="PD1507" s="0"/>
+      <c r="PE1507" s="0"/>
+      <c r="PF1507" s="0"/>
+      <c r="PG1507" s="0"/>
+      <c r="PH1507" s="0"/>
+      <c r="PI1507" s="0"/>
+      <c r="PJ1507" s="0"/>
+      <c r="PK1507" s="0"/>
+      <c r="PL1507" s="0"/>
+      <c r="PM1507" s="0"/>
+      <c r="PN1507" s="0"/>
+      <c r="PO1507" s="0"/>
+      <c r="PP1507" s="0"/>
+      <c r="PQ1507" s="0"/>
+      <c r="PR1507" s="0"/>
+      <c r="PS1507" s="0"/>
+      <c r="PT1507" s="0"/>
+      <c r="PU1507" s="0"/>
+      <c r="PV1507" s="0"/>
+      <c r="PW1507" s="0"/>
+      <c r="PX1507" s="0"/>
+      <c r="PY1507" s="0"/>
+      <c r="PZ1507" s="0"/>
+      <c r="QA1507" s="0"/>
+      <c r="QB1507" s="0"/>
+      <c r="QC1507" s="0"/>
+      <c r="QD1507" s="0"/>
+      <c r="QE1507" s="0"/>
+      <c r="QF1507" s="0"/>
+      <c r="QG1507" s="0"/>
+      <c r="QH1507" s="0"/>
+      <c r="QI1507" s="0"/>
+      <c r="QJ1507" s="0"/>
+      <c r="QK1507" s="0"/>
+      <c r="QL1507" s="0"/>
+      <c r="QM1507" s="0"/>
+      <c r="QN1507" s="0"/>
+      <c r="QO1507" s="0"/>
+      <c r="QP1507" s="0"/>
+      <c r="QQ1507" s="0"/>
+      <c r="QR1507" s="0"/>
+      <c r="QS1507" s="0"/>
+      <c r="QT1507" s="0"/>
+      <c r="QU1507" s="0"/>
+      <c r="QV1507" s="0"/>
+      <c r="QW1507" s="0"/>
+      <c r="QX1507" s="0"/>
+      <c r="QY1507" s="0"/>
+      <c r="QZ1507" s="0"/>
+      <c r="RA1507" s="0"/>
+      <c r="RB1507" s="0"/>
+      <c r="RC1507" s="0"/>
+      <c r="RD1507" s="0"/>
+      <c r="RE1507" s="0"/>
+      <c r="RF1507" s="0"/>
+      <c r="RG1507" s="0"/>
+      <c r="RH1507" s="0"/>
+      <c r="RI1507" s="0"/>
+      <c r="RJ1507" s="0"/>
+      <c r="RK1507" s="0"/>
+      <c r="RL1507" s="0"/>
+      <c r="RM1507" s="0"/>
+      <c r="RN1507" s="0"/>
+      <c r="RO1507" s="0"/>
+      <c r="RP1507" s="0"/>
+      <c r="RQ1507" s="0"/>
+      <c r="RR1507" s="0"/>
+      <c r="RS1507" s="0"/>
+      <c r="RT1507" s="0"/>
+      <c r="RU1507" s="0"/>
+      <c r="RV1507" s="0"/>
+      <c r="RW1507" s="0"/>
+      <c r="RX1507" s="0"/>
+      <c r="RY1507" s="0"/>
+      <c r="RZ1507" s="0"/>
+      <c r="SA1507" s="0"/>
+      <c r="SB1507" s="0"/>
+      <c r="SC1507" s="0"/>
+      <c r="SD1507" s="0"/>
+      <c r="SE1507" s="0"/>
+      <c r="SF1507" s="0"/>
+      <c r="SG1507" s="0"/>
+      <c r="SH1507" s="0"/>
+      <c r="SI1507" s="0"/>
+      <c r="SJ1507" s="0"/>
+      <c r="SK1507" s="0"/>
+      <c r="SL1507" s="0"/>
+      <c r="SM1507" s="0"/>
+      <c r="SN1507" s="0"/>
+      <c r="SO1507" s="0"/>
+      <c r="SP1507" s="0"/>
+      <c r="SQ1507" s="0"/>
+      <c r="SR1507" s="0"/>
+      <c r="SS1507" s="0"/>
+      <c r="ST1507" s="0"/>
+      <c r="SU1507" s="0"/>
+      <c r="SV1507" s="0"/>
+      <c r="SW1507" s="0"/>
+      <c r="SX1507" s="0"/>
+      <c r="SY1507" s="0"/>
+      <c r="SZ1507" s="0"/>
+      <c r="TA1507" s="0"/>
+      <c r="TB1507" s="0"/>
+      <c r="TC1507" s="0"/>
+      <c r="TD1507" s="0"/>
+      <c r="TE1507" s="0"/>
+      <c r="TF1507" s="0"/>
+      <c r="TG1507" s="0"/>
+      <c r="TH1507" s="0"/>
+      <c r="TI1507" s="0"/>
+      <c r="TJ1507" s="0"/>
+      <c r="TK1507" s="0"/>
+      <c r="TL1507" s="0"/>
+      <c r="TM1507" s="0"/>
+      <c r="TN1507" s="0"/>
+      <c r="TO1507" s="0"/>
+      <c r="TP1507" s="0"/>
+      <c r="TQ1507" s="0"/>
+      <c r="TR1507" s="0"/>
+      <c r="TS1507" s="0"/>
+      <c r="TT1507" s="0"/>
+      <c r="TU1507" s="0"/>
+      <c r="TV1507" s="0"/>
+      <c r="TW1507" s="0"/>
+      <c r="TX1507" s="0"/>
+      <c r="TY1507" s="0"/>
+      <c r="TZ1507" s="0"/>
+      <c r="UA1507" s="0"/>
+      <c r="UB1507" s="0"/>
+      <c r="UC1507" s="0"/>
+      <c r="UD1507" s="0"/>
+      <c r="UE1507" s="0"/>
+      <c r="UF1507" s="0"/>
+      <c r="UG1507" s="0"/>
+      <c r="UH1507" s="0"/>
+      <c r="UI1507" s="0"/>
+      <c r="UJ1507" s="0"/>
+      <c r="UK1507" s="0"/>
+      <c r="UL1507" s="0"/>
+      <c r="UM1507" s="0"/>
+      <c r="UN1507" s="0"/>
+      <c r="UO1507" s="0"/>
+      <c r="UP1507" s="0"/>
+      <c r="UQ1507" s="0"/>
+      <c r="UR1507" s="0"/>
+      <c r="US1507" s="0"/>
+      <c r="UT1507" s="0"/>
+      <c r="UU1507" s="0"/>
+      <c r="UV1507" s="0"/>
+      <c r="UW1507" s="0"/>
+      <c r="UX1507" s="0"/>
+      <c r="UY1507" s="0"/>
+      <c r="UZ1507" s="0"/>
+      <c r="VA1507" s="0"/>
+      <c r="VB1507" s="0"/>
+      <c r="VC1507" s="0"/>
+      <c r="VD1507" s="0"/>
+      <c r="VE1507" s="0"/>
+      <c r="VF1507" s="0"/>
+      <c r="VG1507" s="0"/>
+      <c r="VH1507" s="0"/>
+      <c r="VI1507" s="0"/>
+      <c r="VJ1507" s="0"/>
+      <c r="VK1507" s="0"/>
+      <c r="VL1507" s="0"/>
+      <c r="VM1507" s="0"/>
+      <c r="VN1507" s="0"/>
+      <c r="VO1507" s="0"/>
+      <c r="VP1507" s="0"/>
+      <c r="VQ1507" s="0"/>
+      <c r="VR1507" s="0"/>
+      <c r="VS1507" s="0"/>
+      <c r="VT1507" s="0"/>
+      <c r="VU1507" s="0"/>
+      <c r="VV1507" s="0"/>
+      <c r="VW1507" s="0"/>
+      <c r="VX1507" s="0"/>
+      <c r="VY1507" s="0"/>
+      <c r="VZ1507" s="0"/>
+      <c r="WA1507" s="0"/>
+      <c r="WB1507" s="0"/>
+      <c r="WC1507" s="0"/>
+      <c r="WD1507" s="0"/>
+      <c r="WE1507" s="0"/>
+      <c r="WF1507" s="0"/>
+      <c r="WG1507" s="0"/>
+      <c r="WH1507" s="0"/>
+      <c r="WI1507" s="0"/>
+      <c r="WJ1507" s="0"/>
+      <c r="WK1507" s="0"/>
+      <c r="WL1507" s="0"/>
+      <c r="WM1507" s="0"/>
+      <c r="WN1507" s="0"/>
+      <c r="WO1507" s="0"/>
+      <c r="WP1507" s="0"/>
+      <c r="WQ1507" s="0"/>
+      <c r="WR1507" s="0"/>
+      <c r="WS1507" s="0"/>
+      <c r="WT1507" s="0"/>
+      <c r="WU1507" s="0"/>
+      <c r="WV1507" s="0"/>
+      <c r="WW1507" s="0"/>
+      <c r="WX1507" s="0"/>
+      <c r="WY1507" s="0"/>
+      <c r="WZ1507" s="0"/>
+      <c r="XA1507" s="0"/>
+      <c r="XB1507" s="0"/>
+      <c r="XC1507" s="0"/>
+      <c r="XD1507" s="0"/>
+      <c r="XE1507" s="0"/>
+      <c r="XF1507" s="0"/>
+      <c r="XG1507" s="0"/>
+      <c r="XH1507" s="0"/>
+      <c r="XI1507" s="0"/>
+      <c r="XJ1507" s="0"/>
+      <c r="XK1507" s="0"/>
+      <c r="XL1507" s="0"/>
+      <c r="XM1507" s="0"/>
+      <c r="XN1507" s="0"/>
+      <c r="XO1507" s="0"/>
+      <c r="XP1507" s="0"/>
+      <c r="XQ1507" s="0"/>
+      <c r="XR1507" s="0"/>
+      <c r="XS1507" s="0"/>
+      <c r="XT1507" s="0"/>
+      <c r="XU1507" s="0"/>
+      <c r="XV1507" s="0"/>
+      <c r="XW1507" s="0"/>
+      <c r="XX1507" s="0"/>
+      <c r="XY1507" s="0"/>
+      <c r="XZ1507" s="0"/>
+      <c r="YA1507" s="0"/>
+      <c r="YB1507" s="0"/>
+      <c r="YC1507" s="0"/>
+      <c r="YD1507" s="0"/>
+      <c r="YE1507" s="0"/>
+      <c r="YF1507" s="0"/>
+      <c r="YG1507" s="0"/>
+      <c r="YH1507" s="0"/>
+      <c r="YI1507" s="0"/>
+      <c r="YJ1507" s="0"/>
+      <c r="YK1507" s="0"/>
+      <c r="YL1507" s="0"/>
+      <c r="YM1507" s="0"/>
+      <c r="YN1507" s="0"/>
+      <c r="YO1507" s="0"/>
+      <c r="YP1507" s="0"/>
+      <c r="YQ1507" s="0"/>
+      <c r="YR1507" s="0"/>
+      <c r="YS1507" s="0"/>
+      <c r="YT1507" s="0"/>
+      <c r="YU1507" s="0"/>
+      <c r="YV1507" s="0"/>
+      <c r="YW1507" s="0"/>
+      <c r="YX1507" s="0"/>
+      <c r="YY1507" s="0"/>
+      <c r="YZ1507" s="0"/>
+      <c r="ZA1507" s="0"/>
+      <c r="ZB1507" s="0"/>
+      <c r="ZC1507" s="0"/>
+      <c r="ZD1507" s="0"/>
+      <c r="ZE1507" s="0"/>
+      <c r="ZF1507" s="0"/>
+      <c r="ZG1507" s="0"/>
+      <c r="ZH1507" s="0"/>
+      <c r="ZI1507" s="0"/>
+      <c r="ZJ1507" s="0"/>
+      <c r="ZK1507" s="0"/>
+      <c r="ZL1507" s="0"/>
+      <c r="ZM1507" s="0"/>
+      <c r="ZN1507" s="0"/>
+      <c r="ZO1507" s="0"/>
+      <c r="ZP1507" s="0"/>
+      <c r="ZQ1507" s="0"/>
+      <c r="ZR1507" s="0"/>
+      <c r="ZS1507" s="0"/>
+      <c r="ZT1507" s="0"/>
+      <c r="ZU1507" s="0"/>
+      <c r="ZV1507" s="0"/>
+      <c r="ZW1507" s="0"/>
+      <c r="ZX1507" s="0"/>
+      <c r="ZY1507" s="0"/>
+      <c r="ZZ1507" s="0"/>
+      <c r="AAA1507" s="0"/>
+      <c r="AAB1507" s="0"/>
+      <c r="AAC1507" s="0"/>
+      <c r="AAD1507" s="0"/>
+      <c r="AAE1507" s="0"/>
+      <c r="AAF1507" s="0"/>
+      <c r="AAG1507" s="0"/>
+      <c r="AAH1507" s="0"/>
+      <c r="AAI1507" s="0"/>
+      <c r="AAJ1507" s="0"/>
+      <c r="AAK1507" s="0"/>
+      <c r="AAL1507" s="0"/>
+      <c r="AAM1507" s="0"/>
+      <c r="AAN1507" s="0"/>
+      <c r="AAO1507" s="0"/>
+      <c r="AAP1507" s="0"/>
+      <c r="AAQ1507" s="0"/>
+      <c r="AAR1507" s="0"/>
+      <c r="AAS1507" s="0"/>
+      <c r="AAT1507" s="0"/>
+      <c r="AAU1507" s="0"/>
+      <c r="AAV1507" s="0"/>
+      <c r="AAW1507" s="0"/>
+      <c r="AAX1507" s="0"/>
+      <c r="AAY1507" s="0"/>
+      <c r="AAZ1507" s="0"/>
+      <c r="ABA1507" s="0"/>
+      <c r="ABB1507" s="0"/>
+      <c r="ABC1507" s="0"/>
+      <c r="ABD1507" s="0"/>
+      <c r="ABE1507" s="0"/>
+      <c r="ABF1507" s="0"/>
+      <c r="ABG1507" s="0"/>
+      <c r="ABH1507" s="0"/>
+      <c r="ABI1507" s="0"/>
+      <c r="ABJ1507" s="0"/>
+      <c r="ABK1507" s="0"/>
+      <c r="ABL1507" s="0"/>
+      <c r="ABM1507" s="0"/>
+      <c r="ABN1507" s="0"/>
+      <c r="ABO1507" s="0"/>
+      <c r="ABP1507" s="0"/>
+      <c r="ABQ1507" s="0"/>
+      <c r="ABR1507" s="0"/>
+      <c r="ABS1507" s="0"/>
+      <c r="ABT1507" s="0"/>
+      <c r="ABU1507" s="0"/>
+      <c r="ABV1507" s="0"/>
+      <c r="ABW1507" s="0"/>
+      <c r="ABX1507" s="0"/>
+      <c r="ABY1507" s="0"/>
+      <c r="ABZ1507" s="0"/>
+      <c r="ACA1507" s="0"/>
+      <c r="ACB1507" s="0"/>
+      <c r="ACC1507" s="0"/>
+      <c r="ACD1507" s="0"/>
+      <c r="ACE1507" s="0"/>
+      <c r="ACF1507" s="0"/>
+      <c r="ACG1507" s="0"/>
+      <c r="ACH1507" s="0"/>
+      <c r="ACI1507" s="0"/>
+      <c r="ACJ1507" s="0"/>
+      <c r="ACK1507" s="0"/>
+      <c r="ACL1507" s="0"/>
+      <c r="ACM1507" s="0"/>
+      <c r="ACN1507" s="0"/>
+      <c r="ACO1507" s="0"/>
+      <c r="ACP1507" s="0"/>
+      <c r="ACQ1507" s="0"/>
+      <c r="ACR1507" s="0"/>
+      <c r="ACS1507" s="0"/>
+      <c r="ACT1507" s="0"/>
+      <c r="ACU1507" s="0"/>
+      <c r="ACV1507" s="0"/>
+      <c r="ACW1507" s="0"/>
+      <c r="ACX1507" s="0"/>
+      <c r="ACY1507" s="0"/>
+      <c r="ACZ1507" s="0"/>
+      <c r="ADA1507" s="0"/>
+      <c r="ADB1507" s="0"/>
+      <c r="ADC1507" s="0"/>
+      <c r="ADD1507" s="0"/>
+      <c r="ADE1507" s="0"/>
+      <c r="ADF1507" s="0"/>
+      <c r="ADG1507" s="0"/>
+      <c r="ADH1507" s="0"/>
+      <c r="ADI1507" s="0"/>
+      <c r="ADJ1507" s="0"/>
+      <c r="ADK1507" s="0"/>
+      <c r="ADL1507" s="0"/>
+      <c r="ADM1507" s="0"/>
+      <c r="ADN1507" s="0"/>
+      <c r="ADO1507" s="0"/>
+      <c r="ADP1507" s="0"/>
+      <c r="ADQ1507" s="0"/>
+      <c r="ADR1507" s="0"/>
+      <c r="ADS1507" s="0"/>
+      <c r="ADT1507" s="0"/>
+      <c r="ADU1507" s="0"/>
+      <c r="ADV1507" s="0"/>
+      <c r="ADW1507" s="0"/>
+      <c r="ADX1507" s="0"/>
+      <c r="ADY1507" s="0"/>
+      <c r="ADZ1507" s="0"/>
+      <c r="AEA1507" s="0"/>
+      <c r="AEB1507" s="0"/>
+      <c r="AEC1507" s="0"/>
+      <c r="AED1507" s="0"/>
+      <c r="AEE1507" s="0"/>
+      <c r="AEF1507" s="0"/>
+      <c r="AEG1507" s="0"/>
+      <c r="AEH1507" s="0"/>
+      <c r="AEI1507" s="0"/>
+      <c r="AEJ1507" s="0"/>
+      <c r="AEK1507" s="0"/>
+      <c r="AEL1507" s="0"/>
+      <c r="AEM1507" s="0"/>
+      <c r="AEN1507" s="0"/>
+      <c r="AEO1507" s="0"/>
+      <c r="AEP1507" s="0"/>
+      <c r="AEQ1507" s="0"/>
+      <c r="AER1507" s="0"/>
+      <c r="AES1507" s="0"/>
+      <c r="AET1507" s="0"/>
+      <c r="AEU1507" s="0"/>
+      <c r="AEV1507" s="0"/>
+      <c r="AEW1507" s="0"/>
+      <c r="AEX1507" s="0"/>
+      <c r="AEY1507" s="0"/>
+      <c r="AEZ1507" s="0"/>
+      <c r="AFA1507" s="0"/>
+      <c r="AFB1507" s="0"/>
+      <c r="AFC1507" s="0"/>
+      <c r="AFD1507" s="0"/>
+      <c r="AFE1507" s="0"/>
+      <c r="AFF1507" s="0"/>
+      <c r="AFG1507" s="0"/>
+      <c r="AFH1507" s="0"/>
+      <c r="AFI1507" s="0"/>
+      <c r="AFJ1507" s="0"/>
+      <c r="AFK1507" s="0"/>
+      <c r="AFL1507" s="0"/>
+      <c r="AFM1507" s="0"/>
+      <c r="AFN1507" s="0"/>
+      <c r="AFO1507" s="0"/>
+      <c r="AFP1507" s="0"/>
+      <c r="AFQ1507" s="0"/>
+      <c r="AFR1507" s="0"/>
+      <c r="AFS1507" s="0"/>
+      <c r="AFT1507" s="0"/>
+      <c r="AFU1507" s="0"/>
+      <c r="AFV1507" s="0"/>
+      <c r="AFW1507" s="0"/>
+      <c r="AFX1507" s="0"/>
+      <c r="AFY1507" s="0"/>
+      <c r="AFZ1507" s="0"/>
+      <c r="AGA1507" s="0"/>
+      <c r="AGB1507" s="0"/>
+      <c r="AGC1507" s="0"/>
+      <c r="AGD1507" s="0"/>
+      <c r="AGE1507" s="0"/>
+      <c r="AGF1507" s="0"/>
+      <c r="AGG1507" s="0"/>
+      <c r="AGH1507" s="0"/>
+      <c r="AGI1507" s="0"/>
+      <c r="AGJ1507" s="0"/>
+      <c r="AGK1507" s="0"/>
+      <c r="AGL1507" s="0"/>
+      <c r="AGM1507" s="0"/>
+      <c r="AGN1507" s="0"/>
+      <c r="AGO1507" s="0"/>
+      <c r="AGP1507" s="0"/>
+      <c r="AGQ1507" s="0"/>
+      <c r="AGR1507" s="0"/>
+      <c r="AGS1507" s="0"/>
+      <c r="AGT1507" s="0"/>
+      <c r="AGU1507" s="0"/>
+      <c r="AGV1507" s="0"/>
+      <c r="AGW1507" s="0"/>
+      <c r="AGX1507" s="0"/>
+      <c r="AGY1507" s="0"/>
+      <c r="AGZ1507" s="0"/>
+      <c r="AHA1507" s="0"/>
+      <c r="AHB1507" s="0"/>
+      <c r="AHC1507" s="0"/>
+      <c r="AHD1507" s="0"/>
+      <c r="AHE1507" s="0"/>
+      <c r="AHF1507" s="0"/>
+      <c r="AHG1507" s="0"/>
+      <c r="AHH1507" s="0"/>
+      <c r="AHI1507" s="0"/>
+      <c r="AHJ1507" s="0"/>
+      <c r="AHK1507" s="0"/>
+      <c r="AHL1507" s="0"/>
+      <c r="AHM1507" s="0"/>
+      <c r="AHN1507" s="0"/>
+      <c r="AHO1507" s="0"/>
+      <c r="AHP1507" s="0"/>
+      <c r="AHQ1507" s="0"/>
+      <c r="AHR1507" s="0"/>
+      <c r="AHS1507" s="0"/>
+      <c r="AHT1507" s="0"/>
+      <c r="AHU1507" s="0"/>
+      <c r="AHV1507" s="0"/>
+      <c r="AHW1507" s="0"/>
+      <c r="AHX1507" s="0"/>
+      <c r="AHY1507" s="0"/>
+      <c r="AHZ1507" s="0"/>
+      <c r="AIA1507" s="0"/>
+      <c r="AIB1507" s="0"/>
+      <c r="AIC1507" s="0"/>
+      <c r="AID1507" s="0"/>
+      <c r="AIE1507" s="0"/>
+      <c r="AIF1507" s="0"/>
+      <c r="AIG1507" s="0"/>
+      <c r="AIH1507" s="0"/>
+      <c r="AII1507" s="0"/>
+      <c r="AIJ1507" s="0"/>
+      <c r="AIK1507" s="0"/>
+      <c r="AIL1507" s="0"/>
+      <c r="AIM1507" s="0"/>
+      <c r="AIN1507" s="0"/>
+      <c r="AIO1507" s="0"/>
+      <c r="AIP1507" s="0"/>
+      <c r="AIQ1507" s="0"/>
+      <c r="AIR1507" s="0"/>
+      <c r="AIS1507" s="0"/>
+      <c r="AIT1507" s="0"/>
+      <c r="AIU1507" s="0"/>
+      <c r="AIV1507" s="0"/>
+      <c r="AIW1507" s="0"/>
+      <c r="AIX1507" s="0"/>
+      <c r="AIY1507" s="0"/>
+      <c r="AIZ1507" s="0"/>
+      <c r="AJA1507" s="0"/>
+      <c r="AJB1507" s="0"/>
+      <c r="AJC1507" s="0"/>
+      <c r="AJD1507" s="0"/>
+      <c r="AJE1507" s="0"/>
+      <c r="AJF1507" s="0"/>
+      <c r="AJG1507" s="0"/>
+      <c r="AJH1507" s="0"/>
+      <c r="AJI1507" s="0"/>
+      <c r="AJJ1507" s="0"/>
+      <c r="AJK1507" s="0"/>
+      <c r="AJL1507" s="0"/>
+      <c r="AJM1507" s="0"/>
+      <c r="AJN1507" s="0"/>
+      <c r="AJO1507" s="0"/>
+      <c r="AJP1507" s="0"/>
+      <c r="AJQ1507" s="0"/>
+      <c r="AJR1507" s="0"/>
+      <c r="AJS1507" s="0"/>
+      <c r="AJT1507" s="0"/>
+      <c r="AJU1507" s="0"/>
+      <c r="AJV1507" s="0"/>
+      <c r="AJW1507" s="0"/>
+      <c r="AJX1507" s="0"/>
+      <c r="AJY1507" s="0"/>
+      <c r="AJZ1507" s="0"/>
+      <c r="AKA1507" s="0"/>
+      <c r="AKB1507" s="0"/>
+      <c r="AKC1507" s="0"/>
+      <c r="AKD1507" s="0"/>
+      <c r="AKE1507" s="0"/>
+      <c r="AKF1507" s="0"/>
+      <c r="AKG1507" s="0"/>
+      <c r="AKH1507" s="0"/>
+      <c r="AKI1507" s="0"/>
+      <c r="AKJ1507" s="0"/>
+      <c r="AKK1507" s="0"/>
+      <c r="AKL1507" s="0"/>
+      <c r="AKM1507" s="0"/>
+      <c r="AKN1507" s="0"/>
+      <c r="AKO1507" s="0"/>
+      <c r="AKP1507" s="0"/>
+      <c r="AKQ1507" s="0"/>
+      <c r="AKR1507" s="0"/>
+      <c r="AKS1507" s="0"/>
+      <c r="AKT1507" s="0"/>
+      <c r="AKU1507" s="0"/>
+      <c r="AKV1507" s="0"/>
+      <c r="AKW1507" s="0"/>
+      <c r="AKX1507" s="0"/>
+      <c r="AKY1507" s="0"/>
+      <c r="AKZ1507" s="0"/>
+      <c r="ALA1507" s="0"/>
+      <c r="ALB1507" s="0"/>
+      <c r="ALC1507" s="0"/>
+      <c r="ALD1507" s="0"/>
+      <c r="ALE1507" s="0"/>
+      <c r="ALF1507" s="0"/>
+      <c r="ALG1507" s="0"/>
+      <c r="ALH1507" s="0"/>
+      <c r="ALI1507" s="0"/>
+      <c r="ALJ1507" s="0"/>
+      <c r="ALK1507" s="0"/>
+      <c r="ALL1507" s="0"/>
+      <c r="ALM1507" s="0"/>
+      <c r="ALN1507" s="0"/>
+      <c r="ALO1507" s="0"/>
+      <c r="ALP1507" s="0"/>
+      <c r="ALQ1507" s="0"/>
+      <c r="ALR1507" s="0"/>
+      <c r="ALS1507" s="0"/>
+      <c r="ALT1507" s="0"/>
+      <c r="ALU1507" s="0"/>
+      <c r="ALV1507" s="0"/>
+      <c r="ALW1507" s="0"/>
+      <c r="ALX1507" s="0"/>
+      <c r="ALY1507" s="0"/>
+      <c r="ALZ1507" s="0"/>
+      <c r="AMA1507" s="0"/>
+      <c r="AMB1507" s="0"/>
+      <c r="AMC1507" s="0"/>
+      <c r="AMD1507" s="0"/>
+      <c r="AME1507" s="0"/>
+      <c r="AMF1507" s="0"/>
+      <c r="AMG1507" s="0"/>
+      <c r="AMH1507" s="0"/>
+      <c r="AMI1507" s="0"/>
+    </row>
+    <row r="1508" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="19"/>
+      <c r="B1508" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1508" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1508" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1508" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1508" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1508" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1508" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1508" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1508" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1508" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1508" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1508" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1508" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="O1508" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1509" s="22"/>
+      <c r="A1509" s="22" t="s">
+        <v>1510</v>
+      </c>
       <c r="B1509" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1509" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1509" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1509" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1509" s="23"/>
+      <c r="E1509" s="28"/>
       <c r="F1509" s="23" t="s">
-        <v>943</v>
+        <v>43</v>
       </c>
       <c r="G1509" s="23"/>
       <c r="H1509" s="23"/>
       <c r="I1509" s="24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="J1509" s="24"/>
       <c r="K1509" s="24"/>
+      <c r="L1509" s="23"/>
+      <c r="M1509" s="23"/>
+      <c r="N1509" s="23"/>
       <c r="O1509" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1510" s="9"/>
       <c r="B1510" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1510" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1510" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1510" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1510" s="23"/>
+      <c r="E1510" s="28"/>
       <c r="F1510" s="23" t="s">
-        <v>943</v>
+        <v>43</v>
       </c>
       <c r="G1510" s="23"/>
       <c r="H1510" s="23"/>
       <c r="I1510" s="24" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="J1510" s="24"/>
       <c r="K1510" s="24"/>
+      <c r="L1510" s="23"/>
+      <c r="M1510" s="23"/>
+      <c r="N1510" s="23"/>
       <c r="O1510" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1511" s="9"/>
       <c r="B1511" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1511" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1511" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1511" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1511" s="23"/>
+      <c r="E1511" s="28"/>
       <c r="F1511" s="23" t="s">
-        <v>943</v>
+        <v>43</v>
       </c>
       <c r="G1511" s="23"/>
       <c r="H1511" s="23"/>
       <c r="I1511" s="24" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="J1511" s="24"/>
       <c r="K1511" s="24"/>
+      <c r="L1511" s="23"/>
+      <c r="M1511" s="23"/>
+      <c r="N1511" s="23"/>
       <c r="O1511" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1512" s="9"/>
-      <c r="B1512" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1512" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1512" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1512" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1512" s="23" t="s">
-        <v>943</v>
-      </c>
+      <c r="B1512" s="23"/>
+      <c r="C1512" s="23"/>
+      <c r="D1512" s="23"/>
+      <c r="E1512" s="23"/>
+      <c r="F1512" s="23"/>
       <c r="G1512" s="23"/>
       <c r="H1512" s="23"/>
-      <c r="I1512" s="24" t="s">
-        <v>1512</v>
-      </c>
+      <c r="I1512" s="24"/>
       <c r="J1512" s="24"/>
       <c r="K1512" s="24"/>
+      <c r="L1512" s="23"/>
+      <c r="M1512" s="23"/>
+      <c r="N1512" s="23"/>
       <c r="O1512" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1513" s="9"/>
-      <c r="B1513" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1513" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1513" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1513" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1513" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1513" s="23"/>
-      <c r="H1513" s="23"/>
-      <c r="I1513" s="48" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J1513" s="24"/>
-      <c r="K1513" s="24"/>
+      <c r="B1513" s="25"/>
+      <c r="C1513" s="1"/>
+      <c r="D1513" s="1"/>
+      <c r="E1513" s="1"/>
+      <c r="F1513" s="1"/>
+      <c r="G1513" s="1"/>
+      <c r="H1513" s="1"/>
+      <c r="I1513" s="1"/>
+      <c r="J1513" s="1"/>
+      <c r="K1513" s="1"/>
+      <c r="L1513" s="1"/>
+      <c r="M1513" s="1"/>
+      <c r="N1513" s="1"/>
       <c r="O1513" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1514" s="9"/>
-      <c r="B1514" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1514" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1514" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1514" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1514" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1514" s="23"/>
-      <c r="H1514" s="23"/>
-      <c r="I1514" s="48" t="s">
+      <c r="A1514" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1514" s="17"/>
+      <c r="C1514" s="18"/>
+      <c r="D1514" s="18"/>
+      <c r="E1514" s="18"/>
+      <c r="F1514" s="18"/>
+      <c r="G1514" s="18"/>
+      <c r="H1514" s="18"/>
+      <c r="I1514" s="1"/>
+      <c r="J1514" s="1"/>
+      <c r="K1514" s="1"/>
+      <c r="L1514" s="1"/>
+      <c r="M1514" s="1"/>
+      <c r="N1514" s="1"/>
+      <c r="O1514" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1514" s="1"/>
+    </row>
+    <row r="1515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="16" t="s">
         <v>1514</v>
       </c>
-      <c r="J1514" s="24"/>
-      <c r="K1514" s="24"/>
-      <c r="O1514" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1515" s="9"/>
-      <c r="B1515" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1515" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1515" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1515" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1515" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1515" s="23"/>
-      <c r="H1515" s="23"/>
-      <c r="I1515" s="48" t="s">
+      <c r="B1515" s="17"/>
+      <c r="C1515" s="18"/>
+      <c r="D1515" s="18"/>
+      <c r="E1515" s="18"/>
+      <c r="F1515" s="18"/>
+      <c r="G1515" s="18"/>
+      <c r="H1515" s="18"/>
+      <c r="I1515" s="1"/>
+      <c r="J1515" s="1"/>
+      <c r="K1515" s="1"/>
+      <c r="L1515" s="1"/>
+      <c r="M1515" s="1"/>
+      <c r="N1515" s="1"/>
+      <c r="O1515" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1515" s="1"/>
+    </row>
+    <row r="1516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1516" s="17"/>
+      <c r="C1516" s="18"/>
+      <c r="D1516" s="18"/>
+      <c r="E1516" s="18"/>
+      <c r="F1516" s="18"/>
+      <c r="G1516" s="18"/>
+      <c r="H1516" s="18"/>
+      <c r="I1516" s="1"/>
+      <c r="J1516" s="1"/>
+      <c r="K1516" s="1"/>
+      <c r="L1516" s="1"/>
+      <c r="M1516" s="1"/>
+      <c r="N1516" s="1"/>
+      <c r="O1516" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1516" s="1"/>
+    </row>
+    <row r="1517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1517" s="1"/>
+      <c r="C1517" s="1"/>
+      <c r="D1517" s="1"/>
+      <c r="E1517" s="1"/>
+      <c r="F1517" s="1"/>
+      <c r="G1517" s="1"/>
+      <c r="H1517" s="1"/>
+      <c r="I1517" s="1"/>
+      <c r="J1517" s="1"/>
+      <c r="K1517" s="1"/>
+      <c r="L1517" s="1"/>
+      <c r="M1517" s="1"/>
+      <c r="N1517" s="1"/>
+      <c r="O1517" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1517" s="1"/>
+    </row>
+    <row r="1518" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="19"/>
+      <c r="B1518" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1518" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1518" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1518" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1518" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1518" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1518" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1518" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1518" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1518" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1518" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1518" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1518" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1518" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1518" s="1"/>
+    </row>
+    <row r="1519" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="22" t="s">
         <v>1515</v>
       </c>
-      <c r="J1515" s="24"/>
-      <c r="K1515" s="24"/>
-      <c r="O1515" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1516" s="9"/>
-      <c r="B1516" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1516" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1516" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1516" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1516" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1516" s="23"/>
-      <c r="H1516" s="23"/>
-      <c r="I1516" s="48" t="s">
-        <v>1516</v>
-      </c>
-      <c r="J1516" s="24"/>
-      <c r="K1516" s="24"/>
-      <c r="O1516" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1517" s="9"/>
-      <c r="B1517" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1517" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1517" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1517" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1517" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1517" s="23"/>
-      <c r="H1517" s="23"/>
-      <c r="I1517" s="48" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J1517" s="24"/>
-      <c r="K1517" s="24"/>
-      <c r="O1517" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="9"/>
-      <c r="B1518" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1518" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1518" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1518" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1518" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1518" s="23"/>
-      <c r="H1518" s="23"/>
-      <c r="I1518" s="48" t="s">
-        <v>1518</v>
-      </c>
-      <c r="J1518" s="24"/>
-      <c r="K1518" s="24"/>
-      <c r="O1518" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="9"/>
       <c r="B1519" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1519" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="D1519" s="23" t="s">
         <v>32</v>
@@ -47597,26 +50631,29 @@
         <v>32</v>
       </c>
       <c r="F1519" s="23" t="s">
-        <v>943</v>
+        <v>43</v>
       </c>
       <c r="G1519" s="23"/>
       <c r="H1519" s="23"/>
       <c r="I1519" s="24" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="J1519" s="24"/>
       <c r="K1519" s="24"/>
+      <c r="L1519" s="23"/>
+      <c r="M1519" s="23"/>
+      <c r="N1519" s="23"/>
       <c r="O1519" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1519" s="1"/>
     </row>
     <row r="1520" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1520" s="9"/>
       <c r="B1520" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1520" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="D1520" s="23" t="s">
         <v>32</v>
@@ -47625,26 +50662,29 @@
         <v>32</v>
       </c>
       <c r="F1520" s="23" t="s">
-        <v>943</v>
+        <v>33</v>
       </c>
       <c r="G1520" s="23"/>
       <c r="H1520" s="23"/>
       <c r="I1520" s="24" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="J1520" s="24"/>
       <c r="K1520" s="24"/>
+      <c r="L1520" s="23"/>
+      <c r="M1520" s="23"/>
+      <c r="N1520" s="23"/>
       <c r="O1520" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1520" s="1"/>
     </row>
     <row r="1521" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="9"/>
       <c r="B1521" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="C1521" s="23" t="s">
-        <v>1502</v>
+        <v>32</v>
       </c>
       <c r="D1521" s="23" t="s">
         <v>32</v>
@@ -47653,268 +50693,195 @@
         <v>32</v>
       </c>
       <c r="F1521" s="23" t="s">
-        <v>943</v>
+        <v>33</v>
       </c>
       <c r="G1521" s="23"/>
       <c r="H1521" s="23"/>
       <c r="I1521" s="24" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="J1521" s="24"/>
       <c r="K1521" s="24"/>
+      <c r="L1521" s="23"/>
+      <c r="M1521" s="23"/>
+      <c r="N1521" s="23"/>
       <c r="O1521" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1521" s="1"/>
     </row>
     <row r="1522" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1522" s="9"/>
-      <c r="B1522" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1522" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1522" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1522" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1522" s="23" t="s">
-        <v>943</v>
-      </c>
+      <c r="B1522" s="23"/>
+      <c r="C1522" s="23"/>
+      <c r="D1522" s="23"/>
+      <c r="E1522" s="23"/>
+      <c r="F1522" s="23"/>
       <c r="G1522" s="23"/>
       <c r="H1522" s="23"/>
-      <c r="I1522" s="24" t="s">
-        <v>1522</v>
-      </c>
+      <c r="I1522" s="24"/>
       <c r="J1522" s="24"/>
       <c r="K1522" s="24"/>
+      <c r="L1522" s="23"/>
+      <c r="M1522" s="23"/>
+      <c r="N1522" s="23"/>
       <c r="O1522" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="1523" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1523" s="9"/>
-      <c r="B1523" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1523" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1523" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1523" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1523" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1523" s="23"/>
-      <c r="H1523" s="23"/>
-      <c r="I1523" s="24" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J1523" s="24"/>
-      <c r="K1523" s="24"/>
+      <c r="P1522" s="1"/>
+    </row>
+    <row r="1523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1523" s="25"/>
+      <c r="C1523" s="1"/>
+      <c r="D1523" s="1"/>
+      <c r="E1523" s="1"/>
+      <c r="F1523" s="1"/>
+      <c r="G1523" s="1"/>
+      <c r="H1523" s="1"/>
+      <c r="I1523" s="1"/>
+      <c r="J1523" s="1"/>
+      <c r="K1523" s="1"/>
+      <c r="L1523" s="1"/>
+      <c r="M1523" s="1"/>
+      <c r="N1523" s="1"/>
       <c r="O1523" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1524" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1524" s="9"/>
-      <c r="B1524" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1524" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1524" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1524" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1524" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1524" s="23"/>
-      <c r="H1524" s="23"/>
-      <c r="I1524" s="24" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J1524" s="24"/>
-      <c r="K1524" s="24"/>
+    <row r="1524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1524" s="25"/>
+      <c r="C1524" s="1"/>
+      <c r="D1524" s="1"/>
+      <c r="E1524" s="1"/>
+      <c r="F1524" s="1"/>
+      <c r="G1524" s="1"/>
+      <c r="H1524" s="1"/>
+      <c r="I1524" s="1"/>
+      <c r="J1524" s="1"/>
+      <c r="K1524" s="1"/>
+      <c r="L1524" s="1"/>
+      <c r="M1524" s="1"/>
+      <c r="N1524" s="1"/>
       <c r="O1524" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1525" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1525" s="9"/>
-      <c r="B1525" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1525" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1525" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1525" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1525" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1525" s="23"/>
-      <c r="H1525" s="23"/>
-      <c r="I1525" s="24" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J1525" s="24"/>
-      <c r="K1525" s="24"/>
       <c r="O1525" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1526" s="9"/>
-      <c r="B1526" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1526" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1526" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1526" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1526" s="23" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G1526" s="23"/>
-      <c r="H1526" s="23"/>
-      <c r="I1526" s="24" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J1526" s="24"/>
-      <c r="K1526" s="24" t="s">
-        <v>1528</v>
-      </c>
+      <c r="A1526" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1526" s="17"/>
+      <c r="C1526" s="18"/>
+      <c r="D1526" s="18"/>
+      <c r="E1526" s="18"/>
+      <c r="F1526" s="18"/>
+      <c r="G1526" s="18"/>
+      <c r="H1526" s="18"/>
       <c r="O1526" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1527" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1527" s="9"/>
-      <c r="B1527" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1527" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1527" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1527" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1527" s="23" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G1527" s="23"/>
-      <c r="H1527" s="23"/>
-      <c r="I1527" s="24" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J1527" s="24"/>
-      <c r="K1527" s="24" t="s">
-        <v>1530</v>
-      </c>
+    <row r="1527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1527" s="16" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1527" s="17"/>
+      <c r="C1527" s="18"/>
+      <c r="D1527" s="18"/>
+      <c r="E1527" s="18"/>
+      <c r="F1527" s="18"/>
+      <c r="G1527" s="18"/>
+      <c r="H1527" s="18"/>
       <c r="O1527" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1528" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1528" s="9"/>
-      <c r="B1528" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1528" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1528" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1528" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1528" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1528" s="23"/>
-      <c r="H1528" s="23"/>
-      <c r="I1528" s="24" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J1528" s="24"/>
-      <c r="K1528" s="24"/>
+    <row r="1528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1528" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1528" s="17"/>
+      <c r="C1528" s="18"/>
+      <c r="D1528" s="18"/>
+      <c r="E1528" s="18"/>
+      <c r="F1528" s="18"/>
+      <c r="G1528" s="18"/>
+      <c r="H1528" s="18"/>
       <c r="O1528" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1529" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1529" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1529" s="9"/>
-      <c r="B1529" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1529" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1529" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1529" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1529" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1529" s="23"/>
-      <c r="H1529" s="23"/>
-      <c r="I1529" s="24" t="s">
-        <v>1532</v>
-      </c>
-      <c r="J1529" s="24"/>
-      <c r="K1529" s="24"/>
+      <c r="B1529" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1529" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1529" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1529" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1529" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1529" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1529" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1529" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1529" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1529" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1529" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1529" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1529" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="O1529" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1530" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1530" s="9"/>
+      <c r="A1530" s="22" t="s">
+        <v>1520</v>
+      </c>
       <c r="B1530" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1530" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1530" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1530" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1530" s="28"/>
       <c r="F1530" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1530" s="23"/>
       <c r="H1530" s="23"/>
       <c r="I1530" s="24" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
       <c r="J1530" s="24"/>
       <c r="K1530" s="24"/>
@@ -47922,25 +50889,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1531" s="9"/>
+    <row r="1531" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="22"/>
       <c r="B1531" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1531" s="28"/>
+        <v>1521</v>
+      </c>
+      <c r="C1531" s="23" t="s">
+        <v>1521</v>
+      </c>
       <c r="D1531" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1531" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1531" s="28"/>
       <c r="F1531" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1531" s="23"/>
       <c r="H1531" s="23"/>
       <c r="I1531" s="24" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="J1531" s="24"/>
       <c r="K1531" s="24"/>
@@ -47949,26 +50916,24 @@
       </c>
     </row>
     <row r="1532" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1532" s="9"/>
+      <c r="A1532" s="22"/>
       <c r="B1532" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1532" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1532" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1532" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1532" s="28"/>
       <c r="F1532" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1532" s="23"/>
       <c r="H1532" s="23"/>
       <c r="I1532" s="24" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="J1532" s="24"/>
       <c r="K1532" s="24"/>
@@ -47977,26 +50942,24 @@
       </c>
     </row>
     <row r="1533" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1533" s="9"/>
+      <c r="A1533" s="22"/>
       <c r="B1533" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1533" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1533" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1533" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1533" s="28"/>
       <c r="F1533" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1533" s="23"/>
       <c r="H1533" s="23"/>
       <c r="I1533" s="24" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="J1533" s="24"/>
       <c r="K1533" s="24"/>
@@ -48005,26 +50968,24 @@
       </c>
     </row>
     <row r="1534" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1534" s="9"/>
+      <c r="A1534" s="22"/>
       <c r="B1534" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1534" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1534" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1534" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1534" s="28"/>
       <c r="F1534" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1534" s="23"/>
       <c r="H1534" s="23"/>
       <c r="I1534" s="24" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="J1534" s="24"/>
       <c r="K1534" s="24"/>
@@ -48033,12 +50994,12 @@
       </c>
     </row>
     <row r="1535" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1535" s="9"/>
+      <c r="A1535" s="22"/>
       <c r="B1535" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1535" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1535" s="23" t="s">
         <v>32</v>
@@ -48052,23 +51013,21 @@
       <c r="G1535" s="23"/>
       <c r="H1535" s="23"/>
       <c r="I1535" s="24" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="J1535" s="24"/>
-      <c r="K1535" s="24" t="s">
-        <v>429</v>
-      </c>
+      <c r="K1535" s="24"/>
       <c r="O1535" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1536" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1536" s="9"/>
+      <c r="A1536" s="22"/>
       <c r="B1536" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1536" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1536" s="23" t="s">
         <v>32</v>
@@ -48082,7 +51041,7 @@
       <c r="G1536" s="23"/>
       <c r="H1536" s="23"/>
       <c r="I1536" s="24" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="J1536" s="24"/>
       <c r="K1536" s="24"/>
@@ -48090,14 +51049,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1537" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1537" s="9"/>
-      <c r="B1537" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1537" s="23" t="s">
-        <v>1502</v>
-      </c>
+    <row r="1537" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1537" s="22"/>
+      <c r="B1537" s="30" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C1537" s="28"/>
       <c r="D1537" s="23" t="s">
         <v>32</v>
       </c>
@@ -48110,21 +51067,23 @@
       <c r="G1537" s="23"/>
       <c r="H1537" s="23"/>
       <c r="I1537" s="24" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="J1537" s="24"/>
-      <c r="K1537" s="24"/>
+      <c r="K1537" s="24" t="s">
+        <v>1531</v>
+      </c>
       <c r="O1537" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1538" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="9"/>
+      <c r="A1538" s="22"/>
       <c r="B1538" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1538" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1538" s="23" t="s">
         <v>32</v>
@@ -48138,7 +51097,7 @@
       <c r="G1538" s="23"/>
       <c r="H1538" s="23"/>
       <c r="I1538" s="24" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="J1538" s="24"/>
       <c r="K1538" s="24"/>
@@ -48146,13 +51105,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1539" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1539" s="9"/>
+    <row r="1539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1539" s="22"/>
       <c r="B1539" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1539" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1539" s="23" t="s">
         <v>32</v>
@@ -48166,7 +51125,7 @@
       <c r="G1539" s="23"/>
       <c r="H1539" s="23"/>
       <c r="I1539" s="24" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="J1539" s="24"/>
       <c r="K1539" s="24"/>
@@ -48174,13 +51133,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1540" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1540" s="9"/>
       <c r="B1540" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1540" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1540" s="23" t="s">
         <v>32</v>
@@ -48194,7 +51153,7 @@
       <c r="G1540" s="23"/>
       <c r="H1540" s="23"/>
       <c r="I1540" s="24" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="J1540" s="24"/>
       <c r="K1540" s="24"/>
@@ -48202,13 +51161,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1541" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1541" s="9"/>
       <c r="B1541" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1541" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1541" s="23" t="s">
         <v>32</v>
@@ -48222,7 +51181,7 @@
       <c r="G1541" s="23"/>
       <c r="H1541" s="23"/>
       <c r="I1541" s="24" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="J1541" s="24"/>
       <c r="K1541" s="24"/>
@@ -48230,13 +51189,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1542" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1542" s="9"/>
       <c r="B1542" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1542" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1542" s="23" t="s">
         <v>32</v>
@@ -48250,7 +51209,7 @@
       <c r="G1542" s="23"/>
       <c r="H1542" s="23"/>
       <c r="I1542" s="24" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="J1542" s="24"/>
       <c r="K1542" s="24"/>
@@ -48261,10 +51220,10 @@
     <row r="1543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1543" s="9"/>
       <c r="B1543" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1543" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1543" s="23" t="s">
         <v>32</v>
@@ -48277,8 +51236,8 @@
       </c>
       <c r="G1543" s="23"/>
       <c r="H1543" s="23"/>
-      <c r="I1543" s="24" t="s">
-        <v>1546</v>
+      <c r="I1543" s="48" t="s">
+        <v>1537</v>
       </c>
       <c r="J1543" s="24"/>
       <c r="K1543" s="24"/>
@@ -48286,13 +51245,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1544" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1544" s="9"/>
       <c r="B1544" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1544" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1544" s="23" t="s">
         <v>32</v>
@@ -48305,8 +51264,8 @@
       </c>
       <c r="G1544" s="23"/>
       <c r="H1544" s="23"/>
-      <c r="I1544" s="24" t="s">
-        <v>1547</v>
+      <c r="I1544" s="48" t="s">
+        <v>1538</v>
       </c>
       <c r="J1544" s="24"/>
       <c r="K1544" s="24"/>
@@ -48314,13 +51273,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1545" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1545" s="9"/>
       <c r="B1545" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1545" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1545" s="23" t="s">
         <v>32</v>
@@ -48333,8 +51292,8 @@
       </c>
       <c r="G1545" s="23"/>
       <c r="H1545" s="23"/>
-      <c r="I1545" s="24" t="s">
-        <v>1548</v>
+      <c r="I1545" s="48" t="s">
+        <v>1539</v>
       </c>
       <c r="J1545" s="24"/>
       <c r="K1545" s="24"/>
@@ -48342,13 +51301,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1546" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1546" s="9"/>
       <c r="B1546" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1546" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1546" s="23" t="s">
         <v>32</v>
@@ -48361,8 +51320,8 @@
       </c>
       <c r="G1546" s="23"/>
       <c r="H1546" s="23"/>
-      <c r="I1546" s="24" t="s">
-        <v>1549</v>
+      <c r="I1546" s="48" t="s">
+        <v>1540</v>
       </c>
       <c r="J1546" s="24"/>
       <c r="K1546" s="24"/>
@@ -48370,13 +51329,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1547" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1547" s="9"/>
       <c r="B1547" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1547" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1547" s="23" t="s">
         <v>32</v>
@@ -48389,8 +51348,8 @@
       </c>
       <c r="G1547" s="23"/>
       <c r="H1547" s="23"/>
-      <c r="I1547" s="24" t="s">
-        <v>1550</v>
+      <c r="I1547" s="48" t="s">
+        <v>1541</v>
       </c>
       <c r="J1547" s="24"/>
       <c r="K1547" s="24"/>
@@ -48398,13 +51357,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1548" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1548" s="9"/>
       <c r="B1548" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1548" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1548" s="23" t="s">
         <v>32</v>
@@ -48417,8 +51376,8 @@
       </c>
       <c r="G1548" s="23"/>
       <c r="H1548" s="23"/>
-      <c r="I1548" s="24" t="s">
-        <v>1551</v>
+      <c r="I1548" s="48" t="s">
+        <v>1542</v>
       </c>
       <c r="J1548" s="24"/>
       <c r="K1548" s="24"/>
@@ -48426,13 +51385,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1549" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="9"/>
       <c r="B1549" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1549" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1549" s="23" t="s">
         <v>32</v>
@@ -48446,7 +51405,7 @@
       <c r="G1549" s="23"/>
       <c r="H1549" s="23"/>
       <c r="I1549" s="24" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="J1549" s="24"/>
       <c r="K1549" s="24"/>
@@ -48457,10 +51416,10 @@
     <row r="1550" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="9"/>
       <c r="B1550" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1550" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1550" s="23" t="s">
         <v>32</v>
@@ -48474,7 +51433,7 @@
       <c r="G1550" s="23"/>
       <c r="H1550" s="23"/>
       <c r="I1550" s="24" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="J1550" s="24"/>
       <c r="K1550" s="24"/>
@@ -48485,10 +51444,10 @@
     <row r="1551" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1551" s="9"/>
       <c r="B1551" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1551" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1551" s="23" t="s">
         <v>32</v>
@@ -48502,7 +51461,7 @@
       <c r="G1551" s="23"/>
       <c r="H1551" s="23"/>
       <c r="I1551" s="24" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="J1551" s="24"/>
       <c r="K1551" s="24"/>
@@ -48512,26 +51471,28 @@
     </row>
     <row r="1552" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1552" s="9"/>
-      <c r="B1552" s="30" t="s">
+      <c r="B1552" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1552" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1552" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1552" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1552" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="C1552" s="30"/>
-      <c r="D1552" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="E1552" s="30"/>
-      <c r="F1552" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1552" s="30"/>
-      <c r="H1552" s="30"/>
-      <c r="I1552" s="31" t="s">
-        <v>1555</v>
-      </c>
-      <c r="J1552" s="31"/>
-      <c r="K1552" s="31" t="s">
-        <v>224</v>
-      </c>
+      <c r="G1552" s="23"/>
+      <c r="H1552" s="23"/>
+      <c r="I1552" s="24" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J1552" s="24"/>
+      <c r="K1552" s="24"/>
       <c r="O1552" s="25" t="s">
         <v>36</v>
       </c>
@@ -48539,10 +51500,10 @@
     <row r="1553" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1553" s="9"/>
       <c r="B1553" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1553" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1553" s="23" t="s">
         <v>32</v>
@@ -48556,7 +51517,7 @@
       <c r="G1553" s="23"/>
       <c r="H1553" s="23"/>
       <c r="I1553" s="24" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="J1553" s="24"/>
       <c r="K1553" s="24"/>
@@ -48564,13 +51525,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1554" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1554" s="9"/>
       <c r="B1554" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1554" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1554" s="23" t="s">
         <v>32</v>
@@ -48584,7 +51545,7 @@
       <c r="G1554" s="23"/>
       <c r="H1554" s="23"/>
       <c r="I1554" s="24" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="J1554" s="24"/>
       <c r="K1554" s="24"/>
@@ -48592,13 +51553,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1555" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1555" s="9"/>
       <c r="B1555" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1555" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1555" s="23" t="s">
         <v>32</v>
@@ -48612,7 +51573,7 @@
       <c r="G1555" s="23"/>
       <c r="H1555" s="23"/>
       <c r="I1555" s="24" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="J1555" s="24"/>
       <c r="K1555" s="24"/>
@@ -48623,10 +51584,10 @@
     <row r="1556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="9"/>
       <c r="B1556" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1556" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1556" s="23" t="s">
         <v>32</v>
@@ -48635,26 +51596,28 @@
         <v>32</v>
       </c>
       <c r="F1556" s="23" t="s">
-        <v>943</v>
+        <v>1550</v>
       </c>
       <c r="G1556" s="23"/>
       <c r="H1556" s="23"/>
       <c r="I1556" s="24" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="J1556" s="24"/>
-      <c r="K1556" s="24"/>
+      <c r="K1556" s="24" t="s">
+        <v>1552</v>
+      </c>
       <c r="O1556" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1557" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1557" s="9"/>
       <c r="B1557" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1557" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1557" s="23" t="s">
         <v>32</v>
@@ -48663,26 +51626,28 @@
         <v>32</v>
       </c>
       <c r="F1557" s="23" t="s">
-        <v>943</v>
+        <v>1550</v>
       </c>
       <c r="G1557" s="23"/>
       <c r="H1557" s="23"/>
       <c r="I1557" s="24" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="J1557" s="24"/>
-      <c r="K1557" s="24"/>
+      <c r="K1557" s="24" t="s">
+        <v>1554</v>
+      </c>
       <c r="O1557" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1558" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1558" s="9"/>
       <c r="B1558" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1558" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1558" s="23" t="s">
         <v>32</v>
@@ -48696,7 +51661,7 @@
       <c r="G1558" s="23"/>
       <c r="H1558" s="23"/>
       <c r="I1558" s="24" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="J1558" s="24"/>
       <c r="K1558" s="24"/>
@@ -48707,10 +51672,10 @@
     <row r="1559" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="9"/>
       <c r="B1559" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1559" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1559" s="23" t="s">
         <v>32</v>
@@ -48724,7 +51689,7 @@
       <c r="G1559" s="23"/>
       <c r="H1559" s="23"/>
       <c r="I1559" s="24" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="J1559" s="24"/>
       <c r="K1559" s="24"/>
@@ -48735,10 +51700,10 @@
     <row r="1560" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1560" s="9"/>
       <c r="B1560" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1560" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1560" s="23" t="s">
         <v>32</v>
@@ -48752,7 +51717,7 @@
       <c r="G1560" s="23"/>
       <c r="H1560" s="23"/>
       <c r="I1560" s="24" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="J1560" s="24"/>
       <c r="K1560" s="24"/>
@@ -48760,14 +51725,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1561" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1561" s="9"/>
       <c r="B1561" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1561" s="23" t="s">
-        <v>1502</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="C1561" s="28"/>
       <c r="D1561" s="23" t="s">
         <v>32</v>
       </c>
@@ -48780,7 +51743,7 @@
       <c r="G1561" s="23"/>
       <c r="H1561" s="23"/>
       <c r="I1561" s="24" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="J1561" s="24"/>
       <c r="K1561" s="24"/>
@@ -48791,10 +51754,10 @@
     <row r="1562" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="9"/>
       <c r="B1562" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1562" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1562" s="23" t="s">
         <v>32</v>
@@ -48808,7 +51771,7 @@
       <c r="G1562" s="23"/>
       <c r="H1562" s="23"/>
       <c r="I1562" s="24" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="J1562" s="24"/>
       <c r="K1562" s="24"/>
@@ -48816,13 +51779,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1563" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="9"/>
       <c r="B1563" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1563" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1563" s="23" t="s">
         <v>32</v>
@@ -48836,7 +51799,7 @@
       <c r="G1563" s="23"/>
       <c r="H1563" s="23"/>
       <c r="I1563" s="24" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="J1563" s="24"/>
       <c r="K1563" s="24"/>
@@ -48844,13 +51807,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1564" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="9"/>
       <c r="B1564" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1564" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1564" s="23" t="s">
         <v>32</v>
@@ -48864,7 +51827,7 @@
       <c r="G1564" s="23"/>
       <c r="H1564" s="23"/>
       <c r="I1564" s="24" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="J1564" s="24"/>
       <c r="K1564" s="24"/>
@@ -48875,10 +51838,10 @@
     <row r="1565" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="9"/>
       <c r="B1565" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1565" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1565" s="23" t="s">
         <v>32</v>
@@ -48892,10 +51855,12 @@
       <c r="G1565" s="23"/>
       <c r="H1565" s="23"/>
       <c r="I1565" s="24" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="J1565" s="24"/>
-      <c r="K1565" s="24"/>
+      <c r="K1565" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="O1565" s="25" t="s">
         <v>36</v>
       </c>
@@ -48903,10 +51868,10 @@
     <row r="1566" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="9"/>
       <c r="B1566" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1566" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1566" s="23" t="s">
         <v>32</v>
@@ -48920,7 +51885,7 @@
       <c r="G1566" s="23"/>
       <c r="H1566" s="23"/>
       <c r="I1566" s="24" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="J1566" s="24"/>
       <c r="K1566" s="24"/>
@@ -48931,10 +51896,10 @@
     <row r="1567" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="9"/>
       <c r="B1567" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1567" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1567" s="23" t="s">
         <v>32</v>
@@ -48948,7 +51913,7 @@
       <c r="G1567" s="23"/>
       <c r="H1567" s="23"/>
       <c r="I1567" s="24" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="J1567" s="24"/>
       <c r="K1567" s="24"/>
@@ -48959,10 +51924,10 @@
     <row r="1568" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1568" s="9"/>
       <c r="B1568" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1568" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1568" s="23" t="s">
         <v>32</v>
@@ -48976,7 +51941,7 @@
       <c r="G1568" s="23"/>
       <c r="H1568" s="23"/>
       <c r="I1568" s="24" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="J1568" s="24"/>
       <c r="K1568" s="24"/>
@@ -48987,10 +51952,10 @@
     <row r="1569" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1569" s="9"/>
       <c r="B1569" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1569" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1569" s="23" t="s">
         <v>32</v>
@@ -49004,7 +51969,7 @@
       <c r="G1569" s="23"/>
       <c r="H1569" s="23"/>
       <c r="I1569" s="24" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="J1569" s="24"/>
       <c r="K1569" s="24"/>
@@ -49015,10 +51980,10 @@
     <row r="1570" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1570" s="9"/>
       <c r="B1570" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1570" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1570" s="23" t="s">
         <v>32</v>
@@ -49032,7 +51997,7 @@
       <c r="G1570" s="23"/>
       <c r="H1570" s="23"/>
       <c r="I1570" s="24" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="J1570" s="24"/>
       <c r="K1570" s="24"/>
@@ -49040,13 +52005,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1571" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1571" s="9"/>
       <c r="B1571" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1571" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1571" s="23" t="s">
         <v>32</v>
@@ -49060,7 +52025,7 @@
       <c r="G1571" s="23"/>
       <c r="H1571" s="23"/>
       <c r="I1571" s="24" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="J1571" s="24"/>
       <c r="K1571" s="24"/>
@@ -49068,13 +52033,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1572" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1572" s="9"/>
       <c r="B1572" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1572" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1572" s="23" t="s">
         <v>32</v>
@@ -49088,7 +52053,7 @@
       <c r="G1572" s="23"/>
       <c r="H1572" s="23"/>
       <c r="I1572" s="24" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="J1572" s="24"/>
       <c r="K1572" s="24"/>
@@ -49099,10 +52064,10 @@
     <row r="1573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1573" s="9"/>
       <c r="B1573" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1573" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1573" s="23" t="s">
         <v>32</v>
@@ -49116,7 +52081,7 @@
       <c r="G1573" s="23"/>
       <c r="H1573" s="23"/>
       <c r="I1573" s="24" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="J1573" s="24"/>
       <c r="K1573" s="24"/>
@@ -49127,10 +52092,10 @@
     <row r="1574" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1574" s="9"/>
       <c r="B1574" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1574" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1574" s="23" t="s">
         <v>32</v>
@@ -49144,7 +52109,7 @@
       <c r="G1574" s="23"/>
       <c r="H1574" s="23"/>
       <c r="I1574" s="24" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="J1574" s="24"/>
       <c r="K1574" s="24"/>
@@ -49155,10 +52120,10 @@
     <row r="1575" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1575" s="9"/>
       <c r="B1575" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1575" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1575" s="23" t="s">
         <v>32</v>
@@ -49172,7 +52137,7 @@
       <c r="G1575" s="23"/>
       <c r="H1575" s="23"/>
       <c r="I1575" s="24" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="J1575" s="24"/>
       <c r="K1575" s="24"/>
@@ -49183,10 +52148,10 @@
     <row r="1576" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1576" s="9"/>
       <c r="B1576" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1576" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1576" s="23" t="s">
         <v>32</v>
@@ -49200,7 +52165,7 @@
       <c r="G1576" s="23"/>
       <c r="H1576" s="23"/>
       <c r="I1576" s="24" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="J1576" s="24"/>
       <c r="K1576" s="24"/>
@@ -49208,13 +52173,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1577" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1577" s="9"/>
       <c r="B1577" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1577" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1577" s="23" t="s">
         <v>32</v>
@@ -49228,7 +52193,7 @@
       <c r="G1577" s="23"/>
       <c r="H1577" s="23"/>
       <c r="I1577" s="24" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="J1577" s="24"/>
       <c r="K1577" s="24"/>
@@ -49236,13 +52201,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1578" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1578" s="9"/>
       <c r="B1578" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1578" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1578" s="23" t="s">
         <v>32</v>
@@ -49256,7 +52221,7 @@
       <c r="G1578" s="23"/>
       <c r="H1578" s="23"/>
       <c r="I1578" s="24" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="J1578" s="24"/>
       <c r="K1578" s="24"/>
@@ -49264,13 +52229,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1579" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1579" s="9"/>
       <c r="B1579" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1579" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1579" s="23" t="s">
         <v>32</v>
@@ -49284,7 +52249,7 @@
       <c r="G1579" s="23"/>
       <c r="H1579" s="23"/>
       <c r="I1579" s="24" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="J1579" s="24"/>
       <c r="K1579" s="24"/>
@@ -49292,13 +52257,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1580" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1580" s="9"/>
       <c r="B1580" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1580" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1580" s="23" t="s">
         <v>32</v>
@@ -49312,7 +52277,7 @@
       <c r="G1580" s="23"/>
       <c r="H1580" s="23"/>
       <c r="I1580" s="24" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="J1580" s="24"/>
       <c r="K1580" s="24"/>
@@ -49320,25 +52285,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1581" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="9"/>
       <c r="B1581" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1581" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1581" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1581" s="28"/>
+      <c r="E1581" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1581" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1581" s="23"/>
       <c r="H1581" s="23"/>
       <c r="I1581" s="24" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="J1581" s="24"/>
       <c r="K1581" s="24"/>
@@ -49348,28 +52315,26 @@
     </row>
     <row r="1582" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="9"/>
-      <c r="B1582" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1582" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1582" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1582" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1582" s="23" t="s">
+      <c r="B1582" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="G1582" s="23"/>
-      <c r="H1582" s="23"/>
-      <c r="I1582" s="24" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J1582" s="24"/>
-      <c r="K1582" s="24"/>
+      <c r="C1582" s="30"/>
+      <c r="D1582" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1582" s="30"/>
+      <c r="F1582" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1582" s="30"/>
+      <c r="H1582" s="30"/>
+      <c r="I1582" s="31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J1582" s="31"/>
+      <c r="K1582" s="31" t="s">
+        <v>224</v>
+      </c>
       <c r="O1582" s="25" t="s">
         <v>36</v>
       </c>
@@ -49377,10 +52342,10 @@
     <row r="1583" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1583" s="9"/>
       <c r="B1583" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1583" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1583" s="23" t="s">
         <v>32</v>
@@ -49394,7 +52359,7 @@
       <c r="G1583" s="23"/>
       <c r="H1583" s="23"/>
       <c r="I1583" s="24" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="J1583" s="24"/>
       <c r="K1583" s="24"/>
@@ -49405,10 +52370,10 @@
     <row r="1584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1584" s="9"/>
       <c r="B1584" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1584" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1584" s="23" t="s">
         <v>32</v>
@@ -49422,7 +52387,7 @@
       <c r="G1584" s="23"/>
       <c r="H1584" s="23"/>
       <c r="I1584" s="24" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="J1584" s="24"/>
       <c r="K1584" s="24"/>
@@ -49433,10 +52398,10 @@
     <row r="1585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="9"/>
       <c r="B1585" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1585" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1585" s="23" t="s">
         <v>32</v>
@@ -49450,7 +52415,7 @@
       <c r="G1585" s="23"/>
       <c r="H1585" s="23"/>
       <c r="I1585" s="24" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="J1585" s="24"/>
       <c r="K1585" s="24"/>
@@ -49461,10 +52426,10 @@
     <row r="1586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1586" s="9"/>
       <c r="B1586" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1586" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1586" s="23" t="s">
         <v>32</v>
@@ -49478,7 +52443,7 @@
       <c r="G1586" s="23"/>
       <c r="H1586" s="23"/>
       <c r="I1586" s="24" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="J1586" s="24"/>
       <c r="K1586" s="24"/>
@@ -49489,10 +52454,10 @@
     <row r="1587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1587" s="9"/>
       <c r="B1587" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1587" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1587" s="23" t="s">
         <v>32</v>
@@ -49506,7 +52471,7 @@
       <c r="G1587" s="23"/>
       <c r="H1587" s="23"/>
       <c r="I1587" s="24" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="J1587" s="24"/>
       <c r="K1587" s="24"/>
@@ -49517,10 +52482,10 @@
     <row r="1588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1588" s="9"/>
       <c r="B1588" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1588" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1588" s="23" t="s">
         <v>32</v>
@@ -49534,7 +52499,7 @@
       <c r="G1588" s="23"/>
       <c r="H1588" s="23"/>
       <c r="I1588" s="24" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="J1588" s="24"/>
       <c r="K1588" s="24"/>
@@ -49542,13 +52507,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1589" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1589" s="9"/>
       <c r="B1589" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1589" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1589" s="23" t="s">
         <v>32</v>
@@ -49562,7 +52527,7 @@
       <c r="G1589" s="23"/>
       <c r="H1589" s="23"/>
       <c r="I1589" s="24" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="J1589" s="24"/>
       <c r="K1589" s="24"/>
@@ -49570,13 +52535,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1590" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1590" s="9"/>
       <c r="B1590" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1590" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1590" s="23" t="s">
         <v>32</v>
@@ -49590,7 +52555,7 @@
       <c r="G1590" s="23"/>
       <c r="H1590" s="23"/>
       <c r="I1590" s="24" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="J1590" s="24"/>
       <c r="K1590" s="24"/>
@@ -49601,10 +52566,10 @@
     <row r="1591" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1591" s="9"/>
       <c r="B1591" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1591" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1591" s="23" t="s">
         <v>32</v>
@@ -49618,7 +52583,7 @@
       <c r="G1591" s="23"/>
       <c r="H1591" s="23"/>
       <c r="I1591" s="24" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="J1591" s="24"/>
       <c r="K1591" s="24"/>
@@ -49626,13 +52591,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1592" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1592" s="9"/>
       <c r="B1592" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1592" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1592" s="23" t="s">
         <v>32</v>
@@ -49646,7 +52611,7 @@
       <c r="G1592" s="23"/>
       <c r="H1592" s="23"/>
       <c r="I1592" s="24" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="J1592" s="24"/>
       <c r="K1592" s="24"/>
@@ -49657,10 +52622,10 @@
     <row r="1593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="9"/>
       <c r="B1593" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1593" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1593" s="23" t="s">
         <v>32</v>
@@ -49674,7 +52639,7 @@
       <c r="G1593" s="23"/>
       <c r="H1593" s="23"/>
       <c r="I1593" s="24" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="J1593" s="24"/>
       <c r="K1593" s="24"/>
@@ -49685,10 +52650,10 @@
     <row r="1594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1594" s="9"/>
       <c r="B1594" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1594" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1594" s="23" t="s">
         <v>32</v>
@@ -49702,7 +52667,7 @@
       <c r="G1594" s="23"/>
       <c r="H1594" s="23"/>
       <c r="I1594" s="24" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="J1594" s="24"/>
       <c r="K1594" s="24"/>
@@ -49710,13 +52675,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1595" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1595" s="9"/>
       <c r="B1595" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1595" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1595" s="23" t="s">
         <v>32</v>
@@ -49730,7 +52695,7 @@
       <c r="G1595" s="23"/>
       <c r="H1595" s="23"/>
       <c r="I1595" s="24" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="J1595" s="24"/>
       <c r="K1595" s="24"/>
@@ -49738,13 +52703,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1596" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1596" s="9"/>
       <c r="B1596" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1596" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1596" s="23" t="s">
         <v>32</v>
@@ -49758,7 +52723,7 @@
       <c r="G1596" s="23"/>
       <c r="H1596" s="23"/>
       <c r="I1596" s="24" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="J1596" s="24"/>
       <c r="K1596" s="24"/>
@@ -49766,39 +52731,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1597" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1597" s="9"/>
-      <c r="B1597" s="30" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C1597" s="28"/>
+      <c r="B1597" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1597" s="23" t="s">
+        <v>1521</v>
+      </c>
       <c r="D1597" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1597" s="28"/>
+      <c r="E1597" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1597" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1597" s="23"/>
       <c r="H1597" s="23"/>
       <c r="I1597" s="24" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="J1597" s="24"/>
-      <c r="K1597" s="24" t="s">
-        <v>903</v>
-      </c>
+      <c r="K1597" s="24"/>
       <c r="O1597" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1598" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1598" s="9"/>
       <c r="B1598" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1598" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1598" s="23" t="s">
         <v>32</v>
@@ -49812,7 +52779,7 @@
       <c r="G1598" s="23"/>
       <c r="H1598" s="23"/>
       <c r="I1598" s="24" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="J1598" s="24"/>
       <c r="K1598" s="24"/>
@@ -49820,13 +52787,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1599" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1599" s="9"/>
       <c r="B1599" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1599" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1599" s="23" t="s">
         <v>32</v>
@@ -49840,7 +52807,7 @@
       <c r="G1599" s="23"/>
       <c r="H1599" s="23"/>
       <c r="I1599" s="24" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="J1599" s="24"/>
       <c r="K1599" s="24"/>
@@ -49848,13 +52815,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1600" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1600" s="9"/>
       <c r="B1600" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1600" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1600" s="23" t="s">
         <v>32</v>
@@ -49868,7 +52835,7 @@
       <c r="G1600" s="23"/>
       <c r="H1600" s="23"/>
       <c r="I1600" s="24" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="J1600" s="24"/>
       <c r="K1600" s="24"/>
@@ -49879,10 +52846,10 @@
     <row r="1601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1601" s="9"/>
       <c r="B1601" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1601" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1601" s="23" t="s">
         <v>32</v>
@@ -49896,7 +52863,7 @@
       <c r="G1601" s="23"/>
       <c r="H1601" s="23"/>
       <c r="I1601" s="24" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="J1601" s="24"/>
       <c r="K1601" s="24"/>
@@ -49907,10 +52874,10 @@
     <row r="1602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="9"/>
       <c r="B1602" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1602" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1602" s="23" t="s">
         <v>32</v>
@@ -49924,7 +52891,7 @@
       <c r="G1602" s="23"/>
       <c r="H1602" s="23"/>
       <c r="I1602" s="24" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="J1602" s="24"/>
       <c r="K1602" s="24"/>
@@ -49935,10 +52902,10 @@
     <row r="1603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="9"/>
       <c r="B1603" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1603" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1603" s="23" t="s">
         <v>32</v>
@@ -49952,7 +52919,7 @@
       <c r="G1603" s="23"/>
       <c r="H1603" s="23"/>
       <c r="I1603" s="24" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="J1603" s="24"/>
       <c r="K1603" s="24"/>
@@ -49963,10 +52930,10 @@
     <row r="1604" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1604" s="9"/>
       <c r="B1604" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1604" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1604" s="23" t="s">
         <v>32</v>
@@ -49980,7 +52947,7 @@
       <c r="G1604" s="23"/>
       <c r="H1604" s="23"/>
       <c r="I1604" s="24" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="J1604" s="24"/>
       <c r="K1604" s="24"/>
@@ -49988,13 +52955,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1605" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1605" s="9"/>
       <c r="B1605" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1605" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1605" s="23" t="s">
         <v>32</v>
@@ -50008,7 +52975,7 @@
       <c r="G1605" s="23"/>
       <c r="H1605" s="23"/>
       <c r="I1605" s="24" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="J1605" s="24"/>
       <c r="K1605" s="24"/>
@@ -50016,13 +52983,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1606" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1606" s="9"/>
       <c r="B1606" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1606" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1606" s="23" t="s">
         <v>32</v>
@@ -50036,7 +53003,7 @@
       <c r="G1606" s="23"/>
       <c r="H1606" s="23"/>
       <c r="I1606" s="24" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="J1606" s="24"/>
       <c r="K1606" s="24"/>
@@ -50047,10 +53014,10 @@
     <row r="1607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1607" s="9"/>
       <c r="B1607" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1607" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1607" s="23" t="s">
         <v>32</v>
@@ -50064,7 +53031,7 @@
       <c r="G1607" s="23"/>
       <c r="H1607" s="23"/>
       <c r="I1607" s="24" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="J1607" s="24"/>
       <c r="K1607" s="24"/>
@@ -50073,11 +53040,12 @@
       </c>
     </row>
     <row r="1608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="9"/>
       <c r="B1608" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1608" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1608" s="23" t="s">
         <v>32</v>
@@ -50091,7 +53059,7 @@
       <c r="G1608" s="23"/>
       <c r="H1608" s="23"/>
       <c r="I1608" s="24" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="J1608" s="24"/>
       <c r="K1608" s="24"/>
@@ -50100,11 +53068,12 @@
       </c>
     </row>
     <row r="1609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="9"/>
       <c r="B1609" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1609" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1609" s="23" t="s">
         <v>32</v>
@@ -50118,7 +53087,7 @@
       <c r="G1609" s="23"/>
       <c r="H1609" s="23"/>
       <c r="I1609" s="24" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="J1609" s="24"/>
       <c r="K1609" s="24"/>
@@ -50126,12 +53095,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1610" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="9"/>
       <c r="B1610" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1610" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1610" s="23" t="s">
         <v>32</v>
@@ -50145,7 +53115,7 @@
       <c r="G1610" s="23"/>
       <c r="H1610" s="23"/>
       <c r="I1610" s="24" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="J1610" s="24"/>
       <c r="K1610" s="24"/>
@@ -50153,26 +53123,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1611" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="9"/>
       <c r="B1611" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1611" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1611" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1611" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1611" s="28"/>
       <c r="F1611" s="23" t="s">
         <v>943</v>
       </c>
       <c r="G1611" s="23"/>
       <c r="H1611" s="23"/>
       <c r="I1611" s="24" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="J1611" s="24"/>
       <c r="K1611" s="24"/>
@@ -50181,11 +53150,12 @@
       </c>
     </row>
     <row r="1612" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="9"/>
       <c r="B1612" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1612" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1612" s="23" t="s">
         <v>32</v>
@@ -50199,7 +53169,7 @@
       <c r="G1612" s="23"/>
       <c r="H1612" s="23"/>
       <c r="I1612" s="24" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="J1612" s="24"/>
       <c r="K1612" s="24"/>
@@ -50207,12 +53177,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1613" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="9"/>
       <c r="B1613" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1613" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1613" s="23" t="s">
         <v>32</v>
@@ -50226,7 +53197,7 @@
       <c r="G1613" s="23"/>
       <c r="H1613" s="23"/>
       <c r="I1613" s="24" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="J1613" s="24"/>
       <c r="K1613" s="24"/>
@@ -50235,11 +53206,12 @@
       </c>
     </row>
     <row r="1614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="9"/>
       <c r="B1614" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1614" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1614" s="23" t="s">
         <v>32</v>
@@ -50253,7 +53225,7 @@
       <c r="G1614" s="23"/>
       <c r="H1614" s="23"/>
       <c r="I1614" s="24" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="J1614" s="24"/>
       <c r="K1614" s="24"/>
@@ -50261,12 +53233,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1615" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="9"/>
       <c r="B1615" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1615" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1615" s="23" t="s">
         <v>32</v>
@@ -50280,7 +53253,7 @@
       <c r="G1615" s="23"/>
       <c r="H1615" s="23"/>
       <c r="I1615" s="24" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="J1615" s="24"/>
       <c r="K1615" s="24"/>
@@ -50288,12 +53261,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1616" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="9"/>
       <c r="B1616" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1616" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1616" s="23" t="s">
         <v>32</v>
@@ -50307,7 +53281,7 @@
       <c r="G1616" s="23"/>
       <c r="H1616" s="23"/>
       <c r="I1616" s="24" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="J1616" s="24"/>
       <c r="K1616" s="24"/>
@@ -50315,12 +53289,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1617" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="9"/>
       <c r="B1617" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1617" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1617" s="23" t="s">
         <v>32</v>
@@ -50334,7 +53309,7 @@
       <c r="G1617" s="23"/>
       <c r="H1617" s="23"/>
       <c r="I1617" s="24" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="J1617" s="24"/>
       <c r="K1617" s="24"/>
@@ -50343,11 +53318,12 @@
       </c>
     </row>
     <row r="1618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="9"/>
       <c r="B1618" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1618" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1618" s="23" t="s">
         <v>32</v>
@@ -50361,7 +53337,7 @@
       <c r="G1618" s="23"/>
       <c r="H1618" s="23"/>
       <c r="I1618" s="24" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="J1618" s="24"/>
       <c r="K1618" s="24"/>
@@ -50370,90 +53346,96 @@
       </c>
     </row>
     <row r="1619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1619" s="30" t="s">
+      <c r="A1619" s="9"/>
+      <c r="B1619" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1619" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1619" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1619" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1619" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="C1619" s="30"/>
-      <c r="D1619" s="30" t="s">
+      <c r="G1619" s="23"/>
+      <c r="H1619" s="23"/>
+      <c r="I1619" s="24" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J1619" s="24"/>
+      <c r="K1619" s="24"/>
+      <c r="O1619" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="9"/>
+      <c r="B1620" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1620" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1620" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1620" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1620" s="23" t="s">
         <v>943</v>
-      </c>
-      <c r="E1619" s="30"/>
-      <c r="F1619" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1619" s="30"/>
-      <c r="H1619" s="30"/>
-      <c r="I1619" s="31" t="s">
-        <v>1622</v>
-      </c>
-      <c r="J1619" s="31"/>
-      <c r="K1619" s="31" t="s">
-        <v>1623</v>
-      </c>
-      <c r="O1619" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1620" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1620" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C1620" s="23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1620" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1620" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1620" s="23" t="s">
-        <v>1526</v>
       </c>
       <c r="G1620" s="23"/>
       <c r="H1620" s="23"/>
       <c r="I1620" s="24" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="J1620" s="24"/>
-      <c r="K1620" s="24" t="s">
-        <v>1625</v>
-      </c>
+      <c r="K1620" s="24"/>
       <c r="O1620" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1621" s="30" t="s">
+    <row r="1621" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="9"/>
+      <c r="B1621" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1621" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1621" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1621" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1621" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="C1621" s="30"/>
-      <c r="D1621" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="E1621" s="30"/>
-      <c r="F1621" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1621" s="30"/>
-      <c r="H1621" s="30"/>
-      <c r="I1621" s="31" t="s">
-        <v>1626</v>
-      </c>
-      <c r="J1621" s="31"/>
-      <c r="K1621" s="31" t="s">
-        <v>1623</v>
-      </c>
+      <c r="G1621" s="23"/>
+      <c r="H1621" s="23"/>
+      <c r="I1621" s="24" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J1621" s="24"/>
+      <c r="K1621" s="24"/>
       <c r="O1621" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="9"/>
       <c r="B1622" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="C1622" s="23" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D1622" s="23" t="s">
         <v>32</v>
@@ -50467,7 +53449,7 @@
       <c r="G1622" s="23"/>
       <c r="H1622" s="23"/>
       <c r="I1622" s="24" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="J1622" s="24"/>
       <c r="K1622" s="24"/>
@@ -50475,25 +53457,827 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="9"/>
+      <c r="B1623" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1623" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1623" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1623" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1623" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1623" s="23"/>
+      <c r="H1623" s="23"/>
+      <c r="I1623" s="24" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J1623" s="24"/>
+      <c r="K1623" s="24"/>
+      <c r="O1623" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="9"/>
+      <c r="B1624" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1624" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1624" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1624" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1624" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1624" s="23"/>
+      <c r="H1624" s="23"/>
+      <c r="I1624" s="24" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J1624" s="24"/>
+      <c r="K1624" s="24"/>
+      <c r="O1624" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="9"/>
+      <c r="B1625" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1625" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1625" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1625" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1625" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1625" s="23"/>
+      <c r="H1625" s="23"/>
+      <c r="I1625" s="24" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J1625" s="24"/>
+      <c r="K1625" s="24"/>
+      <c r="O1625" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="9"/>
+      <c r="B1626" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1626" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1626" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1626" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1626" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1626" s="23"/>
+      <c r="H1626" s="23"/>
+      <c r="I1626" s="24" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J1626" s="24"/>
+      <c r="K1626" s="24"/>
+      <c r="O1626" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="9"/>
+      <c r="B1627" s="30" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C1627" s="28"/>
+      <c r="D1627" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1627" s="28"/>
+      <c r="F1627" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1627" s="23"/>
+      <c r="H1627" s="23"/>
+      <c r="I1627" s="24" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J1627" s="24"/>
+      <c r="K1627" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="O1627" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="9"/>
+      <c r="B1628" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1628" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1628" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1628" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1628" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1628" s="23"/>
+      <c r="H1628" s="23"/>
+      <c r="I1628" s="24" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J1628" s="24"/>
+      <c r="K1628" s="24"/>
+      <c r="O1628" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="9"/>
+      <c r="B1629" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1629" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1629" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1629" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1629" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1629" s="23"/>
+      <c r="H1629" s="23"/>
+      <c r="I1629" s="24" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J1629" s="24"/>
+      <c r="K1629" s="24"/>
+      <c r="O1629" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="9"/>
+      <c r="B1630" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1630" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1630" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1630" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1630" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1630" s="23"/>
+      <c r="H1630" s="23"/>
+      <c r="I1630" s="24" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J1630" s="24"/>
+      <c r="K1630" s="24"/>
+      <c r="O1630" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="9"/>
+      <c r="B1631" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1631" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1631" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1631" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1631" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1631" s="23"/>
+      <c r="H1631" s="23"/>
+      <c r="I1631" s="24" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J1631" s="24"/>
+      <c r="K1631" s="24"/>
+      <c r="O1631" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="9"/>
+      <c r="B1632" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1632" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1632" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1632" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1632" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1632" s="23"/>
+      <c r="H1632" s="23"/>
+      <c r="I1632" s="24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J1632" s="24"/>
+      <c r="K1632" s="24"/>
+      <c r="O1632" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="9"/>
+      <c r="B1633" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1633" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1633" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1633" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1633" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1633" s="23"/>
+      <c r="H1633" s="23"/>
+      <c r="I1633" s="24" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J1633" s="24"/>
+      <c r="K1633" s="24"/>
+      <c r="O1633" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="9"/>
+      <c r="B1634" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1634" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1634" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1634" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1634" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1634" s="23"/>
+      <c r="H1634" s="23"/>
+      <c r="I1634" s="24" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J1634" s="24"/>
+      <c r="K1634" s="24"/>
+      <c r="O1634" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="9"/>
+      <c r="B1635" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1635" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1635" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1635" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1635" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1635" s="23"/>
+      <c r="H1635" s="23"/>
+      <c r="I1635" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J1635" s="24"/>
+      <c r="K1635" s="24"/>
+      <c r="O1635" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="9"/>
+      <c r="B1636" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1636" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1636" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1636" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1636" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1636" s="23"/>
+      <c r="H1636" s="23"/>
+      <c r="I1636" s="24" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J1636" s="24"/>
+      <c r="K1636" s="24"/>
+      <c r="O1636" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="9"/>
+      <c r="B1637" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1637" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1637" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1637" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1637" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1637" s="23"/>
+      <c r="H1637" s="23"/>
+      <c r="I1637" s="24" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J1637" s="24"/>
+      <c r="K1637" s="24"/>
+      <c r="O1637" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1638" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1638" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1638" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1638" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1638" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1638" s="23"/>
+      <c r="H1638" s="23"/>
+      <c r="I1638" s="24" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J1638" s="24"/>
+      <c r="K1638" s="24"/>
+      <c r="O1638" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1639" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1639" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1639" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1639" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1639" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1639" s="23"/>
+      <c r="H1639" s="23"/>
+      <c r="I1639" s="24" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J1639" s="24"/>
+      <c r="K1639" s="24"/>
+      <c r="O1639" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1640" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1640" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1640" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1640" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1640" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1640" s="23"/>
+      <c r="H1640" s="23"/>
+      <c r="I1640" s="24" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J1640" s="24"/>
+      <c r="K1640" s="24"/>
+      <c r="O1640" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1641" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1641" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1641" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1641" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1641" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1641" s="23"/>
+      <c r="H1641" s="23"/>
+      <c r="I1641" s="24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J1641" s="24"/>
+      <c r="K1641" s="24"/>
+      <c r="O1641" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1642" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1642" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1642" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1642" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1642" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1642" s="23"/>
+      <c r="H1642" s="23"/>
+      <c r="I1642" s="24" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J1642" s="24"/>
+      <c r="K1642" s="24"/>
+      <c r="O1642" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1643" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1643" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1643" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1643" s="23"/>
+      <c r="H1643" s="23"/>
+      <c r="I1643" s="24" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J1643" s="24"/>
+      <c r="K1643" s="24"/>
+      <c r="O1643" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1644" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1644" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1644" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1644" s="23"/>
+      <c r="H1644" s="23"/>
+      <c r="I1644" s="24" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J1644" s="24"/>
+      <c r="K1644" s="24"/>
+      <c r="O1644" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1645" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1645" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1645" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1645" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1645" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1645" s="23"/>
+      <c r="H1645" s="23"/>
+      <c r="I1645" s="24" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J1645" s="24"/>
+      <c r="K1645" s="24"/>
+      <c r="O1645" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1646" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1646" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1646" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1646" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1646" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1646" s="23"/>
+      <c r="H1646" s="23"/>
+      <c r="I1646" s="24" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J1646" s="24"/>
+      <c r="K1646" s="24"/>
+      <c r="O1646" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1647" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1647" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1647" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1647" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1647" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1647" s="23"/>
+      <c r="H1647" s="23"/>
+      <c r="I1647" s="24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J1647" s="24"/>
+      <c r="K1647" s="24"/>
+      <c r="O1647" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1648" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1648" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1648" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1648" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1648" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1648" s="23"/>
+      <c r="H1648" s="23"/>
+      <c r="I1648" s="24" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J1648" s="24"/>
+      <c r="K1648" s="24"/>
+      <c r="O1648" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1649" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1649" s="30"/>
+      <c r="D1649" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1649" s="30"/>
+      <c r="F1649" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1649" s="30"/>
+      <c r="H1649" s="30"/>
+      <c r="I1649" s="31" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J1649" s="31"/>
+      <c r="K1649" s="31" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O1649" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1650" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1650" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1650" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1650" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1650" s="23" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G1650" s="23"/>
+      <c r="H1650" s="23"/>
+      <c r="I1650" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J1650" s="24"/>
+      <c r="K1650" s="24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O1650" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1651" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1651" s="30"/>
+      <c r="D1651" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1651" s="30"/>
+      <c r="F1651" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1651" s="30"/>
+      <c r="H1651" s="30"/>
+      <c r="I1651" s="31" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J1651" s="31"/>
+      <c r="K1651" s="31" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O1651" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1652" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1652" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1652" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1652" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1652" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1652" s="23"/>
+      <c r="H1652" s="23"/>
+      <c r="I1652" s="24" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J1652" s="24"/>
+      <c r="K1652" s="24"/>
+      <c r="O1652" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9610" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="1653">
   <si>
     <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
   </si>
@@ -4508,6 +4508,9 @@
   </si>
   <si>
     <t xml:space="preserve">CompVisionUtil_EstimateFieldToRobot_Alt.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompVisionUtil_ObjectToRobotPose.vi</t>
   </si>
   <si>
     <t xml:space="preserve">APRIL TAG </t>
@@ -5457,8 +5460,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1499" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1511" activeCellId="0" sqref="F1511"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1526" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1526" activeCellId="0" sqref="E1526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5568,35 +5571,35 @@
       </c>
       <c r="B9" s="13" t="n">
         <f aca="false">B10+B11</f>
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D9" s="13" t="n">
-        <f aca="false">COUNTIF(D24:D1978,"X")</f>
+        <f aca="false">COUNTIF(D24:D1979,"X")</f>
         <v>348</v>
       </c>
       <c r="E9" s="13" t="n">
-        <f aca="false">COUNTIF(E24:E1978,"X")</f>
-        <v>1033</v>
+        <f aca="false">COUNTIF(E24:E1979,"X")</f>
+        <v>1055</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">COUNTIF(F24:F1978,"S")+COUNTIF(F24:F1978,"I")+COUNTIF(F24:F1978,"X")+COUNTIF(F24:F1978,"SI")+COUNTIF(F24:F1978,"IS")+COUNTIF(F24:F1978,"N/A")</f>
+        <f aca="false">COUNTIF(F24:F1979,"S")+COUNTIF(F24:F1979,"I")+COUNTIF(F24:F1979,"X")+COUNTIF(F24:F1979,"SI")+COUNTIF(F24:F1979,"IS")+COUNTIF(F24:F1979,"N/A")</f>
         <v>653</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">COUNTIF(G24:G1978,"S")+COUNTIF(G24:G1978,"I")+COUNTIF(G24:G1978,"X")+COUNTIF(G24:G1978,"SI")+COUNTIF(G24:G1978,"IS")+COUNTIF(G24:G1978,"N/A")</f>
+        <f aca="false">COUNTIF(G24:G1979,"S")+COUNTIF(G24:G1979,"I")+COUNTIF(G24:G1979,"X")+COUNTIF(G24:G1979,"SI")+COUNTIF(G24:G1979,"IS")+COUNTIF(G24:G1979,"N/A")</f>
         <v>49</v>
       </c>
       <c r="H9" s="13" t="n">
-        <f aca="false">COUNTIF(H24:H1978,"S")+COUNTIF(H24:H1978,"I")+COUNTIF(H24:H1978,"X")+COUNTIF(H24:H1978,"SI")+COUNTIF(H24:H1978,"IS")+COUNTIF(H24:H1978,"N/A")</f>
+        <f aca="false">COUNTIF(H24:H1979,"S")+COUNTIF(H24:H1979,"I")+COUNTIF(H24:H1979,"X")+COUNTIF(H24:H1979,"SI")+COUNTIF(H24:H1979,"IS")+COUNTIF(H24:H1979,"N/A")</f>
         <v>12</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.99911426040744</v>
+        <v>0.999115044247788</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,12 +5607,12 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1978,"X")</f>
-        <v>1011</v>
+        <f aca="false">COUNTIF(B24:B1979,"X")</f>
+        <v>1012</v>
       </c>
       <c r="C10" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C1978,"X")</f>
-        <v>1011</v>
+        <f aca="false">COUNTIF(C24:C1979,"X")</f>
+        <v>1012</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -5620,16 +5623,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1978,"Z")</f>
+        <f aca="false">COUNTIF(B24:B1979,"Z")</f>
         <v>118</v>
       </c>
       <c r="C11" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C1978,"Z")</f>
+        <f aca="false">COUNTIF(C24:C1979,"Z")</f>
         <v>117</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.578387953941541</v>
+        <v>0.57787610619469</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,7 +5640,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1978,"/")</f>
+        <f aca="false">COUNTIF(B24:B1979,"/")</f>
         <v>3</v>
       </c>
       <c r="I12" s="4"/>
@@ -5647,7 +5650,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B1978,"\")</f>
+        <f aca="false">COUNTIF(B24:B1979,"\")</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -46795,1125 +46798,1123 @@
       </c>
     </row>
     <row r="1487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1487" s="23"/>
-      <c r="C1487" s="23"/>
+      <c r="B1487" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1487" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1487" s="23"/>
-      <c r="E1487" s="23"/>
-      <c r="F1487" s="23"/>
+      <c r="E1487" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1487" s="28"/>
       <c r="G1487" s="23"/>
       <c r="H1487" s="23"/>
-      <c r="I1487" s="24"/>
+      <c r="I1487" s="24" t="s">
+        <v>1495</v>
+      </c>
       <c r="J1487" s="24"/>
       <c r="K1487" s="24"/>
       <c r="L1487" s="23"/>
       <c r="M1487" s="23"/>
       <c r="N1487" s="23"/>
-      <c r="O1487" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="O1487" s="25"/>
     </row>
     <row r="1488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1488" s="25"/>
-      <c r="C1488" s="1"/>
-      <c r="D1488" s="1"/>
-      <c r="E1488" s="1"/>
-      <c r="F1488" s="1"/>
-      <c r="G1488" s="1"/>
-      <c r="H1488" s="1"/>
-      <c r="I1488" s="1"/>
-      <c r="J1488" s="1"/>
-      <c r="K1488" s="1"/>
-      <c r="L1488" s="1"/>
-      <c r="M1488" s="1"/>
-      <c r="N1488" s="1"/>
+      <c r="B1488" s="23"/>
+      <c r="C1488" s="23"/>
+      <c r="D1488" s="23"/>
+      <c r="E1488" s="23"/>
+      <c r="F1488" s="23"/>
+      <c r="G1488" s="23"/>
+      <c r="H1488" s="23"/>
+      <c r="I1488" s="24"/>
+      <c r="J1488" s="24"/>
+      <c r="K1488" s="24"/>
+      <c r="L1488" s="23"/>
+      <c r="M1488" s="23"/>
+      <c r="N1488" s="23"/>
       <c r="O1488" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y1488" s="0"/>
-      <c r="Z1488" s="0"/>
-      <c r="AA1488" s="0"/>
-      <c r="AB1488" s="0"/>
-      <c r="AC1488" s="0"/>
-      <c r="AD1488" s="0"/>
-      <c r="AE1488" s="0"/>
-      <c r="AF1488" s="0"/>
-      <c r="AG1488" s="0"/>
-      <c r="AH1488" s="0"/>
-      <c r="AI1488" s="0"/>
-      <c r="AJ1488" s="0"/>
-      <c r="AK1488" s="0"/>
-      <c r="AL1488" s="0"/>
-      <c r="AM1488" s="0"/>
-      <c r="AN1488" s="0"/>
-      <c r="AO1488" s="0"/>
-      <c r="AP1488" s="0"/>
-      <c r="AQ1488" s="0"/>
-      <c r="AR1488" s="0"/>
-      <c r="AS1488" s="0"/>
-      <c r="AT1488" s="0"/>
-      <c r="AU1488" s="0"/>
-      <c r="AV1488" s="0"/>
-      <c r="AW1488" s="0"/>
-      <c r="AX1488" s="0"/>
-      <c r="AY1488" s="0"/>
-      <c r="AZ1488" s="0"/>
-      <c r="BA1488" s="0"/>
-      <c r="BB1488" s="0"/>
-      <c r="BC1488" s="0"/>
-      <c r="BD1488" s="0"/>
-      <c r="BE1488" s="0"/>
-      <c r="BF1488" s="0"/>
-      <c r="BG1488" s="0"/>
-      <c r="BH1488" s="0"/>
-      <c r="BI1488" s="0"/>
-      <c r="BJ1488" s="0"/>
-      <c r="BK1488" s="0"/>
-      <c r="BL1488" s="0"/>
-      <c r="BM1488" s="0"/>
-      <c r="BN1488" s="0"/>
-      <c r="BO1488" s="0"/>
-      <c r="BP1488" s="0"/>
-      <c r="BQ1488" s="0"/>
-      <c r="BR1488" s="0"/>
-      <c r="BS1488" s="0"/>
-      <c r="BT1488" s="0"/>
-      <c r="BU1488" s="0"/>
-      <c r="BV1488" s="0"/>
-      <c r="BW1488" s="0"/>
-      <c r="BX1488" s="0"/>
-      <c r="BY1488" s="0"/>
-      <c r="BZ1488" s="0"/>
-      <c r="CA1488" s="0"/>
-      <c r="CB1488" s="0"/>
-      <c r="CC1488" s="0"/>
-      <c r="CD1488" s="0"/>
-      <c r="CE1488" s="0"/>
-      <c r="CF1488" s="0"/>
-      <c r="CG1488" s="0"/>
-      <c r="CH1488" s="0"/>
-      <c r="CI1488" s="0"/>
-      <c r="CJ1488" s="0"/>
-      <c r="CK1488" s="0"/>
-      <c r="CL1488" s="0"/>
-      <c r="CM1488" s="0"/>
-      <c r="CN1488" s="0"/>
-      <c r="CO1488" s="0"/>
-      <c r="CP1488" s="0"/>
-      <c r="CQ1488" s="0"/>
-      <c r="CR1488" s="0"/>
-      <c r="CS1488" s="0"/>
-      <c r="CT1488" s="0"/>
-      <c r="CU1488" s="0"/>
-      <c r="CV1488" s="0"/>
-      <c r="CW1488" s="0"/>
-      <c r="CX1488" s="0"/>
-      <c r="CY1488" s="0"/>
-      <c r="CZ1488" s="0"/>
-      <c r="DA1488" s="0"/>
-      <c r="DB1488" s="0"/>
-      <c r="DC1488" s="0"/>
-      <c r="DD1488" s="0"/>
-      <c r="DE1488" s="0"/>
-      <c r="DF1488" s="0"/>
-      <c r="DG1488" s="0"/>
-      <c r="DH1488" s="0"/>
-      <c r="DI1488" s="0"/>
-      <c r="DJ1488" s="0"/>
-      <c r="DK1488" s="0"/>
-      <c r="DL1488" s="0"/>
-      <c r="DM1488" s="0"/>
-      <c r="DN1488" s="0"/>
-      <c r="DO1488" s="0"/>
-      <c r="DP1488" s="0"/>
-      <c r="DQ1488" s="0"/>
-      <c r="DR1488" s="0"/>
-      <c r="DS1488" s="0"/>
-      <c r="DT1488" s="0"/>
-      <c r="DU1488" s="0"/>
-      <c r="DV1488" s="0"/>
-      <c r="DW1488" s="0"/>
-      <c r="DX1488" s="0"/>
-      <c r="DY1488" s="0"/>
-      <c r="DZ1488" s="0"/>
-      <c r="EA1488" s="0"/>
-      <c r="EB1488" s="0"/>
-      <c r="EC1488" s="0"/>
-      <c r="ED1488" s="0"/>
-      <c r="EE1488" s="0"/>
-      <c r="EF1488" s="0"/>
-      <c r="EG1488" s="0"/>
-      <c r="EH1488" s="0"/>
-      <c r="EI1488" s="0"/>
-      <c r="EJ1488" s="0"/>
-      <c r="EK1488" s="0"/>
-      <c r="EL1488" s="0"/>
-      <c r="EM1488" s="0"/>
-      <c r="EN1488" s="0"/>
-      <c r="EO1488" s="0"/>
-      <c r="EP1488" s="0"/>
-      <c r="EQ1488" s="0"/>
-      <c r="ER1488" s="0"/>
-      <c r="ES1488" s="0"/>
-      <c r="ET1488" s="0"/>
-      <c r="EU1488" s="0"/>
-      <c r="EV1488" s="0"/>
-      <c r="EW1488" s="0"/>
-      <c r="EX1488" s="0"/>
-      <c r="EY1488" s="0"/>
-      <c r="EZ1488" s="0"/>
-      <c r="FA1488" s="0"/>
-      <c r="FB1488" s="0"/>
-      <c r="FC1488" s="0"/>
-      <c r="FD1488" s="0"/>
-      <c r="FE1488" s="0"/>
-      <c r="FF1488" s="0"/>
-      <c r="FG1488" s="0"/>
-      <c r="FH1488" s="0"/>
-      <c r="FI1488" s="0"/>
-      <c r="FJ1488" s="0"/>
-      <c r="FK1488" s="0"/>
-      <c r="FL1488" s="0"/>
-      <c r="FM1488" s="0"/>
-      <c r="FN1488" s="0"/>
-      <c r="FO1488" s="0"/>
-      <c r="FP1488" s="0"/>
-      <c r="FQ1488" s="0"/>
-      <c r="FR1488" s="0"/>
-      <c r="FS1488" s="0"/>
-      <c r="FT1488" s="0"/>
-      <c r="FU1488" s="0"/>
-      <c r="FV1488" s="0"/>
-      <c r="FW1488" s="0"/>
-      <c r="FX1488" s="0"/>
-      <c r="FY1488" s="0"/>
-      <c r="FZ1488" s="0"/>
-      <c r="GA1488" s="0"/>
-      <c r="GB1488" s="0"/>
-      <c r="GC1488" s="0"/>
-      <c r="GD1488" s="0"/>
-      <c r="GE1488" s="0"/>
-      <c r="GF1488" s="0"/>
-      <c r="GG1488" s="0"/>
-      <c r="GH1488" s="0"/>
-      <c r="GI1488" s="0"/>
-      <c r="GJ1488" s="0"/>
-      <c r="GK1488" s="0"/>
-      <c r="GL1488" s="0"/>
-      <c r="GM1488" s="0"/>
-      <c r="GN1488" s="0"/>
-      <c r="GO1488" s="0"/>
-      <c r="GP1488" s="0"/>
-      <c r="GQ1488" s="0"/>
-      <c r="GR1488" s="0"/>
-      <c r="GS1488" s="0"/>
-      <c r="GT1488" s="0"/>
-      <c r="GU1488" s="0"/>
-      <c r="GV1488" s="0"/>
-      <c r="GW1488" s="0"/>
-      <c r="GX1488" s="0"/>
-      <c r="GY1488" s="0"/>
-      <c r="GZ1488" s="0"/>
-      <c r="HA1488" s="0"/>
-      <c r="HB1488" s="0"/>
-      <c r="HC1488" s="0"/>
-      <c r="HD1488" s="0"/>
-      <c r="HE1488" s="0"/>
-      <c r="HF1488" s="0"/>
-      <c r="HG1488" s="0"/>
-      <c r="HH1488" s="0"/>
-      <c r="HI1488" s="0"/>
-      <c r="HJ1488" s="0"/>
-      <c r="HK1488" s="0"/>
-      <c r="HL1488" s="0"/>
-      <c r="HM1488" s="0"/>
-      <c r="HN1488" s="0"/>
-      <c r="HO1488" s="0"/>
-      <c r="HP1488" s="0"/>
-      <c r="HQ1488" s="0"/>
-      <c r="HR1488" s="0"/>
-      <c r="HS1488" s="0"/>
-      <c r="HT1488" s="0"/>
-      <c r="HU1488" s="0"/>
-      <c r="HV1488" s="0"/>
-      <c r="HW1488" s="0"/>
-      <c r="HX1488" s="0"/>
-      <c r="HY1488" s="0"/>
-      <c r="HZ1488" s="0"/>
-      <c r="IA1488" s="0"/>
-      <c r="IB1488" s="0"/>
-      <c r="IC1488" s="0"/>
-      <c r="ID1488" s="0"/>
-      <c r="IE1488" s="0"/>
-      <c r="IF1488" s="0"/>
-      <c r="IG1488" s="0"/>
-      <c r="IH1488" s="0"/>
-      <c r="II1488" s="0"/>
-      <c r="IJ1488" s="0"/>
-      <c r="IK1488" s="0"/>
-      <c r="IL1488" s="0"/>
-      <c r="IM1488" s="0"/>
-      <c r="IN1488" s="0"/>
-      <c r="IO1488" s="0"/>
-      <c r="IP1488" s="0"/>
-      <c r="IQ1488" s="0"/>
-      <c r="IR1488" s="0"/>
-      <c r="IS1488" s="0"/>
-      <c r="IT1488" s="0"/>
-      <c r="IU1488" s="0"/>
-      <c r="IV1488" s="0"/>
-      <c r="IW1488" s="0"/>
-      <c r="IX1488" s="0"/>
-      <c r="IY1488" s="0"/>
-      <c r="IZ1488" s="0"/>
-      <c r="JA1488" s="0"/>
-      <c r="JB1488" s="0"/>
-      <c r="JC1488" s="0"/>
-      <c r="JD1488" s="0"/>
-      <c r="JE1488" s="0"/>
-      <c r="JF1488" s="0"/>
-      <c r="JG1488" s="0"/>
-      <c r="JH1488" s="0"/>
-      <c r="JI1488" s="0"/>
-      <c r="JJ1488" s="0"/>
-      <c r="JK1488" s="0"/>
-      <c r="JL1488" s="0"/>
-      <c r="JM1488" s="0"/>
-      <c r="JN1488" s="0"/>
-      <c r="JO1488" s="0"/>
-      <c r="JP1488" s="0"/>
-      <c r="JQ1488" s="0"/>
-      <c r="JR1488" s="0"/>
-      <c r="JS1488" s="0"/>
-      <c r="JT1488" s="0"/>
-      <c r="JU1488" s="0"/>
-      <c r="JV1488" s="0"/>
-      <c r="JW1488" s="0"/>
-      <c r="JX1488" s="0"/>
-      <c r="JY1488" s="0"/>
-      <c r="JZ1488" s="0"/>
-      <c r="KA1488" s="0"/>
-      <c r="KB1488" s="0"/>
-      <c r="KC1488" s="0"/>
-      <c r="KD1488" s="0"/>
-      <c r="KE1488" s="0"/>
-      <c r="KF1488" s="0"/>
-      <c r="KG1488" s="0"/>
-      <c r="KH1488" s="0"/>
-      <c r="KI1488" s="0"/>
-      <c r="KJ1488" s="0"/>
-      <c r="KK1488" s="0"/>
-      <c r="KL1488" s="0"/>
-      <c r="KM1488" s="0"/>
-      <c r="KN1488" s="0"/>
-      <c r="KO1488" s="0"/>
-      <c r="KP1488" s="0"/>
-      <c r="KQ1488" s="0"/>
-      <c r="KR1488" s="0"/>
-      <c r="KS1488" s="0"/>
-      <c r="KT1488" s="0"/>
-      <c r="KU1488" s="0"/>
-      <c r="KV1488" s="0"/>
-      <c r="KW1488" s="0"/>
-      <c r="KX1488" s="0"/>
-      <c r="KY1488" s="0"/>
-      <c r="KZ1488" s="0"/>
-      <c r="LA1488" s="0"/>
-      <c r="LB1488" s="0"/>
-      <c r="LC1488" s="0"/>
-      <c r="LD1488" s="0"/>
-      <c r="LE1488" s="0"/>
-      <c r="LF1488" s="0"/>
-      <c r="LG1488" s="0"/>
-      <c r="LH1488" s="0"/>
-      <c r="LI1488" s="0"/>
-      <c r="LJ1488" s="0"/>
-      <c r="LK1488" s="0"/>
-      <c r="LL1488" s="0"/>
-      <c r="LM1488" s="0"/>
-      <c r="LN1488" s="0"/>
-      <c r="LO1488" s="0"/>
-      <c r="LP1488" s="0"/>
-      <c r="LQ1488" s="0"/>
-      <c r="LR1488" s="0"/>
-      <c r="LS1488" s="0"/>
-      <c r="LT1488" s="0"/>
-      <c r="LU1488" s="0"/>
-      <c r="LV1488" s="0"/>
-      <c r="LW1488" s="0"/>
-      <c r="LX1488" s="0"/>
-      <c r="LY1488" s="0"/>
-      <c r="LZ1488" s="0"/>
-      <c r="MA1488" s="0"/>
-      <c r="MB1488" s="0"/>
-      <c r="MC1488" s="0"/>
-      <c r="MD1488" s="0"/>
-      <c r="ME1488" s="0"/>
-      <c r="MF1488" s="0"/>
-      <c r="MG1488" s="0"/>
-      <c r="MH1488" s="0"/>
-      <c r="MI1488" s="0"/>
-      <c r="MJ1488" s="0"/>
-      <c r="MK1488" s="0"/>
-      <c r="ML1488" s="0"/>
-      <c r="MM1488" s="0"/>
-      <c r="MN1488" s="0"/>
-      <c r="MO1488" s="0"/>
-      <c r="MP1488" s="0"/>
-      <c r="MQ1488" s="0"/>
-      <c r="MR1488" s="0"/>
-      <c r="MS1488" s="0"/>
-      <c r="MT1488" s="0"/>
-      <c r="MU1488" s="0"/>
-      <c r="MV1488" s="0"/>
-      <c r="MW1488" s="0"/>
-      <c r="MX1488" s="0"/>
-      <c r="MY1488" s="0"/>
-      <c r="MZ1488" s="0"/>
-      <c r="NA1488" s="0"/>
-      <c r="NB1488" s="0"/>
-      <c r="NC1488" s="0"/>
-      <c r="ND1488" s="0"/>
-      <c r="NE1488" s="0"/>
-      <c r="NF1488" s="0"/>
-      <c r="NG1488" s="0"/>
-      <c r="NH1488" s="0"/>
-      <c r="NI1488" s="0"/>
-      <c r="NJ1488" s="0"/>
-      <c r="NK1488" s="0"/>
-      <c r="NL1488" s="0"/>
-      <c r="NM1488" s="0"/>
-      <c r="NN1488" s="0"/>
-      <c r="NO1488" s="0"/>
-      <c r="NP1488" s="0"/>
-      <c r="NQ1488" s="0"/>
-      <c r="NR1488" s="0"/>
-      <c r="NS1488" s="0"/>
-      <c r="NT1488" s="0"/>
-      <c r="NU1488" s="0"/>
-      <c r="NV1488" s="0"/>
-      <c r="NW1488" s="0"/>
-      <c r="NX1488" s="0"/>
-      <c r="NY1488" s="0"/>
-      <c r="NZ1488" s="0"/>
-      <c r="OA1488" s="0"/>
-      <c r="OB1488" s="0"/>
-      <c r="OC1488" s="0"/>
-      <c r="OD1488" s="0"/>
-      <c r="OE1488" s="0"/>
-      <c r="OF1488" s="0"/>
-      <c r="OG1488" s="0"/>
-      <c r="OH1488" s="0"/>
-      <c r="OI1488" s="0"/>
-      <c r="OJ1488" s="0"/>
-      <c r="OK1488" s="0"/>
-      <c r="OL1488" s="0"/>
-      <c r="OM1488" s="0"/>
-      <c r="ON1488" s="0"/>
-      <c r="OO1488" s="0"/>
-      <c r="OP1488" s="0"/>
-      <c r="OQ1488" s="0"/>
-      <c r="OR1488" s="0"/>
-      <c r="OS1488" s="0"/>
-      <c r="OT1488" s="0"/>
-      <c r="OU1488" s="0"/>
-      <c r="OV1488" s="0"/>
-      <c r="OW1488" s="0"/>
-      <c r="OX1488" s="0"/>
-      <c r="OY1488" s="0"/>
-      <c r="OZ1488" s="0"/>
-      <c r="PA1488" s="0"/>
-      <c r="PB1488" s="0"/>
-      <c r="PC1488" s="0"/>
-      <c r="PD1488" s="0"/>
-      <c r="PE1488" s="0"/>
-      <c r="PF1488" s="0"/>
-      <c r="PG1488" s="0"/>
-      <c r="PH1488" s="0"/>
-      <c r="PI1488" s="0"/>
-      <c r="PJ1488" s="0"/>
-      <c r="PK1488" s="0"/>
-      <c r="PL1488" s="0"/>
-      <c r="PM1488" s="0"/>
-      <c r="PN1488" s="0"/>
-      <c r="PO1488" s="0"/>
-      <c r="PP1488" s="0"/>
-      <c r="PQ1488" s="0"/>
-      <c r="PR1488" s="0"/>
-      <c r="PS1488" s="0"/>
-      <c r="PT1488" s="0"/>
-      <c r="PU1488" s="0"/>
-      <c r="PV1488" s="0"/>
-      <c r="PW1488" s="0"/>
-      <c r="PX1488" s="0"/>
-      <c r="PY1488" s="0"/>
-      <c r="PZ1488" s="0"/>
-      <c r="QA1488" s="0"/>
-      <c r="QB1488" s="0"/>
-      <c r="QC1488" s="0"/>
-      <c r="QD1488" s="0"/>
-      <c r="QE1488" s="0"/>
-      <c r="QF1488" s="0"/>
-      <c r="QG1488" s="0"/>
-      <c r="QH1488" s="0"/>
-      <c r="QI1488" s="0"/>
-      <c r="QJ1488" s="0"/>
-      <c r="QK1488" s="0"/>
-      <c r="QL1488" s="0"/>
-      <c r="QM1488" s="0"/>
-      <c r="QN1488" s="0"/>
-      <c r="QO1488" s="0"/>
-      <c r="QP1488" s="0"/>
-      <c r="QQ1488" s="0"/>
-      <c r="QR1488" s="0"/>
-      <c r="QS1488" s="0"/>
-      <c r="QT1488" s="0"/>
-      <c r="QU1488" s="0"/>
-      <c r="QV1488" s="0"/>
-      <c r="QW1488" s="0"/>
-      <c r="QX1488" s="0"/>
-      <c r="QY1488" s="0"/>
-      <c r="QZ1488" s="0"/>
-      <c r="RA1488" s="0"/>
-      <c r="RB1488" s="0"/>
-      <c r="RC1488" s="0"/>
-      <c r="RD1488" s="0"/>
-      <c r="RE1488" s="0"/>
-      <c r="RF1488" s="0"/>
-      <c r="RG1488" s="0"/>
-      <c r="RH1488" s="0"/>
-      <c r="RI1488" s="0"/>
-      <c r="RJ1488" s="0"/>
-      <c r="RK1488" s="0"/>
-      <c r="RL1488" s="0"/>
-      <c r="RM1488" s="0"/>
-      <c r="RN1488" s="0"/>
-      <c r="RO1488" s="0"/>
-      <c r="RP1488" s="0"/>
-      <c r="RQ1488" s="0"/>
-      <c r="RR1488" s="0"/>
-      <c r="RS1488" s="0"/>
-      <c r="RT1488" s="0"/>
-      <c r="RU1488" s="0"/>
-      <c r="RV1488" s="0"/>
-      <c r="RW1488" s="0"/>
-      <c r="RX1488" s="0"/>
-      <c r="RY1488" s="0"/>
-      <c r="RZ1488" s="0"/>
-      <c r="SA1488" s="0"/>
-      <c r="SB1488" s="0"/>
-      <c r="SC1488" s="0"/>
-      <c r="SD1488" s="0"/>
-      <c r="SE1488" s="0"/>
-      <c r="SF1488" s="0"/>
-      <c r="SG1488" s="0"/>
-      <c r="SH1488" s="0"/>
-      <c r="SI1488" s="0"/>
-      <c r="SJ1488" s="0"/>
-      <c r="SK1488" s="0"/>
-      <c r="SL1488" s="0"/>
-      <c r="SM1488" s="0"/>
-      <c r="SN1488" s="0"/>
-      <c r="SO1488" s="0"/>
-      <c r="SP1488" s="0"/>
-      <c r="SQ1488" s="0"/>
-      <c r="SR1488" s="0"/>
-      <c r="SS1488" s="0"/>
-      <c r="ST1488" s="0"/>
-      <c r="SU1488" s="0"/>
-      <c r="SV1488" s="0"/>
-      <c r="SW1488" s="0"/>
-      <c r="SX1488" s="0"/>
-      <c r="SY1488" s="0"/>
-      <c r="SZ1488" s="0"/>
-      <c r="TA1488" s="0"/>
-      <c r="TB1488" s="0"/>
-      <c r="TC1488" s="0"/>
-      <c r="TD1488" s="0"/>
-      <c r="TE1488" s="0"/>
-      <c r="TF1488" s="0"/>
-      <c r="TG1488" s="0"/>
-      <c r="TH1488" s="0"/>
-      <c r="TI1488" s="0"/>
-      <c r="TJ1488" s="0"/>
-      <c r="TK1488" s="0"/>
-      <c r="TL1488" s="0"/>
-      <c r="TM1488" s="0"/>
-      <c r="TN1488" s="0"/>
-      <c r="TO1488" s="0"/>
-      <c r="TP1488" s="0"/>
-      <c r="TQ1488" s="0"/>
-      <c r="TR1488" s="0"/>
-      <c r="TS1488" s="0"/>
-      <c r="TT1488" s="0"/>
-      <c r="TU1488" s="0"/>
-      <c r="TV1488" s="0"/>
-      <c r="TW1488" s="0"/>
-      <c r="TX1488" s="0"/>
-      <c r="TY1488" s="0"/>
-      <c r="TZ1488" s="0"/>
-      <c r="UA1488" s="0"/>
-      <c r="UB1488" s="0"/>
-      <c r="UC1488" s="0"/>
-      <c r="UD1488" s="0"/>
-      <c r="UE1488" s="0"/>
-      <c r="UF1488" s="0"/>
-      <c r="UG1488" s="0"/>
-      <c r="UH1488" s="0"/>
-      <c r="UI1488" s="0"/>
-      <c r="UJ1488" s="0"/>
-      <c r="UK1488" s="0"/>
-      <c r="UL1488" s="0"/>
-      <c r="UM1488" s="0"/>
-      <c r="UN1488" s="0"/>
-      <c r="UO1488" s="0"/>
-      <c r="UP1488" s="0"/>
-      <c r="UQ1488" s="0"/>
-      <c r="UR1488" s="0"/>
-      <c r="US1488" s="0"/>
-      <c r="UT1488" s="0"/>
-      <c r="UU1488" s="0"/>
-      <c r="UV1488" s="0"/>
-      <c r="UW1488" s="0"/>
-      <c r="UX1488" s="0"/>
-      <c r="UY1488" s="0"/>
-      <c r="UZ1488" s="0"/>
-      <c r="VA1488" s="0"/>
-      <c r="VB1488" s="0"/>
-      <c r="VC1488" s="0"/>
-      <c r="VD1488" s="0"/>
-      <c r="VE1488" s="0"/>
-      <c r="VF1488" s="0"/>
-      <c r="VG1488" s="0"/>
-      <c r="VH1488" s="0"/>
-      <c r="VI1488" s="0"/>
-      <c r="VJ1488" s="0"/>
-      <c r="VK1488" s="0"/>
-      <c r="VL1488" s="0"/>
-      <c r="VM1488" s="0"/>
-      <c r="VN1488" s="0"/>
-      <c r="VO1488" s="0"/>
-      <c r="VP1488" s="0"/>
-      <c r="VQ1488" s="0"/>
-      <c r="VR1488" s="0"/>
-      <c r="VS1488" s="0"/>
-      <c r="VT1488" s="0"/>
-      <c r="VU1488" s="0"/>
-      <c r="VV1488" s="0"/>
-      <c r="VW1488" s="0"/>
-      <c r="VX1488" s="0"/>
-      <c r="VY1488" s="0"/>
-      <c r="VZ1488" s="0"/>
-      <c r="WA1488" s="0"/>
-      <c r="WB1488" s="0"/>
-      <c r="WC1488" s="0"/>
-      <c r="WD1488" s="0"/>
-      <c r="WE1488" s="0"/>
-      <c r="WF1488" s="0"/>
-      <c r="WG1488" s="0"/>
-      <c r="WH1488" s="0"/>
-      <c r="WI1488" s="0"/>
-      <c r="WJ1488" s="0"/>
-      <c r="WK1488" s="0"/>
-      <c r="WL1488" s="0"/>
-      <c r="WM1488" s="0"/>
-      <c r="WN1488" s="0"/>
-      <c r="WO1488" s="0"/>
-      <c r="WP1488" s="0"/>
-      <c r="WQ1488" s="0"/>
-      <c r="WR1488" s="0"/>
-      <c r="WS1488" s="0"/>
-      <c r="WT1488" s="0"/>
-      <c r="WU1488" s="0"/>
-      <c r="WV1488" s="0"/>
-      <c r="WW1488" s="0"/>
-      <c r="WX1488" s="0"/>
-      <c r="WY1488" s="0"/>
-      <c r="WZ1488" s="0"/>
-      <c r="XA1488" s="0"/>
-      <c r="XB1488" s="0"/>
-      <c r="XC1488" s="0"/>
-      <c r="XD1488" s="0"/>
-      <c r="XE1488" s="0"/>
-      <c r="XF1488" s="0"/>
-      <c r="XG1488" s="0"/>
-      <c r="XH1488" s="0"/>
-      <c r="XI1488" s="0"/>
-      <c r="XJ1488" s="0"/>
-      <c r="XK1488" s="0"/>
-      <c r="XL1488" s="0"/>
-      <c r="XM1488" s="0"/>
-      <c r="XN1488" s="0"/>
-      <c r="XO1488" s="0"/>
-      <c r="XP1488" s="0"/>
-      <c r="XQ1488" s="0"/>
-      <c r="XR1488" s="0"/>
-      <c r="XS1488" s="0"/>
-      <c r="XT1488" s="0"/>
-      <c r="XU1488" s="0"/>
-      <c r="XV1488" s="0"/>
-      <c r="XW1488" s="0"/>
-      <c r="XX1488" s="0"/>
-      <c r="XY1488" s="0"/>
-      <c r="XZ1488" s="0"/>
-      <c r="YA1488" s="0"/>
-      <c r="YB1488" s="0"/>
-      <c r="YC1488" s="0"/>
-      <c r="YD1488" s="0"/>
-      <c r="YE1488" s="0"/>
-      <c r="YF1488" s="0"/>
-      <c r="YG1488" s="0"/>
-      <c r="YH1488" s="0"/>
-      <c r="YI1488" s="0"/>
-      <c r="YJ1488" s="0"/>
-      <c r="YK1488" s="0"/>
-      <c r="YL1488" s="0"/>
-      <c r="YM1488" s="0"/>
-      <c r="YN1488" s="0"/>
-      <c r="YO1488" s="0"/>
-      <c r="YP1488" s="0"/>
-      <c r="YQ1488" s="0"/>
-      <c r="YR1488" s="0"/>
-      <c r="YS1488" s="0"/>
-      <c r="YT1488" s="0"/>
-      <c r="YU1488" s="0"/>
-      <c r="YV1488" s="0"/>
-      <c r="YW1488" s="0"/>
-      <c r="YX1488" s="0"/>
-      <c r="YY1488" s="0"/>
-      <c r="YZ1488" s="0"/>
-      <c r="ZA1488" s="0"/>
-      <c r="ZB1488" s="0"/>
-      <c r="ZC1488" s="0"/>
-      <c r="ZD1488" s="0"/>
-      <c r="ZE1488" s="0"/>
-      <c r="ZF1488" s="0"/>
-      <c r="ZG1488" s="0"/>
-      <c r="ZH1488" s="0"/>
-      <c r="ZI1488" s="0"/>
-      <c r="ZJ1488" s="0"/>
-      <c r="ZK1488" s="0"/>
-      <c r="ZL1488" s="0"/>
-      <c r="ZM1488" s="0"/>
-      <c r="ZN1488" s="0"/>
-      <c r="ZO1488" s="0"/>
-      <c r="ZP1488" s="0"/>
-      <c r="ZQ1488" s="0"/>
-      <c r="ZR1488" s="0"/>
-      <c r="ZS1488" s="0"/>
-      <c r="ZT1488" s="0"/>
-      <c r="ZU1488" s="0"/>
-      <c r="ZV1488" s="0"/>
-      <c r="ZW1488" s="0"/>
-      <c r="ZX1488" s="0"/>
-      <c r="ZY1488" s="0"/>
-      <c r="ZZ1488" s="0"/>
-      <c r="AAA1488" s="0"/>
-      <c r="AAB1488" s="0"/>
-      <c r="AAC1488" s="0"/>
-      <c r="AAD1488" s="0"/>
-      <c r="AAE1488" s="0"/>
-      <c r="AAF1488" s="0"/>
-      <c r="AAG1488" s="0"/>
-      <c r="AAH1488" s="0"/>
-      <c r="AAI1488" s="0"/>
-      <c r="AAJ1488" s="0"/>
-      <c r="AAK1488" s="0"/>
-      <c r="AAL1488" s="0"/>
-      <c r="AAM1488" s="0"/>
-      <c r="AAN1488" s="0"/>
-      <c r="AAO1488" s="0"/>
-      <c r="AAP1488" s="0"/>
-      <c r="AAQ1488" s="0"/>
-      <c r="AAR1488" s="0"/>
-      <c r="AAS1488" s="0"/>
-      <c r="AAT1488" s="0"/>
-      <c r="AAU1488" s="0"/>
-      <c r="AAV1488" s="0"/>
-      <c r="AAW1488" s="0"/>
-      <c r="AAX1488" s="0"/>
-      <c r="AAY1488" s="0"/>
-      <c r="AAZ1488" s="0"/>
-      <c r="ABA1488" s="0"/>
-      <c r="ABB1488" s="0"/>
-      <c r="ABC1488" s="0"/>
-      <c r="ABD1488" s="0"/>
-      <c r="ABE1488" s="0"/>
-      <c r="ABF1488" s="0"/>
-      <c r="ABG1488" s="0"/>
-      <c r="ABH1488" s="0"/>
-      <c r="ABI1488" s="0"/>
-      <c r="ABJ1488" s="0"/>
-      <c r="ABK1488" s="0"/>
-      <c r="ABL1488" s="0"/>
-      <c r="ABM1488" s="0"/>
-      <c r="ABN1488" s="0"/>
-      <c r="ABO1488" s="0"/>
-      <c r="ABP1488" s="0"/>
-      <c r="ABQ1488" s="0"/>
-      <c r="ABR1488" s="0"/>
-      <c r="ABS1488" s="0"/>
-      <c r="ABT1488" s="0"/>
-      <c r="ABU1488" s="0"/>
-      <c r="ABV1488" s="0"/>
-      <c r="ABW1488" s="0"/>
-      <c r="ABX1488" s="0"/>
-      <c r="ABY1488" s="0"/>
-      <c r="ABZ1488" s="0"/>
-      <c r="ACA1488" s="0"/>
-      <c r="ACB1488" s="0"/>
-      <c r="ACC1488" s="0"/>
-      <c r="ACD1488" s="0"/>
-      <c r="ACE1488" s="0"/>
-      <c r="ACF1488" s="0"/>
-      <c r="ACG1488" s="0"/>
-      <c r="ACH1488" s="0"/>
-      <c r="ACI1488" s="0"/>
-      <c r="ACJ1488" s="0"/>
-      <c r="ACK1488" s="0"/>
-      <c r="ACL1488" s="0"/>
-      <c r="ACM1488" s="0"/>
-      <c r="ACN1488" s="0"/>
-      <c r="ACO1488" s="0"/>
-      <c r="ACP1488" s="0"/>
-      <c r="ACQ1488" s="0"/>
-      <c r="ACR1488" s="0"/>
-      <c r="ACS1488" s="0"/>
-      <c r="ACT1488" s="0"/>
-      <c r="ACU1488" s="0"/>
-      <c r="ACV1488" s="0"/>
-      <c r="ACW1488" s="0"/>
-      <c r="ACX1488" s="0"/>
-      <c r="ACY1488" s="0"/>
-      <c r="ACZ1488" s="0"/>
-      <c r="ADA1488" s="0"/>
-      <c r="ADB1488" s="0"/>
-      <c r="ADC1488" s="0"/>
-      <c r="ADD1488" s="0"/>
-      <c r="ADE1488" s="0"/>
-      <c r="ADF1488" s="0"/>
-      <c r="ADG1488" s="0"/>
-      <c r="ADH1488" s="0"/>
-      <c r="ADI1488" s="0"/>
-      <c r="ADJ1488" s="0"/>
-      <c r="ADK1488" s="0"/>
-      <c r="ADL1488" s="0"/>
-      <c r="ADM1488" s="0"/>
-      <c r="ADN1488" s="0"/>
-      <c r="ADO1488" s="0"/>
-      <c r="ADP1488" s="0"/>
-      <c r="ADQ1488" s="0"/>
-      <c r="ADR1488" s="0"/>
-      <c r="ADS1488" s="0"/>
-      <c r="ADT1488" s="0"/>
-      <c r="ADU1488" s="0"/>
-      <c r="ADV1488" s="0"/>
-      <c r="ADW1488" s="0"/>
-      <c r="ADX1488" s="0"/>
-      <c r="ADY1488" s="0"/>
-      <c r="ADZ1488" s="0"/>
-      <c r="AEA1488" s="0"/>
-      <c r="AEB1488" s="0"/>
-      <c r="AEC1488" s="0"/>
-      <c r="AED1488" s="0"/>
-      <c r="AEE1488" s="0"/>
-      <c r="AEF1488" s="0"/>
-      <c r="AEG1488" s="0"/>
-      <c r="AEH1488" s="0"/>
-      <c r="AEI1488" s="0"/>
-      <c r="AEJ1488" s="0"/>
-      <c r="AEK1488" s="0"/>
-      <c r="AEL1488" s="0"/>
-      <c r="AEM1488" s="0"/>
-      <c r="AEN1488" s="0"/>
-      <c r="AEO1488" s="0"/>
-      <c r="AEP1488" s="0"/>
-      <c r="AEQ1488" s="0"/>
-      <c r="AER1488" s="0"/>
-      <c r="AES1488" s="0"/>
-      <c r="AET1488" s="0"/>
-      <c r="AEU1488" s="0"/>
-      <c r="AEV1488" s="0"/>
-      <c r="AEW1488" s="0"/>
-      <c r="AEX1488" s="0"/>
-      <c r="AEY1488" s="0"/>
-      <c r="AEZ1488" s="0"/>
-      <c r="AFA1488" s="0"/>
-      <c r="AFB1488" s="0"/>
-      <c r="AFC1488" s="0"/>
-      <c r="AFD1488" s="0"/>
-      <c r="AFE1488" s="0"/>
-      <c r="AFF1488" s="0"/>
-      <c r="AFG1488" s="0"/>
-      <c r="AFH1488" s="0"/>
-      <c r="AFI1488" s="0"/>
-      <c r="AFJ1488" s="0"/>
-      <c r="AFK1488" s="0"/>
-      <c r="AFL1488" s="0"/>
-      <c r="AFM1488" s="0"/>
-      <c r="AFN1488" s="0"/>
-      <c r="AFO1488" s="0"/>
-      <c r="AFP1488" s="0"/>
-      <c r="AFQ1488" s="0"/>
-      <c r="AFR1488" s="0"/>
-      <c r="AFS1488" s="0"/>
-      <c r="AFT1488" s="0"/>
-      <c r="AFU1488" s="0"/>
-      <c r="AFV1488" s="0"/>
-      <c r="AFW1488" s="0"/>
-      <c r="AFX1488" s="0"/>
-      <c r="AFY1488" s="0"/>
-      <c r="AFZ1488" s="0"/>
-      <c r="AGA1488" s="0"/>
-      <c r="AGB1488" s="0"/>
-      <c r="AGC1488" s="0"/>
-      <c r="AGD1488" s="0"/>
-      <c r="AGE1488" s="0"/>
-      <c r="AGF1488" s="0"/>
-      <c r="AGG1488" s="0"/>
-      <c r="AGH1488" s="0"/>
-      <c r="AGI1488" s="0"/>
-      <c r="AGJ1488" s="0"/>
-      <c r="AGK1488" s="0"/>
-      <c r="AGL1488" s="0"/>
-      <c r="AGM1488" s="0"/>
-      <c r="AGN1488" s="0"/>
-      <c r="AGO1488" s="0"/>
-      <c r="AGP1488" s="0"/>
-      <c r="AGQ1488" s="0"/>
-      <c r="AGR1488" s="0"/>
-      <c r="AGS1488" s="0"/>
-      <c r="AGT1488" s="0"/>
-      <c r="AGU1488" s="0"/>
-      <c r="AGV1488" s="0"/>
-      <c r="AGW1488" s="0"/>
-      <c r="AGX1488" s="0"/>
-      <c r="AGY1488" s="0"/>
-      <c r="AGZ1488" s="0"/>
-      <c r="AHA1488" s="0"/>
-      <c r="AHB1488" s="0"/>
-      <c r="AHC1488" s="0"/>
-      <c r="AHD1488" s="0"/>
-      <c r="AHE1488" s="0"/>
-      <c r="AHF1488" s="0"/>
-      <c r="AHG1488" s="0"/>
-      <c r="AHH1488" s="0"/>
-      <c r="AHI1488" s="0"/>
-      <c r="AHJ1488" s="0"/>
-      <c r="AHK1488" s="0"/>
-      <c r="AHL1488" s="0"/>
-      <c r="AHM1488" s="0"/>
-      <c r="AHN1488" s="0"/>
-      <c r="AHO1488" s="0"/>
-      <c r="AHP1488" s="0"/>
-      <c r="AHQ1488" s="0"/>
-      <c r="AHR1488" s="0"/>
-      <c r="AHS1488" s="0"/>
-      <c r="AHT1488" s="0"/>
-      <c r="AHU1488" s="0"/>
-      <c r="AHV1488" s="0"/>
-      <c r="AHW1488" s="0"/>
-      <c r="AHX1488" s="0"/>
-      <c r="AHY1488" s="0"/>
-      <c r="AHZ1488" s="0"/>
-      <c r="AIA1488" s="0"/>
-      <c r="AIB1488" s="0"/>
-      <c r="AIC1488" s="0"/>
-      <c r="AID1488" s="0"/>
-      <c r="AIE1488" s="0"/>
-      <c r="AIF1488" s="0"/>
-      <c r="AIG1488" s="0"/>
-      <c r="AIH1488" s="0"/>
-      <c r="AII1488" s="0"/>
-      <c r="AIJ1488" s="0"/>
-      <c r="AIK1488" s="0"/>
-      <c r="AIL1488" s="0"/>
-      <c r="AIM1488" s="0"/>
-      <c r="AIN1488" s="0"/>
-      <c r="AIO1488" s="0"/>
-      <c r="AIP1488" s="0"/>
-      <c r="AIQ1488" s="0"/>
-      <c r="AIR1488" s="0"/>
-      <c r="AIS1488" s="0"/>
-      <c r="AIT1488" s="0"/>
-      <c r="AIU1488" s="0"/>
-      <c r="AIV1488" s="0"/>
-      <c r="AIW1488" s="0"/>
-      <c r="AIX1488" s="0"/>
-      <c r="AIY1488" s="0"/>
-      <c r="AIZ1488" s="0"/>
-      <c r="AJA1488" s="0"/>
-      <c r="AJB1488" s="0"/>
-      <c r="AJC1488" s="0"/>
-      <c r="AJD1488" s="0"/>
-      <c r="AJE1488" s="0"/>
-      <c r="AJF1488" s="0"/>
-      <c r="AJG1488" s="0"/>
-      <c r="AJH1488" s="0"/>
-      <c r="AJI1488" s="0"/>
-      <c r="AJJ1488" s="0"/>
-      <c r="AJK1488" s="0"/>
-      <c r="AJL1488" s="0"/>
-      <c r="AJM1488" s="0"/>
-      <c r="AJN1488" s="0"/>
-      <c r="AJO1488" s="0"/>
-      <c r="AJP1488" s="0"/>
-      <c r="AJQ1488" s="0"/>
-      <c r="AJR1488" s="0"/>
-      <c r="AJS1488" s="0"/>
-      <c r="AJT1488" s="0"/>
-      <c r="AJU1488" s="0"/>
-      <c r="AJV1488" s="0"/>
-      <c r="AJW1488" s="0"/>
-      <c r="AJX1488" s="0"/>
-      <c r="AJY1488" s="0"/>
-      <c r="AJZ1488" s="0"/>
-      <c r="AKA1488" s="0"/>
-      <c r="AKB1488" s="0"/>
-      <c r="AKC1488" s="0"/>
-      <c r="AKD1488" s="0"/>
-      <c r="AKE1488" s="0"/>
-      <c r="AKF1488" s="0"/>
-      <c r="AKG1488" s="0"/>
-      <c r="AKH1488" s="0"/>
-      <c r="AKI1488" s="0"/>
-      <c r="AKJ1488" s="0"/>
-      <c r="AKK1488" s="0"/>
-      <c r="AKL1488" s="0"/>
-      <c r="AKM1488" s="0"/>
-      <c r="AKN1488" s="0"/>
-      <c r="AKO1488" s="0"/>
-      <c r="AKP1488" s="0"/>
-      <c r="AKQ1488" s="0"/>
-      <c r="AKR1488" s="0"/>
-      <c r="AKS1488" s="0"/>
-      <c r="AKT1488" s="0"/>
-      <c r="AKU1488" s="0"/>
-      <c r="AKV1488" s="0"/>
-      <c r="AKW1488" s="0"/>
-      <c r="AKX1488" s="0"/>
-      <c r="AKY1488" s="0"/>
-      <c r="AKZ1488" s="0"/>
-      <c r="ALA1488" s="0"/>
-      <c r="ALB1488" s="0"/>
-      <c r="ALC1488" s="0"/>
-      <c r="ALD1488" s="0"/>
-      <c r="ALE1488" s="0"/>
-      <c r="ALF1488" s="0"/>
-      <c r="ALG1488" s="0"/>
-      <c r="ALH1488" s="0"/>
-      <c r="ALI1488" s="0"/>
-      <c r="ALJ1488" s="0"/>
-      <c r="ALK1488" s="0"/>
-      <c r="ALL1488" s="0"/>
-      <c r="ALM1488" s="0"/>
-      <c r="ALN1488" s="0"/>
-      <c r="ALO1488" s="0"/>
-      <c r="ALP1488" s="0"/>
-      <c r="ALQ1488" s="0"/>
-      <c r="ALR1488" s="0"/>
-      <c r="ALS1488" s="0"/>
-      <c r="ALT1488" s="0"/>
-      <c r="ALU1488" s="0"/>
-      <c r="ALV1488" s="0"/>
-      <c r="ALW1488" s="0"/>
-      <c r="ALX1488" s="0"/>
-      <c r="ALY1488" s="0"/>
-      <c r="ALZ1488" s="0"/>
-      <c r="AMA1488" s="0"/>
-      <c r="AMB1488" s="0"/>
-      <c r="AMC1488" s="0"/>
-      <c r="AMD1488" s="0"/>
-      <c r="AME1488" s="0"/>
-      <c r="AMF1488" s="0"/>
-      <c r="AMG1488" s="0"/>
-      <c r="AMH1488" s="0"/>
-      <c r="AMI1488" s="0"/>
-    </row>
-    <row r="1489" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1489" s="19"/>
-      <c r="B1489" s="11" t="s">
+    </row>
+    <row r="1489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1489" s="25"/>
+      <c r="C1489" s="1"/>
+      <c r="D1489" s="1"/>
+      <c r="E1489" s="1"/>
+      <c r="F1489" s="1"/>
+      <c r="G1489" s="1"/>
+      <c r="H1489" s="1"/>
+      <c r="I1489" s="1"/>
+      <c r="J1489" s="1"/>
+      <c r="K1489" s="1"/>
+      <c r="L1489" s="1"/>
+      <c r="M1489" s="1"/>
+      <c r="N1489" s="1"/>
+      <c r="O1489" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1489" s="0"/>
+      <c r="Z1489" s="0"/>
+      <c r="AA1489" s="0"/>
+      <c r="AB1489" s="0"/>
+      <c r="AC1489" s="0"/>
+      <c r="AD1489" s="0"/>
+      <c r="AE1489" s="0"/>
+      <c r="AF1489" s="0"/>
+      <c r="AG1489" s="0"/>
+      <c r="AH1489" s="0"/>
+      <c r="AI1489" s="0"/>
+      <c r="AJ1489" s="0"/>
+      <c r="AK1489" s="0"/>
+      <c r="AL1489" s="0"/>
+      <c r="AM1489" s="0"/>
+      <c r="AN1489" s="0"/>
+      <c r="AO1489" s="0"/>
+      <c r="AP1489" s="0"/>
+      <c r="AQ1489" s="0"/>
+      <c r="AR1489" s="0"/>
+      <c r="AS1489" s="0"/>
+      <c r="AT1489" s="0"/>
+      <c r="AU1489" s="0"/>
+      <c r="AV1489" s="0"/>
+      <c r="AW1489" s="0"/>
+      <c r="AX1489" s="0"/>
+      <c r="AY1489" s="0"/>
+      <c r="AZ1489" s="0"/>
+      <c r="BA1489" s="0"/>
+      <c r="BB1489" s="0"/>
+      <c r="BC1489" s="0"/>
+      <c r="BD1489" s="0"/>
+      <c r="BE1489" s="0"/>
+      <c r="BF1489" s="0"/>
+      <c r="BG1489" s="0"/>
+      <c r="BH1489" s="0"/>
+      <c r="BI1489" s="0"/>
+      <c r="BJ1489" s="0"/>
+      <c r="BK1489" s="0"/>
+      <c r="BL1489" s="0"/>
+      <c r="BM1489" s="0"/>
+      <c r="BN1489" s="0"/>
+      <c r="BO1489" s="0"/>
+      <c r="BP1489" s="0"/>
+      <c r="BQ1489" s="0"/>
+      <c r="BR1489" s="0"/>
+      <c r="BS1489" s="0"/>
+      <c r="BT1489" s="0"/>
+      <c r="BU1489" s="0"/>
+      <c r="BV1489" s="0"/>
+      <c r="BW1489" s="0"/>
+      <c r="BX1489" s="0"/>
+      <c r="BY1489" s="0"/>
+      <c r="BZ1489" s="0"/>
+      <c r="CA1489" s="0"/>
+      <c r="CB1489" s="0"/>
+      <c r="CC1489" s="0"/>
+      <c r="CD1489" s="0"/>
+      <c r="CE1489" s="0"/>
+      <c r="CF1489" s="0"/>
+      <c r="CG1489" s="0"/>
+      <c r="CH1489" s="0"/>
+      <c r="CI1489" s="0"/>
+      <c r="CJ1489" s="0"/>
+      <c r="CK1489" s="0"/>
+      <c r="CL1489" s="0"/>
+      <c r="CM1489" s="0"/>
+      <c r="CN1489" s="0"/>
+      <c r="CO1489" s="0"/>
+      <c r="CP1489" s="0"/>
+      <c r="CQ1489" s="0"/>
+      <c r="CR1489" s="0"/>
+      <c r="CS1489" s="0"/>
+      <c r="CT1489" s="0"/>
+      <c r="CU1489" s="0"/>
+      <c r="CV1489" s="0"/>
+      <c r="CW1489" s="0"/>
+      <c r="CX1489" s="0"/>
+      <c r="CY1489" s="0"/>
+      <c r="CZ1489" s="0"/>
+      <c r="DA1489" s="0"/>
+      <c r="DB1489" s="0"/>
+      <c r="DC1489" s="0"/>
+      <c r="DD1489" s="0"/>
+      <c r="DE1489" s="0"/>
+      <c r="DF1489" s="0"/>
+      <c r="DG1489" s="0"/>
+      <c r="DH1489" s="0"/>
+      <c r="DI1489" s="0"/>
+      <c r="DJ1489" s="0"/>
+      <c r="DK1489" s="0"/>
+      <c r="DL1489" s="0"/>
+      <c r="DM1489" s="0"/>
+      <c r="DN1489" s="0"/>
+      <c r="DO1489" s="0"/>
+      <c r="DP1489" s="0"/>
+      <c r="DQ1489" s="0"/>
+      <c r="DR1489" s="0"/>
+      <c r="DS1489" s="0"/>
+      <c r="DT1489" s="0"/>
+      <c r="DU1489" s="0"/>
+      <c r="DV1489" s="0"/>
+      <c r="DW1489" s="0"/>
+      <c r="DX1489" s="0"/>
+      <c r="DY1489" s="0"/>
+      <c r="DZ1489" s="0"/>
+      <c r="EA1489" s="0"/>
+      <c r="EB1489" s="0"/>
+      <c r="EC1489" s="0"/>
+      <c r="ED1489" s="0"/>
+      <c r="EE1489" s="0"/>
+      <c r="EF1489" s="0"/>
+      <c r="EG1489" s="0"/>
+      <c r="EH1489" s="0"/>
+      <c r="EI1489" s="0"/>
+      <c r="EJ1489" s="0"/>
+      <c r="EK1489" s="0"/>
+      <c r="EL1489" s="0"/>
+      <c r="EM1489" s="0"/>
+      <c r="EN1489" s="0"/>
+      <c r="EO1489" s="0"/>
+      <c r="EP1489" s="0"/>
+      <c r="EQ1489" s="0"/>
+      <c r="ER1489" s="0"/>
+      <c r="ES1489" s="0"/>
+      <c r="ET1489" s="0"/>
+      <c r="EU1489" s="0"/>
+      <c r="EV1489" s="0"/>
+      <c r="EW1489" s="0"/>
+      <c r="EX1489" s="0"/>
+      <c r="EY1489" s="0"/>
+      <c r="EZ1489" s="0"/>
+      <c r="FA1489" s="0"/>
+      <c r="FB1489" s="0"/>
+      <c r="FC1489" s="0"/>
+      <c r="FD1489" s="0"/>
+      <c r="FE1489" s="0"/>
+      <c r="FF1489" s="0"/>
+      <c r="FG1489" s="0"/>
+      <c r="FH1489" s="0"/>
+      <c r="FI1489" s="0"/>
+      <c r="FJ1489" s="0"/>
+      <c r="FK1489" s="0"/>
+      <c r="FL1489" s="0"/>
+      <c r="FM1489" s="0"/>
+      <c r="FN1489" s="0"/>
+      <c r="FO1489" s="0"/>
+      <c r="FP1489" s="0"/>
+      <c r="FQ1489" s="0"/>
+      <c r="FR1489" s="0"/>
+      <c r="FS1489" s="0"/>
+      <c r="FT1489" s="0"/>
+      <c r="FU1489" s="0"/>
+      <c r="FV1489" s="0"/>
+      <c r="FW1489" s="0"/>
+      <c r="FX1489" s="0"/>
+      <c r="FY1489" s="0"/>
+      <c r="FZ1489" s="0"/>
+      <c r="GA1489" s="0"/>
+      <c r="GB1489" s="0"/>
+      <c r="GC1489" s="0"/>
+      <c r="GD1489" s="0"/>
+      <c r="GE1489" s="0"/>
+      <c r="GF1489" s="0"/>
+      <c r="GG1489" s="0"/>
+      <c r="GH1489" s="0"/>
+      <c r="GI1489" s="0"/>
+      <c r="GJ1489" s="0"/>
+      <c r="GK1489" s="0"/>
+      <c r="GL1489" s="0"/>
+      <c r="GM1489" s="0"/>
+      <c r="GN1489" s="0"/>
+      <c r="GO1489" s="0"/>
+      <c r="GP1489" s="0"/>
+      <c r="GQ1489" s="0"/>
+      <c r="GR1489" s="0"/>
+      <c r="GS1489" s="0"/>
+      <c r="GT1489" s="0"/>
+      <c r="GU1489" s="0"/>
+      <c r="GV1489" s="0"/>
+      <c r="GW1489" s="0"/>
+      <c r="GX1489" s="0"/>
+      <c r="GY1489" s="0"/>
+      <c r="GZ1489" s="0"/>
+      <c r="HA1489" s="0"/>
+      <c r="HB1489" s="0"/>
+      <c r="HC1489" s="0"/>
+      <c r="HD1489" s="0"/>
+      <c r="HE1489" s="0"/>
+      <c r="HF1489" s="0"/>
+      <c r="HG1489" s="0"/>
+      <c r="HH1489" s="0"/>
+      <c r="HI1489" s="0"/>
+      <c r="HJ1489" s="0"/>
+      <c r="HK1489" s="0"/>
+      <c r="HL1489" s="0"/>
+      <c r="HM1489" s="0"/>
+      <c r="HN1489" s="0"/>
+      <c r="HO1489" s="0"/>
+      <c r="HP1489" s="0"/>
+      <c r="HQ1489" s="0"/>
+      <c r="HR1489" s="0"/>
+      <c r="HS1489" s="0"/>
+      <c r="HT1489" s="0"/>
+      <c r="HU1489" s="0"/>
+      <c r="HV1489" s="0"/>
+      <c r="HW1489" s="0"/>
+      <c r="HX1489" s="0"/>
+      <c r="HY1489" s="0"/>
+      <c r="HZ1489" s="0"/>
+      <c r="IA1489" s="0"/>
+      <c r="IB1489" s="0"/>
+      <c r="IC1489" s="0"/>
+      <c r="ID1489" s="0"/>
+      <c r="IE1489" s="0"/>
+      <c r="IF1489" s="0"/>
+      <c r="IG1489" s="0"/>
+      <c r="IH1489" s="0"/>
+      <c r="II1489" s="0"/>
+      <c r="IJ1489" s="0"/>
+      <c r="IK1489" s="0"/>
+      <c r="IL1489" s="0"/>
+      <c r="IM1489" s="0"/>
+      <c r="IN1489" s="0"/>
+      <c r="IO1489" s="0"/>
+      <c r="IP1489" s="0"/>
+      <c r="IQ1489" s="0"/>
+      <c r="IR1489" s="0"/>
+      <c r="IS1489" s="0"/>
+      <c r="IT1489" s="0"/>
+      <c r="IU1489" s="0"/>
+      <c r="IV1489" s="0"/>
+      <c r="IW1489" s="0"/>
+      <c r="IX1489" s="0"/>
+      <c r="IY1489" s="0"/>
+      <c r="IZ1489" s="0"/>
+      <c r="JA1489" s="0"/>
+      <c r="JB1489" s="0"/>
+      <c r="JC1489" s="0"/>
+      <c r="JD1489" s="0"/>
+      <c r="JE1489" s="0"/>
+      <c r="JF1489" s="0"/>
+      <c r="JG1489" s="0"/>
+      <c r="JH1489" s="0"/>
+      <c r="JI1489" s="0"/>
+      <c r="JJ1489" s="0"/>
+      <c r="JK1489" s="0"/>
+      <c r="JL1489" s="0"/>
+      <c r="JM1489" s="0"/>
+      <c r="JN1489" s="0"/>
+      <c r="JO1489" s="0"/>
+      <c r="JP1489" s="0"/>
+      <c r="JQ1489" s="0"/>
+      <c r="JR1489" s="0"/>
+      <c r="JS1489" s="0"/>
+      <c r="JT1489" s="0"/>
+      <c r="JU1489" s="0"/>
+      <c r="JV1489" s="0"/>
+      <c r="JW1489" s="0"/>
+      <c r="JX1489" s="0"/>
+      <c r="JY1489" s="0"/>
+      <c r="JZ1489" s="0"/>
+      <c r="KA1489" s="0"/>
+      <c r="KB1489" s="0"/>
+      <c r="KC1489" s="0"/>
+      <c r="KD1489" s="0"/>
+      <c r="KE1489" s="0"/>
+      <c r="KF1489" s="0"/>
+      <c r="KG1489" s="0"/>
+      <c r="KH1489" s="0"/>
+      <c r="KI1489" s="0"/>
+      <c r="KJ1489" s="0"/>
+      <c r="KK1489" s="0"/>
+      <c r="KL1489" s="0"/>
+      <c r="KM1489" s="0"/>
+      <c r="KN1489" s="0"/>
+      <c r="KO1489" s="0"/>
+      <c r="KP1489" s="0"/>
+      <c r="KQ1489" s="0"/>
+      <c r="KR1489" s="0"/>
+      <c r="KS1489" s="0"/>
+      <c r="KT1489" s="0"/>
+      <c r="KU1489" s="0"/>
+      <c r="KV1489" s="0"/>
+      <c r="KW1489" s="0"/>
+      <c r="KX1489" s="0"/>
+      <c r="KY1489" s="0"/>
+      <c r="KZ1489" s="0"/>
+      <c r="LA1489" s="0"/>
+      <c r="LB1489" s="0"/>
+      <c r="LC1489" s="0"/>
+      <c r="LD1489" s="0"/>
+      <c r="LE1489" s="0"/>
+      <c r="LF1489" s="0"/>
+      <c r="LG1489" s="0"/>
+      <c r="LH1489" s="0"/>
+      <c r="LI1489" s="0"/>
+      <c r="LJ1489" s="0"/>
+      <c r="LK1489" s="0"/>
+      <c r="LL1489" s="0"/>
+      <c r="LM1489" s="0"/>
+      <c r="LN1489" s="0"/>
+      <c r="LO1489" s="0"/>
+      <c r="LP1489" s="0"/>
+      <c r="LQ1489" s="0"/>
+      <c r="LR1489" s="0"/>
+      <c r="LS1489" s="0"/>
+      <c r="LT1489" s="0"/>
+      <c r="LU1489" s="0"/>
+      <c r="LV1489" s="0"/>
+      <c r="LW1489" s="0"/>
+      <c r="LX1489" s="0"/>
+      <c r="LY1489" s="0"/>
+      <c r="LZ1489" s="0"/>
+      <c r="MA1489" s="0"/>
+      <c r="MB1489" s="0"/>
+      <c r="MC1489" s="0"/>
+      <c r="MD1489" s="0"/>
+      <c r="ME1489" s="0"/>
+      <c r="MF1489" s="0"/>
+      <c r="MG1489" s="0"/>
+      <c r="MH1489" s="0"/>
+      <c r="MI1489" s="0"/>
+      <c r="MJ1489" s="0"/>
+      <c r="MK1489" s="0"/>
+      <c r="ML1489" s="0"/>
+      <c r="MM1489" s="0"/>
+      <c r="MN1489" s="0"/>
+      <c r="MO1489" s="0"/>
+      <c r="MP1489" s="0"/>
+      <c r="MQ1489" s="0"/>
+      <c r="MR1489" s="0"/>
+      <c r="MS1489" s="0"/>
+      <c r="MT1489" s="0"/>
+      <c r="MU1489" s="0"/>
+      <c r="MV1489" s="0"/>
+      <c r="MW1489" s="0"/>
+      <c r="MX1489" s="0"/>
+      <c r="MY1489" s="0"/>
+      <c r="MZ1489" s="0"/>
+      <c r="NA1489" s="0"/>
+      <c r="NB1489" s="0"/>
+      <c r="NC1489" s="0"/>
+      <c r="ND1489" s="0"/>
+      <c r="NE1489" s="0"/>
+      <c r="NF1489" s="0"/>
+      <c r="NG1489" s="0"/>
+      <c r="NH1489" s="0"/>
+      <c r="NI1489" s="0"/>
+      <c r="NJ1489" s="0"/>
+      <c r="NK1489" s="0"/>
+      <c r="NL1489" s="0"/>
+      <c r="NM1489" s="0"/>
+      <c r="NN1489" s="0"/>
+      <c r="NO1489" s="0"/>
+      <c r="NP1489" s="0"/>
+      <c r="NQ1489" s="0"/>
+      <c r="NR1489" s="0"/>
+      <c r="NS1489" s="0"/>
+      <c r="NT1489" s="0"/>
+      <c r="NU1489" s="0"/>
+      <c r="NV1489" s="0"/>
+      <c r="NW1489" s="0"/>
+      <c r="NX1489" s="0"/>
+      <c r="NY1489" s="0"/>
+      <c r="NZ1489" s="0"/>
+      <c r="OA1489" s="0"/>
+      <c r="OB1489" s="0"/>
+      <c r="OC1489" s="0"/>
+      <c r="OD1489" s="0"/>
+      <c r="OE1489" s="0"/>
+      <c r="OF1489" s="0"/>
+      <c r="OG1489" s="0"/>
+      <c r="OH1489" s="0"/>
+      <c r="OI1489" s="0"/>
+      <c r="OJ1489" s="0"/>
+      <c r="OK1489" s="0"/>
+      <c r="OL1489" s="0"/>
+      <c r="OM1489" s="0"/>
+      <c r="ON1489" s="0"/>
+      <c r="OO1489" s="0"/>
+      <c r="OP1489" s="0"/>
+      <c r="OQ1489" s="0"/>
+      <c r="OR1489" s="0"/>
+      <c r="OS1489" s="0"/>
+      <c r="OT1489" s="0"/>
+      <c r="OU1489" s="0"/>
+      <c r="OV1489" s="0"/>
+      <c r="OW1489" s="0"/>
+      <c r="OX1489" s="0"/>
+      <c r="OY1489" s="0"/>
+      <c r="OZ1489" s="0"/>
+      <c r="PA1489" s="0"/>
+      <c r="PB1489" s="0"/>
+      <c r="PC1489" s="0"/>
+      <c r="PD1489" s="0"/>
+      <c r="PE1489" s="0"/>
+      <c r="PF1489" s="0"/>
+      <c r="PG1489" s="0"/>
+      <c r="PH1489" s="0"/>
+      <c r="PI1489" s="0"/>
+      <c r="PJ1489" s="0"/>
+      <c r="PK1489" s="0"/>
+      <c r="PL1489" s="0"/>
+      <c r="PM1489" s="0"/>
+      <c r="PN1489" s="0"/>
+      <c r="PO1489" s="0"/>
+      <c r="PP1489" s="0"/>
+      <c r="PQ1489" s="0"/>
+      <c r="PR1489" s="0"/>
+      <c r="PS1489" s="0"/>
+      <c r="PT1489" s="0"/>
+      <c r="PU1489" s="0"/>
+      <c r="PV1489" s="0"/>
+      <c r="PW1489" s="0"/>
+      <c r="PX1489" s="0"/>
+      <c r="PY1489" s="0"/>
+      <c r="PZ1489" s="0"/>
+      <c r="QA1489" s="0"/>
+      <c r="QB1489" s="0"/>
+      <c r="QC1489" s="0"/>
+      <c r="QD1489" s="0"/>
+      <c r="QE1489" s="0"/>
+      <c r="QF1489" s="0"/>
+      <c r="QG1489" s="0"/>
+      <c r="QH1489" s="0"/>
+      <c r="QI1489" s="0"/>
+      <c r="QJ1489" s="0"/>
+      <c r="QK1489" s="0"/>
+      <c r="QL1489" s="0"/>
+      <c r="QM1489" s="0"/>
+      <c r="QN1489" s="0"/>
+      <c r="QO1489" s="0"/>
+      <c r="QP1489" s="0"/>
+      <c r="QQ1489" s="0"/>
+      <c r="QR1489" s="0"/>
+      <c r="QS1489" s="0"/>
+      <c r="QT1489" s="0"/>
+      <c r="QU1489" s="0"/>
+      <c r="QV1489" s="0"/>
+      <c r="QW1489" s="0"/>
+      <c r="QX1489" s="0"/>
+      <c r="QY1489" s="0"/>
+      <c r="QZ1489" s="0"/>
+      <c r="RA1489" s="0"/>
+      <c r="RB1489" s="0"/>
+      <c r="RC1489" s="0"/>
+      <c r="RD1489" s="0"/>
+      <c r="RE1489" s="0"/>
+      <c r="RF1489" s="0"/>
+      <c r="RG1489" s="0"/>
+      <c r="RH1489" s="0"/>
+      <c r="RI1489" s="0"/>
+      <c r="RJ1489" s="0"/>
+      <c r="RK1489" s="0"/>
+      <c r="RL1489" s="0"/>
+      <c r="RM1489" s="0"/>
+      <c r="RN1489" s="0"/>
+      <c r="RO1489" s="0"/>
+      <c r="RP1489" s="0"/>
+      <c r="RQ1489" s="0"/>
+      <c r="RR1489" s="0"/>
+      <c r="RS1489" s="0"/>
+      <c r="RT1489" s="0"/>
+      <c r="RU1489" s="0"/>
+      <c r="RV1489" s="0"/>
+      <c r="RW1489" s="0"/>
+      <c r="RX1489" s="0"/>
+      <c r="RY1489" s="0"/>
+      <c r="RZ1489" s="0"/>
+      <c r="SA1489" s="0"/>
+      <c r="SB1489" s="0"/>
+      <c r="SC1489" s="0"/>
+      <c r="SD1489" s="0"/>
+      <c r="SE1489" s="0"/>
+      <c r="SF1489" s="0"/>
+      <c r="SG1489" s="0"/>
+      <c r="SH1489" s="0"/>
+      <c r="SI1489" s="0"/>
+      <c r="SJ1489" s="0"/>
+      <c r="SK1489" s="0"/>
+      <c r="SL1489" s="0"/>
+      <c r="SM1489" s="0"/>
+      <c r="SN1489" s="0"/>
+      <c r="SO1489" s="0"/>
+      <c r="SP1489" s="0"/>
+      <c r="SQ1489" s="0"/>
+      <c r="SR1489" s="0"/>
+      <c r="SS1489" s="0"/>
+      <c r="ST1489" s="0"/>
+      <c r="SU1489" s="0"/>
+      <c r="SV1489" s="0"/>
+      <c r="SW1489" s="0"/>
+      <c r="SX1489" s="0"/>
+      <c r="SY1489" s="0"/>
+      <c r="SZ1489" s="0"/>
+      <c r="TA1489" s="0"/>
+      <c r="TB1489" s="0"/>
+      <c r="TC1489" s="0"/>
+      <c r="TD1489" s="0"/>
+      <c r="TE1489" s="0"/>
+      <c r="TF1489" s="0"/>
+      <c r="TG1489" s="0"/>
+      <c r="TH1489" s="0"/>
+      <c r="TI1489" s="0"/>
+      <c r="TJ1489" s="0"/>
+      <c r="TK1489" s="0"/>
+      <c r="TL1489" s="0"/>
+      <c r="TM1489" s="0"/>
+      <c r="TN1489" s="0"/>
+      <c r="TO1489" s="0"/>
+      <c r="TP1489" s="0"/>
+      <c r="TQ1489" s="0"/>
+      <c r="TR1489" s="0"/>
+      <c r="TS1489" s="0"/>
+      <c r="TT1489" s="0"/>
+      <c r="TU1489" s="0"/>
+      <c r="TV1489" s="0"/>
+      <c r="TW1489" s="0"/>
+      <c r="TX1489" s="0"/>
+      <c r="TY1489" s="0"/>
+      <c r="TZ1489" s="0"/>
+      <c r="UA1489" s="0"/>
+      <c r="UB1489" s="0"/>
+      <c r="UC1489" s="0"/>
+      <c r="UD1489" s="0"/>
+      <c r="UE1489" s="0"/>
+      <c r="UF1489" s="0"/>
+      <c r="UG1489" s="0"/>
+      <c r="UH1489" s="0"/>
+      <c r="UI1489" s="0"/>
+      <c r="UJ1489" s="0"/>
+      <c r="UK1489" s="0"/>
+      <c r="UL1489" s="0"/>
+      <c r="UM1489" s="0"/>
+      <c r="UN1489" s="0"/>
+      <c r="UO1489" s="0"/>
+      <c r="UP1489" s="0"/>
+      <c r="UQ1489" s="0"/>
+      <c r="UR1489" s="0"/>
+      <c r="US1489" s="0"/>
+      <c r="UT1489" s="0"/>
+      <c r="UU1489" s="0"/>
+      <c r="UV1489" s="0"/>
+      <c r="UW1489" s="0"/>
+      <c r="UX1489" s="0"/>
+      <c r="UY1489" s="0"/>
+      <c r="UZ1489" s="0"/>
+      <c r="VA1489" s="0"/>
+      <c r="VB1489" s="0"/>
+      <c r="VC1489" s="0"/>
+      <c r="VD1489" s="0"/>
+      <c r="VE1489" s="0"/>
+      <c r="VF1489" s="0"/>
+      <c r="VG1489" s="0"/>
+      <c r="VH1489" s="0"/>
+      <c r="VI1489" s="0"/>
+      <c r="VJ1489" s="0"/>
+      <c r="VK1489" s="0"/>
+      <c r="VL1489" s="0"/>
+      <c r="VM1489" s="0"/>
+      <c r="VN1489" s="0"/>
+      <c r="VO1489" s="0"/>
+      <c r="VP1489" s="0"/>
+      <c r="VQ1489" s="0"/>
+      <c r="VR1489" s="0"/>
+      <c r="VS1489" s="0"/>
+      <c r="VT1489" s="0"/>
+      <c r="VU1489" s="0"/>
+      <c r="VV1489" s="0"/>
+      <c r="VW1489" s="0"/>
+      <c r="VX1489" s="0"/>
+      <c r="VY1489" s="0"/>
+      <c r="VZ1489" s="0"/>
+      <c r="WA1489" s="0"/>
+      <c r="WB1489" s="0"/>
+      <c r="WC1489" s="0"/>
+      <c r="WD1489" s="0"/>
+      <c r="WE1489" s="0"/>
+      <c r="WF1489" s="0"/>
+      <c r="WG1489" s="0"/>
+      <c r="WH1489" s="0"/>
+      <c r="WI1489" s="0"/>
+      <c r="WJ1489" s="0"/>
+      <c r="WK1489" s="0"/>
+      <c r="WL1489" s="0"/>
+      <c r="WM1489" s="0"/>
+      <c r="WN1489" s="0"/>
+      <c r="WO1489" s="0"/>
+      <c r="WP1489" s="0"/>
+      <c r="WQ1489" s="0"/>
+      <c r="WR1489" s="0"/>
+      <c r="WS1489" s="0"/>
+      <c r="WT1489" s="0"/>
+      <c r="WU1489" s="0"/>
+      <c r="WV1489" s="0"/>
+      <c r="WW1489" s="0"/>
+      <c r="WX1489" s="0"/>
+      <c r="WY1489" s="0"/>
+      <c r="WZ1489" s="0"/>
+      <c r="XA1489" s="0"/>
+      <c r="XB1489" s="0"/>
+      <c r="XC1489" s="0"/>
+      <c r="XD1489" s="0"/>
+      <c r="XE1489" s="0"/>
+      <c r="XF1489" s="0"/>
+      <c r="XG1489" s="0"/>
+      <c r="XH1489" s="0"/>
+      <c r="XI1489" s="0"/>
+      <c r="XJ1489" s="0"/>
+      <c r="XK1489" s="0"/>
+      <c r="XL1489" s="0"/>
+      <c r="XM1489" s="0"/>
+      <c r="XN1489" s="0"/>
+      <c r="XO1489" s="0"/>
+      <c r="XP1489" s="0"/>
+      <c r="XQ1489" s="0"/>
+      <c r="XR1489" s="0"/>
+      <c r="XS1489" s="0"/>
+      <c r="XT1489" s="0"/>
+      <c r="XU1489" s="0"/>
+      <c r="XV1489" s="0"/>
+      <c r="XW1489" s="0"/>
+      <c r="XX1489" s="0"/>
+      <c r="XY1489" s="0"/>
+      <c r="XZ1489" s="0"/>
+      <c r="YA1489" s="0"/>
+      <c r="YB1489" s="0"/>
+      <c r="YC1489" s="0"/>
+      <c r="YD1489" s="0"/>
+      <c r="YE1489" s="0"/>
+      <c r="YF1489" s="0"/>
+      <c r="YG1489" s="0"/>
+      <c r="YH1489" s="0"/>
+      <c r="YI1489" s="0"/>
+      <c r="YJ1489" s="0"/>
+      <c r="YK1489" s="0"/>
+      <c r="YL1489" s="0"/>
+      <c r="YM1489" s="0"/>
+      <c r="YN1489" s="0"/>
+      <c r="YO1489" s="0"/>
+      <c r="YP1489" s="0"/>
+      <c r="YQ1489" s="0"/>
+      <c r="YR1489" s="0"/>
+      <c r="YS1489" s="0"/>
+      <c r="YT1489" s="0"/>
+      <c r="YU1489" s="0"/>
+      <c r="YV1489" s="0"/>
+      <c r="YW1489" s="0"/>
+      <c r="YX1489" s="0"/>
+      <c r="YY1489" s="0"/>
+      <c r="YZ1489" s="0"/>
+      <c r="ZA1489" s="0"/>
+      <c r="ZB1489" s="0"/>
+      <c r="ZC1489" s="0"/>
+      <c r="ZD1489" s="0"/>
+      <c r="ZE1489" s="0"/>
+      <c r="ZF1489" s="0"/>
+      <c r="ZG1489" s="0"/>
+      <c r="ZH1489" s="0"/>
+      <c r="ZI1489" s="0"/>
+      <c r="ZJ1489" s="0"/>
+      <c r="ZK1489" s="0"/>
+      <c r="ZL1489" s="0"/>
+      <c r="ZM1489" s="0"/>
+      <c r="ZN1489" s="0"/>
+      <c r="ZO1489" s="0"/>
+      <c r="ZP1489" s="0"/>
+      <c r="ZQ1489" s="0"/>
+      <c r="ZR1489" s="0"/>
+      <c r="ZS1489" s="0"/>
+      <c r="ZT1489" s="0"/>
+      <c r="ZU1489" s="0"/>
+      <c r="ZV1489" s="0"/>
+      <c r="ZW1489" s="0"/>
+      <c r="ZX1489" s="0"/>
+      <c r="ZY1489" s="0"/>
+      <c r="ZZ1489" s="0"/>
+      <c r="AAA1489" s="0"/>
+      <c r="AAB1489" s="0"/>
+      <c r="AAC1489" s="0"/>
+      <c r="AAD1489" s="0"/>
+      <c r="AAE1489" s="0"/>
+      <c r="AAF1489" s="0"/>
+      <c r="AAG1489" s="0"/>
+      <c r="AAH1489" s="0"/>
+      <c r="AAI1489" s="0"/>
+      <c r="AAJ1489" s="0"/>
+      <c r="AAK1489" s="0"/>
+      <c r="AAL1489" s="0"/>
+      <c r="AAM1489" s="0"/>
+      <c r="AAN1489" s="0"/>
+      <c r="AAO1489" s="0"/>
+      <c r="AAP1489" s="0"/>
+      <c r="AAQ1489" s="0"/>
+      <c r="AAR1489" s="0"/>
+      <c r="AAS1489" s="0"/>
+      <c r="AAT1489" s="0"/>
+      <c r="AAU1489" s="0"/>
+      <c r="AAV1489" s="0"/>
+      <c r="AAW1489" s="0"/>
+      <c r="AAX1489" s="0"/>
+      <c r="AAY1489" s="0"/>
+      <c r="AAZ1489" s="0"/>
+      <c r="ABA1489" s="0"/>
+      <c r="ABB1489" s="0"/>
+      <c r="ABC1489" s="0"/>
+      <c r="ABD1489" s="0"/>
+      <c r="ABE1489" s="0"/>
+      <c r="ABF1489" s="0"/>
+      <c r="ABG1489" s="0"/>
+      <c r="ABH1489" s="0"/>
+      <c r="ABI1489" s="0"/>
+      <c r="ABJ1489" s="0"/>
+      <c r="ABK1489" s="0"/>
+      <c r="ABL1489" s="0"/>
+      <c r="ABM1489" s="0"/>
+      <c r="ABN1489" s="0"/>
+      <c r="ABO1489" s="0"/>
+      <c r="ABP1489" s="0"/>
+      <c r="ABQ1489" s="0"/>
+      <c r="ABR1489" s="0"/>
+      <c r="ABS1489" s="0"/>
+      <c r="ABT1489" s="0"/>
+      <c r="ABU1489" s="0"/>
+      <c r="ABV1489" s="0"/>
+      <c r="ABW1489" s="0"/>
+      <c r="ABX1489" s="0"/>
+      <c r="ABY1489" s="0"/>
+      <c r="ABZ1489" s="0"/>
+      <c r="ACA1489" s="0"/>
+      <c r="ACB1489" s="0"/>
+      <c r="ACC1489" s="0"/>
+      <c r="ACD1489" s="0"/>
+      <c r="ACE1489" s="0"/>
+      <c r="ACF1489" s="0"/>
+      <c r="ACG1489" s="0"/>
+      <c r="ACH1489" s="0"/>
+      <c r="ACI1489" s="0"/>
+      <c r="ACJ1489" s="0"/>
+      <c r="ACK1489" s="0"/>
+      <c r="ACL1489" s="0"/>
+      <c r="ACM1489" s="0"/>
+      <c r="ACN1489" s="0"/>
+      <c r="ACO1489" s="0"/>
+      <c r="ACP1489" s="0"/>
+      <c r="ACQ1489" s="0"/>
+      <c r="ACR1489" s="0"/>
+      <c r="ACS1489" s="0"/>
+      <c r="ACT1489" s="0"/>
+      <c r="ACU1489" s="0"/>
+      <c r="ACV1489" s="0"/>
+      <c r="ACW1489" s="0"/>
+      <c r="ACX1489" s="0"/>
+      <c r="ACY1489" s="0"/>
+      <c r="ACZ1489" s="0"/>
+      <c r="ADA1489" s="0"/>
+      <c r="ADB1489" s="0"/>
+      <c r="ADC1489" s="0"/>
+      <c r="ADD1489" s="0"/>
+      <c r="ADE1489" s="0"/>
+      <c r="ADF1489" s="0"/>
+      <c r="ADG1489" s="0"/>
+      <c r="ADH1489" s="0"/>
+      <c r="ADI1489" s="0"/>
+      <c r="ADJ1489" s="0"/>
+      <c r="ADK1489" s="0"/>
+      <c r="ADL1489" s="0"/>
+      <c r="ADM1489" s="0"/>
+      <c r="ADN1489" s="0"/>
+      <c r="ADO1489" s="0"/>
+      <c r="ADP1489" s="0"/>
+      <c r="ADQ1489" s="0"/>
+      <c r="ADR1489" s="0"/>
+      <c r="ADS1489" s="0"/>
+      <c r="ADT1489" s="0"/>
+      <c r="ADU1489" s="0"/>
+      <c r="ADV1489" s="0"/>
+      <c r="ADW1489" s="0"/>
+      <c r="ADX1489" s="0"/>
+      <c r="ADY1489" s="0"/>
+      <c r="ADZ1489" s="0"/>
+      <c r="AEA1489" s="0"/>
+      <c r="AEB1489" s="0"/>
+      <c r="AEC1489" s="0"/>
+      <c r="AED1489" s="0"/>
+      <c r="AEE1489" s="0"/>
+      <c r="AEF1489" s="0"/>
+      <c r="AEG1489" s="0"/>
+      <c r="AEH1489" s="0"/>
+      <c r="AEI1489" s="0"/>
+      <c r="AEJ1489" s="0"/>
+      <c r="AEK1489" s="0"/>
+      <c r="AEL1489" s="0"/>
+      <c r="AEM1489" s="0"/>
+      <c r="AEN1489" s="0"/>
+      <c r="AEO1489" s="0"/>
+      <c r="AEP1489" s="0"/>
+      <c r="AEQ1489" s="0"/>
+      <c r="AER1489" s="0"/>
+      <c r="AES1489" s="0"/>
+      <c r="AET1489" s="0"/>
+      <c r="AEU1489" s="0"/>
+      <c r="AEV1489" s="0"/>
+      <c r="AEW1489" s="0"/>
+      <c r="AEX1489" s="0"/>
+      <c r="AEY1489" s="0"/>
+      <c r="AEZ1489" s="0"/>
+      <c r="AFA1489" s="0"/>
+      <c r="AFB1489" s="0"/>
+      <c r="AFC1489" s="0"/>
+      <c r="AFD1489" s="0"/>
+      <c r="AFE1489" s="0"/>
+      <c r="AFF1489" s="0"/>
+      <c r="AFG1489" s="0"/>
+      <c r="AFH1489" s="0"/>
+      <c r="AFI1489" s="0"/>
+      <c r="AFJ1489" s="0"/>
+      <c r="AFK1489" s="0"/>
+      <c r="AFL1489" s="0"/>
+      <c r="AFM1489" s="0"/>
+      <c r="AFN1489" s="0"/>
+      <c r="AFO1489" s="0"/>
+      <c r="AFP1489" s="0"/>
+      <c r="AFQ1489" s="0"/>
+      <c r="AFR1489" s="0"/>
+      <c r="AFS1489" s="0"/>
+      <c r="AFT1489" s="0"/>
+      <c r="AFU1489" s="0"/>
+      <c r="AFV1489" s="0"/>
+      <c r="AFW1489" s="0"/>
+      <c r="AFX1489" s="0"/>
+      <c r="AFY1489" s="0"/>
+      <c r="AFZ1489" s="0"/>
+      <c r="AGA1489" s="0"/>
+      <c r="AGB1489" s="0"/>
+      <c r="AGC1489" s="0"/>
+      <c r="AGD1489" s="0"/>
+      <c r="AGE1489" s="0"/>
+      <c r="AGF1489" s="0"/>
+      <c r="AGG1489" s="0"/>
+      <c r="AGH1489" s="0"/>
+      <c r="AGI1489" s="0"/>
+      <c r="AGJ1489" s="0"/>
+      <c r="AGK1489" s="0"/>
+      <c r="AGL1489" s="0"/>
+      <c r="AGM1489" s="0"/>
+      <c r="AGN1489" s="0"/>
+      <c r="AGO1489" s="0"/>
+      <c r="AGP1489" s="0"/>
+      <c r="AGQ1489" s="0"/>
+      <c r="AGR1489" s="0"/>
+      <c r="AGS1489" s="0"/>
+      <c r="AGT1489" s="0"/>
+      <c r="AGU1489" s="0"/>
+      <c r="AGV1489" s="0"/>
+      <c r="AGW1489" s="0"/>
+      <c r="AGX1489" s="0"/>
+      <c r="AGY1489" s="0"/>
+      <c r="AGZ1489" s="0"/>
+      <c r="AHA1489" s="0"/>
+      <c r="AHB1489" s="0"/>
+      <c r="AHC1489" s="0"/>
+      <c r="AHD1489" s="0"/>
+      <c r="AHE1489" s="0"/>
+      <c r="AHF1489" s="0"/>
+      <c r="AHG1489" s="0"/>
+      <c r="AHH1489" s="0"/>
+      <c r="AHI1489" s="0"/>
+      <c r="AHJ1489" s="0"/>
+      <c r="AHK1489" s="0"/>
+      <c r="AHL1489" s="0"/>
+      <c r="AHM1489" s="0"/>
+      <c r="AHN1489" s="0"/>
+      <c r="AHO1489" s="0"/>
+      <c r="AHP1489" s="0"/>
+      <c r="AHQ1489" s="0"/>
+      <c r="AHR1489" s="0"/>
+      <c r="AHS1489" s="0"/>
+      <c r="AHT1489" s="0"/>
+      <c r="AHU1489" s="0"/>
+      <c r="AHV1489" s="0"/>
+      <c r="AHW1489" s="0"/>
+      <c r="AHX1489" s="0"/>
+      <c r="AHY1489" s="0"/>
+      <c r="AHZ1489" s="0"/>
+      <c r="AIA1489" s="0"/>
+      <c r="AIB1489" s="0"/>
+      <c r="AIC1489" s="0"/>
+      <c r="AID1489" s="0"/>
+      <c r="AIE1489" s="0"/>
+      <c r="AIF1489" s="0"/>
+      <c r="AIG1489" s="0"/>
+      <c r="AIH1489" s="0"/>
+      <c r="AII1489" s="0"/>
+      <c r="AIJ1489" s="0"/>
+      <c r="AIK1489" s="0"/>
+      <c r="AIL1489" s="0"/>
+      <c r="AIM1489" s="0"/>
+      <c r="AIN1489" s="0"/>
+      <c r="AIO1489" s="0"/>
+      <c r="AIP1489" s="0"/>
+      <c r="AIQ1489" s="0"/>
+      <c r="AIR1489" s="0"/>
+      <c r="AIS1489" s="0"/>
+      <c r="AIT1489" s="0"/>
+      <c r="AIU1489" s="0"/>
+      <c r="AIV1489" s="0"/>
+      <c r="AIW1489" s="0"/>
+      <c r="AIX1489" s="0"/>
+      <c r="AIY1489" s="0"/>
+      <c r="AIZ1489" s="0"/>
+      <c r="AJA1489" s="0"/>
+      <c r="AJB1489" s="0"/>
+      <c r="AJC1489" s="0"/>
+      <c r="AJD1489" s="0"/>
+      <c r="AJE1489" s="0"/>
+      <c r="AJF1489" s="0"/>
+      <c r="AJG1489" s="0"/>
+      <c r="AJH1489" s="0"/>
+      <c r="AJI1489" s="0"/>
+      <c r="AJJ1489" s="0"/>
+      <c r="AJK1489" s="0"/>
+      <c r="AJL1489" s="0"/>
+      <c r="AJM1489" s="0"/>
+      <c r="AJN1489" s="0"/>
+      <c r="AJO1489" s="0"/>
+      <c r="AJP1489" s="0"/>
+      <c r="AJQ1489" s="0"/>
+      <c r="AJR1489" s="0"/>
+      <c r="AJS1489" s="0"/>
+      <c r="AJT1489" s="0"/>
+      <c r="AJU1489" s="0"/>
+      <c r="AJV1489" s="0"/>
+      <c r="AJW1489" s="0"/>
+      <c r="AJX1489" s="0"/>
+      <c r="AJY1489" s="0"/>
+      <c r="AJZ1489" s="0"/>
+      <c r="AKA1489" s="0"/>
+      <c r="AKB1489" s="0"/>
+      <c r="AKC1489" s="0"/>
+      <c r="AKD1489" s="0"/>
+      <c r="AKE1489" s="0"/>
+      <c r="AKF1489" s="0"/>
+      <c r="AKG1489" s="0"/>
+      <c r="AKH1489" s="0"/>
+      <c r="AKI1489" s="0"/>
+      <c r="AKJ1489" s="0"/>
+      <c r="AKK1489" s="0"/>
+      <c r="AKL1489" s="0"/>
+      <c r="AKM1489" s="0"/>
+      <c r="AKN1489" s="0"/>
+      <c r="AKO1489" s="0"/>
+      <c r="AKP1489" s="0"/>
+      <c r="AKQ1489" s="0"/>
+      <c r="AKR1489" s="0"/>
+      <c r="AKS1489" s="0"/>
+      <c r="AKT1489" s="0"/>
+      <c r="AKU1489" s="0"/>
+      <c r="AKV1489" s="0"/>
+      <c r="AKW1489" s="0"/>
+      <c r="AKX1489" s="0"/>
+      <c r="AKY1489" s="0"/>
+      <c r="AKZ1489" s="0"/>
+      <c r="ALA1489" s="0"/>
+      <c r="ALB1489" s="0"/>
+      <c r="ALC1489" s="0"/>
+      <c r="ALD1489" s="0"/>
+      <c r="ALE1489" s="0"/>
+      <c r="ALF1489" s="0"/>
+      <c r="ALG1489" s="0"/>
+      <c r="ALH1489" s="0"/>
+      <c r="ALI1489" s="0"/>
+      <c r="ALJ1489" s="0"/>
+      <c r="ALK1489" s="0"/>
+      <c r="ALL1489" s="0"/>
+      <c r="ALM1489" s="0"/>
+      <c r="ALN1489" s="0"/>
+      <c r="ALO1489" s="0"/>
+      <c r="ALP1489" s="0"/>
+      <c r="ALQ1489" s="0"/>
+      <c r="ALR1489" s="0"/>
+      <c r="ALS1489" s="0"/>
+      <c r="ALT1489" s="0"/>
+      <c r="ALU1489" s="0"/>
+      <c r="ALV1489" s="0"/>
+      <c r="ALW1489" s="0"/>
+      <c r="ALX1489" s="0"/>
+      <c r="ALY1489" s="0"/>
+      <c r="ALZ1489" s="0"/>
+      <c r="AMA1489" s="0"/>
+      <c r="AMB1489" s="0"/>
+      <c r="AMC1489" s="0"/>
+      <c r="AMD1489" s="0"/>
+      <c r="AME1489" s="0"/>
+      <c r="AMF1489" s="0"/>
+      <c r="AMG1489" s="0"/>
+      <c r="AMH1489" s="0"/>
+      <c r="AMI1489" s="0"/>
+    </row>
+    <row r="1490" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="19"/>
+      <c r="B1490" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1489" s="11" t="s">
+      <c r="C1490" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1489" s="11" t="s">
+      <c r="D1490" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1489" s="11" t="s">
+      <c r="E1490" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1489" s="11" t="s">
+      <c r="F1490" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1489" s="11" t="s">
+      <c r="G1490" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1489" s="11" t="s">
+      <c r="H1490" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1489" s="21" t="s">
+      <c r="I1490" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1489" s="21" t="s">
+      <c r="J1490" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1489" s="21" t="s">
+      <c r="K1490" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1489" s="11" t="s">
+      <c r="L1490" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1489" s="11" t="s">
+      <c r="M1490" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1489" s="11" t="s">
+      <c r="N1490" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1489" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1490" s="22" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B1490" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1490" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1490" s="23"/>
-      <c r="E1490" s="28"/>
-      <c r="F1490" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1490" s="23"/>
-      <c r="H1490" s="23"/>
-      <c r="I1490" s="24" t="s">
+      <c r="O1490" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="22" t="s">
         <v>1496</v>
       </c>
-      <c r="J1490" s="24"/>
-      <c r="K1490" s="24"/>
-      <c r="L1490" s="23"/>
-      <c r="M1490" s="23"/>
-      <c r="N1490" s="23"/>
-      <c r="O1490" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1491" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C1491" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D1491" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1491" s="28"/>
+      <c r="D1491" s="23"/>
+      <c r="E1491" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1491" s="23" t="s">
         <v>43</v>
       </c>
@@ -47938,8 +47939,12 @@
       <c r="C1492" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D1492" s="23"/>
-      <c r="E1492" s="28"/>
+      <c r="D1492" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1492" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1492" s="23" t="s">
         <v>43</v>
       </c>
@@ -47958,14 +47963,24 @@
       </c>
     </row>
     <row r="1493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1493" s="23"/>
-      <c r="C1493" s="23"/>
+      <c r="B1493" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1493" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1493" s="23"/>
-      <c r="E1493" s="23"/>
-      <c r="F1493" s="23"/>
+      <c r="E1493" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1493" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G1493" s="23"/>
       <c r="H1493" s="23"/>
-      <c r="I1493" s="24"/>
+      <c r="I1493" s="24" t="s">
+        <v>1499</v>
+      </c>
       <c r="J1493" s="24"/>
       <c r="K1493" s="24"/>
       <c r="L1493" s="23"/>
@@ -47976,1097 +47991,1089 @@
       </c>
     </row>
     <row r="1494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1494" s="25"/>
-      <c r="C1494" s="1"/>
-      <c r="D1494" s="1"/>
-      <c r="E1494" s="1"/>
-      <c r="F1494" s="1"/>
-      <c r="G1494" s="1"/>
-      <c r="H1494" s="1"/>
-      <c r="I1494" s="1"/>
-      <c r="J1494" s="1"/>
-      <c r="K1494" s="1"/>
-      <c r="L1494" s="1"/>
-      <c r="M1494" s="1"/>
-      <c r="N1494" s="1"/>
+      <c r="B1494" s="23"/>
+      <c r="C1494" s="23"/>
+      <c r="D1494" s="23"/>
+      <c r="E1494" s="23"/>
+      <c r="F1494" s="23"/>
+      <c r="G1494" s="23"/>
+      <c r="H1494" s="23"/>
+      <c r="I1494" s="24"/>
+      <c r="J1494" s="24"/>
+      <c r="K1494" s="24"/>
+      <c r="L1494" s="23"/>
+      <c r="M1494" s="23"/>
+      <c r="N1494" s="23"/>
       <c r="O1494" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y1494" s="0"/>
-      <c r="Z1494" s="0"/>
-      <c r="AA1494" s="0"/>
-      <c r="AB1494" s="0"/>
-      <c r="AC1494" s="0"/>
-      <c r="AD1494" s="0"/>
-      <c r="AE1494" s="0"/>
-      <c r="AF1494" s="0"/>
-      <c r="AG1494" s="0"/>
-      <c r="AH1494" s="0"/>
-      <c r="AI1494" s="0"/>
-      <c r="AJ1494" s="0"/>
-      <c r="AK1494" s="0"/>
-      <c r="AL1494" s="0"/>
-      <c r="AM1494" s="0"/>
-      <c r="AN1494" s="0"/>
-      <c r="AO1494" s="0"/>
-      <c r="AP1494" s="0"/>
-      <c r="AQ1494" s="0"/>
-      <c r="AR1494" s="0"/>
-      <c r="AS1494" s="0"/>
-      <c r="AT1494" s="0"/>
-      <c r="AU1494" s="0"/>
-      <c r="AV1494" s="0"/>
-      <c r="AW1494" s="0"/>
-      <c r="AX1494" s="0"/>
-      <c r="AY1494" s="0"/>
-      <c r="AZ1494" s="0"/>
-      <c r="BA1494" s="0"/>
-      <c r="BB1494" s="0"/>
-      <c r="BC1494" s="0"/>
-      <c r="BD1494" s="0"/>
-      <c r="BE1494" s="0"/>
-      <c r="BF1494" s="0"/>
-      <c r="BG1494" s="0"/>
-      <c r="BH1494" s="0"/>
-      <c r="BI1494" s="0"/>
-      <c r="BJ1494" s="0"/>
-      <c r="BK1494" s="0"/>
-      <c r="BL1494" s="0"/>
-      <c r="BM1494" s="0"/>
-      <c r="BN1494" s="0"/>
-      <c r="BO1494" s="0"/>
-      <c r="BP1494" s="0"/>
-      <c r="BQ1494" s="0"/>
-      <c r="BR1494" s="0"/>
-      <c r="BS1494" s="0"/>
-      <c r="BT1494" s="0"/>
-      <c r="BU1494" s="0"/>
-      <c r="BV1494" s="0"/>
-      <c r="BW1494" s="0"/>
-      <c r="BX1494" s="0"/>
-      <c r="BY1494" s="0"/>
-      <c r="BZ1494" s="0"/>
-      <c r="CA1494" s="0"/>
-      <c r="CB1494" s="0"/>
-      <c r="CC1494" s="0"/>
-      <c r="CD1494" s="0"/>
-      <c r="CE1494" s="0"/>
-      <c r="CF1494" s="0"/>
-      <c r="CG1494" s="0"/>
-      <c r="CH1494" s="0"/>
-      <c r="CI1494" s="0"/>
-      <c r="CJ1494" s="0"/>
-      <c r="CK1494" s="0"/>
-      <c r="CL1494" s="0"/>
-      <c r="CM1494" s="0"/>
-      <c r="CN1494" s="0"/>
-      <c r="CO1494" s="0"/>
-      <c r="CP1494" s="0"/>
-      <c r="CQ1494" s="0"/>
-      <c r="CR1494" s="0"/>
-      <c r="CS1494" s="0"/>
-      <c r="CT1494" s="0"/>
-      <c r="CU1494" s="0"/>
-      <c r="CV1494" s="0"/>
-      <c r="CW1494" s="0"/>
-      <c r="CX1494" s="0"/>
-      <c r="CY1494" s="0"/>
-      <c r="CZ1494" s="0"/>
-      <c r="DA1494" s="0"/>
-      <c r="DB1494" s="0"/>
-      <c r="DC1494" s="0"/>
-      <c r="DD1494" s="0"/>
-      <c r="DE1494" s="0"/>
-      <c r="DF1494" s="0"/>
-      <c r="DG1494" s="0"/>
-      <c r="DH1494" s="0"/>
-      <c r="DI1494" s="0"/>
-      <c r="DJ1494" s="0"/>
-      <c r="DK1494" s="0"/>
-      <c r="DL1494" s="0"/>
-      <c r="DM1494" s="0"/>
-      <c r="DN1494" s="0"/>
-      <c r="DO1494" s="0"/>
-      <c r="DP1494" s="0"/>
-      <c r="DQ1494" s="0"/>
-      <c r="DR1494" s="0"/>
-      <c r="DS1494" s="0"/>
-      <c r="DT1494" s="0"/>
-      <c r="DU1494" s="0"/>
-      <c r="DV1494" s="0"/>
-      <c r="DW1494" s="0"/>
-      <c r="DX1494" s="0"/>
-      <c r="DY1494" s="0"/>
-      <c r="DZ1494" s="0"/>
-      <c r="EA1494" s="0"/>
-      <c r="EB1494" s="0"/>
-      <c r="EC1494" s="0"/>
-      <c r="ED1494" s="0"/>
-      <c r="EE1494" s="0"/>
-      <c r="EF1494" s="0"/>
-      <c r="EG1494" s="0"/>
-      <c r="EH1494" s="0"/>
-      <c r="EI1494" s="0"/>
-      <c r="EJ1494" s="0"/>
-      <c r="EK1494" s="0"/>
-      <c r="EL1494" s="0"/>
-      <c r="EM1494" s="0"/>
-      <c r="EN1494" s="0"/>
-      <c r="EO1494" s="0"/>
-      <c r="EP1494" s="0"/>
-      <c r="EQ1494" s="0"/>
-      <c r="ER1494" s="0"/>
-      <c r="ES1494" s="0"/>
-      <c r="ET1494" s="0"/>
-      <c r="EU1494" s="0"/>
-      <c r="EV1494" s="0"/>
-      <c r="EW1494" s="0"/>
-      <c r="EX1494" s="0"/>
-      <c r="EY1494" s="0"/>
-      <c r="EZ1494" s="0"/>
-      <c r="FA1494" s="0"/>
-      <c r="FB1494" s="0"/>
-      <c r="FC1494" s="0"/>
-      <c r="FD1494" s="0"/>
-      <c r="FE1494" s="0"/>
-      <c r="FF1494" s="0"/>
-      <c r="FG1494" s="0"/>
-      <c r="FH1494" s="0"/>
-      <c r="FI1494" s="0"/>
-      <c r="FJ1494" s="0"/>
-      <c r="FK1494" s="0"/>
-      <c r="FL1494" s="0"/>
-      <c r="FM1494" s="0"/>
-      <c r="FN1494" s="0"/>
-      <c r="FO1494" s="0"/>
-      <c r="FP1494" s="0"/>
-      <c r="FQ1494" s="0"/>
-      <c r="FR1494" s="0"/>
-      <c r="FS1494" s="0"/>
-      <c r="FT1494" s="0"/>
-      <c r="FU1494" s="0"/>
-      <c r="FV1494" s="0"/>
-      <c r="FW1494" s="0"/>
-      <c r="FX1494" s="0"/>
-      <c r="FY1494" s="0"/>
-      <c r="FZ1494" s="0"/>
-      <c r="GA1494" s="0"/>
-      <c r="GB1494" s="0"/>
-      <c r="GC1494" s="0"/>
-      <c r="GD1494" s="0"/>
-      <c r="GE1494" s="0"/>
-      <c r="GF1494" s="0"/>
-      <c r="GG1494" s="0"/>
-      <c r="GH1494" s="0"/>
-      <c r="GI1494" s="0"/>
-      <c r="GJ1494" s="0"/>
-      <c r="GK1494" s="0"/>
-      <c r="GL1494" s="0"/>
-      <c r="GM1494" s="0"/>
-      <c r="GN1494" s="0"/>
-      <c r="GO1494" s="0"/>
-      <c r="GP1494" s="0"/>
-      <c r="GQ1494" s="0"/>
-      <c r="GR1494" s="0"/>
-      <c r="GS1494" s="0"/>
-      <c r="GT1494" s="0"/>
-      <c r="GU1494" s="0"/>
-      <c r="GV1494" s="0"/>
-      <c r="GW1494" s="0"/>
-      <c r="GX1494" s="0"/>
-      <c r="GY1494" s="0"/>
-      <c r="GZ1494" s="0"/>
-      <c r="HA1494" s="0"/>
-      <c r="HB1494" s="0"/>
-      <c r="HC1494" s="0"/>
-      <c r="HD1494" s="0"/>
-      <c r="HE1494" s="0"/>
-      <c r="HF1494" s="0"/>
-      <c r="HG1494" s="0"/>
-      <c r="HH1494" s="0"/>
-      <c r="HI1494" s="0"/>
-      <c r="HJ1494" s="0"/>
-      <c r="HK1494" s="0"/>
-      <c r="HL1494" s="0"/>
-      <c r="HM1494" s="0"/>
-      <c r="HN1494" s="0"/>
-      <c r="HO1494" s="0"/>
-      <c r="HP1494" s="0"/>
-      <c r="HQ1494" s="0"/>
-      <c r="HR1494" s="0"/>
-      <c r="HS1494" s="0"/>
-      <c r="HT1494" s="0"/>
-      <c r="HU1494" s="0"/>
-      <c r="HV1494" s="0"/>
-      <c r="HW1494" s="0"/>
-      <c r="HX1494" s="0"/>
-      <c r="HY1494" s="0"/>
-      <c r="HZ1494" s="0"/>
-      <c r="IA1494" s="0"/>
-      <c r="IB1494" s="0"/>
-      <c r="IC1494" s="0"/>
-      <c r="ID1494" s="0"/>
-      <c r="IE1494" s="0"/>
-      <c r="IF1494" s="0"/>
-      <c r="IG1494" s="0"/>
-      <c r="IH1494" s="0"/>
-      <c r="II1494" s="0"/>
-      <c r="IJ1494" s="0"/>
-      <c r="IK1494" s="0"/>
-      <c r="IL1494" s="0"/>
-      <c r="IM1494" s="0"/>
-      <c r="IN1494" s="0"/>
-      <c r="IO1494" s="0"/>
-      <c r="IP1494" s="0"/>
-      <c r="IQ1494" s="0"/>
-      <c r="IR1494" s="0"/>
-      <c r="IS1494" s="0"/>
-      <c r="IT1494" s="0"/>
-      <c r="IU1494" s="0"/>
-      <c r="IV1494" s="0"/>
-      <c r="IW1494" s="0"/>
-      <c r="IX1494" s="0"/>
-      <c r="IY1494" s="0"/>
-      <c r="IZ1494" s="0"/>
-      <c r="JA1494" s="0"/>
-      <c r="JB1494" s="0"/>
-      <c r="JC1494" s="0"/>
-      <c r="JD1494" s="0"/>
-      <c r="JE1494" s="0"/>
-      <c r="JF1494" s="0"/>
-      <c r="JG1494" s="0"/>
-      <c r="JH1494" s="0"/>
-      <c r="JI1494" s="0"/>
-      <c r="JJ1494" s="0"/>
-      <c r="JK1494" s="0"/>
-      <c r="JL1494" s="0"/>
-      <c r="JM1494" s="0"/>
-      <c r="JN1494" s="0"/>
-      <c r="JO1494" s="0"/>
-      <c r="JP1494" s="0"/>
-      <c r="JQ1494" s="0"/>
-      <c r="JR1494" s="0"/>
-      <c r="JS1494" s="0"/>
-      <c r="JT1494" s="0"/>
-      <c r="JU1494" s="0"/>
-      <c r="JV1494" s="0"/>
-      <c r="JW1494" s="0"/>
-      <c r="JX1494" s="0"/>
-      <c r="JY1494" s="0"/>
-      <c r="JZ1494" s="0"/>
-      <c r="KA1494" s="0"/>
-      <c r="KB1494" s="0"/>
-      <c r="KC1494" s="0"/>
-      <c r="KD1494" s="0"/>
-      <c r="KE1494" s="0"/>
-      <c r="KF1494" s="0"/>
-      <c r="KG1494" s="0"/>
-      <c r="KH1494" s="0"/>
-      <c r="KI1494" s="0"/>
-      <c r="KJ1494" s="0"/>
-      <c r="KK1494" s="0"/>
-      <c r="KL1494" s="0"/>
-      <c r="KM1494" s="0"/>
-      <c r="KN1494" s="0"/>
-      <c r="KO1494" s="0"/>
-      <c r="KP1494" s="0"/>
-      <c r="KQ1494" s="0"/>
-      <c r="KR1494" s="0"/>
-      <c r="KS1494" s="0"/>
-      <c r="KT1494" s="0"/>
-      <c r="KU1494" s="0"/>
-      <c r="KV1494" s="0"/>
-      <c r="KW1494" s="0"/>
-      <c r="KX1494" s="0"/>
-      <c r="KY1494" s="0"/>
-      <c r="KZ1494" s="0"/>
-      <c r="LA1494" s="0"/>
-      <c r="LB1494" s="0"/>
-      <c r="LC1494" s="0"/>
-      <c r="LD1494" s="0"/>
-      <c r="LE1494" s="0"/>
-      <c r="LF1494" s="0"/>
-      <c r="LG1494" s="0"/>
-      <c r="LH1494" s="0"/>
-      <c r="LI1494" s="0"/>
-      <c r="LJ1494" s="0"/>
-      <c r="LK1494" s="0"/>
-      <c r="LL1494" s="0"/>
-      <c r="LM1494" s="0"/>
-      <c r="LN1494" s="0"/>
-      <c r="LO1494" s="0"/>
-      <c r="LP1494" s="0"/>
-      <c r="LQ1494" s="0"/>
-      <c r="LR1494" s="0"/>
-      <c r="LS1494" s="0"/>
-      <c r="LT1494" s="0"/>
-      <c r="LU1494" s="0"/>
-      <c r="LV1494" s="0"/>
-      <c r="LW1494" s="0"/>
-      <c r="LX1494" s="0"/>
-      <c r="LY1494" s="0"/>
-      <c r="LZ1494" s="0"/>
-      <c r="MA1494" s="0"/>
-      <c r="MB1494" s="0"/>
-      <c r="MC1494" s="0"/>
-      <c r="MD1494" s="0"/>
-      <c r="ME1494" s="0"/>
-      <c r="MF1494" s="0"/>
-      <c r="MG1494" s="0"/>
-      <c r="MH1494" s="0"/>
-      <c r="MI1494" s="0"/>
-      <c r="MJ1494" s="0"/>
-      <c r="MK1494" s="0"/>
-      <c r="ML1494" s="0"/>
-      <c r="MM1494" s="0"/>
-      <c r="MN1494" s="0"/>
-      <c r="MO1494" s="0"/>
-      <c r="MP1494" s="0"/>
-      <c r="MQ1494" s="0"/>
-      <c r="MR1494" s="0"/>
-      <c r="MS1494" s="0"/>
-      <c r="MT1494" s="0"/>
-      <c r="MU1494" s="0"/>
-      <c r="MV1494" s="0"/>
-      <c r="MW1494" s="0"/>
-      <c r="MX1494" s="0"/>
-      <c r="MY1494" s="0"/>
-      <c r="MZ1494" s="0"/>
-      <c r="NA1494" s="0"/>
-      <c r="NB1494" s="0"/>
-      <c r="NC1494" s="0"/>
-      <c r="ND1494" s="0"/>
-      <c r="NE1494" s="0"/>
-      <c r="NF1494" s="0"/>
-      <c r="NG1494" s="0"/>
-      <c r="NH1494" s="0"/>
-      <c r="NI1494" s="0"/>
-      <c r="NJ1494" s="0"/>
-      <c r="NK1494" s="0"/>
-      <c r="NL1494" s="0"/>
-      <c r="NM1494" s="0"/>
-      <c r="NN1494" s="0"/>
-      <c r="NO1494" s="0"/>
-      <c r="NP1494" s="0"/>
-      <c r="NQ1494" s="0"/>
-      <c r="NR1494" s="0"/>
-      <c r="NS1494" s="0"/>
-      <c r="NT1494" s="0"/>
-      <c r="NU1494" s="0"/>
-      <c r="NV1494" s="0"/>
-      <c r="NW1494" s="0"/>
-      <c r="NX1494" s="0"/>
-      <c r="NY1494" s="0"/>
-      <c r="NZ1494" s="0"/>
-      <c r="OA1494" s="0"/>
-      <c r="OB1494" s="0"/>
-      <c r="OC1494" s="0"/>
-      <c r="OD1494" s="0"/>
-      <c r="OE1494" s="0"/>
-      <c r="OF1494" s="0"/>
-      <c r="OG1494" s="0"/>
-      <c r="OH1494" s="0"/>
-      <c r="OI1494" s="0"/>
-      <c r="OJ1494" s="0"/>
-      <c r="OK1494" s="0"/>
-      <c r="OL1494" s="0"/>
-      <c r="OM1494" s="0"/>
-      <c r="ON1494" s="0"/>
-      <c r="OO1494" s="0"/>
-      <c r="OP1494" s="0"/>
-      <c r="OQ1494" s="0"/>
-      <c r="OR1494" s="0"/>
-      <c r="OS1494" s="0"/>
-      <c r="OT1494" s="0"/>
-      <c r="OU1494" s="0"/>
-      <c r="OV1494" s="0"/>
-      <c r="OW1494" s="0"/>
-      <c r="OX1494" s="0"/>
-      <c r="OY1494" s="0"/>
-      <c r="OZ1494" s="0"/>
-      <c r="PA1494" s="0"/>
-      <c r="PB1494" s="0"/>
-      <c r="PC1494" s="0"/>
-      <c r="PD1494" s="0"/>
-      <c r="PE1494" s="0"/>
-      <c r="PF1494" s="0"/>
-      <c r="PG1494" s="0"/>
-      <c r="PH1494" s="0"/>
-      <c r="PI1494" s="0"/>
-      <c r="PJ1494" s="0"/>
-      <c r="PK1494" s="0"/>
-      <c r="PL1494" s="0"/>
-      <c r="PM1494" s="0"/>
-      <c r="PN1494" s="0"/>
-      <c r="PO1494" s="0"/>
-      <c r="PP1494" s="0"/>
-      <c r="PQ1494" s="0"/>
-      <c r="PR1494" s="0"/>
-      <c r="PS1494" s="0"/>
-      <c r="PT1494" s="0"/>
-      <c r="PU1494" s="0"/>
-      <c r="PV1494" s="0"/>
-      <c r="PW1494" s="0"/>
-      <c r="PX1494" s="0"/>
-      <c r="PY1494" s="0"/>
-      <c r="PZ1494" s="0"/>
-      <c r="QA1494" s="0"/>
-      <c r="QB1494" s="0"/>
-      <c r="QC1494" s="0"/>
-      <c r="QD1494" s="0"/>
-      <c r="QE1494" s="0"/>
-      <c r="QF1494" s="0"/>
-      <c r="QG1494" s="0"/>
-      <c r="QH1494" s="0"/>
-      <c r="QI1494" s="0"/>
-      <c r="QJ1494" s="0"/>
-      <c r="QK1494" s="0"/>
-      <c r="QL1494" s="0"/>
-      <c r="QM1494" s="0"/>
-      <c r="QN1494" s="0"/>
-      <c r="QO1494" s="0"/>
-      <c r="QP1494" s="0"/>
-      <c r="QQ1494" s="0"/>
-      <c r="QR1494" s="0"/>
-      <c r="QS1494" s="0"/>
-      <c r="QT1494" s="0"/>
-      <c r="QU1494" s="0"/>
-      <c r="QV1494" s="0"/>
-      <c r="QW1494" s="0"/>
-      <c r="QX1494" s="0"/>
-      <c r="QY1494" s="0"/>
-      <c r="QZ1494" s="0"/>
-      <c r="RA1494" s="0"/>
-      <c r="RB1494" s="0"/>
-      <c r="RC1494" s="0"/>
-      <c r="RD1494" s="0"/>
-      <c r="RE1494" s="0"/>
-      <c r="RF1494" s="0"/>
-      <c r="RG1494" s="0"/>
-      <c r="RH1494" s="0"/>
-      <c r="RI1494" s="0"/>
-      <c r="RJ1494" s="0"/>
-      <c r="RK1494" s="0"/>
-      <c r="RL1494" s="0"/>
-      <c r="RM1494" s="0"/>
-      <c r="RN1494" s="0"/>
-      <c r="RO1494" s="0"/>
-      <c r="RP1494" s="0"/>
-      <c r="RQ1494" s="0"/>
-      <c r="RR1494" s="0"/>
-      <c r="RS1494" s="0"/>
-      <c r="RT1494" s="0"/>
-      <c r="RU1494" s="0"/>
-      <c r="RV1494" s="0"/>
-      <c r="RW1494" s="0"/>
-      <c r="RX1494" s="0"/>
-      <c r="RY1494" s="0"/>
-      <c r="RZ1494" s="0"/>
-      <c r="SA1494" s="0"/>
-      <c r="SB1494" s="0"/>
-      <c r="SC1494" s="0"/>
-      <c r="SD1494" s="0"/>
-      <c r="SE1494" s="0"/>
-      <c r="SF1494" s="0"/>
-      <c r="SG1494" s="0"/>
-      <c r="SH1494" s="0"/>
-      <c r="SI1494" s="0"/>
-      <c r="SJ1494" s="0"/>
-      <c r="SK1494" s="0"/>
-      <c r="SL1494" s="0"/>
-      <c r="SM1494" s="0"/>
-      <c r="SN1494" s="0"/>
-      <c r="SO1494" s="0"/>
-      <c r="SP1494" s="0"/>
-      <c r="SQ1494" s="0"/>
-      <c r="SR1494" s="0"/>
-      <c r="SS1494" s="0"/>
-      <c r="ST1494" s="0"/>
-      <c r="SU1494" s="0"/>
-      <c r="SV1494" s="0"/>
-      <c r="SW1494" s="0"/>
-      <c r="SX1494" s="0"/>
-      <c r="SY1494" s="0"/>
-      <c r="SZ1494" s="0"/>
-      <c r="TA1494" s="0"/>
-      <c r="TB1494" s="0"/>
-      <c r="TC1494" s="0"/>
-      <c r="TD1494" s="0"/>
-      <c r="TE1494" s="0"/>
-      <c r="TF1494" s="0"/>
-      <c r="TG1494" s="0"/>
-      <c r="TH1494" s="0"/>
-      <c r="TI1494" s="0"/>
-      <c r="TJ1494" s="0"/>
-      <c r="TK1494" s="0"/>
-      <c r="TL1494" s="0"/>
-      <c r="TM1494" s="0"/>
-      <c r="TN1494" s="0"/>
-      <c r="TO1494" s="0"/>
-      <c r="TP1494" s="0"/>
-      <c r="TQ1494" s="0"/>
-      <c r="TR1494" s="0"/>
-      <c r="TS1494" s="0"/>
-      <c r="TT1494" s="0"/>
-      <c r="TU1494" s="0"/>
-      <c r="TV1494" s="0"/>
-      <c r="TW1494" s="0"/>
-      <c r="TX1494" s="0"/>
-      <c r="TY1494" s="0"/>
-      <c r="TZ1494" s="0"/>
-      <c r="UA1494" s="0"/>
-      <c r="UB1494" s="0"/>
-      <c r="UC1494" s="0"/>
-      <c r="UD1494" s="0"/>
-      <c r="UE1494" s="0"/>
-      <c r="UF1494" s="0"/>
-      <c r="UG1494" s="0"/>
-      <c r="UH1494" s="0"/>
-      <c r="UI1494" s="0"/>
-      <c r="UJ1494" s="0"/>
-      <c r="UK1494" s="0"/>
-      <c r="UL1494" s="0"/>
-      <c r="UM1494" s="0"/>
-      <c r="UN1494" s="0"/>
-      <c r="UO1494" s="0"/>
-      <c r="UP1494" s="0"/>
-      <c r="UQ1494" s="0"/>
-      <c r="UR1494" s="0"/>
-      <c r="US1494" s="0"/>
-      <c r="UT1494" s="0"/>
-      <c r="UU1494" s="0"/>
-      <c r="UV1494" s="0"/>
-      <c r="UW1494" s="0"/>
-      <c r="UX1494" s="0"/>
-      <c r="UY1494" s="0"/>
-      <c r="UZ1494" s="0"/>
-      <c r="VA1494" s="0"/>
-      <c r="VB1494" s="0"/>
-      <c r="VC1494" s="0"/>
-      <c r="VD1494" s="0"/>
-      <c r="VE1494" s="0"/>
-      <c r="VF1494" s="0"/>
-      <c r="VG1494" s="0"/>
-      <c r="VH1494" s="0"/>
-      <c r="VI1494" s="0"/>
-      <c r="VJ1494" s="0"/>
-      <c r="VK1494" s="0"/>
-      <c r="VL1494" s="0"/>
-      <c r="VM1494" s="0"/>
-      <c r="VN1494" s="0"/>
-      <c r="VO1494" s="0"/>
-      <c r="VP1494" s="0"/>
-      <c r="VQ1494" s="0"/>
-      <c r="VR1494" s="0"/>
-      <c r="VS1494" s="0"/>
-      <c r="VT1494" s="0"/>
-      <c r="VU1494" s="0"/>
-      <c r="VV1494" s="0"/>
-      <c r="VW1494" s="0"/>
-      <c r="VX1494" s="0"/>
-      <c r="VY1494" s="0"/>
-      <c r="VZ1494" s="0"/>
-      <c r="WA1494" s="0"/>
-      <c r="WB1494" s="0"/>
-      <c r="WC1494" s="0"/>
-      <c r="WD1494" s="0"/>
-      <c r="WE1494" s="0"/>
-      <c r="WF1494" s="0"/>
-      <c r="WG1494" s="0"/>
-      <c r="WH1494" s="0"/>
-      <c r="WI1494" s="0"/>
-      <c r="WJ1494" s="0"/>
-      <c r="WK1494" s="0"/>
-      <c r="WL1494" s="0"/>
-      <c r="WM1494" s="0"/>
-      <c r="WN1494" s="0"/>
-      <c r="WO1494" s="0"/>
-      <c r="WP1494" s="0"/>
-      <c r="WQ1494" s="0"/>
-      <c r="WR1494" s="0"/>
-      <c r="WS1494" s="0"/>
-      <c r="WT1494" s="0"/>
-      <c r="WU1494" s="0"/>
-      <c r="WV1494" s="0"/>
-      <c r="WW1494" s="0"/>
-      <c r="WX1494" s="0"/>
-      <c r="WY1494" s="0"/>
-      <c r="WZ1494" s="0"/>
-      <c r="XA1494" s="0"/>
-      <c r="XB1494" s="0"/>
-      <c r="XC1494" s="0"/>
-      <c r="XD1494" s="0"/>
-      <c r="XE1494" s="0"/>
-      <c r="XF1494" s="0"/>
-      <c r="XG1494" s="0"/>
-      <c r="XH1494" s="0"/>
-      <c r="XI1494" s="0"/>
-      <c r="XJ1494" s="0"/>
-      <c r="XK1494" s="0"/>
-      <c r="XL1494" s="0"/>
-      <c r="XM1494" s="0"/>
-      <c r="XN1494" s="0"/>
-      <c r="XO1494" s="0"/>
-      <c r="XP1494" s="0"/>
-      <c r="XQ1494" s="0"/>
-      <c r="XR1494" s="0"/>
-      <c r="XS1494" s="0"/>
-      <c r="XT1494" s="0"/>
-      <c r="XU1494" s="0"/>
-      <c r="XV1494" s="0"/>
-      <c r="XW1494" s="0"/>
-      <c r="XX1494" s="0"/>
-      <c r="XY1494" s="0"/>
-      <c r="XZ1494" s="0"/>
-      <c r="YA1494" s="0"/>
-      <c r="YB1494" s="0"/>
-      <c r="YC1494" s="0"/>
-      <c r="YD1494" s="0"/>
-      <c r="YE1494" s="0"/>
-      <c r="YF1494" s="0"/>
-      <c r="YG1494" s="0"/>
-      <c r="YH1494" s="0"/>
-      <c r="YI1494" s="0"/>
-      <c r="YJ1494" s="0"/>
-      <c r="YK1494" s="0"/>
-      <c r="YL1494" s="0"/>
-      <c r="YM1494" s="0"/>
-      <c r="YN1494" s="0"/>
-      <c r="YO1494" s="0"/>
-      <c r="YP1494" s="0"/>
-      <c r="YQ1494" s="0"/>
-      <c r="YR1494" s="0"/>
-      <c r="YS1494" s="0"/>
-      <c r="YT1494" s="0"/>
-      <c r="YU1494" s="0"/>
-      <c r="YV1494" s="0"/>
-      <c r="YW1494" s="0"/>
-      <c r="YX1494" s="0"/>
-      <c r="YY1494" s="0"/>
-      <c r="YZ1494" s="0"/>
-      <c r="ZA1494" s="0"/>
-      <c r="ZB1494" s="0"/>
-      <c r="ZC1494" s="0"/>
-      <c r="ZD1494" s="0"/>
-      <c r="ZE1494" s="0"/>
-      <c r="ZF1494" s="0"/>
-      <c r="ZG1494" s="0"/>
-      <c r="ZH1494" s="0"/>
-      <c r="ZI1494" s="0"/>
-      <c r="ZJ1494" s="0"/>
-      <c r="ZK1494" s="0"/>
-      <c r="ZL1494" s="0"/>
-      <c r="ZM1494" s="0"/>
-      <c r="ZN1494" s="0"/>
-      <c r="ZO1494" s="0"/>
-      <c r="ZP1494" s="0"/>
-      <c r="ZQ1494" s="0"/>
-      <c r="ZR1494" s="0"/>
-      <c r="ZS1494" s="0"/>
-      <c r="ZT1494" s="0"/>
-      <c r="ZU1494" s="0"/>
-      <c r="ZV1494" s="0"/>
-      <c r="ZW1494" s="0"/>
-      <c r="ZX1494" s="0"/>
-      <c r="ZY1494" s="0"/>
-      <c r="ZZ1494" s="0"/>
-      <c r="AAA1494" s="0"/>
-      <c r="AAB1494" s="0"/>
-      <c r="AAC1494" s="0"/>
-      <c r="AAD1494" s="0"/>
-      <c r="AAE1494" s="0"/>
-      <c r="AAF1494" s="0"/>
-      <c r="AAG1494" s="0"/>
-      <c r="AAH1494" s="0"/>
-      <c r="AAI1494" s="0"/>
-      <c r="AAJ1494" s="0"/>
-      <c r="AAK1494" s="0"/>
-      <c r="AAL1494" s="0"/>
-      <c r="AAM1494" s="0"/>
-      <c r="AAN1494" s="0"/>
-      <c r="AAO1494" s="0"/>
-      <c r="AAP1494" s="0"/>
-      <c r="AAQ1494" s="0"/>
-      <c r="AAR1494" s="0"/>
-      <c r="AAS1494" s="0"/>
-      <c r="AAT1494" s="0"/>
-      <c r="AAU1494" s="0"/>
-      <c r="AAV1494" s="0"/>
-      <c r="AAW1494" s="0"/>
-      <c r="AAX1494" s="0"/>
-      <c r="AAY1494" s="0"/>
-      <c r="AAZ1494" s="0"/>
-      <c r="ABA1494" s="0"/>
-      <c r="ABB1494" s="0"/>
-      <c r="ABC1494" s="0"/>
-      <c r="ABD1494" s="0"/>
-      <c r="ABE1494" s="0"/>
-      <c r="ABF1494" s="0"/>
-      <c r="ABG1494" s="0"/>
-      <c r="ABH1494" s="0"/>
-      <c r="ABI1494" s="0"/>
-      <c r="ABJ1494" s="0"/>
-      <c r="ABK1494" s="0"/>
-      <c r="ABL1494" s="0"/>
-      <c r="ABM1494" s="0"/>
-      <c r="ABN1494" s="0"/>
-      <c r="ABO1494" s="0"/>
-      <c r="ABP1494" s="0"/>
-      <c r="ABQ1494" s="0"/>
-      <c r="ABR1494" s="0"/>
-      <c r="ABS1494" s="0"/>
-      <c r="ABT1494" s="0"/>
-      <c r="ABU1494" s="0"/>
-      <c r="ABV1494" s="0"/>
-      <c r="ABW1494" s="0"/>
-      <c r="ABX1494" s="0"/>
-      <c r="ABY1494" s="0"/>
-      <c r="ABZ1494" s="0"/>
-      <c r="ACA1494" s="0"/>
-      <c r="ACB1494" s="0"/>
-      <c r="ACC1494" s="0"/>
-      <c r="ACD1494" s="0"/>
-      <c r="ACE1494" s="0"/>
-      <c r="ACF1494" s="0"/>
-      <c r="ACG1494" s="0"/>
-      <c r="ACH1494" s="0"/>
-      <c r="ACI1494" s="0"/>
-      <c r="ACJ1494" s="0"/>
-      <c r="ACK1494" s="0"/>
-      <c r="ACL1494" s="0"/>
-      <c r="ACM1494" s="0"/>
-      <c r="ACN1494" s="0"/>
-      <c r="ACO1494" s="0"/>
-      <c r="ACP1494" s="0"/>
-      <c r="ACQ1494" s="0"/>
-      <c r="ACR1494" s="0"/>
-      <c r="ACS1494" s="0"/>
-      <c r="ACT1494" s="0"/>
-      <c r="ACU1494" s="0"/>
-      <c r="ACV1494" s="0"/>
-      <c r="ACW1494" s="0"/>
-      <c r="ACX1494" s="0"/>
-      <c r="ACY1494" s="0"/>
-      <c r="ACZ1494" s="0"/>
-      <c r="ADA1494" s="0"/>
-      <c r="ADB1494" s="0"/>
-      <c r="ADC1494" s="0"/>
-      <c r="ADD1494" s="0"/>
-      <c r="ADE1494" s="0"/>
-      <c r="ADF1494" s="0"/>
-      <c r="ADG1494" s="0"/>
-      <c r="ADH1494" s="0"/>
-      <c r="ADI1494" s="0"/>
-      <c r="ADJ1494" s="0"/>
-      <c r="ADK1494" s="0"/>
-      <c r="ADL1494" s="0"/>
-      <c r="ADM1494" s="0"/>
-      <c r="ADN1494" s="0"/>
-      <c r="ADO1494" s="0"/>
-      <c r="ADP1494" s="0"/>
-      <c r="ADQ1494" s="0"/>
-      <c r="ADR1494" s="0"/>
-      <c r="ADS1494" s="0"/>
-      <c r="ADT1494" s="0"/>
-      <c r="ADU1494" s="0"/>
-      <c r="ADV1494" s="0"/>
-      <c r="ADW1494" s="0"/>
-      <c r="ADX1494" s="0"/>
-      <c r="ADY1494" s="0"/>
-      <c r="ADZ1494" s="0"/>
-      <c r="AEA1494" s="0"/>
-      <c r="AEB1494" s="0"/>
-      <c r="AEC1494" s="0"/>
-      <c r="AED1494" s="0"/>
-      <c r="AEE1494" s="0"/>
-      <c r="AEF1494" s="0"/>
-      <c r="AEG1494" s="0"/>
-      <c r="AEH1494" s="0"/>
-      <c r="AEI1494" s="0"/>
-      <c r="AEJ1494" s="0"/>
-      <c r="AEK1494" s="0"/>
-      <c r="AEL1494" s="0"/>
-      <c r="AEM1494" s="0"/>
-      <c r="AEN1494" s="0"/>
-      <c r="AEO1494" s="0"/>
-      <c r="AEP1494" s="0"/>
-      <c r="AEQ1494" s="0"/>
-      <c r="AER1494" s="0"/>
-      <c r="AES1494" s="0"/>
-      <c r="AET1494" s="0"/>
-      <c r="AEU1494" s="0"/>
-      <c r="AEV1494" s="0"/>
-      <c r="AEW1494" s="0"/>
-      <c r="AEX1494" s="0"/>
-      <c r="AEY1494" s="0"/>
-      <c r="AEZ1494" s="0"/>
-      <c r="AFA1494" s="0"/>
-      <c r="AFB1494" s="0"/>
-      <c r="AFC1494" s="0"/>
-      <c r="AFD1494" s="0"/>
-      <c r="AFE1494" s="0"/>
-      <c r="AFF1494" s="0"/>
-      <c r="AFG1494" s="0"/>
-      <c r="AFH1494" s="0"/>
-      <c r="AFI1494" s="0"/>
-      <c r="AFJ1494" s="0"/>
-      <c r="AFK1494" s="0"/>
-      <c r="AFL1494" s="0"/>
-      <c r="AFM1494" s="0"/>
-      <c r="AFN1494" s="0"/>
-      <c r="AFO1494" s="0"/>
-      <c r="AFP1494" s="0"/>
-      <c r="AFQ1494" s="0"/>
-      <c r="AFR1494" s="0"/>
-      <c r="AFS1494" s="0"/>
-      <c r="AFT1494" s="0"/>
-      <c r="AFU1494" s="0"/>
-      <c r="AFV1494" s="0"/>
-      <c r="AFW1494" s="0"/>
-      <c r="AFX1494" s="0"/>
-      <c r="AFY1494" s="0"/>
-      <c r="AFZ1494" s="0"/>
-      <c r="AGA1494" s="0"/>
-      <c r="AGB1494" s="0"/>
-      <c r="AGC1494" s="0"/>
-      <c r="AGD1494" s="0"/>
-      <c r="AGE1494" s="0"/>
-      <c r="AGF1494" s="0"/>
-      <c r="AGG1494" s="0"/>
-      <c r="AGH1494" s="0"/>
-      <c r="AGI1494" s="0"/>
-      <c r="AGJ1494" s="0"/>
-      <c r="AGK1494" s="0"/>
-      <c r="AGL1494" s="0"/>
-      <c r="AGM1494" s="0"/>
-      <c r="AGN1494" s="0"/>
-      <c r="AGO1494" s="0"/>
-      <c r="AGP1494" s="0"/>
-      <c r="AGQ1494" s="0"/>
-      <c r="AGR1494" s="0"/>
-      <c r="AGS1494" s="0"/>
-      <c r="AGT1494" s="0"/>
-      <c r="AGU1494" s="0"/>
-      <c r="AGV1494" s="0"/>
-      <c r="AGW1494" s="0"/>
-      <c r="AGX1494" s="0"/>
-      <c r="AGY1494" s="0"/>
-      <c r="AGZ1494" s="0"/>
-      <c r="AHA1494" s="0"/>
-      <c r="AHB1494" s="0"/>
-      <c r="AHC1494" s="0"/>
-      <c r="AHD1494" s="0"/>
-      <c r="AHE1494" s="0"/>
-      <c r="AHF1494" s="0"/>
-      <c r="AHG1494" s="0"/>
-      <c r="AHH1494" s="0"/>
-      <c r="AHI1494" s="0"/>
-      <c r="AHJ1494" s="0"/>
-      <c r="AHK1494" s="0"/>
-      <c r="AHL1494" s="0"/>
-      <c r="AHM1494" s="0"/>
-      <c r="AHN1494" s="0"/>
-      <c r="AHO1494" s="0"/>
-      <c r="AHP1494" s="0"/>
-      <c r="AHQ1494" s="0"/>
-      <c r="AHR1494" s="0"/>
-      <c r="AHS1494" s="0"/>
-      <c r="AHT1494" s="0"/>
-      <c r="AHU1494" s="0"/>
-      <c r="AHV1494" s="0"/>
-      <c r="AHW1494" s="0"/>
-      <c r="AHX1494" s="0"/>
-      <c r="AHY1494" s="0"/>
-      <c r="AHZ1494" s="0"/>
-      <c r="AIA1494" s="0"/>
-      <c r="AIB1494" s="0"/>
-      <c r="AIC1494" s="0"/>
-      <c r="AID1494" s="0"/>
-      <c r="AIE1494" s="0"/>
-      <c r="AIF1494" s="0"/>
-      <c r="AIG1494" s="0"/>
-      <c r="AIH1494" s="0"/>
-      <c r="AII1494" s="0"/>
-      <c r="AIJ1494" s="0"/>
-      <c r="AIK1494" s="0"/>
-      <c r="AIL1494" s="0"/>
-      <c r="AIM1494" s="0"/>
-      <c r="AIN1494" s="0"/>
-      <c r="AIO1494" s="0"/>
-      <c r="AIP1494" s="0"/>
-      <c r="AIQ1494" s="0"/>
-      <c r="AIR1494" s="0"/>
-      <c r="AIS1494" s="0"/>
-      <c r="AIT1494" s="0"/>
-      <c r="AIU1494" s="0"/>
-      <c r="AIV1494" s="0"/>
-      <c r="AIW1494" s="0"/>
-      <c r="AIX1494" s="0"/>
-      <c r="AIY1494" s="0"/>
-      <c r="AIZ1494" s="0"/>
-      <c r="AJA1494" s="0"/>
-      <c r="AJB1494" s="0"/>
-      <c r="AJC1494" s="0"/>
-      <c r="AJD1494" s="0"/>
-      <c r="AJE1494" s="0"/>
-      <c r="AJF1494" s="0"/>
-      <c r="AJG1494" s="0"/>
-      <c r="AJH1494" s="0"/>
-      <c r="AJI1494" s="0"/>
-      <c r="AJJ1494" s="0"/>
-      <c r="AJK1494" s="0"/>
-      <c r="AJL1494" s="0"/>
-      <c r="AJM1494" s="0"/>
-      <c r="AJN1494" s="0"/>
-      <c r="AJO1494" s="0"/>
-      <c r="AJP1494" s="0"/>
-      <c r="AJQ1494" s="0"/>
-      <c r="AJR1494" s="0"/>
-      <c r="AJS1494" s="0"/>
-      <c r="AJT1494" s="0"/>
-      <c r="AJU1494" s="0"/>
-      <c r="AJV1494" s="0"/>
-      <c r="AJW1494" s="0"/>
-      <c r="AJX1494" s="0"/>
-      <c r="AJY1494" s="0"/>
-      <c r="AJZ1494" s="0"/>
-      <c r="AKA1494" s="0"/>
-      <c r="AKB1494" s="0"/>
-      <c r="AKC1494" s="0"/>
-      <c r="AKD1494" s="0"/>
-      <c r="AKE1494" s="0"/>
-      <c r="AKF1494" s="0"/>
-      <c r="AKG1494" s="0"/>
-      <c r="AKH1494" s="0"/>
-      <c r="AKI1494" s="0"/>
-      <c r="AKJ1494" s="0"/>
-      <c r="AKK1494" s="0"/>
-      <c r="AKL1494" s="0"/>
-      <c r="AKM1494" s="0"/>
-      <c r="AKN1494" s="0"/>
-      <c r="AKO1494" s="0"/>
-      <c r="AKP1494" s="0"/>
-      <c r="AKQ1494" s="0"/>
-      <c r="AKR1494" s="0"/>
-      <c r="AKS1494" s="0"/>
-      <c r="AKT1494" s="0"/>
-      <c r="AKU1494" s="0"/>
-      <c r="AKV1494" s="0"/>
-      <c r="AKW1494" s="0"/>
-      <c r="AKX1494" s="0"/>
-      <c r="AKY1494" s="0"/>
-      <c r="AKZ1494" s="0"/>
-      <c r="ALA1494" s="0"/>
-      <c r="ALB1494" s="0"/>
-      <c r="ALC1494" s="0"/>
-      <c r="ALD1494" s="0"/>
-      <c r="ALE1494" s="0"/>
-      <c r="ALF1494" s="0"/>
-      <c r="ALG1494" s="0"/>
-      <c r="ALH1494" s="0"/>
-      <c r="ALI1494" s="0"/>
-      <c r="ALJ1494" s="0"/>
-      <c r="ALK1494" s="0"/>
-      <c r="ALL1494" s="0"/>
-      <c r="ALM1494" s="0"/>
-      <c r="ALN1494" s="0"/>
-      <c r="ALO1494" s="0"/>
-      <c r="ALP1494" s="0"/>
-      <c r="ALQ1494" s="0"/>
-      <c r="ALR1494" s="0"/>
-      <c r="ALS1494" s="0"/>
-      <c r="ALT1494" s="0"/>
-      <c r="ALU1494" s="0"/>
-      <c r="ALV1494" s="0"/>
-      <c r="ALW1494" s="0"/>
-      <c r="ALX1494" s="0"/>
-      <c r="ALY1494" s="0"/>
-      <c r="ALZ1494" s="0"/>
-      <c r="AMA1494" s="0"/>
-      <c r="AMB1494" s="0"/>
-      <c r="AMC1494" s="0"/>
-      <c r="AMD1494" s="0"/>
-      <c r="AME1494" s="0"/>
-      <c r="AMF1494" s="0"/>
-      <c r="AMG1494" s="0"/>
-      <c r="AMH1494" s="0"/>
-      <c r="AMI1494" s="0"/>
-    </row>
-    <row r="1495" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1495" s="19"/>
-      <c r="B1495" s="11" t="s">
+    </row>
+    <row r="1495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1495" s="25"/>
+      <c r="C1495" s="1"/>
+      <c r="D1495" s="1"/>
+      <c r="E1495" s="1"/>
+      <c r="F1495" s="1"/>
+      <c r="G1495" s="1"/>
+      <c r="H1495" s="1"/>
+      <c r="I1495" s="1"/>
+      <c r="J1495" s="1"/>
+      <c r="K1495" s="1"/>
+      <c r="L1495" s="1"/>
+      <c r="M1495" s="1"/>
+      <c r="N1495" s="1"/>
+      <c r="O1495" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1495" s="0"/>
+      <c r="Z1495" s="0"/>
+      <c r="AA1495" s="0"/>
+      <c r="AB1495" s="0"/>
+      <c r="AC1495" s="0"/>
+      <c r="AD1495" s="0"/>
+      <c r="AE1495" s="0"/>
+      <c r="AF1495" s="0"/>
+      <c r="AG1495" s="0"/>
+      <c r="AH1495" s="0"/>
+      <c r="AI1495" s="0"/>
+      <c r="AJ1495" s="0"/>
+      <c r="AK1495" s="0"/>
+      <c r="AL1495" s="0"/>
+      <c r="AM1495" s="0"/>
+      <c r="AN1495" s="0"/>
+      <c r="AO1495" s="0"/>
+      <c r="AP1495" s="0"/>
+      <c r="AQ1495" s="0"/>
+      <c r="AR1495" s="0"/>
+      <c r="AS1495" s="0"/>
+      <c r="AT1495" s="0"/>
+      <c r="AU1495" s="0"/>
+      <c r="AV1495" s="0"/>
+      <c r="AW1495" s="0"/>
+      <c r="AX1495" s="0"/>
+      <c r="AY1495" s="0"/>
+      <c r="AZ1495" s="0"/>
+      <c r="BA1495" s="0"/>
+      <c r="BB1495" s="0"/>
+      <c r="BC1495" s="0"/>
+      <c r="BD1495" s="0"/>
+      <c r="BE1495" s="0"/>
+      <c r="BF1495" s="0"/>
+      <c r="BG1495" s="0"/>
+      <c r="BH1495" s="0"/>
+      <c r="BI1495" s="0"/>
+      <c r="BJ1495" s="0"/>
+      <c r="BK1495" s="0"/>
+      <c r="BL1495" s="0"/>
+      <c r="BM1495" s="0"/>
+      <c r="BN1495" s="0"/>
+      <c r="BO1495" s="0"/>
+      <c r="BP1495" s="0"/>
+      <c r="BQ1495" s="0"/>
+      <c r="BR1495" s="0"/>
+      <c r="BS1495" s="0"/>
+      <c r="BT1495" s="0"/>
+      <c r="BU1495" s="0"/>
+      <c r="BV1495" s="0"/>
+      <c r="BW1495" s="0"/>
+      <c r="BX1495" s="0"/>
+      <c r="BY1495" s="0"/>
+      <c r="BZ1495" s="0"/>
+      <c r="CA1495" s="0"/>
+      <c r="CB1495" s="0"/>
+      <c r="CC1495" s="0"/>
+      <c r="CD1495" s="0"/>
+      <c r="CE1495" s="0"/>
+      <c r="CF1495" s="0"/>
+      <c r="CG1495" s="0"/>
+      <c r="CH1495" s="0"/>
+      <c r="CI1495" s="0"/>
+      <c r="CJ1495" s="0"/>
+      <c r="CK1495" s="0"/>
+      <c r="CL1495" s="0"/>
+      <c r="CM1495" s="0"/>
+      <c r="CN1495" s="0"/>
+      <c r="CO1495" s="0"/>
+      <c r="CP1495" s="0"/>
+      <c r="CQ1495" s="0"/>
+      <c r="CR1495" s="0"/>
+      <c r="CS1495" s="0"/>
+      <c r="CT1495" s="0"/>
+      <c r="CU1495" s="0"/>
+      <c r="CV1495" s="0"/>
+      <c r="CW1495" s="0"/>
+      <c r="CX1495" s="0"/>
+      <c r="CY1495" s="0"/>
+      <c r="CZ1495" s="0"/>
+      <c r="DA1495" s="0"/>
+      <c r="DB1495" s="0"/>
+      <c r="DC1495" s="0"/>
+      <c r="DD1495" s="0"/>
+      <c r="DE1495" s="0"/>
+      <c r="DF1495" s="0"/>
+      <c r="DG1495" s="0"/>
+      <c r="DH1495" s="0"/>
+      <c r="DI1495" s="0"/>
+      <c r="DJ1495" s="0"/>
+      <c r="DK1495" s="0"/>
+      <c r="DL1495" s="0"/>
+      <c r="DM1495" s="0"/>
+      <c r="DN1495" s="0"/>
+      <c r="DO1495" s="0"/>
+      <c r="DP1495" s="0"/>
+      <c r="DQ1495" s="0"/>
+      <c r="DR1495" s="0"/>
+      <c r="DS1495" s="0"/>
+      <c r="DT1495" s="0"/>
+      <c r="DU1495" s="0"/>
+      <c r="DV1495" s="0"/>
+      <c r="DW1495" s="0"/>
+      <c r="DX1495" s="0"/>
+      <c r="DY1495" s="0"/>
+      <c r="DZ1495" s="0"/>
+      <c r="EA1495" s="0"/>
+      <c r="EB1495" s="0"/>
+      <c r="EC1495" s="0"/>
+      <c r="ED1495" s="0"/>
+      <c r="EE1495" s="0"/>
+      <c r="EF1495" s="0"/>
+      <c r="EG1495" s="0"/>
+      <c r="EH1495" s="0"/>
+      <c r="EI1495" s="0"/>
+      <c r="EJ1495" s="0"/>
+      <c r="EK1495" s="0"/>
+      <c r="EL1495" s="0"/>
+      <c r="EM1495" s="0"/>
+      <c r="EN1495" s="0"/>
+      <c r="EO1495" s="0"/>
+      <c r="EP1495" s="0"/>
+      <c r="EQ1495" s="0"/>
+      <c r="ER1495" s="0"/>
+      <c r="ES1495" s="0"/>
+      <c r="ET1495" s="0"/>
+      <c r="EU1495" s="0"/>
+      <c r="EV1495" s="0"/>
+      <c r="EW1495" s="0"/>
+      <c r="EX1495" s="0"/>
+      <c r="EY1495" s="0"/>
+      <c r="EZ1495" s="0"/>
+      <c r="FA1495" s="0"/>
+      <c r="FB1495" s="0"/>
+      <c r="FC1495" s="0"/>
+      <c r="FD1495" s="0"/>
+      <c r="FE1495" s="0"/>
+      <c r="FF1495" s="0"/>
+      <c r="FG1495" s="0"/>
+      <c r="FH1495" s="0"/>
+      <c r="FI1495" s="0"/>
+      <c r="FJ1495" s="0"/>
+      <c r="FK1495" s="0"/>
+      <c r="FL1495" s="0"/>
+      <c r="FM1495" s="0"/>
+      <c r="FN1495" s="0"/>
+      <c r="FO1495" s="0"/>
+      <c r="FP1495" s="0"/>
+      <c r="FQ1495" s="0"/>
+      <c r="FR1495" s="0"/>
+      <c r="FS1495" s="0"/>
+      <c r="FT1495" s="0"/>
+      <c r="FU1495" s="0"/>
+      <c r="FV1495" s="0"/>
+      <c r="FW1495" s="0"/>
+      <c r="FX1495" s="0"/>
+      <c r="FY1495" s="0"/>
+      <c r="FZ1495" s="0"/>
+      <c r="GA1495" s="0"/>
+      <c r="GB1495" s="0"/>
+      <c r="GC1495" s="0"/>
+      <c r="GD1495" s="0"/>
+      <c r="GE1495" s="0"/>
+      <c r="GF1495" s="0"/>
+      <c r="GG1495" s="0"/>
+      <c r="GH1495" s="0"/>
+      <c r="GI1495" s="0"/>
+      <c r="GJ1495" s="0"/>
+      <c r="GK1495" s="0"/>
+      <c r="GL1495" s="0"/>
+      <c r="GM1495" s="0"/>
+      <c r="GN1495" s="0"/>
+      <c r="GO1495" s="0"/>
+      <c r="GP1495" s="0"/>
+      <c r="GQ1495" s="0"/>
+      <c r="GR1495" s="0"/>
+      <c r="GS1495" s="0"/>
+      <c r="GT1495" s="0"/>
+      <c r="GU1495" s="0"/>
+      <c r="GV1495" s="0"/>
+      <c r="GW1495" s="0"/>
+      <c r="GX1495" s="0"/>
+      <c r="GY1495" s="0"/>
+      <c r="GZ1495" s="0"/>
+      <c r="HA1495" s="0"/>
+      <c r="HB1495" s="0"/>
+      <c r="HC1495" s="0"/>
+      <c r="HD1495" s="0"/>
+      <c r="HE1495" s="0"/>
+      <c r="HF1495" s="0"/>
+      <c r="HG1495" s="0"/>
+      <c r="HH1495" s="0"/>
+      <c r="HI1495" s="0"/>
+      <c r="HJ1495" s="0"/>
+      <c r="HK1495" s="0"/>
+      <c r="HL1495" s="0"/>
+      <c r="HM1495" s="0"/>
+      <c r="HN1495" s="0"/>
+      <c r="HO1495" s="0"/>
+      <c r="HP1495" s="0"/>
+      <c r="HQ1495" s="0"/>
+      <c r="HR1495" s="0"/>
+      <c r="HS1495" s="0"/>
+      <c r="HT1495" s="0"/>
+      <c r="HU1495" s="0"/>
+      <c r="HV1495" s="0"/>
+      <c r="HW1495" s="0"/>
+      <c r="HX1495" s="0"/>
+      <c r="HY1495" s="0"/>
+      <c r="HZ1495" s="0"/>
+      <c r="IA1495" s="0"/>
+      <c r="IB1495" s="0"/>
+      <c r="IC1495" s="0"/>
+      <c r="ID1495" s="0"/>
+      <c r="IE1495" s="0"/>
+      <c r="IF1495" s="0"/>
+      <c r="IG1495" s="0"/>
+      <c r="IH1495" s="0"/>
+      <c r="II1495" s="0"/>
+      <c r="IJ1495" s="0"/>
+      <c r="IK1495" s="0"/>
+      <c r="IL1495" s="0"/>
+      <c r="IM1495" s="0"/>
+      <c r="IN1495" s="0"/>
+      <c r="IO1495" s="0"/>
+      <c r="IP1495" s="0"/>
+      <c r="IQ1495" s="0"/>
+      <c r="IR1495" s="0"/>
+      <c r="IS1495" s="0"/>
+      <c r="IT1495" s="0"/>
+      <c r="IU1495" s="0"/>
+      <c r="IV1495" s="0"/>
+      <c r="IW1495" s="0"/>
+      <c r="IX1495" s="0"/>
+      <c r="IY1495" s="0"/>
+      <c r="IZ1495" s="0"/>
+      <c r="JA1495" s="0"/>
+      <c r="JB1495" s="0"/>
+      <c r="JC1495" s="0"/>
+      <c r="JD1495" s="0"/>
+      <c r="JE1495" s="0"/>
+      <c r="JF1495" s="0"/>
+      <c r="JG1495" s="0"/>
+      <c r="JH1495" s="0"/>
+      <c r="JI1495" s="0"/>
+      <c r="JJ1495" s="0"/>
+      <c r="JK1495" s="0"/>
+      <c r="JL1495" s="0"/>
+      <c r="JM1495" s="0"/>
+      <c r="JN1495" s="0"/>
+      <c r="JO1495" s="0"/>
+      <c r="JP1495" s="0"/>
+      <c r="JQ1495" s="0"/>
+      <c r="JR1495" s="0"/>
+      <c r="JS1495" s="0"/>
+      <c r="JT1495" s="0"/>
+      <c r="JU1495" s="0"/>
+      <c r="JV1495" s="0"/>
+      <c r="JW1495" s="0"/>
+      <c r="JX1495" s="0"/>
+      <c r="JY1495" s="0"/>
+      <c r="JZ1495" s="0"/>
+      <c r="KA1495" s="0"/>
+      <c r="KB1495" s="0"/>
+      <c r="KC1495" s="0"/>
+      <c r="KD1495" s="0"/>
+      <c r="KE1495" s="0"/>
+      <c r="KF1495" s="0"/>
+      <c r="KG1495" s="0"/>
+      <c r="KH1495" s="0"/>
+      <c r="KI1495" s="0"/>
+      <c r="KJ1495" s="0"/>
+      <c r="KK1495" s="0"/>
+      <c r="KL1495" s="0"/>
+      <c r="KM1495" s="0"/>
+      <c r="KN1495" s="0"/>
+      <c r="KO1495" s="0"/>
+      <c r="KP1495" s="0"/>
+      <c r="KQ1495" s="0"/>
+      <c r="KR1495" s="0"/>
+      <c r="KS1495" s="0"/>
+      <c r="KT1495" s="0"/>
+      <c r="KU1495" s="0"/>
+      <c r="KV1495" s="0"/>
+      <c r="KW1495" s="0"/>
+      <c r="KX1495" s="0"/>
+      <c r="KY1495" s="0"/>
+      <c r="KZ1495" s="0"/>
+      <c r="LA1495" s="0"/>
+      <c r="LB1495" s="0"/>
+      <c r="LC1495" s="0"/>
+      <c r="LD1495" s="0"/>
+      <c r="LE1495" s="0"/>
+      <c r="LF1495" s="0"/>
+      <c r="LG1495" s="0"/>
+      <c r="LH1495" s="0"/>
+      <c r="LI1495" s="0"/>
+      <c r="LJ1495" s="0"/>
+      <c r="LK1495" s="0"/>
+      <c r="LL1495" s="0"/>
+      <c r="LM1495" s="0"/>
+      <c r="LN1495" s="0"/>
+      <c r="LO1495" s="0"/>
+      <c r="LP1495" s="0"/>
+      <c r="LQ1495" s="0"/>
+      <c r="LR1495" s="0"/>
+      <c r="LS1495" s="0"/>
+      <c r="LT1495" s="0"/>
+      <c r="LU1495" s="0"/>
+      <c r="LV1495" s="0"/>
+      <c r="LW1495" s="0"/>
+      <c r="LX1495" s="0"/>
+      <c r="LY1495" s="0"/>
+      <c r="LZ1495" s="0"/>
+      <c r="MA1495" s="0"/>
+      <c r="MB1495" s="0"/>
+      <c r="MC1495" s="0"/>
+      <c r="MD1495" s="0"/>
+      <c r="ME1495" s="0"/>
+      <c r="MF1495" s="0"/>
+      <c r="MG1495" s="0"/>
+      <c r="MH1495" s="0"/>
+      <c r="MI1495" s="0"/>
+      <c r="MJ1495" s="0"/>
+      <c r="MK1495" s="0"/>
+      <c r="ML1495" s="0"/>
+      <c r="MM1495" s="0"/>
+      <c r="MN1495" s="0"/>
+      <c r="MO1495" s="0"/>
+      <c r="MP1495" s="0"/>
+      <c r="MQ1495" s="0"/>
+      <c r="MR1495" s="0"/>
+      <c r="MS1495" s="0"/>
+      <c r="MT1495" s="0"/>
+      <c r="MU1495" s="0"/>
+      <c r="MV1495" s="0"/>
+      <c r="MW1495" s="0"/>
+      <c r="MX1495" s="0"/>
+      <c r="MY1495" s="0"/>
+      <c r="MZ1495" s="0"/>
+      <c r="NA1495" s="0"/>
+      <c r="NB1495" s="0"/>
+      <c r="NC1495" s="0"/>
+      <c r="ND1495" s="0"/>
+      <c r="NE1495" s="0"/>
+      <c r="NF1495" s="0"/>
+      <c r="NG1495" s="0"/>
+      <c r="NH1495" s="0"/>
+      <c r="NI1495" s="0"/>
+      <c r="NJ1495" s="0"/>
+      <c r="NK1495" s="0"/>
+      <c r="NL1495" s="0"/>
+      <c r="NM1495" s="0"/>
+      <c r="NN1495" s="0"/>
+      <c r="NO1495" s="0"/>
+      <c r="NP1495" s="0"/>
+      <c r="NQ1495" s="0"/>
+      <c r="NR1495" s="0"/>
+      <c r="NS1495" s="0"/>
+      <c r="NT1495" s="0"/>
+      <c r="NU1495" s="0"/>
+      <c r="NV1495" s="0"/>
+      <c r="NW1495" s="0"/>
+      <c r="NX1495" s="0"/>
+      <c r="NY1495" s="0"/>
+      <c r="NZ1495" s="0"/>
+      <c r="OA1495" s="0"/>
+      <c r="OB1495" s="0"/>
+      <c r="OC1495" s="0"/>
+      <c r="OD1495" s="0"/>
+      <c r="OE1495" s="0"/>
+      <c r="OF1495" s="0"/>
+      <c r="OG1495" s="0"/>
+      <c r="OH1495" s="0"/>
+      <c r="OI1495" s="0"/>
+      <c r="OJ1495" s="0"/>
+      <c r="OK1495" s="0"/>
+      <c r="OL1495" s="0"/>
+      <c r="OM1495" s="0"/>
+      <c r="ON1495" s="0"/>
+      <c r="OO1495" s="0"/>
+      <c r="OP1495" s="0"/>
+      <c r="OQ1495" s="0"/>
+      <c r="OR1495" s="0"/>
+      <c r="OS1495" s="0"/>
+      <c r="OT1495" s="0"/>
+      <c r="OU1495" s="0"/>
+      <c r="OV1495" s="0"/>
+      <c r="OW1495" s="0"/>
+      <c r="OX1495" s="0"/>
+      <c r="OY1495" s="0"/>
+      <c r="OZ1495" s="0"/>
+      <c r="PA1495" s="0"/>
+      <c r="PB1495" s="0"/>
+      <c r="PC1495" s="0"/>
+      <c r="PD1495" s="0"/>
+      <c r="PE1495" s="0"/>
+      <c r="PF1495" s="0"/>
+      <c r="PG1495" s="0"/>
+      <c r="PH1495" s="0"/>
+      <c r="PI1495" s="0"/>
+      <c r="PJ1495" s="0"/>
+      <c r="PK1495" s="0"/>
+      <c r="PL1495" s="0"/>
+      <c r="PM1495" s="0"/>
+      <c r="PN1495" s="0"/>
+      <c r="PO1495" s="0"/>
+      <c r="PP1495" s="0"/>
+      <c r="PQ1495" s="0"/>
+      <c r="PR1495" s="0"/>
+      <c r="PS1495" s="0"/>
+      <c r="PT1495" s="0"/>
+      <c r="PU1495" s="0"/>
+      <c r="PV1495" s="0"/>
+      <c r="PW1495" s="0"/>
+      <c r="PX1495" s="0"/>
+      <c r="PY1495" s="0"/>
+      <c r="PZ1495" s="0"/>
+      <c r="QA1495" s="0"/>
+      <c r="QB1495" s="0"/>
+      <c r="QC1495" s="0"/>
+      <c r="QD1495" s="0"/>
+      <c r="QE1495" s="0"/>
+      <c r="QF1495" s="0"/>
+      <c r="QG1495" s="0"/>
+      <c r="QH1495" s="0"/>
+      <c r="QI1495" s="0"/>
+      <c r="QJ1495" s="0"/>
+      <c r="QK1495" s="0"/>
+      <c r="QL1495" s="0"/>
+      <c r="QM1495" s="0"/>
+      <c r="QN1495" s="0"/>
+      <c r="QO1495" s="0"/>
+      <c r="QP1495" s="0"/>
+      <c r="QQ1495" s="0"/>
+      <c r="QR1495" s="0"/>
+      <c r="QS1495" s="0"/>
+      <c r="QT1495" s="0"/>
+      <c r="QU1495" s="0"/>
+      <c r="QV1495" s="0"/>
+      <c r="QW1495" s="0"/>
+      <c r="QX1495" s="0"/>
+      <c r="QY1495" s="0"/>
+      <c r="QZ1495" s="0"/>
+      <c r="RA1495" s="0"/>
+      <c r="RB1495" s="0"/>
+      <c r="RC1495" s="0"/>
+      <c r="RD1495" s="0"/>
+      <c r="RE1495" s="0"/>
+      <c r="RF1495" s="0"/>
+      <c r="RG1495" s="0"/>
+      <c r="RH1495" s="0"/>
+      <c r="RI1495" s="0"/>
+      <c r="RJ1495" s="0"/>
+      <c r="RK1495" s="0"/>
+      <c r="RL1495" s="0"/>
+      <c r="RM1495" s="0"/>
+      <c r="RN1495" s="0"/>
+      <c r="RO1495" s="0"/>
+      <c r="RP1495" s="0"/>
+      <c r="RQ1495" s="0"/>
+      <c r="RR1495" s="0"/>
+      <c r="RS1495" s="0"/>
+      <c r="RT1495" s="0"/>
+      <c r="RU1495" s="0"/>
+      <c r="RV1495" s="0"/>
+      <c r="RW1495" s="0"/>
+      <c r="RX1495" s="0"/>
+      <c r="RY1495" s="0"/>
+      <c r="RZ1495" s="0"/>
+      <c r="SA1495" s="0"/>
+      <c r="SB1495" s="0"/>
+      <c r="SC1495" s="0"/>
+      <c r="SD1495" s="0"/>
+      <c r="SE1495" s="0"/>
+      <c r="SF1495" s="0"/>
+      <c r="SG1495" s="0"/>
+      <c r="SH1495" s="0"/>
+      <c r="SI1495" s="0"/>
+      <c r="SJ1495" s="0"/>
+      <c r="SK1495" s="0"/>
+      <c r="SL1495" s="0"/>
+      <c r="SM1495" s="0"/>
+      <c r="SN1495" s="0"/>
+      <c r="SO1495" s="0"/>
+      <c r="SP1495" s="0"/>
+      <c r="SQ1495" s="0"/>
+      <c r="SR1495" s="0"/>
+      <c r="SS1495" s="0"/>
+      <c r="ST1495" s="0"/>
+      <c r="SU1495" s="0"/>
+      <c r="SV1495" s="0"/>
+      <c r="SW1495" s="0"/>
+      <c r="SX1495" s="0"/>
+      <c r="SY1495" s="0"/>
+      <c r="SZ1495" s="0"/>
+      <c r="TA1495" s="0"/>
+      <c r="TB1495" s="0"/>
+      <c r="TC1495" s="0"/>
+      <c r="TD1495" s="0"/>
+      <c r="TE1495" s="0"/>
+      <c r="TF1495" s="0"/>
+      <c r="TG1495" s="0"/>
+      <c r="TH1495" s="0"/>
+      <c r="TI1495" s="0"/>
+      <c r="TJ1495" s="0"/>
+      <c r="TK1495" s="0"/>
+      <c r="TL1495" s="0"/>
+      <c r="TM1495" s="0"/>
+      <c r="TN1495" s="0"/>
+      <c r="TO1495" s="0"/>
+      <c r="TP1495" s="0"/>
+      <c r="TQ1495" s="0"/>
+      <c r="TR1495" s="0"/>
+      <c r="TS1495" s="0"/>
+      <c r="TT1495" s="0"/>
+      <c r="TU1495" s="0"/>
+      <c r="TV1495" s="0"/>
+      <c r="TW1495" s="0"/>
+      <c r="TX1495" s="0"/>
+      <c r="TY1495" s="0"/>
+      <c r="TZ1495" s="0"/>
+      <c r="UA1495" s="0"/>
+      <c r="UB1495" s="0"/>
+      <c r="UC1495" s="0"/>
+      <c r="UD1495" s="0"/>
+      <c r="UE1495" s="0"/>
+      <c r="UF1495" s="0"/>
+      <c r="UG1495" s="0"/>
+      <c r="UH1495" s="0"/>
+      <c r="UI1495" s="0"/>
+      <c r="UJ1495" s="0"/>
+      <c r="UK1495" s="0"/>
+      <c r="UL1495" s="0"/>
+      <c r="UM1495" s="0"/>
+      <c r="UN1495" s="0"/>
+      <c r="UO1495" s="0"/>
+      <c r="UP1495" s="0"/>
+      <c r="UQ1495" s="0"/>
+      <c r="UR1495" s="0"/>
+      <c r="US1495" s="0"/>
+      <c r="UT1495" s="0"/>
+      <c r="UU1495" s="0"/>
+      <c r="UV1495" s="0"/>
+      <c r="UW1495" s="0"/>
+      <c r="UX1495" s="0"/>
+      <c r="UY1495" s="0"/>
+      <c r="UZ1495" s="0"/>
+      <c r="VA1495" s="0"/>
+      <c r="VB1495" s="0"/>
+      <c r="VC1495" s="0"/>
+      <c r="VD1495" s="0"/>
+      <c r="VE1495" s="0"/>
+      <c r="VF1495" s="0"/>
+      <c r="VG1495" s="0"/>
+      <c r="VH1495" s="0"/>
+      <c r="VI1495" s="0"/>
+      <c r="VJ1495" s="0"/>
+      <c r="VK1495" s="0"/>
+      <c r="VL1495" s="0"/>
+      <c r="VM1495" s="0"/>
+      <c r="VN1495" s="0"/>
+      <c r="VO1495" s="0"/>
+      <c r="VP1495" s="0"/>
+      <c r="VQ1495" s="0"/>
+      <c r="VR1495" s="0"/>
+      <c r="VS1495" s="0"/>
+      <c r="VT1495" s="0"/>
+      <c r="VU1495" s="0"/>
+      <c r="VV1495" s="0"/>
+      <c r="VW1495" s="0"/>
+      <c r="VX1495" s="0"/>
+      <c r="VY1495" s="0"/>
+      <c r="VZ1495" s="0"/>
+      <c r="WA1495" s="0"/>
+      <c r="WB1495" s="0"/>
+      <c r="WC1495" s="0"/>
+      <c r="WD1495" s="0"/>
+      <c r="WE1495" s="0"/>
+      <c r="WF1495" s="0"/>
+      <c r="WG1495" s="0"/>
+      <c r="WH1495" s="0"/>
+      <c r="WI1495" s="0"/>
+      <c r="WJ1495" s="0"/>
+      <c r="WK1495" s="0"/>
+      <c r="WL1495" s="0"/>
+      <c r="WM1495" s="0"/>
+      <c r="WN1495" s="0"/>
+      <c r="WO1495" s="0"/>
+      <c r="WP1495" s="0"/>
+      <c r="WQ1495" s="0"/>
+      <c r="WR1495" s="0"/>
+      <c r="WS1495" s="0"/>
+      <c r="WT1495" s="0"/>
+      <c r="WU1495" s="0"/>
+      <c r="WV1495" s="0"/>
+      <c r="WW1495" s="0"/>
+      <c r="WX1495" s="0"/>
+      <c r="WY1495" s="0"/>
+      <c r="WZ1495" s="0"/>
+      <c r="XA1495" s="0"/>
+      <c r="XB1495" s="0"/>
+      <c r="XC1495" s="0"/>
+      <c r="XD1495" s="0"/>
+      <c r="XE1495" s="0"/>
+      <c r="XF1495" s="0"/>
+      <c r="XG1495" s="0"/>
+      <c r="XH1495" s="0"/>
+      <c r="XI1495" s="0"/>
+      <c r="XJ1495" s="0"/>
+      <c r="XK1495" s="0"/>
+      <c r="XL1495" s="0"/>
+      <c r="XM1495" s="0"/>
+      <c r="XN1495" s="0"/>
+      <c r="XO1495" s="0"/>
+      <c r="XP1495" s="0"/>
+      <c r="XQ1495" s="0"/>
+      <c r="XR1495" s="0"/>
+      <c r="XS1495" s="0"/>
+      <c r="XT1495" s="0"/>
+      <c r="XU1495" s="0"/>
+      <c r="XV1495" s="0"/>
+      <c r="XW1495" s="0"/>
+      <c r="XX1495" s="0"/>
+      <c r="XY1495" s="0"/>
+      <c r="XZ1495" s="0"/>
+      <c r="YA1495" s="0"/>
+      <c r="YB1495" s="0"/>
+      <c r="YC1495" s="0"/>
+      <c r="YD1495" s="0"/>
+      <c r="YE1495" s="0"/>
+      <c r="YF1495" s="0"/>
+      <c r="YG1495" s="0"/>
+      <c r="YH1495" s="0"/>
+      <c r="YI1495" s="0"/>
+      <c r="YJ1495" s="0"/>
+      <c r="YK1495" s="0"/>
+      <c r="YL1495" s="0"/>
+      <c r="YM1495" s="0"/>
+      <c r="YN1495" s="0"/>
+      <c r="YO1495" s="0"/>
+      <c r="YP1495" s="0"/>
+      <c r="YQ1495" s="0"/>
+      <c r="YR1495" s="0"/>
+      <c r="YS1495" s="0"/>
+      <c r="YT1495" s="0"/>
+      <c r="YU1495" s="0"/>
+      <c r="YV1495" s="0"/>
+      <c r="YW1495" s="0"/>
+      <c r="YX1495" s="0"/>
+      <c r="YY1495" s="0"/>
+      <c r="YZ1495" s="0"/>
+      <c r="ZA1495" s="0"/>
+      <c r="ZB1495" s="0"/>
+      <c r="ZC1495" s="0"/>
+      <c r="ZD1495" s="0"/>
+      <c r="ZE1495" s="0"/>
+      <c r="ZF1495" s="0"/>
+      <c r="ZG1495" s="0"/>
+      <c r="ZH1495" s="0"/>
+      <c r="ZI1495" s="0"/>
+      <c r="ZJ1495" s="0"/>
+      <c r="ZK1495" s="0"/>
+      <c r="ZL1495" s="0"/>
+      <c r="ZM1495" s="0"/>
+      <c r="ZN1495" s="0"/>
+      <c r="ZO1495" s="0"/>
+      <c r="ZP1495" s="0"/>
+      <c r="ZQ1495" s="0"/>
+      <c r="ZR1495" s="0"/>
+      <c r="ZS1495" s="0"/>
+      <c r="ZT1495" s="0"/>
+      <c r="ZU1495" s="0"/>
+      <c r="ZV1495" s="0"/>
+      <c r="ZW1495" s="0"/>
+      <c r="ZX1495" s="0"/>
+      <c r="ZY1495" s="0"/>
+      <c r="ZZ1495" s="0"/>
+      <c r="AAA1495" s="0"/>
+      <c r="AAB1495" s="0"/>
+      <c r="AAC1495" s="0"/>
+      <c r="AAD1495" s="0"/>
+      <c r="AAE1495" s="0"/>
+      <c r="AAF1495" s="0"/>
+      <c r="AAG1495" s="0"/>
+      <c r="AAH1495" s="0"/>
+      <c r="AAI1495" s="0"/>
+      <c r="AAJ1495" s="0"/>
+      <c r="AAK1495" s="0"/>
+      <c r="AAL1495" s="0"/>
+      <c r="AAM1495" s="0"/>
+      <c r="AAN1495" s="0"/>
+      <c r="AAO1495" s="0"/>
+      <c r="AAP1495" s="0"/>
+      <c r="AAQ1495" s="0"/>
+      <c r="AAR1495" s="0"/>
+      <c r="AAS1495" s="0"/>
+      <c r="AAT1495" s="0"/>
+      <c r="AAU1495" s="0"/>
+      <c r="AAV1495" s="0"/>
+      <c r="AAW1495" s="0"/>
+      <c r="AAX1495" s="0"/>
+      <c r="AAY1495" s="0"/>
+      <c r="AAZ1495" s="0"/>
+      <c r="ABA1495" s="0"/>
+      <c r="ABB1495" s="0"/>
+      <c r="ABC1495" s="0"/>
+      <c r="ABD1495" s="0"/>
+      <c r="ABE1495" s="0"/>
+      <c r="ABF1495" s="0"/>
+      <c r="ABG1495" s="0"/>
+      <c r="ABH1495" s="0"/>
+      <c r="ABI1495" s="0"/>
+      <c r="ABJ1495" s="0"/>
+      <c r="ABK1495" s="0"/>
+      <c r="ABL1495" s="0"/>
+      <c r="ABM1495" s="0"/>
+      <c r="ABN1495" s="0"/>
+      <c r="ABO1495" s="0"/>
+      <c r="ABP1495" s="0"/>
+      <c r="ABQ1495" s="0"/>
+      <c r="ABR1495" s="0"/>
+      <c r="ABS1495" s="0"/>
+      <c r="ABT1495" s="0"/>
+      <c r="ABU1495" s="0"/>
+      <c r="ABV1495" s="0"/>
+      <c r="ABW1495" s="0"/>
+      <c r="ABX1495" s="0"/>
+      <c r="ABY1495" s="0"/>
+      <c r="ABZ1495" s="0"/>
+      <c r="ACA1495" s="0"/>
+      <c r="ACB1495" s="0"/>
+      <c r="ACC1495" s="0"/>
+      <c r="ACD1495" s="0"/>
+      <c r="ACE1495" s="0"/>
+      <c r="ACF1495" s="0"/>
+      <c r="ACG1495" s="0"/>
+      <c r="ACH1495" s="0"/>
+      <c r="ACI1495" s="0"/>
+      <c r="ACJ1495" s="0"/>
+      <c r="ACK1495" s="0"/>
+      <c r="ACL1495" s="0"/>
+      <c r="ACM1495" s="0"/>
+      <c r="ACN1495" s="0"/>
+      <c r="ACO1495" s="0"/>
+      <c r="ACP1495" s="0"/>
+      <c r="ACQ1495" s="0"/>
+      <c r="ACR1495" s="0"/>
+      <c r="ACS1495" s="0"/>
+      <c r="ACT1495" s="0"/>
+      <c r="ACU1495" s="0"/>
+      <c r="ACV1495" s="0"/>
+      <c r="ACW1495" s="0"/>
+      <c r="ACX1495" s="0"/>
+      <c r="ACY1495" s="0"/>
+      <c r="ACZ1495" s="0"/>
+      <c r="ADA1495" s="0"/>
+      <c r="ADB1495" s="0"/>
+      <c r="ADC1495" s="0"/>
+      <c r="ADD1495" s="0"/>
+      <c r="ADE1495" s="0"/>
+      <c r="ADF1495" s="0"/>
+      <c r="ADG1495" s="0"/>
+      <c r="ADH1495" s="0"/>
+      <c r="ADI1495" s="0"/>
+      <c r="ADJ1495" s="0"/>
+      <c r="ADK1495" s="0"/>
+      <c r="ADL1495" s="0"/>
+      <c r="ADM1495" s="0"/>
+      <c r="ADN1495" s="0"/>
+      <c r="ADO1495" s="0"/>
+      <c r="ADP1495" s="0"/>
+      <c r="ADQ1495" s="0"/>
+      <c r="ADR1495" s="0"/>
+      <c r="ADS1495" s="0"/>
+      <c r="ADT1495" s="0"/>
+      <c r="ADU1495" s="0"/>
+      <c r="ADV1495" s="0"/>
+      <c r="ADW1495" s="0"/>
+      <c r="ADX1495" s="0"/>
+      <c r="ADY1495" s="0"/>
+      <c r="ADZ1495" s="0"/>
+      <c r="AEA1495" s="0"/>
+      <c r="AEB1495" s="0"/>
+      <c r="AEC1495" s="0"/>
+      <c r="AED1495" s="0"/>
+      <c r="AEE1495" s="0"/>
+      <c r="AEF1495" s="0"/>
+      <c r="AEG1495" s="0"/>
+      <c r="AEH1495" s="0"/>
+      <c r="AEI1495" s="0"/>
+      <c r="AEJ1495" s="0"/>
+      <c r="AEK1495" s="0"/>
+      <c r="AEL1495" s="0"/>
+      <c r="AEM1495" s="0"/>
+      <c r="AEN1495" s="0"/>
+      <c r="AEO1495" s="0"/>
+      <c r="AEP1495" s="0"/>
+      <c r="AEQ1495" s="0"/>
+      <c r="AER1495" s="0"/>
+      <c r="AES1495" s="0"/>
+      <c r="AET1495" s="0"/>
+      <c r="AEU1495" s="0"/>
+      <c r="AEV1495" s="0"/>
+      <c r="AEW1495" s="0"/>
+      <c r="AEX1495" s="0"/>
+      <c r="AEY1495" s="0"/>
+      <c r="AEZ1495" s="0"/>
+      <c r="AFA1495" s="0"/>
+      <c r="AFB1495" s="0"/>
+      <c r="AFC1495" s="0"/>
+      <c r="AFD1495" s="0"/>
+      <c r="AFE1495" s="0"/>
+      <c r="AFF1495" s="0"/>
+      <c r="AFG1495" s="0"/>
+      <c r="AFH1495" s="0"/>
+      <c r="AFI1495" s="0"/>
+      <c r="AFJ1495" s="0"/>
+      <c r="AFK1495" s="0"/>
+      <c r="AFL1495" s="0"/>
+      <c r="AFM1495" s="0"/>
+      <c r="AFN1495" s="0"/>
+      <c r="AFO1495" s="0"/>
+      <c r="AFP1495" s="0"/>
+      <c r="AFQ1495" s="0"/>
+      <c r="AFR1495" s="0"/>
+      <c r="AFS1495" s="0"/>
+      <c r="AFT1495" s="0"/>
+      <c r="AFU1495" s="0"/>
+      <c r="AFV1495" s="0"/>
+      <c r="AFW1495" s="0"/>
+      <c r="AFX1495" s="0"/>
+      <c r="AFY1495" s="0"/>
+      <c r="AFZ1495" s="0"/>
+      <c r="AGA1495" s="0"/>
+      <c r="AGB1495" s="0"/>
+      <c r="AGC1495" s="0"/>
+      <c r="AGD1495" s="0"/>
+      <c r="AGE1495" s="0"/>
+      <c r="AGF1495" s="0"/>
+      <c r="AGG1495" s="0"/>
+      <c r="AGH1495" s="0"/>
+      <c r="AGI1495" s="0"/>
+      <c r="AGJ1495" s="0"/>
+      <c r="AGK1495" s="0"/>
+      <c r="AGL1495" s="0"/>
+      <c r="AGM1495" s="0"/>
+      <c r="AGN1495" s="0"/>
+      <c r="AGO1495" s="0"/>
+      <c r="AGP1495" s="0"/>
+      <c r="AGQ1495" s="0"/>
+      <c r="AGR1495" s="0"/>
+      <c r="AGS1495" s="0"/>
+      <c r="AGT1495" s="0"/>
+      <c r="AGU1495" s="0"/>
+      <c r="AGV1495" s="0"/>
+      <c r="AGW1495" s="0"/>
+      <c r="AGX1495" s="0"/>
+      <c r="AGY1495" s="0"/>
+      <c r="AGZ1495" s="0"/>
+      <c r="AHA1495" s="0"/>
+      <c r="AHB1495" s="0"/>
+      <c r="AHC1495" s="0"/>
+      <c r="AHD1495" s="0"/>
+      <c r="AHE1495" s="0"/>
+      <c r="AHF1495" s="0"/>
+      <c r="AHG1495" s="0"/>
+      <c r="AHH1495" s="0"/>
+      <c r="AHI1495" s="0"/>
+      <c r="AHJ1495" s="0"/>
+      <c r="AHK1495" s="0"/>
+      <c r="AHL1495" s="0"/>
+      <c r="AHM1495" s="0"/>
+      <c r="AHN1495" s="0"/>
+      <c r="AHO1495" s="0"/>
+      <c r="AHP1495" s="0"/>
+      <c r="AHQ1495" s="0"/>
+      <c r="AHR1495" s="0"/>
+      <c r="AHS1495" s="0"/>
+      <c r="AHT1495" s="0"/>
+      <c r="AHU1495" s="0"/>
+      <c r="AHV1495" s="0"/>
+      <c r="AHW1495" s="0"/>
+      <c r="AHX1495" s="0"/>
+      <c r="AHY1495" s="0"/>
+      <c r="AHZ1495" s="0"/>
+      <c r="AIA1495" s="0"/>
+      <c r="AIB1495" s="0"/>
+      <c r="AIC1495" s="0"/>
+      <c r="AID1495" s="0"/>
+      <c r="AIE1495" s="0"/>
+      <c r="AIF1495" s="0"/>
+      <c r="AIG1495" s="0"/>
+      <c r="AIH1495" s="0"/>
+      <c r="AII1495" s="0"/>
+      <c r="AIJ1495" s="0"/>
+      <c r="AIK1495" s="0"/>
+      <c r="AIL1495" s="0"/>
+      <c r="AIM1495" s="0"/>
+      <c r="AIN1495" s="0"/>
+      <c r="AIO1495" s="0"/>
+      <c r="AIP1495" s="0"/>
+      <c r="AIQ1495" s="0"/>
+      <c r="AIR1495" s="0"/>
+      <c r="AIS1495" s="0"/>
+      <c r="AIT1495" s="0"/>
+      <c r="AIU1495" s="0"/>
+      <c r="AIV1495" s="0"/>
+      <c r="AIW1495" s="0"/>
+      <c r="AIX1495" s="0"/>
+      <c r="AIY1495" s="0"/>
+      <c r="AIZ1495" s="0"/>
+      <c r="AJA1495" s="0"/>
+      <c r="AJB1495" s="0"/>
+      <c r="AJC1495" s="0"/>
+      <c r="AJD1495" s="0"/>
+      <c r="AJE1495" s="0"/>
+      <c r="AJF1495" s="0"/>
+      <c r="AJG1495" s="0"/>
+      <c r="AJH1495" s="0"/>
+      <c r="AJI1495" s="0"/>
+      <c r="AJJ1495" s="0"/>
+      <c r="AJK1495" s="0"/>
+      <c r="AJL1495" s="0"/>
+      <c r="AJM1495" s="0"/>
+      <c r="AJN1495" s="0"/>
+      <c r="AJO1495" s="0"/>
+      <c r="AJP1495" s="0"/>
+      <c r="AJQ1495" s="0"/>
+      <c r="AJR1495" s="0"/>
+      <c r="AJS1495" s="0"/>
+      <c r="AJT1495" s="0"/>
+      <c r="AJU1495" s="0"/>
+      <c r="AJV1495" s="0"/>
+      <c r="AJW1495" s="0"/>
+      <c r="AJX1495" s="0"/>
+      <c r="AJY1495" s="0"/>
+      <c r="AJZ1495" s="0"/>
+      <c r="AKA1495" s="0"/>
+      <c r="AKB1495" s="0"/>
+      <c r="AKC1495" s="0"/>
+      <c r="AKD1495" s="0"/>
+      <c r="AKE1495" s="0"/>
+      <c r="AKF1495" s="0"/>
+      <c r="AKG1495" s="0"/>
+      <c r="AKH1495" s="0"/>
+      <c r="AKI1495" s="0"/>
+      <c r="AKJ1495" s="0"/>
+      <c r="AKK1495" s="0"/>
+      <c r="AKL1495" s="0"/>
+      <c r="AKM1495" s="0"/>
+      <c r="AKN1495" s="0"/>
+      <c r="AKO1495" s="0"/>
+      <c r="AKP1495" s="0"/>
+      <c r="AKQ1495" s="0"/>
+      <c r="AKR1495" s="0"/>
+      <c r="AKS1495" s="0"/>
+      <c r="AKT1495" s="0"/>
+      <c r="AKU1495" s="0"/>
+      <c r="AKV1495" s="0"/>
+      <c r="AKW1495" s="0"/>
+      <c r="AKX1495" s="0"/>
+      <c r="AKY1495" s="0"/>
+      <c r="AKZ1495" s="0"/>
+      <c r="ALA1495" s="0"/>
+      <c r="ALB1495" s="0"/>
+      <c r="ALC1495" s="0"/>
+      <c r="ALD1495" s="0"/>
+      <c r="ALE1495" s="0"/>
+      <c r="ALF1495" s="0"/>
+      <c r="ALG1495" s="0"/>
+      <c r="ALH1495" s="0"/>
+      <c r="ALI1495" s="0"/>
+      <c r="ALJ1495" s="0"/>
+      <c r="ALK1495" s="0"/>
+      <c r="ALL1495" s="0"/>
+      <c r="ALM1495" s="0"/>
+      <c r="ALN1495" s="0"/>
+      <c r="ALO1495" s="0"/>
+      <c r="ALP1495" s="0"/>
+      <c r="ALQ1495" s="0"/>
+      <c r="ALR1495" s="0"/>
+      <c r="ALS1495" s="0"/>
+      <c r="ALT1495" s="0"/>
+      <c r="ALU1495" s="0"/>
+      <c r="ALV1495" s="0"/>
+      <c r="ALW1495" s="0"/>
+      <c r="ALX1495" s="0"/>
+      <c r="ALY1495" s="0"/>
+      <c r="ALZ1495" s="0"/>
+      <c r="AMA1495" s="0"/>
+      <c r="AMB1495" s="0"/>
+      <c r="AMC1495" s="0"/>
+      <c r="AMD1495" s="0"/>
+      <c r="AME1495" s="0"/>
+      <c r="AMF1495" s="0"/>
+      <c r="AMG1495" s="0"/>
+      <c r="AMH1495" s="0"/>
+      <c r="AMI1495" s="0"/>
+    </row>
+    <row r="1496" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="19"/>
+      <c r="B1496" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1495" s="11" t="s">
+      <c r="C1496" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1495" s="11" t="s">
+      <c r="D1496" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1495" s="11" t="s">
+      <c r="E1496" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1495" s="11" t="s">
+      <c r="F1496" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1495" s="11" t="s">
+      <c r="G1496" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1495" s="11" t="s">
+      <c r="H1496" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1495" s="21" t="s">
+      <c r="I1496" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1495" s="21" t="s">
+      <c r="J1496" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1495" s="21" t="s">
+      <c r="K1496" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1495" s="11" t="s">
+      <c r="L1496" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1495" s="11" t="s">
+      <c r="M1496" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1495" s="11" t="s">
+      <c r="N1496" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1495" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1496" s="22" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B1496" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1496" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1496" s="23"/>
-      <c r="E1496" s="28"/>
-      <c r="F1496" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1496" s="23"/>
-      <c r="H1496" s="23"/>
-      <c r="I1496" s="24" t="s">
+      <c r="O1496" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="22" t="s">
         <v>1500</v>
       </c>
-      <c r="J1496" s="24"/>
-      <c r="K1496" s="24"/>
-      <c r="L1496" s="23"/>
-      <c r="M1496" s="23"/>
-      <c r="N1496" s="23"/>
-      <c r="O1496" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1497" s="23" t="s">
         <v>32</v>
       </c>
@@ -49074,7 +49081,9 @@
         <v>32</v>
       </c>
       <c r="D1497" s="23"/>
-      <c r="E1497" s="28"/>
+      <c r="E1497" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1497" s="23" t="s">
         <v>43</v>
       </c>
@@ -49100,7 +49109,9 @@
         <v>32</v>
       </c>
       <c r="D1498" s="23"/>
-      <c r="E1498" s="28"/>
+      <c r="E1498" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1498" s="23" t="s">
         <v>43</v>
       </c>
@@ -49126,7 +49137,9 @@
         <v>32</v>
       </c>
       <c r="D1499" s="23"/>
-      <c r="E1499" s="28"/>
+      <c r="E1499" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1499" s="23" t="s">
         <v>43</v>
       </c>
@@ -49152,7 +49165,9 @@
         <v>32</v>
       </c>
       <c r="D1500" s="23"/>
-      <c r="E1500" s="28"/>
+      <c r="E1500" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1500" s="23" t="s">
         <v>43</v>
       </c>
@@ -49166,7 +49181,9 @@
       <c r="L1500" s="23"/>
       <c r="M1500" s="23"/>
       <c r="N1500" s="23"/>
-      <c r="O1500" s="25"/>
+      <c r="O1500" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="1501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1501" s="23" t="s">
@@ -49176,7 +49193,9 @@
         <v>32</v>
       </c>
       <c r="D1501" s="23"/>
-      <c r="E1501" s="28"/>
+      <c r="E1501" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1501" s="23" t="s">
         <v>43</v>
       </c>
@@ -49200,7 +49219,9 @@
         <v>32</v>
       </c>
       <c r="D1502" s="23"/>
-      <c r="E1502" s="28"/>
+      <c r="E1502" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1502" s="23" t="s">
         <v>43</v>
       </c>
@@ -49224,7 +49245,9 @@
         <v>32</v>
       </c>
       <c r="D1503" s="23"/>
-      <c r="E1503" s="28"/>
+      <c r="E1503" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1503" s="23" t="s">
         <v>43</v>
       </c>
@@ -49248,7 +49271,9 @@
         <v>32</v>
       </c>
       <c r="D1504" s="23"/>
-      <c r="E1504" s="28"/>
+      <c r="E1504" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1504" s="23" t="s">
         <v>43</v>
       </c>
@@ -49272,7 +49297,9 @@
         <v>32</v>
       </c>
       <c r="D1505" s="23"/>
-      <c r="E1505" s="28"/>
+      <c r="E1505" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1505" s="23" t="s">
         <v>43</v>
       </c>
@@ -49289,14 +49316,24 @@
       <c r="O1505" s="25"/>
     </row>
     <row r="1506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1506" s="23"/>
-      <c r="C1506" s="23"/>
+      <c r="B1506" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1506" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1506" s="23"/>
-      <c r="E1506" s="23"/>
-      <c r="F1506" s="23"/>
+      <c r="E1506" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1506" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G1506" s="23"/>
       <c r="H1506" s="23"/>
-      <c r="I1506" s="24"/>
+      <c r="I1506" s="24" t="s">
+        <v>1510</v>
+      </c>
       <c r="J1506" s="24"/>
       <c r="K1506" s="24"/>
       <c r="L1506" s="23"/>
@@ -49305,1097 +49342,1087 @@
       <c r="O1506" s="25"/>
     </row>
     <row r="1507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1507" s="25"/>
-      <c r="C1507" s="1"/>
-      <c r="D1507" s="1"/>
-      <c r="E1507" s="1"/>
-      <c r="F1507" s="1"/>
-      <c r="G1507" s="1"/>
-      <c r="H1507" s="1"/>
-      <c r="I1507" s="1"/>
-      <c r="J1507" s="1"/>
-      <c r="K1507" s="1"/>
-      <c r="L1507" s="1"/>
-      <c r="M1507" s="1"/>
-      <c r="N1507" s="1"/>
-      <c r="O1507" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1507" s="0"/>
-      <c r="Z1507" s="0"/>
-      <c r="AA1507" s="0"/>
-      <c r="AB1507" s="0"/>
-      <c r="AC1507" s="0"/>
-      <c r="AD1507" s="0"/>
-      <c r="AE1507" s="0"/>
-      <c r="AF1507" s="0"/>
-      <c r="AG1507" s="0"/>
-      <c r="AH1507" s="0"/>
-      <c r="AI1507" s="0"/>
-      <c r="AJ1507" s="0"/>
-      <c r="AK1507" s="0"/>
-      <c r="AL1507" s="0"/>
-      <c r="AM1507" s="0"/>
-      <c r="AN1507" s="0"/>
-      <c r="AO1507" s="0"/>
-      <c r="AP1507" s="0"/>
-      <c r="AQ1507" s="0"/>
-      <c r="AR1507" s="0"/>
-      <c r="AS1507" s="0"/>
-      <c r="AT1507" s="0"/>
-      <c r="AU1507" s="0"/>
-      <c r="AV1507" s="0"/>
-      <c r="AW1507" s="0"/>
-      <c r="AX1507" s="0"/>
-      <c r="AY1507" s="0"/>
-      <c r="AZ1507" s="0"/>
-      <c r="BA1507" s="0"/>
-      <c r="BB1507" s="0"/>
-      <c r="BC1507" s="0"/>
-      <c r="BD1507" s="0"/>
-      <c r="BE1507" s="0"/>
-      <c r="BF1507" s="0"/>
-      <c r="BG1507" s="0"/>
-      <c r="BH1507" s="0"/>
-      <c r="BI1507" s="0"/>
-      <c r="BJ1507" s="0"/>
-      <c r="BK1507" s="0"/>
-      <c r="BL1507" s="0"/>
-      <c r="BM1507" s="0"/>
-      <c r="BN1507" s="0"/>
-      <c r="BO1507" s="0"/>
-      <c r="BP1507" s="0"/>
-      <c r="BQ1507" s="0"/>
-      <c r="BR1507" s="0"/>
-      <c r="BS1507" s="0"/>
-      <c r="BT1507" s="0"/>
-      <c r="BU1507" s="0"/>
-      <c r="BV1507" s="0"/>
-      <c r="BW1507" s="0"/>
-      <c r="BX1507" s="0"/>
-      <c r="BY1507" s="0"/>
-      <c r="BZ1507" s="0"/>
-      <c r="CA1507" s="0"/>
-      <c r="CB1507" s="0"/>
-      <c r="CC1507" s="0"/>
-      <c r="CD1507" s="0"/>
-      <c r="CE1507" s="0"/>
-      <c r="CF1507" s="0"/>
-      <c r="CG1507" s="0"/>
-      <c r="CH1507" s="0"/>
-      <c r="CI1507" s="0"/>
-      <c r="CJ1507" s="0"/>
-      <c r="CK1507" s="0"/>
-      <c r="CL1507" s="0"/>
-      <c r="CM1507" s="0"/>
-      <c r="CN1507" s="0"/>
-      <c r="CO1507" s="0"/>
-      <c r="CP1507" s="0"/>
-      <c r="CQ1507" s="0"/>
-      <c r="CR1507" s="0"/>
-      <c r="CS1507" s="0"/>
-      <c r="CT1507" s="0"/>
-      <c r="CU1507" s="0"/>
-      <c r="CV1507" s="0"/>
-      <c r="CW1507" s="0"/>
-      <c r="CX1507" s="0"/>
-      <c r="CY1507" s="0"/>
-      <c r="CZ1507" s="0"/>
-      <c r="DA1507" s="0"/>
-      <c r="DB1507" s="0"/>
-      <c r="DC1507" s="0"/>
-      <c r="DD1507" s="0"/>
-      <c r="DE1507" s="0"/>
-      <c r="DF1507" s="0"/>
-      <c r="DG1507" s="0"/>
-      <c r="DH1507" s="0"/>
-      <c r="DI1507" s="0"/>
-      <c r="DJ1507" s="0"/>
-      <c r="DK1507" s="0"/>
-      <c r="DL1507" s="0"/>
-      <c r="DM1507" s="0"/>
-      <c r="DN1507" s="0"/>
-      <c r="DO1507" s="0"/>
-      <c r="DP1507" s="0"/>
-      <c r="DQ1507" s="0"/>
-      <c r="DR1507" s="0"/>
-      <c r="DS1507" s="0"/>
-      <c r="DT1507" s="0"/>
-      <c r="DU1507" s="0"/>
-      <c r="DV1507" s="0"/>
-      <c r="DW1507" s="0"/>
-      <c r="DX1507" s="0"/>
-      <c r="DY1507" s="0"/>
-      <c r="DZ1507" s="0"/>
-      <c r="EA1507" s="0"/>
-      <c r="EB1507" s="0"/>
-      <c r="EC1507" s="0"/>
-      <c r="ED1507" s="0"/>
-      <c r="EE1507" s="0"/>
-      <c r="EF1507" s="0"/>
-      <c r="EG1507" s="0"/>
-      <c r="EH1507" s="0"/>
-      <c r="EI1507" s="0"/>
-      <c r="EJ1507" s="0"/>
-      <c r="EK1507" s="0"/>
-      <c r="EL1507" s="0"/>
-      <c r="EM1507" s="0"/>
-      <c r="EN1507" s="0"/>
-      <c r="EO1507" s="0"/>
-      <c r="EP1507" s="0"/>
-      <c r="EQ1507" s="0"/>
-      <c r="ER1507" s="0"/>
-      <c r="ES1507" s="0"/>
-      <c r="ET1507" s="0"/>
-      <c r="EU1507" s="0"/>
-      <c r="EV1507" s="0"/>
-      <c r="EW1507" s="0"/>
-      <c r="EX1507" s="0"/>
-      <c r="EY1507" s="0"/>
-      <c r="EZ1507" s="0"/>
-      <c r="FA1507" s="0"/>
-      <c r="FB1507" s="0"/>
-      <c r="FC1507" s="0"/>
-      <c r="FD1507" s="0"/>
-      <c r="FE1507" s="0"/>
-      <c r="FF1507" s="0"/>
-      <c r="FG1507" s="0"/>
-      <c r="FH1507" s="0"/>
-      <c r="FI1507" s="0"/>
-      <c r="FJ1507" s="0"/>
-      <c r="FK1507" s="0"/>
-      <c r="FL1507" s="0"/>
-      <c r="FM1507" s="0"/>
-      <c r="FN1507" s="0"/>
-      <c r="FO1507" s="0"/>
-      <c r="FP1507" s="0"/>
-      <c r="FQ1507" s="0"/>
-      <c r="FR1507" s="0"/>
-      <c r="FS1507" s="0"/>
-      <c r="FT1507" s="0"/>
-      <c r="FU1507" s="0"/>
-      <c r="FV1507" s="0"/>
-      <c r="FW1507" s="0"/>
-      <c r="FX1507" s="0"/>
-      <c r="FY1507" s="0"/>
-      <c r="FZ1507" s="0"/>
-      <c r="GA1507" s="0"/>
-      <c r="GB1507" s="0"/>
-      <c r="GC1507" s="0"/>
-      <c r="GD1507" s="0"/>
-      <c r="GE1507" s="0"/>
-      <c r="GF1507" s="0"/>
-      <c r="GG1507" s="0"/>
-      <c r="GH1507" s="0"/>
-      <c r="GI1507" s="0"/>
-      <c r="GJ1507" s="0"/>
-      <c r="GK1507" s="0"/>
-      <c r="GL1507" s="0"/>
-      <c r="GM1507" s="0"/>
-      <c r="GN1507" s="0"/>
-      <c r="GO1507" s="0"/>
-      <c r="GP1507" s="0"/>
-      <c r="GQ1507" s="0"/>
-      <c r="GR1507" s="0"/>
-      <c r="GS1507" s="0"/>
-      <c r="GT1507" s="0"/>
-      <c r="GU1507" s="0"/>
-      <c r="GV1507" s="0"/>
-      <c r="GW1507" s="0"/>
-      <c r="GX1507" s="0"/>
-      <c r="GY1507" s="0"/>
-      <c r="GZ1507" s="0"/>
-      <c r="HA1507" s="0"/>
-      <c r="HB1507" s="0"/>
-      <c r="HC1507" s="0"/>
-      <c r="HD1507" s="0"/>
-      <c r="HE1507" s="0"/>
-      <c r="HF1507" s="0"/>
-      <c r="HG1507" s="0"/>
-      <c r="HH1507" s="0"/>
-      <c r="HI1507" s="0"/>
-      <c r="HJ1507" s="0"/>
-      <c r="HK1507" s="0"/>
-      <c r="HL1507" s="0"/>
-      <c r="HM1507" s="0"/>
-      <c r="HN1507" s="0"/>
-      <c r="HO1507" s="0"/>
-      <c r="HP1507" s="0"/>
-      <c r="HQ1507" s="0"/>
-      <c r="HR1507" s="0"/>
-      <c r="HS1507" s="0"/>
-      <c r="HT1507" s="0"/>
-      <c r="HU1507" s="0"/>
-      <c r="HV1507" s="0"/>
-      <c r="HW1507" s="0"/>
-      <c r="HX1507" s="0"/>
-      <c r="HY1507" s="0"/>
-      <c r="HZ1507" s="0"/>
-      <c r="IA1507" s="0"/>
-      <c r="IB1507" s="0"/>
-      <c r="IC1507" s="0"/>
-      <c r="ID1507" s="0"/>
-      <c r="IE1507" s="0"/>
-      <c r="IF1507" s="0"/>
-      <c r="IG1507" s="0"/>
-      <c r="IH1507" s="0"/>
-      <c r="II1507" s="0"/>
-      <c r="IJ1507" s="0"/>
-      <c r="IK1507" s="0"/>
-      <c r="IL1507" s="0"/>
-      <c r="IM1507" s="0"/>
-      <c r="IN1507" s="0"/>
-      <c r="IO1507" s="0"/>
-      <c r="IP1507" s="0"/>
-      <c r="IQ1507" s="0"/>
-      <c r="IR1507" s="0"/>
-      <c r="IS1507" s="0"/>
-      <c r="IT1507" s="0"/>
-      <c r="IU1507" s="0"/>
-      <c r="IV1507" s="0"/>
-      <c r="IW1507" s="0"/>
-      <c r="IX1507" s="0"/>
-      <c r="IY1507" s="0"/>
-      <c r="IZ1507" s="0"/>
-      <c r="JA1507" s="0"/>
-      <c r="JB1507" s="0"/>
-      <c r="JC1507" s="0"/>
-      <c r="JD1507" s="0"/>
-      <c r="JE1507" s="0"/>
-      <c r="JF1507" s="0"/>
-      <c r="JG1507" s="0"/>
-      <c r="JH1507" s="0"/>
-      <c r="JI1507" s="0"/>
-      <c r="JJ1507" s="0"/>
-      <c r="JK1507" s="0"/>
-      <c r="JL1507" s="0"/>
-      <c r="JM1507" s="0"/>
-      <c r="JN1507" s="0"/>
-      <c r="JO1507" s="0"/>
-      <c r="JP1507" s="0"/>
-      <c r="JQ1507" s="0"/>
-      <c r="JR1507" s="0"/>
-      <c r="JS1507" s="0"/>
-      <c r="JT1507" s="0"/>
-      <c r="JU1507" s="0"/>
-      <c r="JV1507" s="0"/>
-      <c r="JW1507" s="0"/>
-      <c r="JX1507" s="0"/>
-      <c r="JY1507" s="0"/>
-      <c r="JZ1507" s="0"/>
-      <c r="KA1507" s="0"/>
-      <c r="KB1507" s="0"/>
-      <c r="KC1507" s="0"/>
-      <c r="KD1507" s="0"/>
-      <c r="KE1507" s="0"/>
-      <c r="KF1507" s="0"/>
-      <c r="KG1507" s="0"/>
-      <c r="KH1507" s="0"/>
-      <c r="KI1507" s="0"/>
-      <c r="KJ1507" s="0"/>
-      <c r="KK1507" s="0"/>
-      <c r="KL1507" s="0"/>
-      <c r="KM1507" s="0"/>
-      <c r="KN1507" s="0"/>
-      <c r="KO1507" s="0"/>
-      <c r="KP1507" s="0"/>
-      <c r="KQ1507" s="0"/>
-      <c r="KR1507" s="0"/>
-      <c r="KS1507" s="0"/>
-      <c r="KT1507" s="0"/>
-      <c r="KU1507" s="0"/>
-      <c r="KV1507" s="0"/>
-      <c r="KW1507" s="0"/>
-      <c r="KX1507" s="0"/>
-      <c r="KY1507" s="0"/>
-      <c r="KZ1507" s="0"/>
-      <c r="LA1507" s="0"/>
-      <c r="LB1507" s="0"/>
-      <c r="LC1507" s="0"/>
-      <c r="LD1507" s="0"/>
-      <c r="LE1507" s="0"/>
-      <c r="LF1507" s="0"/>
-      <c r="LG1507" s="0"/>
-      <c r="LH1507" s="0"/>
-      <c r="LI1507" s="0"/>
-      <c r="LJ1507" s="0"/>
-      <c r="LK1507" s="0"/>
-      <c r="LL1507" s="0"/>
-      <c r="LM1507" s="0"/>
-      <c r="LN1507" s="0"/>
-      <c r="LO1507" s="0"/>
-      <c r="LP1507" s="0"/>
-      <c r="LQ1507" s="0"/>
-      <c r="LR1507" s="0"/>
-      <c r="LS1507" s="0"/>
-      <c r="LT1507" s="0"/>
-      <c r="LU1507" s="0"/>
-      <c r="LV1507" s="0"/>
-      <c r="LW1507" s="0"/>
-      <c r="LX1507" s="0"/>
-      <c r="LY1507" s="0"/>
-      <c r="LZ1507" s="0"/>
-      <c r="MA1507" s="0"/>
-      <c r="MB1507" s="0"/>
-      <c r="MC1507" s="0"/>
-      <c r="MD1507" s="0"/>
-      <c r="ME1507" s="0"/>
-      <c r="MF1507" s="0"/>
-      <c r="MG1507" s="0"/>
-      <c r="MH1507" s="0"/>
-      <c r="MI1507" s="0"/>
-      <c r="MJ1507" s="0"/>
-      <c r="MK1507" s="0"/>
-      <c r="ML1507" s="0"/>
-      <c r="MM1507" s="0"/>
-      <c r="MN1507" s="0"/>
-      <c r="MO1507" s="0"/>
-      <c r="MP1507" s="0"/>
-      <c r="MQ1507" s="0"/>
-      <c r="MR1507" s="0"/>
-      <c r="MS1507" s="0"/>
-      <c r="MT1507" s="0"/>
-      <c r="MU1507" s="0"/>
-      <c r="MV1507" s="0"/>
-      <c r="MW1507" s="0"/>
-      <c r="MX1507" s="0"/>
-      <c r="MY1507" s="0"/>
-      <c r="MZ1507" s="0"/>
-      <c r="NA1507" s="0"/>
-      <c r="NB1507" s="0"/>
-      <c r="NC1507" s="0"/>
-      <c r="ND1507" s="0"/>
-      <c r="NE1507" s="0"/>
-      <c r="NF1507" s="0"/>
-      <c r="NG1507" s="0"/>
-      <c r="NH1507" s="0"/>
-      <c r="NI1507" s="0"/>
-      <c r="NJ1507" s="0"/>
-      <c r="NK1507" s="0"/>
-      <c r="NL1507" s="0"/>
-      <c r="NM1507" s="0"/>
-      <c r="NN1507" s="0"/>
-      <c r="NO1507" s="0"/>
-      <c r="NP1507" s="0"/>
-      <c r="NQ1507" s="0"/>
-      <c r="NR1507" s="0"/>
-      <c r="NS1507" s="0"/>
-      <c r="NT1507" s="0"/>
-      <c r="NU1507" s="0"/>
-      <c r="NV1507" s="0"/>
-      <c r="NW1507" s="0"/>
-      <c r="NX1507" s="0"/>
-      <c r="NY1507" s="0"/>
-      <c r="NZ1507" s="0"/>
-      <c r="OA1507" s="0"/>
-      <c r="OB1507" s="0"/>
-      <c r="OC1507" s="0"/>
-      <c r="OD1507" s="0"/>
-      <c r="OE1507" s="0"/>
-      <c r="OF1507" s="0"/>
-      <c r="OG1507" s="0"/>
-      <c r="OH1507" s="0"/>
-      <c r="OI1507" s="0"/>
-      <c r="OJ1507" s="0"/>
-      <c r="OK1507" s="0"/>
-      <c r="OL1507" s="0"/>
-      <c r="OM1507" s="0"/>
-      <c r="ON1507" s="0"/>
-      <c r="OO1507" s="0"/>
-      <c r="OP1507" s="0"/>
-      <c r="OQ1507" s="0"/>
-      <c r="OR1507" s="0"/>
-      <c r="OS1507" s="0"/>
-      <c r="OT1507" s="0"/>
-      <c r="OU1507" s="0"/>
-      <c r="OV1507" s="0"/>
-      <c r="OW1507" s="0"/>
-      <c r="OX1507" s="0"/>
-      <c r="OY1507" s="0"/>
-      <c r="OZ1507" s="0"/>
-      <c r="PA1507" s="0"/>
-      <c r="PB1507" s="0"/>
-      <c r="PC1507" s="0"/>
-      <c r="PD1507" s="0"/>
-      <c r="PE1507" s="0"/>
-      <c r="PF1507" s="0"/>
-      <c r="PG1507" s="0"/>
-      <c r="PH1507" s="0"/>
-      <c r="PI1507" s="0"/>
-      <c r="PJ1507" s="0"/>
-      <c r="PK1507" s="0"/>
-      <c r="PL1507" s="0"/>
-      <c r="PM1507" s="0"/>
-      <c r="PN1507" s="0"/>
-      <c r="PO1507" s="0"/>
-      <c r="PP1507" s="0"/>
-      <c r="PQ1507" s="0"/>
-      <c r="PR1507" s="0"/>
-      <c r="PS1507" s="0"/>
-      <c r="PT1507" s="0"/>
-      <c r="PU1507" s="0"/>
-      <c r="PV1507" s="0"/>
-      <c r="PW1507" s="0"/>
-      <c r="PX1507" s="0"/>
-      <c r="PY1507" s="0"/>
-      <c r="PZ1507" s="0"/>
-      <c r="QA1507" s="0"/>
-      <c r="QB1507" s="0"/>
-      <c r="QC1507" s="0"/>
-      <c r="QD1507" s="0"/>
-      <c r="QE1507" s="0"/>
-      <c r="QF1507" s="0"/>
-      <c r="QG1507" s="0"/>
-      <c r="QH1507" s="0"/>
-      <c r="QI1507" s="0"/>
-      <c r="QJ1507" s="0"/>
-      <c r="QK1507" s="0"/>
-      <c r="QL1507" s="0"/>
-      <c r="QM1507" s="0"/>
-      <c r="QN1507" s="0"/>
-      <c r="QO1507" s="0"/>
-      <c r="QP1507" s="0"/>
-      <c r="QQ1507" s="0"/>
-      <c r="QR1507" s="0"/>
-      <c r="QS1507" s="0"/>
-      <c r="QT1507" s="0"/>
-      <c r="QU1507" s="0"/>
-      <c r="QV1507" s="0"/>
-      <c r="QW1507" s="0"/>
-      <c r="QX1507" s="0"/>
-      <c r="QY1507" s="0"/>
-      <c r="QZ1507" s="0"/>
-      <c r="RA1507" s="0"/>
-      <c r="RB1507" s="0"/>
-      <c r="RC1507" s="0"/>
-      <c r="RD1507" s="0"/>
-      <c r="RE1507" s="0"/>
-      <c r="RF1507" s="0"/>
-      <c r="RG1507" s="0"/>
-      <c r="RH1507" s="0"/>
-      <c r="RI1507" s="0"/>
-      <c r="RJ1507" s="0"/>
-      <c r="RK1507" s="0"/>
-      <c r="RL1507" s="0"/>
-      <c r="RM1507" s="0"/>
-      <c r="RN1507" s="0"/>
-      <c r="RO1507" s="0"/>
-      <c r="RP1507" s="0"/>
-      <c r="RQ1507" s="0"/>
-      <c r="RR1507" s="0"/>
-      <c r="RS1507" s="0"/>
-      <c r="RT1507" s="0"/>
-      <c r="RU1507" s="0"/>
-      <c r="RV1507" s="0"/>
-      <c r="RW1507" s="0"/>
-      <c r="RX1507" s="0"/>
-      <c r="RY1507" s="0"/>
-      <c r="RZ1507" s="0"/>
-      <c r="SA1507" s="0"/>
-      <c r="SB1507" s="0"/>
-      <c r="SC1507" s="0"/>
-      <c r="SD1507" s="0"/>
-      <c r="SE1507" s="0"/>
-      <c r="SF1507" s="0"/>
-      <c r="SG1507" s="0"/>
-      <c r="SH1507" s="0"/>
-      <c r="SI1507" s="0"/>
-      <c r="SJ1507" s="0"/>
-      <c r="SK1507" s="0"/>
-      <c r="SL1507" s="0"/>
-      <c r="SM1507" s="0"/>
-      <c r="SN1507" s="0"/>
-      <c r="SO1507" s="0"/>
-      <c r="SP1507" s="0"/>
-      <c r="SQ1507" s="0"/>
-      <c r="SR1507" s="0"/>
-      <c r="SS1507" s="0"/>
-      <c r="ST1507" s="0"/>
-      <c r="SU1507" s="0"/>
-      <c r="SV1507" s="0"/>
-      <c r="SW1507" s="0"/>
-      <c r="SX1507" s="0"/>
-      <c r="SY1507" s="0"/>
-      <c r="SZ1507" s="0"/>
-      <c r="TA1507" s="0"/>
-      <c r="TB1507" s="0"/>
-      <c r="TC1507" s="0"/>
-      <c r="TD1507" s="0"/>
-      <c r="TE1507" s="0"/>
-      <c r="TF1507" s="0"/>
-      <c r="TG1507" s="0"/>
-      <c r="TH1507" s="0"/>
-      <c r="TI1507" s="0"/>
-      <c r="TJ1507" s="0"/>
-      <c r="TK1507" s="0"/>
-      <c r="TL1507" s="0"/>
-      <c r="TM1507" s="0"/>
-      <c r="TN1507" s="0"/>
-      <c r="TO1507" s="0"/>
-      <c r="TP1507" s="0"/>
-      <c r="TQ1507" s="0"/>
-      <c r="TR1507" s="0"/>
-      <c r="TS1507" s="0"/>
-      <c r="TT1507" s="0"/>
-      <c r="TU1507" s="0"/>
-      <c r="TV1507" s="0"/>
-      <c r="TW1507" s="0"/>
-      <c r="TX1507" s="0"/>
-      <c r="TY1507" s="0"/>
-      <c r="TZ1507" s="0"/>
-      <c r="UA1507" s="0"/>
-      <c r="UB1507" s="0"/>
-      <c r="UC1507" s="0"/>
-      <c r="UD1507" s="0"/>
-      <c r="UE1507" s="0"/>
-      <c r="UF1507" s="0"/>
-      <c r="UG1507" s="0"/>
-      <c r="UH1507" s="0"/>
-      <c r="UI1507" s="0"/>
-      <c r="UJ1507" s="0"/>
-      <c r="UK1507" s="0"/>
-      <c r="UL1507" s="0"/>
-      <c r="UM1507" s="0"/>
-      <c r="UN1507" s="0"/>
-      <c r="UO1507" s="0"/>
-      <c r="UP1507" s="0"/>
-      <c r="UQ1507" s="0"/>
-      <c r="UR1507" s="0"/>
-      <c r="US1507" s="0"/>
-      <c r="UT1507" s="0"/>
-      <c r="UU1507" s="0"/>
-      <c r="UV1507" s="0"/>
-      <c r="UW1507" s="0"/>
-      <c r="UX1507" s="0"/>
-      <c r="UY1507" s="0"/>
-      <c r="UZ1507" s="0"/>
-      <c r="VA1507" s="0"/>
-      <c r="VB1507" s="0"/>
-      <c r="VC1507" s="0"/>
-      <c r="VD1507" s="0"/>
-      <c r="VE1507" s="0"/>
-      <c r="VF1507" s="0"/>
-      <c r="VG1507" s="0"/>
-      <c r="VH1507" s="0"/>
-      <c r="VI1507" s="0"/>
-      <c r="VJ1507" s="0"/>
-      <c r="VK1507" s="0"/>
-      <c r="VL1507" s="0"/>
-      <c r="VM1507" s="0"/>
-      <c r="VN1507" s="0"/>
-      <c r="VO1507" s="0"/>
-      <c r="VP1507" s="0"/>
-      <c r="VQ1507" s="0"/>
-      <c r="VR1507" s="0"/>
-      <c r="VS1507" s="0"/>
-      <c r="VT1507" s="0"/>
-      <c r="VU1507" s="0"/>
-      <c r="VV1507" s="0"/>
-      <c r="VW1507" s="0"/>
-      <c r="VX1507" s="0"/>
-      <c r="VY1507" s="0"/>
-      <c r="VZ1507" s="0"/>
-      <c r="WA1507" s="0"/>
-      <c r="WB1507" s="0"/>
-      <c r="WC1507" s="0"/>
-      <c r="WD1507" s="0"/>
-      <c r="WE1507" s="0"/>
-      <c r="WF1507" s="0"/>
-      <c r="WG1507" s="0"/>
-      <c r="WH1507" s="0"/>
-      <c r="WI1507" s="0"/>
-      <c r="WJ1507" s="0"/>
-      <c r="WK1507" s="0"/>
-      <c r="WL1507" s="0"/>
-      <c r="WM1507" s="0"/>
-      <c r="WN1507" s="0"/>
-      <c r="WO1507" s="0"/>
-      <c r="WP1507" s="0"/>
-      <c r="WQ1507" s="0"/>
-      <c r="WR1507" s="0"/>
-      <c r="WS1507" s="0"/>
-      <c r="WT1507" s="0"/>
-      <c r="WU1507" s="0"/>
-      <c r="WV1507" s="0"/>
-      <c r="WW1507" s="0"/>
-      <c r="WX1507" s="0"/>
-      <c r="WY1507" s="0"/>
-      <c r="WZ1507" s="0"/>
-      <c r="XA1507" s="0"/>
-      <c r="XB1507" s="0"/>
-      <c r="XC1507" s="0"/>
-      <c r="XD1507" s="0"/>
-      <c r="XE1507" s="0"/>
-      <c r="XF1507" s="0"/>
-      <c r="XG1507" s="0"/>
-      <c r="XH1507" s="0"/>
-      <c r="XI1507" s="0"/>
-      <c r="XJ1507" s="0"/>
-      <c r="XK1507" s="0"/>
-      <c r="XL1507" s="0"/>
-      <c r="XM1507" s="0"/>
-      <c r="XN1507" s="0"/>
-      <c r="XO1507" s="0"/>
-      <c r="XP1507" s="0"/>
-      <c r="XQ1507" s="0"/>
-      <c r="XR1507" s="0"/>
-      <c r="XS1507" s="0"/>
-      <c r="XT1507" s="0"/>
-      <c r="XU1507" s="0"/>
-      <c r="XV1507" s="0"/>
-      <c r="XW1507" s="0"/>
-      <c r="XX1507" s="0"/>
-      <c r="XY1507" s="0"/>
-      <c r="XZ1507" s="0"/>
-      <c r="YA1507" s="0"/>
-      <c r="YB1507" s="0"/>
-      <c r="YC1507" s="0"/>
-      <c r="YD1507" s="0"/>
-      <c r="YE1507" s="0"/>
-      <c r="YF1507" s="0"/>
-      <c r="YG1507" s="0"/>
-      <c r="YH1507" s="0"/>
-      <c r="YI1507" s="0"/>
-      <c r="YJ1507" s="0"/>
-      <c r="YK1507" s="0"/>
-      <c r="YL1507" s="0"/>
-      <c r="YM1507" s="0"/>
-      <c r="YN1507" s="0"/>
-      <c r="YO1507" s="0"/>
-      <c r="YP1507" s="0"/>
-      <c r="YQ1507" s="0"/>
-      <c r="YR1507" s="0"/>
-      <c r="YS1507" s="0"/>
-      <c r="YT1507" s="0"/>
-      <c r="YU1507" s="0"/>
-      <c r="YV1507" s="0"/>
-      <c r="YW1507" s="0"/>
-      <c r="YX1507" s="0"/>
-      <c r="YY1507" s="0"/>
-      <c r="YZ1507" s="0"/>
-      <c r="ZA1507" s="0"/>
-      <c r="ZB1507" s="0"/>
-      <c r="ZC1507" s="0"/>
-      <c r="ZD1507" s="0"/>
-      <c r="ZE1507" s="0"/>
-      <c r="ZF1507" s="0"/>
-      <c r="ZG1507" s="0"/>
-      <c r="ZH1507" s="0"/>
-      <c r="ZI1507" s="0"/>
-      <c r="ZJ1507" s="0"/>
-      <c r="ZK1507" s="0"/>
-      <c r="ZL1507" s="0"/>
-      <c r="ZM1507" s="0"/>
-      <c r="ZN1507" s="0"/>
-      <c r="ZO1507" s="0"/>
-      <c r="ZP1507" s="0"/>
-      <c r="ZQ1507" s="0"/>
-      <c r="ZR1507" s="0"/>
-      <c r="ZS1507" s="0"/>
-      <c r="ZT1507" s="0"/>
-      <c r="ZU1507" s="0"/>
-      <c r="ZV1507" s="0"/>
-      <c r="ZW1507" s="0"/>
-      <c r="ZX1507" s="0"/>
-      <c r="ZY1507" s="0"/>
-      <c r="ZZ1507" s="0"/>
-      <c r="AAA1507" s="0"/>
-      <c r="AAB1507" s="0"/>
-      <c r="AAC1507" s="0"/>
-      <c r="AAD1507" s="0"/>
-      <c r="AAE1507" s="0"/>
-      <c r="AAF1507" s="0"/>
-      <c r="AAG1507" s="0"/>
-      <c r="AAH1507" s="0"/>
-      <c r="AAI1507" s="0"/>
-      <c r="AAJ1507" s="0"/>
-      <c r="AAK1507" s="0"/>
-      <c r="AAL1507" s="0"/>
-      <c r="AAM1507" s="0"/>
-      <c r="AAN1507" s="0"/>
-      <c r="AAO1507" s="0"/>
-      <c r="AAP1507" s="0"/>
-      <c r="AAQ1507" s="0"/>
-      <c r="AAR1507" s="0"/>
-      <c r="AAS1507" s="0"/>
-      <c r="AAT1507" s="0"/>
-      <c r="AAU1507" s="0"/>
-      <c r="AAV1507" s="0"/>
-      <c r="AAW1507" s="0"/>
-      <c r="AAX1507" s="0"/>
-      <c r="AAY1507" s="0"/>
-      <c r="AAZ1507" s="0"/>
-      <c r="ABA1507" s="0"/>
-      <c r="ABB1507" s="0"/>
-      <c r="ABC1507" s="0"/>
-      <c r="ABD1507" s="0"/>
-      <c r="ABE1507" s="0"/>
-      <c r="ABF1507" s="0"/>
-      <c r="ABG1507" s="0"/>
-      <c r="ABH1507" s="0"/>
-      <c r="ABI1507" s="0"/>
-      <c r="ABJ1507" s="0"/>
-      <c r="ABK1507" s="0"/>
-      <c r="ABL1507" s="0"/>
-      <c r="ABM1507" s="0"/>
-      <c r="ABN1507" s="0"/>
-      <c r="ABO1507" s="0"/>
-      <c r="ABP1507" s="0"/>
-      <c r="ABQ1507" s="0"/>
-      <c r="ABR1507" s="0"/>
-      <c r="ABS1507" s="0"/>
-      <c r="ABT1507" s="0"/>
-      <c r="ABU1507" s="0"/>
-      <c r="ABV1507" s="0"/>
-      <c r="ABW1507" s="0"/>
-      <c r="ABX1507" s="0"/>
-      <c r="ABY1507" s="0"/>
-      <c r="ABZ1507" s="0"/>
-      <c r="ACA1507" s="0"/>
-      <c r="ACB1507" s="0"/>
-      <c r="ACC1507" s="0"/>
-      <c r="ACD1507" s="0"/>
-      <c r="ACE1507" s="0"/>
-      <c r="ACF1507" s="0"/>
-      <c r="ACG1507" s="0"/>
-      <c r="ACH1507" s="0"/>
-      <c r="ACI1507" s="0"/>
-      <c r="ACJ1507" s="0"/>
-      <c r="ACK1507" s="0"/>
-      <c r="ACL1507" s="0"/>
-      <c r="ACM1507" s="0"/>
-      <c r="ACN1507" s="0"/>
-      <c r="ACO1507" s="0"/>
-      <c r="ACP1507" s="0"/>
-      <c r="ACQ1507" s="0"/>
-      <c r="ACR1507" s="0"/>
-      <c r="ACS1507" s="0"/>
-      <c r="ACT1507" s="0"/>
-      <c r="ACU1507" s="0"/>
-      <c r="ACV1507" s="0"/>
-      <c r="ACW1507" s="0"/>
-      <c r="ACX1507" s="0"/>
-      <c r="ACY1507" s="0"/>
-      <c r="ACZ1507" s="0"/>
-      <c r="ADA1507" s="0"/>
-      <c r="ADB1507" s="0"/>
-      <c r="ADC1507" s="0"/>
-      <c r="ADD1507" s="0"/>
-      <c r="ADE1507" s="0"/>
-      <c r="ADF1507" s="0"/>
-      <c r="ADG1507" s="0"/>
-      <c r="ADH1507" s="0"/>
-      <c r="ADI1507" s="0"/>
-      <c r="ADJ1507" s="0"/>
-      <c r="ADK1507" s="0"/>
-      <c r="ADL1507" s="0"/>
-      <c r="ADM1507" s="0"/>
-      <c r="ADN1507" s="0"/>
-      <c r="ADO1507" s="0"/>
-      <c r="ADP1507" s="0"/>
-      <c r="ADQ1507" s="0"/>
-      <c r="ADR1507" s="0"/>
-      <c r="ADS1507" s="0"/>
-      <c r="ADT1507" s="0"/>
-      <c r="ADU1507" s="0"/>
-      <c r="ADV1507" s="0"/>
-      <c r="ADW1507" s="0"/>
-      <c r="ADX1507" s="0"/>
-      <c r="ADY1507" s="0"/>
-      <c r="ADZ1507" s="0"/>
-      <c r="AEA1507" s="0"/>
-      <c r="AEB1507" s="0"/>
-      <c r="AEC1507" s="0"/>
-      <c r="AED1507" s="0"/>
-      <c r="AEE1507" s="0"/>
-      <c r="AEF1507" s="0"/>
-      <c r="AEG1507" s="0"/>
-      <c r="AEH1507" s="0"/>
-      <c r="AEI1507" s="0"/>
-      <c r="AEJ1507" s="0"/>
-      <c r="AEK1507" s="0"/>
-      <c r="AEL1507" s="0"/>
-      <c r="AEM1507" s="0"/>
-      <c r="AEN1507" s="0"/>
-      <c r="AEO1507" s="0"/>
-      <c r="AEP1507" s="0"/>
-      <c r="AEQ1507" s="0"/>
-      <c r="AER1507" s="0"/>
-      <c r="AES1507" s="0"/>
-      <c r="AET1507" s="0"/>
-      <c r="AEU1507" s="0"/>
-      <c r="AEV1507" s="0"/>
-      <c r="AEW1507" s="0"/>
-      <c r="AEX1507" s="0"/>
-      <c r="AEY1507" s="0"/>
-      <c r="AEZ1507" s="0"/>
-      <c r="AFA1507" s="0"/>
-      <c r="AFB1507" s="0"/>
-      <c r="AFC1507" s="0"/>
-      <c r="AFD1507" s="0"/>
-      <c r="AFE1507" s="0"/>
-      <c r="AFF1507" s="0"/>
-      <c r="AFG1507" s="0"/>
-      <c r="AFH1507" s="0"/>
-      <c r="AFI1507" s="0"/>
-      <c r="AFJ1507" s="0"/>
-      <c r="AFK1507" s="0"/>
-      <c r="AFL1507" s="0"/>
-      <c r="AFM1507" s="0"/>
-      <c r="AFN1507" s="0"/>
-      <c r="AFO1507" s="0"/>
-      <c r="AFP1507" s="0"/>
-      <c r="AFQ1507" s="0"/>
-      <c r="AFR1507" s="0"/>
-      <c r="AFS1507" s="0"/>
-      <c r="AFT1507" s="0"/>
-      <c r="AFU1507" s="0"/>
-      <c r="AFV1507" s="0"/>
-      <c r="AFW1507" s="0"/>
-      <c r="AFX1507" s="0"/>
-      <c r="AFY1507" s="0"/>
-      <c r="AFZ1507" s="0"/>
-      <c r="AGA1507" s="0"/>
-      <c r="AGB1507" s="0"/>
-      <c r="AGC1507" s="0"/>
-      <c r="AGD1507" s="0"/>
-      <c r="AGE1507" s="0"/>
-      <c r="AGF1507" s="0"/>
-      <c r="AGG1507" s="0"/>
-      <c r="AGH1507" s="0"/>
-      <c r="AGI1507" s="0"/>
-      <c r="AGJ1507" s="0"/>
-      <c r="AGK1507" s="0"/>
-      <c r="AGL1507" s="0"/>
-      <c r="AGM1507" s="0"/>
-      <c r="AGN1507" s="0"/>
-      <c r="AGO1507" s="0"/>
-      <c r="AGP1507" s="0"/>
-      <c r="AGQ1507" s="0"/>
-      <c r="AGR1507" s="0"/>
-      <c r="AGS1507" s="0"/>
-      <c r="AGT1507" s="0"/>
-      <c r="AGU1507" s="0"/>
-      <c r="AGV1507" s="0"/>
-      <c r="AGW1507" s="0"/>
-      <c r="AGX1507" s="0"/>
-      <c r="AGY1507" s="0"/>
-      <c r="AGZ1507" s="0"/>
-      <c r="AHA1507" s="0"/>
-      <c r="AHB1507" s="0"/>
-      <c r="AHC1507" s="0"/>
-      <c r="AHD1507" s="0"/>
-      <c r="AHE1507" s="0"/>
-      <c r="AHF1507" s="0"/>
-      <c r="AHG1507" s="0"/>
-      <c r="AHH1507" s="0"/>
-      <c r="AHI1507" s="0"/>
-      <c r="AHJ1507" s="0"/>
-      <c r="AHK1507" s="0"/>
-      <c r="AHL1507" s="0"/>
-      <c r="AHM1507" s="0"/>
-      <c r="AHN1507" s="0"/>
-      <c r="AHO1507" s="0"/>
-      <c r="AHP1507" s="0"/>
-      <c r="AHQ1507" s="0"/>
-      <c r="AHR1507" s="0"/>
-      <c r="AHS1507" s="0"/>
-      <c r="AHT1507" s="0"/>
-      <c r="AHU1507" s="0"/>
-      <c r="AHV1507" s="0"/>
-      <c r="AHW1507" s="0"/>
-      <c r="AHX1507" s="0"/>
-      <c r="AHY1507" s="0"/>
-      <c r="AHZ1507" s="0"/>
-      <c r="AIA1507" s="0"/>
-      <c r="AIB1507" s="0"/>
-      <c r="AIC1507" s="0"/>
-      <c r="AID1507" s="0"/>
-      <c r="AIE1507" s="0"/>
-      <c r="AIF1507" s="0"/>
-      <c r="AIG1507" s="0"/>
-      <c r="AIH1507" s="0"/>
-      <c r="AII1507" s="0"/>
-      <c r="AIJ1507" s="0"/>
-      <c r="AIK1507" s="0"/>
-      <c r="AIL1507" s="0"/>
-      <c r="AIM1507" s="0"/>
-      <c r="AIN1507" s="0"/>
-      <c r="AIO1507" s="0"/>
-      <c r="AIP1507" s="0"/>
-      <c r="AIQ1507" s="0"/>
-      <c r="AIR1507" s="0"/>
-      <c r="AIS1507" s="0"/>
-      <c r="AIT1507" s="0"/>
-      <c r="AIU1507" s="0"/>
-      <c r="AIV1507" s="0"/>
-      <c r="AIW1507" s="0"/>
-      <c r="AIX1507" s="0"/>
-      <c r="AIY1507" s="0"/>
-      <c r="AIZ1507" s="0"/>
-      <c r="AJA1507" s="0"/>
-      <c r="AJB1507" s="0"/>
-      <c r="AJC1507" s="0"/>
-      <c r="AJD1507" s="0"/>
-      <c r="AJE1507" s="0"/>
-      <c r="AJF1507" s="0"/>
-      <c r="AJG1507" s="0"/>
-      <c r="AJH1507" s="0"/>
-      <c r="AJI1507" s="0"/>
-      <c r="AJJ1507" s="0"/>
-      <c r="AJK1507" s="0"/>
-      <c r="AJL1507" s="0"/>
-      <c r="AJM1507" s="0"/>
-      <c r="AJN1507" s="0"/>
-      <c r="AJO1507" s="0"/>
-      <c r="AJP1507" s="0"/>
-      <c r="AJQ1507" s="0"/>
-      <c r="AJR1507" s="0"/>
-      <c r="AJS1507" s="0"/>
-      <c r="AJT1507" s="0"/>
-      <c r="AJU1507" s="0"/>
-      <c r="AJV1507" s="0"/>
-      <c r="AJW1507" s="0"/>
-      <c r="AJX1507" s="0"/>
-      <c r="AJY1507" s="0"/>
-      <c r="AJZ1507" s="0"/>
-      <c r="AKA1507" s="0"/>
-      <c r="AKB1507" s="0"/>
-      <c r="AKC1507" s="0"/>
-      <c r="AKD1507" s="0"/>
-      <c r="AKE1507" s="0"/>
-      <c r="AKF1507" s="0"/>
-      <c r="AKG1507" s="0"/>
-      <c r="AKH1507" s="0"/>
-      <c r="AKI1507" s="0"/>
-      <c r="AKJ1507" s="0"/>
-      <c r="AKK1507" s="0"/>
-      <c r="AKL1507" s="0"/>
-      <c r="AKM1507" s="0"/>
-      <c r="AKN1507" s="0"/>
-      <c r="AKO1507" s="0"/>
-      <c r="AKP1507" s="0"/>
-      <c r="AKQ1507" s="0"/>
-      <c r="AKR1507" s="0"/>
-      <c r="AKS1507" s="0"/>
-      <c r="AKT1507" s="0"/>
-      <c r="AKU1507" s="0"/>
-      <c r="AKV1507" s="0"/>
-      <c r="AKW1507" s="0"/>
-      <c r="AKX1507" s="0"/>
-      <c r="AKY1507" s="0"/>
-      <c r="AKZ1507" s="0"/>
-      <c r="ALA1507" s="0"/>
-      <c r="ALB1507" s="0"/>
-      <c r="ALC1507" s="0"/>
-      <c r="ALD1507" s="0"/>
-      <c r="ALE1507" s="0"/>
-      <c r="ALF1507" s="0"/>
-      <c r="ALG1507" s="0"/>
-      <c r="ALH1507" s="0"/>
-      <c r="ALI1507" s="0"/>
-      <c r="ALJ1507" s="0"/>
-      <c r="ALK1507" s="0"/>
-      <c r="ALL1507" s="0"/>
-      <c r="ALM1507" s="0"/>
-      <c r="ALN1507" s="0"/>
-      <c r="ALO1507" s="0"/>
-      <c r="ALP1507" s="0"/>
-      <c r="ALQ1507" s="0"/>
-      <c r="ALR1507" s="0"/>
-      <c r="ALS1507" s="0"/>
-      <c r="ALT1507" s="0"/>
-      <c r="ALU1507" s="0"/>
-      <c r="ALV1507" s="0"/>
-      <c r="ALW1507" s="0"/>
-      <c r="ALX1507" s="0"/>
-      <c r="ALY1507" s="0"/>
-      <c r="ALZ1507" s="0"/>
-      <c r="AMA1507" s="0"/>
-      <c r="AMB1507" s="0"/>
-      <c r="AMC1507" s="0"/>
-      <c r="AMD1507" s="0"/>
-      <c r="AME1507" s="0"/>
-      <c r="AMF1507" s="0"/>
-      <c r="AMG1507" s="0"/>
-      <c r="AMH1507" s="0"/>
-      <c r="AMI1507" s="0"/>
-    </row>
-    <row r="1508" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1508" s="19"/>
-      <c r="B1508" s="11" t="s">
+      <c r="B1507" s="23"/>
+      <c r="C1507" s="23"/>
+      <c r="D1507" s="23"/>
+      <c r="E1507" s="23"/>
+      <c r="F1507" s="23"/>
+      <c r="G1507" s="23"/>
+      <c r="H1507" s="23"/>
+      <c r="I1507" s="24"/>
+      <c r="J1507" s="24"/>
+      <c r="K1507" s="24"/>
+      <c r="L1507" s="23"/>
+      <c r="M1507" s="23"/>
+      <c r="N1507" s="23"/>
+      <c r="O1507" s="25"/>
+    </row>
+    <row r="1508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1508" s="25"/>
+      <c r="C1508" s="1"/>
+      <c r="D1508" s="1"/>
+      <c r="E1508" s="1"/>
+      <c r="F1508" s="1"/>
+      <c r="G1508" s="1"/>
+      <c r="H1508" s="1"/>
+      <c r="I1508" s="1"/>
+      <c r="J1508" s="1"/>
+      <c r="K1508" s="1"/>
+      <c r="L1508" s="1"/>
+      <c r="M1508" s="1"/>
+      <c r="N1508" s="1"/>
+      <c r="O1508" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1508" s="0"/>
+      <c r="Z1508" s="0"/>
+      <c r="AA1508" s="0"/>
+      <c r="AB1508" s="0"/>
+      <c r="AC1508" s="0"/>
+      <c r="AD1508" s="0"/>
+      <c r="AE1508" s="0"/>
+      <c r="AF1508" s="0"/>
+      <c r="AG1508" s="0"/>
+      <c r="AH1508" s="0"/>
+      <c r="AI1508" s="0"/>
+      <c r="AJ1508" s="0"/>
+      <c r="AK1508" s="0"/>
+      <c r="AL1508" s="0"/>
+      <c r="AM1508" s="0"/>
+      <c r="AN1508" s="0"/>
+      <c r="AO1508" s="0"/>
+      <c r="AP1508" s="0"/>
+      <c r="AQ1508" s="0"/>
+      <c r="AR1508" s="0"/>
+      <c r="AS1508" s="0"/>
+      <c r="AT1508" s="0"/>
+      <c r="AU1508" s="0"/>
+      <c r="AV1508" s="0"/>
+      <c r="AW1508" s="0"/>
+      <c r="AX1508" s="0"/>
+      <c r="AY1508" s="0"/>
+      <c r="AZ1508" s="0"/>
+      <c r="BA1508" s="0"/>
+      <c r="BB1508" s="0"/>
+      <c r="BC1508" s="0"/>
+      <c r="BD1508" s="0"/>
+      <c r="BE1508" s="0"/>
+      <c r="BF1508" s="0"/>
+      <c r="BG1508" s="0"/>
+      <c r="BH1508" s="0"/>
+      <c r="BI1508" s="0"/>
+      <c r="BJ1508" s="0"/>
+      <c r="BK1508" s="0"/>
+      <c r="BL1508" s="0"/>
+      <c r="BM1508" s="0"/>
+      <c r="BN1508" s="0"/>
+      <c r="BO1508" s="0"/>
+      <c r="BP1508" s="0"/>
+      <c r="BQ1508" s="0"/>
+      <c r="BR1508" s="0"/>
+      <c r="BS1508" s="0"/>
+      <c r="BT1508" s="0"/>
+      <c r="BU1508" s="0"/>
+      <c r="BV1508" s="0"/>
+      <c r="BW1508" s="0"/>
+      <c r="BX1508" s="0"/>
+      <c r="BY1508" s="0"/>
+      <c r="BZ1508" s="0"/>
+      <c r="CA1508" s="0"/>
+      <c r="CB1508" s="0"/>
+      <c r="CC1508" s="0"/>
+      <c r="CD1508" s="0"/>
+      <c r="CE1508" s="0"/>
+      <c r="CF1508" s="0"/>
+      <c r="CG1508" s="0"/>
+      <c r="CH1508" s="0"/>
+      <c r="CI1508" s="0"/>
+      <c r="CJ1508" s="0"/>
+      <c r="CK1508" s="0"/>
+      <c r="CL1508" s="0"/>
+      <c r="CM1508" s="0"/>
+      <c r="CN1508" s="0"/>
+      <c r="CO1508" s="0"/>
+      <c r="CP1508" s="0"/>
+      <c r="CQ1508" s="0"/>
+      <c r="CR1508" s="0"/>
+      <c r="CS1508" s="0"/>
+      <c r="CT1508" s="0"/>
+      <c r="CU1508" s="0"/>
+      <c r="CV1508" s="0"/>
+      <c r="CW1508" s="0"/>
+      <c r="CX1508" s="0"/>
+      <c r="CY1508" s="0"/>
+      <c r="CZ1508" s="0"/>
+      <c r="DA1508" s="0"/>
+      <c r="DB1508" s="0"/>
+      <c r="DC1508" s="0"/>
+      <c r="DD1508" s="0"/>
+      <c r="DE1508" s="0"/>
+      <c r="DF1508" s="0"/>
+      <c r="DG1508" s="0"/>
+      <c r="DH1508" s="0"/>
+      <c r="DI1508" s="0"/>
+      <c r="DJ1508" s="0"/>
+      <c r="DK1508" s="0"/>
+      <c r="DL1508" s="0"/>
+      <c r="DM1508" s="0"/>
+      <c r="DN1508" s="0"/>
+      <c r="DO1508" s="0"/>
+      <c r="DP1508" s="0"/>
+      <c r="DQ1508" s="0"/>
+      <c r="DR1508" s="0"/>
+      <c r="DS1508" s="0"/>
+      <c r="DT1508" s="0"/>
+      <c r="DU1508" s="0"/>
+      <c r="DV1508" s="0"/>
+      <c r="DW1508" s="0"/>
+      <c r="DX1508" s="0"/>
+      <c r="DY1508" s="0"/>
+      <c r="DZ1508" s="0"/>
+      <c r="EA1508" s="0"/>
+      <c r="EB1508" s="0"/>
+      <c r="EC1508" s="0"/>
+      <c r="ED1508" s="0"/>
+      <c r="EE1508" s="0"/>
+      <c r="EF1508" s="0"/>
+      <c r="EG1508" s="0"/>
+      <c r="EH1508" s="0"/>
+      <c r="EI1508" s="0"/>
+      <c r="EJ1508" s="0"/>
+      <c r="EK1508" s="0"/>
+      <c r="EL1508" s="0"/>
+      <c r="EM1508" s="0"/>
+      <c r="EN1508" s="0"/>
+      <c r="EO1508" s="0"/>
+      <c r="EP1508" s="0"/>
+      <c r="EQ1508" s="0"/>
+      <c r="ER1508" s="0"/>
+      <c r="ES1508" s="0"/>
+      <c r="ET1508" s="0"/>
+      <c r="EU1508" s="0"/>
+      <c r="EV1508" s="0"/>
+      <c r="EW1508" s="0"/>
+      <c r="EX1508" s="0"/>
+      <c r="EY1508" s="0"/>
+      <c r="EZ1508" s="0"/>
+      <c r="FA1508" s="0"/>
+      <c r="FB1508" s="0"/>
+      <c r="FC1508" s="0"/>
+      <c r="FD1508" s="0"/>
+      <c r="FE1508" s="0"/>
+      <c r="FF1508" s="0"/>
+      <c r="FG1508" s="0"/>
+      <c r="FH1508" s="0"/>
+      <c r="FI1508" s="0"/>
+      <c r="FJ1508" s="0"/>
+      <c r="FK1508" s="0"/>
+      <c r="FL1508" s="0"/>
+      <c r="FM1508" s="0"/>
+      <c r="FN1508" s="0"/>
+      <c r="FO1508" s="0"/>
+      <c r="FP1508" s="0"/>
+      <c r="FQ1508" s="0"/>
+      <c r="FR1508" s="0"/>
+      <c r="FS1508" s="0"/>
+      <c r="FT1508" s="0"/>
+      <c r="FU1508" s="0"/>
+      <c r="FV1508" s="0"/>
+      <c r="FW1508" s="0"/>
+      <c r="FX1508" s="0"/>
+      <c r="FY1508" s="0"/>
+      <c r="FZ1508" s="0"/>
+      <c r="GA1508" s="0"/>
+      <c r="GB1508" s="0"/>
+      <c r="GC1508" s="0"/>
+      <c r="GD1508" s="0"/>
+      <c r="GE1508" s="0"/>
+      <c r="GF1508" s="0"/>
+      <c r="GG1508" s="0"/>
+      <c r="GH1508" s="0"/>
+      <c r="GI1508" s="0"/>
+      <c r="GJ1508" s="0"/>
+      <c r="GK1508" s="0"/>
+      <c r="GL1508" s="0"/>
+      <c r="GM1508" s="0"/>
+      <c r="GN1508" s="0"/>
+      <c r="GO1508" s="0"/>
+      <c r="GP1508" s="0"/>
+      <c r="GQ1508" s="0"/>
+      <c r="GR1508" s="0"/>
+      <c r="GS1508" s="0"/>
+      <c r="GT1508" s="0"/>
+      <c r="GU1508" s="0"/>
+      <c r="GV1508" s="0"/>
+      <c r="GW1508" s="0"/>
+      <c r="GX1508" s="0"/>
+      <c r="GY1508" s="0"/>
+      <c r="GZ1508" s="0"/>
+      <c r="HA1508" s="0"/>
+      <c r="HB1508" s="0"/>
+      <c r="HC1508" s="0"/>
+      <c r="HD1508" s="0"/>
+      <c r="HE1508" s="0"/>
+      <c r="HF1508" s="0"/>
+      <c r="HG1508" s="0"/>
+      <c r="HH1508" s="0"/>
+      <c r="HI1508" s="0"/>
+      <c r="HJ1508" s="0"/>
+      <c r="HK1508" s="0"/>
+      <c r="HL1508" s="0"/>
+      <c r="HM1508" s="0"/>
+      <c r="HN1508" s="0"/>
+      <c r="HO1508" s="0"/>
+      <c r="HP1508" s="0"/>
+      <c r="HQ1508" s="0"/>
+      <c r="HR1508" s="0"/>
+      <c r="HS1508" s="0"/>
+      <c r="HT1508" s="0"/>
+      <c r="HU1508" s="0"/>
+      <c r="HV1508" s="0"/>
+      <c r="HW1508" s="0"/>
+      <c r="HX1508" s="0"/>
+      <c r="HY1508" s="0"/>
+      <c r="HZ1508" s="0"/>
+      <c r="IA1508" s="0"/>
+      <c r="IB1508" s="0"/>
+      <c r="IC1508" s="0"/>
+      <c r="ID1508" s="0"/>
+      <c r="IE1508" s="0"/>
+      <c r="IF1508" s="0"/>
+      <c r="IG1508" s="0"/>
+      <c r="IH1508" s="0"/>
+      <c r="II1508" s="0"/>
+      <c r="IJ1508" s="0"/>
+      <c r="IK1508" s="0"/>
+      <c r="IL1508" s="0"/>
+      <c r="IM1508" s="0"/>
+      <c r="IN1508" s="0"/>
+      <c r="IO1508" s="0"/>
+      <c r="IP1508" s="0"/>
+      <c r="IQ1508" s="0"/>
+      <c r="IR1508" s="0"/>
+      <c r="IS1508" s="0"/>
+      <c r="IT1508" s="0"/>
+      <c r="IU1508" s="0"/>
+      <c r="IV1508" s="0"/>
+      <c r="IW1508" s="0"/>
+      <c r="IX1508" s="0"/>
+      <c r="IY1508" s="0"/>
+      <c r="IZ1508" s="0"/>
+      <c r="JA1508" s="0"/>
+      <c r="JB1508" s="0"/>
+      <c r="JC1508" s="0"/>
+      <c r="JD1508" s="0"/>
+      <c r="JE1508" s="0"/>
+      <c r="JF1508" s="0"/>
+      <c r="JG1508" s="0"/>
+      <c r="JH1508" s="0"/>
+      <c r="JI1508" s="0"/>
+      <c r="JJ1508" s="0"/>
+      <c r="JK1508" s="0"/>
+      <c r="JL1508" s="0"/>
+      <c r="JM1508" s="0"/>
+      <c r="JN1508" s="0"/>
+      <c r="JO1508" s="0"/>
+      <c r="JP1508" s="0"/>
+      <c r="JQ1508" s="0"/>
+      <c r="JR1508" s="0"/>
+      <c r="JS1508" s="0"/>
+      <c r="JT1508" s="0"/>
+      <c r="JU1508" s="0"/>
+      <c r="JV1508" s="0"/>
+      <c r="JW1508" s="0"/>
+      <c r="JX1508" s="0"/>
+      <c r="JY1508" s="0"/>
+      <c r="JZ1508" s="0"/>
+      <c r="KA1508" s="0"/>
+      <c r="KB1508" s="0"/>
+      <c r="KC1508" s="0"/>
+      <c r="KD1508" s="0"/>
+      <c r="KE1508" s="0"/>
+      <c r="KF1508" s="0"/>
+      <c r="KG1508" s="0"/>
+      <c r="KH1508" s="0"/>
+      <c r="KI1508" s="0"/>
+      <c r="KJ1508" s="0"/>
+      <c r="KK1508" s="0"/>
+      <c r="KL1508" s="0"/>
+      <c r="KM1508" s="0"/>
+      <c r="KN1508" s="0"/>
+      <c r="KO1508" s="0"/>
+      <c r="KP1508" s="0"/>
+      <c r="KQ1508" s="0"/>
+      <c r="KR1508" s="0"/>
+      <c r="KS1508" s="0"/>
+      <c r="KT1508" s="0"/>
+      <c r="KU1508" s="0"/>
+      <c r="KV1508" s="0"/>
+      <c r="KW1508" s="0"/>
+      <c r="KX1508" s="0"/>
+      <c r="KY1508" s="0"/>
+      <c r="KZ1508" s="0"/>
+      <c r="LA1508" s="0"/>
+      <c r="LB1508" s="0"/>
+      <c r="LC1508" s="0"/>
+      <c r="LD1508" s="0"/>
+      <c r="LE1508" s="0"/>
+      <c r="LF1508" s="0"/>
+      <c r="LG1508" s="0"/>
+      <c r="LH1508" s="0"/>
+      <c r="LI1508" s="0"/>
+      <c r="LJ1508" s="0"/>
+      <c r="LK1508" s="0"/>
+      <c r="LL1508" s="0"/>
+      <c r="LM1508" s="0"/>
+      <c r="LN1508" s="0"/>
+      <c r="LO1508" s="0"/>
+      <c r="LP1508" s="0"/>
+      <c r="LQ1508" s="0"/>
+      <c r="LR1508" s="0"/>
+      <c r="LS1508" s="0"/>
+      <c r="LT1508" s="0"/>
+      <c r="LU1508" s="0"/>
+      <c r="LV1508" s="0"/>
+      <c r="LW1508" s="0"/>
+      <c r="LX1508" s="0"/>
+      <c r="LY1508" s="0"/>
+      <c r="LZ1508" s="0"/>
+      <c r="MA1508" s="0"/>
+      <c r="MB1508" s="0"/>
+      <c r="MC1508" s="0"/>
+      <c r="MD1508" s="0"/>
+      <c r="ME1508" s="0"/>
+      <c r="MF1508" s="0"/>
+      <c r="MG1508" s="0"/>
+      <c r="MH1508" s="0"/>
+      <c r="MI1508" s="0"/>
+      <c r="MJ1508" s="0"/>
+      <c r="MK1508" s="0"/>
+      <c r="ML1508" s="0"/>
+      <c r="MM1508" s="0"/>
+      <c r="MN1508" s="0"/>
+      <c r="MO1508" s="0"/>
+      <c r="MP1508" s="0"/>
+      <c r="MQ1508" s="0"/>
+      <c r="MR1508" s="0"/>
+      <c r="MS1508" s="0"/>
+      <c r="MT1508" s="0"/>
+      <c r="MU1508" s="0"/>
+      <c r="MV1508" s="0"/>
+      <c r="MW1508" s="0"/>
+      <c r="MX1508" s="0"/>
+      <c r="MY1508" s="0"/>
+      <c r="MZ1508" s="0"/>
+      <c r="NA1508" s="0"/>
+      <c r="NB1508" s="0"/>
+      <c r="NC1508" s="0"/>
+      <c r="ND1508" s="0"/>
+      <c r="NE1508" s="0"/>
+      <c r="NF1508" s="0"/>
+      <c r="NG1508" s="0"/>
+      <c r="NH1508" s="0"/>
+      <c r="NI1508" s="0"/>
+      <c r="NJ1508" s="0"/>
+      <c r="NK1508" s="0"/>
+      <c r="NL1508" s="0"/>
+      <c r="NM1508" s="0"/>
+      <c r="NN1508" s="0"/>
+      <c r="NO1508" s="0"/>
+      <c r="NP1508" s="0"/>
+      <c r="NQ1508" s="0"/>
+      <c r="NR1508" s="0"/>
+      <c r="NS1508" s="0"/>
+      <c r="NT1508" s="0"/>
+      <c r="NU1508" s="0"/>
+      <c r="NV1508" s="0"/>
+      <c r="NW1508" s="0"/>
+      <c r="NX1508" s="0"/>
+      <c r="NY1508" s="0"/>
+      <c r="NZ1508" s="0"/>
+      <c r="OA1508" s="0"/>
+      <c r="OB1508" s="0"/>
+      <c r="OC1508" s="0"/>
+      <c r="OD1508" s="0"/>
+      <c r="OE1508" s="0"/>
+      <c r="OF1508" s="0"/>
+      <c r="OG1508" s="0"/>
+      <c r="OH1508" s="0"/>
+      <c r="OI1508" s="0"/>
+      <c r="OJ1508" s="0"/>
+      <c r="OK1508" s="0"/>
+      <c r="OL1508" s="0"/>
+      <c r="OM1508" s="0"/>
+      <c r="ON1508" s="0"/>
+      <c r="OO1508" s="0"/>
+      <c r="OP1508" s="0"/>
+      <c r="OQ1508" s="0"/>
+      <c r="OR1508" s="0"/>
+      <c r="OS1508" s="0"/>
+      <c r="OT1508" s="0"/>
+      <c r="OU1508" s="0"/>
+      <c r="OV1508" s="0"/>
+      <c r="OW1508" s="0"/>
+      <c r="OX1508" s="0"/>
+      <c r="OY1508" s="0"/>
+      <c r="OZ1508" s="0"/>
+      <c r="PA1508" s="0"/>
+      <c r="PB1508" s="0"/>
+      <c r="PC1508" s="0"/>
+      <c r="PD1508" s="0"/>
+      <c r="PE1508" s="0"/>
+      <c r="PF1508" s="0"/>
+      <c r="PG1508" s="0"/>
+      <c r="PH1508" s="0"/>
+      <c r="PI1508" s="0"/>
+      <c r="PJ1508" s="0"/>
+      <c r="PK1508" s="0"/>
+      <c r="PL1508" s="0"/>
+      <c r="PM1508" s="0"/>
+      <c r="PN1508" s="0"/>
+      <c r="PO1508" s="0"/>
+      <c r="PP1508" s="0"/>
+      <c r="PQ1508" s="0"/>
+      <c r="PR1508" s="0"/>
+      <c r="PS1508" s="0"/>
+      <c r="PT1508" s="0"/>
+      <c r="PU1508" s="0"/>
+      <c r="PV1508" s="0"/>
+      <c r="PW1508" s="0"/>
+      <c r="PX1508" s="0"/>
+      <c r="PY1508" s="0"/>
+      <c r="PZ1508" s="0"/>
+      <c r="QA1508" s="0"/>
+      <c r="QB1508" s="0"/>
+      <c r="QC1508" s="0"/>
+      <c r="QD1508" s="0"/>
+      <c r="QE1508" s="0"/>
+      <c r="QF1508" s="0"/>
+      <c r="QG1508" s="0"/>
+      <c r="QH1508" s="0"/>
+      <c r="QI1508" s="0"/>
+      <c r="QJ1508" s="0"/>
+      <c r="QK1508" s="0"/>
+      <c r="QL1508" s="0"/>
+      <c r="QM1508" s="0"/>
+      <c r="QN1508" s="0"/>
+      <c r="QO1508" s="0"/>
+      <c r="QP1508" s="0"/>
+      <c r="QQ1508" s="0"/>
+      <c r="QR1508" s="0"/>
+      <c r="QS1508" s="0"/>
+      <c r="QT1508" s="0"/>
+      <c r="QU1508" s="0"/>
+      <c r="QV1508" s="0"/>
+      <c r="QW1508" s="0"/>
+      <c r="QX1508" s="0"/>
+      <c r="QY1508" s="0"/>
+      <c r="QZ1508" s="0"/>
+      <c r="RA1508" s="0"/>
+      <c r="RB1508" s="0"/>
+      <c r="RC1508" s="0"/>
+      <c r="RD1508" s="0"/>
+      <c r="RE1508" s="0"/>
+      <c r="RF1508" s="0"/>
+      <c r="RG1508" s="0"/>
+      <c r="RH1508" s="0"/>
+      <c r="RI1508" s="0"/>
+      <c r="RJ1508" s="0"/>
+      <c r="RK1508" s="0"/>
+      <c r="RL1508" s="0"/>
+      <c r="RM1508" s="0"/>
+      <c r="RN1508" s="0"/>
+      <c r="RO1508" s="0"/>
+      <c r="RP1508" s="0"/>
+      <c r="RQ1508" s="0"/>
+      <c r="RR1508" s="0"/>
+      <c r="RS1508" s="0"/>
+      <c r="RT1508" s="0"/>
+      <c r="RU1508" s="0"/>
+      <c r="RV1508" s="0"/>
+      <c r="RW1508" s="0"/>
+      <c r="RX1508" s="0"/>
+      <c r="RY1508" s="0"/>
+      <c r="RZ1508" s="0"/>
+      <c r="SA1508" s="0"/>
+      <c r="SB1508" s="0"/>
+      <c r="SC1508" s="0"/>
+      <c r="SD1508" s="0"/>
+      <c r="SE1508" s="0"/>
+      <c r="SF1508" s="0"/>
+      <c r="SG1508" s="0"/>
+      <c r="SH1508" s="0"/>
+      <c r="SI1508" s="0"/>
+      <c r="SJ1508" s="0"/>
+      <c r="SK1508" s="0"/>
+      <c r="SL1508" s="0"/>
+      <c r="SM1508" s="0"/>
+      <c r="SN1508" s="0"/>
+      <c r="SO1508" s="0"/>
+      <c r="SP1508" s="0"/>
+      <c r="SQ1508" s="0"/>
+      <c r="SR1508" s="0"/>
+      <c r="SS1508" s="0"/>
+      <c r="ST1508" s="0"/>
+      <c r="SU1508" s="0"/>
+      <c r="SV1508" s="0"/>
+      <c r="SW1508" s="0"/>
+      <c r="SX1508" s="0"/>
+      <c r="SY1508" s="0"/>
+      <c r="SZ1508" s="0"/>
+      <c r="TA1508" s="0"/>
+      <c r="TB1508" s="0"/>
+      <c r="TC1508" s="0"/>
+      <c r="TD1508" s="0"/>
+      <c r="TE1508" s="0"/>
+      <c r="TF1508" s="0"/>
+      <c r="TG1508" s="0"/>
+      <c r="TH1508" s="0"/>
+      <c r="TI1508" s="0"/>
+      <c r="TJ1508" s="0"/>
+      <c r="TK1508" s="0"/>
+      <c r="TL1508" s="0"/>
+      <c r="TM1508" s="0"/>
+      <c r="TN1508" s="0"/>
+      <c r="TO1508" s="0"/>
+      <c r="TP1508" s="0"/>
+      <c r="TQ1508" s="0"/>
+      <c r="TR1508" s="0"/>
+      <c r="TS1508" s="0"/>
+      <c r="TT1508" s="0"/>
+      <c r="TU1508" s="0"/>
+      <c r="TV1508" s="0"/>
+      <c r="TW1508" s="0"/>
+      <c r="TX1508" s="0"/>
+      <c r="TY1508" s="0"/>
+      <c r="TZ1508" s="0"/>
+      <c r="UA1508" s="0"/>
+      <c r="UB1508" s="0"/>
+      <c r="UC1508" s="0"/>
+      <c r="UD1508" s="0"/>
+      <c r="UE1508" s="0"/>
+      <c r="UF1508" s="0"/>
+      <c r="UG1508" s="0"/>
+      <c r="UH1508" s="0"/>
+      <c r="UI1508" s="0"/>
+      <c r="UJ1508" s="0"/>
+      <c r="UK1508" s="0"/>
+      <c r="UL1508" s="0"/>
+      <c r="UM1508" s="0"/>
+      <c r="UN1508" s="0"/>
+      <c r="UO1508" s="0"/>
+      <c r="UP1508" s="0"/>
+      <c r="UQ1508" s="0"/>
+      <c r="UR1508" s="0"/>
+      <c r="US1508" s="0"/>
+      <c r="UT1508" s="0"/>
+      <c r="UU1508" s="0"/>
+      <c r="UV1508" s="0"/>
+      <c r="UW1508" s="0"/>
+      <c r="UX1508" s="0"/>
+      <c r="UY1508" s="0"/>
+      <c r="UZ1508" s="0"/>
+      <c r="VA1508" s="0"/>
+      <c r="VB1508" s="0"/>
+      <c r="VC1508" s="0"/>
+      <c r="VD1508" s="0"/>
+      <c r="VE1508" s="0"/>
+      <c r="VF1508" s="0"/>
+      <c r="VG1508" s="0"/>
+      <c r="VH1508" s="0"/>
+      <c r="VI1508" s="0"/>
+      <c r="VJ1508" s="0"/>
+      <c r="VK1508" s="0"/>
+      <c r="VL1508" s="0"/>
+      <c r="VM1508" s="0"/>
+      <c r="VN1508" s="0"/>
+      <c r="VO1508" s="0"/>
+      <c r="VP1508" s="0"/>
+      <c r="VQ1508" s="0"/>
+      <c r="VR1508" s="0"/>
+      <c r="VS1508" s="0"/>
+      <c r="VT1508" s="0"/>
+      <c r="VU1508" s="0"/>
+      <c r="VV1508" s="0"/>
+      <c r="VW1508" s="0"/>
+      <c r="VX1508" s="0"/>
+      <c r="VY1508" s="0"/>
+      <c r="VZ1508" s="0"/>
+      <c r="WA1508" s="0"/>
+      <c r="WB1508" s="0"/>
+      <c r="WC1508" s="0"/>
+      <c r="WD1508" s="0"/>
+      <c r="WE1508" s="0"/>
+      <c r="WF1508" s="0"/>
+      <c r="WG1508" s="0"/>
+      <c r="WH1508" s="0"/>
+      <c r="WI1508" s="0"/>
+      <c r="WJ1508" s="0"/>
+      <c r="WK1508" s="0"/>
+      <c r="WL1508" s="0"/>
+      <c r="WM1508" s="0"/>
+      <c r="WN1508" s="0"/>
+      <c r="WO1508" s="0"/>
+      <c r="WP1508" s="0"/>
+      <c r="WQ1508" s="0"/>
+      <c r="WR1508" s="0"/>
+      <c r="WS1508" s="0"/>
+      <c r="WT1508" s="0"/>
+      <c r="WU1508" s="0"/>
+      <c r="WV1508" s="0"/>
+      <c r="WW1508" s="0"/>
+      <c r="WX1508" s="0"/>
+      <c r="WY1508" s="0"/>
+      <c r="WZ1508" s="0"/>
+      <c r="XA1508" s="0"/>
+      <c r="XB1508" s="0"/>
+      <c r="XC1508" s="0"/>
+      <c r="XD1508" s="0"/>
+      <c r="XE1508" s="0"/>
+      <c r="XF1508" s="0"/>
+      <c r="XG1508" s="0"/>
+      <c r="XH1508" s="0"/>
+      <c r="XI1508" s="0"/>
+      <c r="XJ1508" s="0"/>
+      <c r="XK1508" s="0"/>
+      <c r="XL1508" s="0"/>
+      <c r="XM1508" s="0"/>
+      <c r="XN1508" s="0"/>
+      <c r="XO1508" s="0"/>
+      <c r="XP1508" s="0"/>
+      <c r="XQ1508" s="0"/>
+      <c r="XR1508" s="0"/>
+      <c r="XS1508" s="0"/>
+      <c r="XT1508" s="0"/>
+      <c r="XU1508" s="0"/>
+      <c r="XV1508" s="0"/>
+      <c r="XW1508" s="0"/>
+      <c r="XX1508" s="0"/>
+      <c r="XY1508" s="0"/>
+      <c r="XZ1508" s="0"/>
+      <c r="YA1508" s="0"/>
+      <c r="YB1508" s="0"/>
+      <c r="YC1508" s="0"/>
+      <c r="YD1508" s="0"/>
+      <c r="YE1508" s="0"/>
+      <c r="YF1508" s="0"/>
+      <c r="YG1508" s="0"/>
+      <c r="YH1508" s="0"/>
+      <c r="YI1508" s="0"/>
+      <c r="YJ1508" s="0"/>
+      <c r="YK1508" s="0"/>
+      <c r="YL1508" s="0"/>
+      <c r="YM1508" s="0"/>
+      <c r="YN1508" s="0"/>
+      <c r="YO1508" s="0"/>
+      <c r="YP1508" s="0"/>
+      <c r="YQ1508" s="0"/>
+      <c r="YR1508" s="0"/>
+      <c r="YS1508" s="0"/>
+      <c r="YT1508" s="0"/>
+      <c r="YU1508" s="0"/>
+      <c r="YV1508" s="0"/>
+      <c r="YW1508" s="0"/>
+      <c r="YX1508" s="0"/>
+      <c r="YY1508" s="0"/>
+      <c r="YZ1508" s="0"/>
+      <c r="ZA1508" s="0"/>
+      <c r="ZB1508" s="0"/>
+      <c r="ZC1508" s="0"/>
+      <c r="ZD1508" s="0"/>
+      <c r="ZE1508" s="0"/>
+      <c r="ZF1508" s="0"/>
+      <c r="ZG1508" s="0"/>
+      <c r="ZH1508" s="0"/>
+      <c r="ZI1508" s="0"/>
+      <c r="ZJ1508" s="0"/>
+      <c r="ZK1508" s="0"/>
+      <c r="ZL1508" s="0"/>
+      <c r="ZM1508" s="0"/>
+      <c r="ZN1508" s="0"/>
+      <c r="ZO1508" s="0"/>
+      <c r="ZP1508" s="0"/>
+      <c r="ZQ1508" s="0"/>
+      <c r="ZR1508" s="0"/>
+      <c r="ZS1508" s="0"/>
+      <c r="ZT1508" s="0"/>
+      <c r="ZU1508" s="0"/>
+      <c r="ZV1508" s="0"/>
+      <c r="ZW1508" s="0"/>
+      <c r="ZX1508" s="0"/>
+      <c r="ZY1508" s="0"/>
+      <c r="ZZ1508" s="0"/>
+      <c r="AAA1508" s="0"/>
+      <c r="AAB1508" s="0"/>
+      <c r="AAC1508" s="0"/>
+      <c r="AAD1508" s="0"/>
+      <c r="AAE1508" s="0"/>
+      <c r="AAF1508" s="0"/>
+      <c r="AAG1508" s="0"/>
+      <c r="AAH1508" s="0"/>
+      <c r="AAI1508" s="0"/>
+      <c r="AAJ1508" s="0"/>
+      <c r="AAK1508" s="0"/>
+      <c r="AAL1508" s="0"/>
+      <c r="AAM1508" s="0"/>
+      <c r="AAN1508" s="0"/>
+      <c r="AAO1508" s="0"/>
+      <c r="AAP1508" s="0"/>
+      <c r="AAQ1508" s="0"/>
+      <c r="AAR1508" s="0"/>
+      <c r="AAS1508" s="0"/>
+      <c r="AAT1508" s="0"/>
+      <c r="AAU1508" s="0"/>
+      <c r="AAV1508" s="0"/>
+      <c r="AAW1508" s="0"/>
+      <c r="AAX1508" s="0"/>
+      <c r="AAY1508" s="0"/>
+      <c r="AAZ1508" s="0"/>
+      <c r="ABA1508" s="0"/>
+      <c r="ABB1508" s="0"/>
+      <c r="ABC1508" s="0"/>
+      <c r="ABD1508" s="0"/>
+      <c r="ABE1508" s="0"/>
+      <c r="ABF1508" s="0"/>
+      <c r="ABG1508" s="0"/>
+      <c r="ABH1508" s="0"/>
+      <c r="ABI1508" s="0"/>
+      <c r="ABJ1508" s="0"/>
+      <c r="ABK1508" s="0"/>
+      <c r="ABL1508" s="0"/>
+      <c r="ABM1508" s="0"/>
+      <c r="ABN1508" s="0"/>
+      <c r="ABO1508" s="0"/>
+      <c r="ABP1508" s="0"/>
+      <c r="ABQ1508" s="0"/>
+      <c r="ABR1508" s="0"/>
+      <c r="ABS1508" s="0"/>
+      <c r="ABT1508" s="0"/>
+      <c r="ABU1508" s="0"/>
+      <c r="ABV1508" s="0"/>
+      <c r="ABW1508" s="0"/>
+      <c r="ABX1508" s="0"/>
+      <c r="ABY1508" s="0"/>
+      <c r="ABZ1508" s="0"/>
+      <c r="ACA1508" s="0"/>
+      <c r="ACB1508" s="0"/>
+      <c r="ACC1508" s="0"/>
+      <c r="ACD1508" s="0"/>
+      <c r="ACE1508" s="0"/>
+      <c r="ACF1508" s="0"/>
+      <c r="ACG1508" s="0"/>
+      <c r="ACH1508" s="0"/>
+      <c r="ACI1508" s="0"/>
+      <c r="ACJ1508" s="0"/>
+      <c r="ACK1508" s="0"/>
+      <c r="ACL1508" s="0"/>
+      <c r="ACM1508" s="0"/>
+      <c r="ACN1508" s="0"/>
+      <c r="ACO1508" s="0"/>
+      <c r="ACP1508" s="0"/>
+      <c r="ACQ1508" s="0"/>
+      <c r="ACR1508" s="0"/>
+      <c r="ACS1508" s="0"/>
+      <c r="ACT1508" s="0"/>
+      <c r="ACU1508" s="0"/>
+      <c r="ACV1508" s="0"/>
+      <c r="ACW1508" s="0"/>
+      <c r="ACX1508" s="0"/>
+      <c r="ACY1508" s="0"/>
+      <c r="ACZ1508" s="0"/>
+      <c r="ADA1508" s="0"/>
+      <c r="ADB1508" s="0"/>
+      <c r="ADC1508" s="0"/>
+      <c r="ADD1508" s="0"/>
+      <c r="ADE1508" s="0"/>
+      <c r="ADF1508" s="0"/>
+      <c r="ADG1508" s="0"/>
+      <c r="ADH1508" s="0"/>
+      <c r="ADI1508" s="0"/>
+      <c r="ADJ1508" s="0"/>
+      <c r="ADK1508" s="0"/>
+      <c r="ADL1508" s="0"/>
+      <c r="ADM1508" s="0"/>
+      <c r="ADN1508" s="0"/>
+      <c r="ADO1508" s="0"/>
+      <c r="ADP1508" s="0"/>
+      <c r="ADQ1508" s="0"/>
+      <c r="ADR1508" s="0"/>
+      <c r="ADS1508" s="0"/>
+      <c r="ADT1508" s="0"/>
+      <c r="ADU1508" s="0"/>
+      <c r="ADV1508" s="0"/>
+      <c r="ADW1508" s="0"/>
+      <c r="ADX1508" s="0"/>
+      <c r="ADY1508" s="0"/>
+      <c r="ADZ1508" s="0"/>
+      <c r="AEA1508" s="0"/>
+      <c r="AEB1508" s="0"/>
+      <c r="AEC1508" s="0"/>
+      <c r="AED1508" s="0"/>
+      <c r="AEE1508" s="0"/>
+      <c r="AEF1508" s="0"/>
+      <c r="AEG1508" s="0"/>
+      <c r="AEH1508" s="0"/>
+      <c r="AEI1508" s="0"/>
+      <c r="AEJ1508" s="0"/>
+      <c r="AEK1508" s="0"/>
+      <c r="AEL1508" s="0"/>
+      <c r="AEM1508" s="0"/>
+      <c r="AEN1508" s="0"/>
+      <c r="AEO1508" s="0"/>
+      <c r="AEP1508" s="0"/>
+      <c r="AEQ1508" s="0"/>
+      <c r="AER1508" s="0"/>
+      <c r="AES1508" s="0"/>
+      <c r="AET1508" s="0"/>
+      <c r="AEU1508" s="0"/>
+      <c r="AEV1508" s="0"/>
+      <c r="AEW1508" s="0"/>
+      <c r="AEX1508" s="0"/>
+      <c r="AEY1508" s="0"/>
+      <c r="AEZ1508" s="0"/>
+      <c r="AFA1508" s="0"/>
+      <c r="AFB1508" s="0"/>
+      <c r="AFC1508" s="0"/>
+      <c r="AFD1508" s="0"/>
+      <c r="AFE1508" s="0"/>
+      <c r="AFF1508" s="0"/>
+      <c r="AFG1508" s="0"/>
+      <c r="AFH1508" s="0"/>
+      <c r="AFI1508" s="0"/>
+      <c r="AFJ1508" s="0"/>
+      <c r="AFK1508" s="0"/>
+      <c r="AFL1508" s="0"/>
+      <c r="AFM1508" s="0"/>
+      <c r="AFN1508" s="0"/>
+      <c r="AFO1508" s="0"/>
+      <c r="AFP1508" s="0"/>
+      <c r="AFQ1508" s="0"/>
+      <c r="AFR1508" s="0"/>
+      <c r="AFS1508" s="0"/>
+      <c r="AFT1508" s="0"/>
+      <c r="AFU1508" s="0"/>
+      <c r="AFV1508" s="0"/>
+      <c r="AFW1508" s="0"/>
+      <c r="AFX1508" s="0"/>
+      <c r="AFY1508" s="0"/>
+      <c r="AFZ1508" s="0"/>
+      <c r="AGA1508" s="0"/>
+      <c r="AGB1508" s="0"/>
+      <c r="AGC1508" s="0"/>
+      <c r="AGD1508" s="0"/>
+      <c r="AGE1508" s="0"/>
+      <c r="AGF1508" s="0"/>
+      <c r="AGG1508" s="0"/>
+      <c r="AGH1508" s="0"/>
+      <c r="AGI1508" s="0"/>
+      <c r="AGJ1508" s="0"/>
+      <c r="AGK1508" s="0"/>
+      <c r="AGL1508" s="0"/>
+      <c r="AGM1508" s="0"/>
+      <c r="AGN1508" s="0"/>
+      <c r="AGO1508" s="0"/>
+      <c r="AGP1508" s="0"/>
+      <c r="AGQ1508" s="0"/>
+      <c r="AGR1508" s="0"/>
+      <c r="AGS1508" s="0"/>
+      <c r="AGT1508" s="0"/>
+      <c r="AGU1508" s="0"/>
+      <c r="AGV1508" s="0"/>
+      <c r="AGW1508" s="0"/>
+      <c r="AGX1508" s="0"/>
+      <c r="AGY1508" s="0"/>
+      <c r="AGZ1508" s="0"/>
+      <c r="AHA1508" s="0"/>
+      <c r="AHB1508" s="0"/>
+      <c r="AHC1508" s="0"/>
+      <c r="AHD1508" s="0"/>
+      <c r="AHE1508" s="0"/>
+      <c r="AHF1508" s="0"/>
+      <c r="AHG1508" s="0"/>
+      <c r="AHH1508" s="0"/>
+      <c r="AHI1508" s="0"/>
+      <c r="AHJ1508" s="0"/>
+      <c r="AHK1508" s="0"/>
+      <c r="AHL1508" s="0"/>
+      <c r="AHM1508" s="0"/>
+      <c r="AHN1508" s="0"/>
+      <c r="AHO1508" s="0"/>
+      <c r="AHP1508" s="0"/>
+      <c r="AHQ1508" s="0"/>
+      <c r="AHR1508" s="0"/>
+      <c r="AHS1508" s="0"/>
+      <c r="AHT1508" s="0"/>
+      <c r="AHU1508" s="0"/>
+      <c r="AHV1508" s="0"/>
+      <c r="AHW1508" s="0"/>
+      <c r="AHX1508" s="0"/>
+      <c r="AHY1508" s="0"/>
+      <c r="AHZ1508" s="0"/>
+      <c r="AIA1508" s="0"/>
+      <c r="AIB1508" s="0"/>
+      <c r="AIC1508" s="0"/>
+      <c r="AID1508" s="0"/>
+      <c r="AIE1508" s="0"/>
+      <c r="AIF1508" s="0"/>
+      <c r="AIG1508" s="0"/>
+      <c r="AIH1508" s="0"/>
+      <c r="AII1508" s="0"/>
+      <c r="AIJ1508" s="0"/>
+      <c r="AIK1508" s="0"/>
+      <c r="AIL1508" s="0"/>
+      <c r="AIM1508" s="0"/>
+      <c r="AIN1508" s="0"/>
+      <c r="AIO1508" s="0"/>
+      <c r="AIP1508" s="0"/>
+      <c r="AIQ1508" s="0"/>
+      <c r="AIR1508" s="0"/>
+      <c r="AIS1508" s="0"/>
+      <c r="AIT1508" s="0"/>
+      <c r="AIU1508" s="0"/>
+      <c r="AIV1508" s="0"/>
+      <c r="AIW1508" s="0"/>
+      <c r="AIX1508" s="0"/>
+      <c r="AIY1508" s="0"/>
+      <c r="AIZ1508" s="0"/>
+      <c r="AJA1508" s="0"/>
+      <c r="AJB1508" s="0"/>
+      <c r="AJC1508" s="0"/>
+      <c r="AJD1508" s="0"/>
+      <c r="AJE1508" s="0"/>
+      <c r="AJF1508" s="0"/>
+      <c r="AJG1508" s="0"/>
+      <c r="AJH1508" s="0"/>
+      <c r="AJI1508" s="0"/>
+      <c r="AJJ1508" s="0"/>
+      <c r="AJK1508" s="0"/>
+      <c r="AJL1508" s="0"/>
+      <c r="AJM1508" s="0"/>
+      <c r="AJN1508" s="0"/>
+      <c r="AJO1508" s="0"/>
+      <c r="AJP1508" s="0"/>
+      <c r="AJQ1508" s="0"/>
+      <c r="AJR1508" s="0"/>
+      <c r="AJS1508" s="0"/>
+      <c r="AJT1508" s="0"/>
+      <c r="AJU1508" s="0"/>
+      <c r="AJV1508" s="0"/>
+      <c r="AJW1508" s="0"/>
+      <c r="AJX1508" s="0"/>
+      <c r="AJY1508" s="0"/>
+      <c r="AJZ1508" s="0"/>
+      <c r="AKA1508" s="0"/>
+      <c r="AKB1508" s="0"/>
+      <c r="AKC1508" s="0"/>
+      <c r="AKD1508" s="0"/>
+      <c r="AKE1508" s="0"/>
+      <c r="AKF1508" s="0"/>
+      <c r="AKG1508" s="0"/>
+      <c r="AKH1508" s="0"/>
+      <c r="AKI1508" s="0"/>
+      <c r="AKJ1508" s="0"/>
+      <c r="AKK1508" s="0"/>
+      <c r="AKL1508" s="0"/>
+      <c r="AKM1508" s="0"/>
+      <c r="AKN1508" s="0"/>
+      <c r="AKO1508" s="0"/>
+      <c r="AKP1508" s="0"/>
+      <c r="AKQ1508" s="0"/>
+      <c r="AKR1508" s="0"/>
+      <c r="AKS1508" s="0"/>
+      <c r="AKT1508" s="0"/>
+      <c r="AKU1508" s="0"/>
+      <c r="AKV1508" s="0"/>
+      <c r="AKW1508" s="0"/>
+      <c r="AKX1508" s="0"/>
+      <c r="AKY1508" s="0"/>
+      <c r="AKZ1508" s="0"/>
+      <c r="ALA1508" s="0"/>
+      <c r="ALB1508" s="0"/>
+      <c r="ALC1508" s="0"/>
+      <c r="ALD1508" s="0"/>
+      <c r="ALE1508" s="0"/>
+      <c r="ALF1508" s="0"/>
+      <c r="ALG1508" s="0"/>
+      <c r="ALH1508" s="0"/>
+      <c r="ALI1508" s="0"/>
+      <c r="ALJ1508" s="0"/>
+      <c r="ALK1508" s="0"/>
+      <c r="ALL1508" s="0"/>
+      <c r="ALM1508" s="0"/>
+      <c r="ALN1508" s="0"/>
+      <c r="ALO1508" s="0"/>
+      <c r="ALP1508" s="0"/>
+      <c r="ALQ1508" s="0"/>
+      <c r="ALR1508" s="0"/>
+      <c r="ALS1508" s="0"/>
+      <c r="ALT1508" s="0"/>
+      <c r="ALU1508" s="0"/>
+      <c r="ALV1508" s="0"/>
+      <c r="ALW1508" s="0"/>
+      <c r="ALX1508" s="0"/>
+      <c r="ALY1508" s="0"/>
+      <c r="ALZ1508" s="0"/>
+      <c r="AMA1508" s="0"/>
+      <c r="AMB1508" s="0"/>
+      <c r="AMC1508" s="0"/>
+      <c r="AMD1508" s="0"/>
+      <c r="AME1508" s="0"/>
+      <c r="AMF1508" s="0"/>
+      <c r="AMG1508" s="0"/>
+      <c r="AMH1508" s="0"/>
+      <c r="AMI1508" s="0"/>
+    </row>
+    <row r="1509" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="19"/>
+      <c r="B1509" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1508" s="11" t="s">
+      <c r="C1509" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1508" s="11" t="s">
+      <c r="D1509" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1508" s="11" t="s">
+      <c r="E1509" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1508" s="11" t="s">
+      <c r="F1509" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1508" s="11" t="s">
+      <c r="G1509" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1508" s="11" t="s">
+      <c r="H1509" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1508" s="21" t="s">
+      <c r="I1509" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1508" s="21" t="s">
+      <c r="J1509" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1508" s="21" t="s">
+      <c r="K1509" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1508" s="11" t="s">
+      <c r="L1509" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1508" s="11" t="s">
+      <c r="M1509" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1508" s="11" t="s">
+      <c r="N1509" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1508" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1509" s="22" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B1509" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1509" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1509" s="23"/>
-      <c r="E1509" s="28"/>
-      <c r="F1509" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1509" s="23"/>
-      <c r="H1509" s="23"/>
-      <c r="I1509" s="24" t="s">
+      <c r="O1509" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="22" t="s">
         <v>1511</v>
       </c>
-      <c r="J1509" s="24"/>
-      <c r="K1509" s="24"/>
-      <c r="L1509" s="23"/>
-      <c r="M1509" s="23"/>
-      <c r="N1509" s="23"/>
-      <c r="O1509" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1510" s="23" t="s">
         <v>32</v>
       </c>
@@ -50403,7 +50430,9 @@
         <v>32</v>
       </c>
       <c r="D1510" s="23"/>
-      <c r="E1510" s="28"/>
+      <c r="E1510" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1510" s="23" t="s">
         <v>43</v>
       </c>
@@ -50429,7 +50458,9 @@
         <v>32</v>
       </c>
       <c r="D1511" s="23"/>
-      <c r="E1511" s="28"/>
+      <c r="E1511" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1511" s="23" t="s">
         <v>43</v>
       </c>
@@ -50448,14 +50479,24 @@
       </c>
     </row>
     <row r="1512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1512" s="23"/>
-      <c r="C1512" s="23"/>
+      <c r="B1512" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1512" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1512" s="23"/>
-      <c r="E1512" s="23"/>
-      <c r="F1512" s="23"/>
+      <c r="E1512" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1512" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G1512" s="23"/>
       <c r="H1512" s="23"/>
-      <c r="I1512" s="24"/>
+      <c r="I1512" s="24" t="s">
+        <v>1514</v>
+      </c>
       <c r="J1512" s="24"/>
       <c r="K1512" s="24"/>
       <c r="L1512" s="23"/>
@@ -50466,34 +50507,31 @@
       </c>
     </row>
     <row r="1513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1513" s="25"/>
-      <c r="C1513" s="1"/>
-      <c r="D1513" s="1"/>
-      <c r="E1513" s="1"/>
-      <c r="F1513" s="1"/>
-      <c r="G1513" s="1"/>
-      <c r="H1513" s="1"/>
-      <c r="I1513" s="1"/>
-      <c r="J1513" s="1"/>
-      <c r="K1513" s="1"/>
-      <c r="L1513" s="1"/>
-      <c r="M1513" s="1"/>
-      <c r="N1513" s="1"/>
+      <c r="B1513" s="23"/>
+      <c r="C1513" s="23"/>
+      <c r="D1513" s="23"/>
+      <c r="E1513" s="23"/>
+      <c r="F1513" s="23"/>
+      <c r="G1513" s="23"/>
+      <c r="H1513" s="23"/>
+      <c r="I1513" s="24"/>
+      <c r="J1513" s="24"/>
+      <c r="K1513" s="24"/>
+      <c r="L1513" s="23"/>
+      <c r="M1513" s="23"/>
+      <c r="N1513" s="23"/>
       <c r="O1513" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1514" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1514" s="17"/>
-      <c r="C1514" s="18"/>
-      <c r="D1514" s="18"/>
-      <c r="E1514" s="18"/>
-      <c r="F1514" s="18"/>
-      <c r="G1514" s="18"/>
-      <c r="H1514" s="18"/>
+      <c r="B1514" s="25"/>
+      <c r="C1514" s="1"/>
+      <c r="D1514" s="1"/>
+      <c r="E1514" s="1"/>
+      <c r="F1514" s="1"/>
+      <c r="G1514" s="1"/>
+      <c r="H1514" s="1"/>
       <c r="I1514" s="1"/>
       <c r="J1514" s="1"/>
       <c r="K1514" s="1"/>
@@ -50503,11 +50541,10 @@
       <c r="O1514" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1514" s="1"/>
     </row>
     <row r="1515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1515" s="16" t="s">
-        <v>1514</v>
+        <v>20</v>
       </c>
       <c r="B1515" s="17"/>
       <c r="C1515" s="18"/>
@@ -50529,7 +50566,7 @@
     </row>
     <row r="1516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1516" s="16" t="s">
-        <v>20</v>
+        <v>1515</v>
       </c>
       <c r="B1516" s="17"/>
       <c r="C1516" s="18"/>
@@ -50550,13 +50587,16 @@
       <c r="P1516" s="1"/>
     </row>
     <row r="1517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1517" s="1"/>
-      <c r="C1517" s="1"/>
-      <c r="D1517" s="1"/>
-      <c r="E1517" s="1"/>
-      <c r="F1517" s="1"/>
-      <c r="G1517" s="1"/>
-      <c r="H1517" s="1"/>
+      <c r="A1517" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1517" s="17"/>
+      <c r="C1517" s="18"/>
+      <c r="D1517" s="18"/>
+      <c r="E1517" s="18"/>
+      <c r="F1517" s="18"/>
+      <c r="G1517" s="18"/>
+      <c r="H1517" s="18"/>
       <c r="I1517" s="1"/>
       <c r="J1517" s="1"/>
       <c r="K1517" s="1"/>
@@ -50568,101 +50608,89 @@
       </c>
       <c r="P1517" s="1"/>
     </row>
-    <row r="1518" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="19"/>
-      <c r="B1518" s="11" t="s">
+    <row r="1518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1518" s="1"/>
+      <c r="C1518" s="1"/>
+      <c r="D1518" s="1"/>
+      <c r="E1518" s="1"/>
+      <c r="F1518" s="1"/>
+      <c r="G1518" s="1"/>
+      <c r="H1518" s="1"/>
+      <c r="I1518" s="1"/>
+      <c r="J1518" s="1"/>
+      <c r="K1518" s="1"/>
+      <c r="L1518" s="1"/>
+      <c r="M1518" s="1"/>
+      <c r="N1518" s="1"/>
+      <c r="O1518" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1518" s="1"/>
+    </row>
+    <row r="1519" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="19"/>
+      <c r="B1519" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1518" s="11" t="s">
+      <c r="C1519" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1518" s="11" t="s">
+      <c r="D1519" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1518" s="11" t="s">
+      <c r="E1519" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1518" s="11" t="s">
+      <c r="F1519" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1518" s="11" t="s">
+      <c r="G1519" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1518" s="11" t="s">
+      <c r="H1519" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1518" s="21" t="s">
+      <c r="I1519" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1518" s="21" t="s">
+      <c r="J1519" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1518" s="21" t="s">
+      <c r="K1519" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1518" s="11" t="s">
+      <c r="L1519" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1518" s="11" t="s">
+      <c r="M1519" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1518" s="11" t="s">
+      <c r="N1519" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1518" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1518" s="1"/>
-    </row>
-    <row r="1519" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="22" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B1519" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1519" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1519" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1519" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1519" s="23" t="s">
+      <c r="O1519" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1519" s="1"/>
+    </row>
+    <row r="1520" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="22" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1520" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1520" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1520" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1520" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1520" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="G1519" s="23"/>
-      <c r="H1519" s="23"/>
-      <c r="I1519" s="24" t="s">
-        <v>1516</v>
-      </c>
-      <c r="J1519" s="24"/>
-      <c r="K1519" s="24"/>
-      <c r="L1519" s="23"/>
-      <c r="M1519" s="23"/>
-      <c r="N1519" s="23"/>
-      <c r="O1519" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1519" s="1"/>
-    </row>
-    <row r="1520" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1520" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1520" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1520" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1520" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1520" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="G1520" s="23"/>
       <c r="H1520" s="23"/>
@@ -50711,14 +50739,26 @@
       <c r="P1521" s="1"/>
     </row>
     <row r="1522" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1522" s="23"/>
-      <c r="C1522" s="23"/>
-      <c r="D1522" s="23"/>
-      <c r="E1522" s="23"/>
-      <c r="F1522" s="23"/>
+      <c r="B1522" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1522" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1522" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1522" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1522" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G1522" s="23"/>
       <c r="H1522" s="23"/>
-      <c r="I1522" s="24"/>
+      <c r="I1522" s="24" t="s">
+        <v>1519</v>
+      </c>
       <c r="J1522" s="24"/>
       <c r="K1522" s="24"/>
       <c r="L1522" s="23"/>
@@ -50729,23 +50769,24 @@
       </c>
       <c r="P1522" s="1"/>
     </row>
-    <row r="1523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1523" s="25"/>
-      <c r="C1523" s="1"/>
-      <c r="D1523" s="1"/>
-      <c r="E1523" s="1"/>
-      <c r="F1523" s="1"/>
-      <c r="G1523" s="1"/>
-      <c r="H1523" s="1"/>
-      <c r="I1523" s="1"/>
-      <c r="J1523" s="1"/>
-      <c r="K1523" s="1"/>
-      <c r="L1523" s="1"/>
-      <c r="M1523" s="1"/>
-      <c r="N1523" s="1"/>
+    <row r="1523" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1523" s="23"/>
+      <c r="C1523" s="23"/>
+      <c r="D1523" s="23"/>
+      <c r="E1523" s="23"/>
+      <c r="F1523" s="23"/>
+      <c r="G1523" s="23"/>
+      <c r="H1523" s="23"/>
+      <c r="I1523" s="24"/>
+      <c r="J1523" s="24"/>
+      <c r="K1523" s="24"/>
+      <c r="L1523" s="23"/>
+      <c r="M1523" s="23"/>
+      <c r="N1523" s="23"/>
       <c r="O1523" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1523" s="1"/>
     </row>
     <row r="1524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1524" s="25"/>
@@ -50766,29 +50807,32 @@
       </c>
     </row>
     <row r="1525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1525" s="9"/>
+      <c r="B1525" s="25"/>
+      <c r="C1525" s="1"/>
+      <c r="D1525" s="1"/>
+      <c r="E1525" s="1"/>
+      <c r="F1525" s="1"/>
+      <c r="G1525" s="1"/>
+      <c r="H1525" s="1"/>
+      <c r="I1525" s="1"/>
+      <c r="J1525" s="1"/>
+      <c r="K1525" s="1"/>
+      <c r="L1525" s="1"/>
+      <c r="M1525" s="1"/>
+      <c r="N1525" s="1"/>
       <c r="O1525" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1526" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1526" s="17"/>
-      <c r="C1526" s="18"/>
-      <c r="D1526" s="18"/>
-      <c r="E1526" s="18"/>
-      <c r="F1526" s="18"/>
-      <c r="G1526" s="18"/>
-      <c r="H1526" s="18"/>
+      <c r="A1526" s="9"/>
       <c r="O1526" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1527" s="16" t="s">
-        <v>1519</v>
+        <v>20</v>
       </c>
       <c r="B1527" s="17"/>
       <c r="C1527" s="18"/>
@@ -50803,7 +50847,7 @@
     </row>
     <row r="1528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1528" s="16" t="s">
-        <v>20</v>
+        <v>1520</v>
       </c>
       <c r="B1528" s="17"/>
       <c r="C1528" s="18"/>
@@ -50816,91 +50860,82 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1529" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1529" s="9"/>
-      <c r="B1529" s="11" t="s">
+    <row r="1529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1529" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1529" s="17"/>
+      <c r="C1529" s="18"/>
+      <c r="D1529" s="18"/>
+      <c r="E1529" s="18"/>
+      <c r="F1529" s="18"/>
+      <c r="G1529" s="18"/>
+      <c r="H1529" s="18"/>
+      <c r="O1529" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="9"/>
+      <c r="B1530" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1529" s="11" t="s">
+      <c r="C1530" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1529" s="11" t="s">
+      <c r="D1530" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1529" s="11" t="s">
+      <c r="E1530" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1529" s="11" t="s">
+      <c r="F1530" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1529" s="11" t="s">
+      <c r="G1530" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1529" s="11" t="s">
+      <c r="H1530" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1529" s="21" t="s">
+      <c r="I1530" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1529" s="21" t="s">
+      <c r="J1530" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1529" s="21" t="s">
+      <c r="K1530" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1529" s="11" t="s">
+      <c r="L1530" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1529" s="11" t="s">
+      <c r="M1530" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1529" s="11" t="s">
+      <c r="N1530" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1529" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1530" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1530" s="22" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B1530" s="23" t="s">
+      <c r="O1530" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="22" t="s">
         <v>1521</v>
       </c>
-      <c r="C1530" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1530" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1530" s="28"/>
-      <c r="F1530" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1530" s="23"/>
-      <c r="H1530" s="23"/>
-      <c r="I1530" s="24" t="s">
+      <c r="B1531" s="23" t="s">
         <v>1522</v>
       </c>
-      <c r="J1530" s="24"/>
-      <c r="K1530" s="24"/>
-      <c r="O1530" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1531" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1531" s="22"/>
-      <c r="B1531" s="23" t="s">
-        <v>1521</v>
-      </c>
       <c r="C1531" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1531" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1531" s="28"/>
+      <c r="E1531" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1531" s="23" t="s">
         <v>943</v>
       </c>
@@ -50918,15 +50953,17 @@
     <row r="1532" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1532" s="22"/>
       <c r="B1532" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1532" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1532" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1532" s="28"/>
+      <c r="E1532" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1532" s="23" t="s">
         <v>943</v>
       </c>
@@ -50944,15 +50981,17 @@
     <row r="1533" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1533" s="22"/>
       <c r="B1533" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1533" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1533" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1533" s="28"/>
+      <c r="E1533" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1533" s="23" t="s">
         <v>943</v>
       </c>
@@ -50970,15 +51009,17 @@
     <row r="1534" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1534" s="22"/>
       <c r="B1534" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1534" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1534" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1534" s="28"/>
+      <c r="E1534" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1534" s="23" t="s">
         <v>943</v>
       </c>
@@ -50996,10 +51037,10 @@
     <row r="1535" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1535" s="22"/>
       <c r="B1535" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1535" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1535" s="23" t="s">
         <v>32</v>
@@ -51024,10 +51065,10 @@
     <row r="1536" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1536" s="22"/>
       <c r="B1536" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1536" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1536" s="23" t="s">
         <v>32</v>
@@ -51049,12 +51090,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1537" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1537" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1537" s="22"/>
-      <c r="B1537" s="30" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C1537" s="28"/>
+      <c r="B1537" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1537" s="23" t="s">
+        <v>1522</v>
+      </c>
       <c r="D1537" s="23" t="s">
         <v>32</v>
       </c>
@@ -51067,24 +51110,20 @@
       <c r="G1537" s="23"/>
       <c r="H1537" s="23"/>
       <c r="I1537" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J1537" s="24"/>
+      <c r="K1537" s="24"/>
+      <c r="O1537" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1538" s="22"/>
+      <c r="B1538" s="30" t="s">
         <v>1530</v>
       </c>
-      <c r="J1537" s="24"/>
-      <c r="K1537" s="24" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O1537" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1538" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="22"/>
-      <c r="B1538" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1538" s="23" t="s">
-        <v>1521</v>
-      </c>
+      <c r="C1538" s="28"/>
       <c r="D1538" s="23" t="s">
         <v>32</v>
       </c>
@@ -51097,21 +51136,23 @@
       <c r="G1538" s="23"/>
       <c r="H1538" s="23"/>
       <c r="I1538" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="J1538" s="24"/>
+      <c r="K1538" s="24" t="s">
         <v>1532</v>
       </c>
-      <c r="J1538" s="24"/>
-      <c r="K1538" s="24"/>
       <c r="O1538" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1539" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1539" s="22"/>
       <c r="B1539" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1539" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1539" s="23" t="s">
         <v>32</v>
@@ -51134,12 +51175,12 @@
       </c>
     </row>
     <row r="1540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1540" s="9"/>
+      <c r="A1540" s="22"/>
       <c r="B1540" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1540" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1540" s="23" t="s">
         <v>32</v>
@@ -51164,10 +51205,10 @@
     <row r="1541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1541" s="9"/>
       <c r="B1541" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1541" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1541" s="23" t="s">
         <v>32</v>
@@ -51192,10 +51233,10 @@
     <row r="1542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1542" s="9"/>
       <c r="B1542" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1542" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1542" s="23" t="s">
         <v>32</v>
@@ -51220,10 +51261,10 @@
     <row r="1543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1543" s="9"/>
       <c r="B1543" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1543" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1543" s="23" t="s">
         <v>32</v>
@@ -51236,7 +51277,7 @@
       </c>
       <c r="G1543" s="23"/>
       <c r="H1543" s="23"/>
-      <c r="I1543" s="48" t="s">
+      <c r="I1543" s="24" t="s">
         <v>1537</v>
       </c>
       <c r="J1543" s="24"/>
@@ -51248,10 +51289,10 @@
     <row r="1544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1544" s="9"/>
       <c r="B1544" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1544" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1544" s="23" t="s">
         <v>32</v>
@@ -51276,10 +51317,10 @@
     <row r="1545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1545" s="9"/>
       <c r="B1545" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1545" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1545" s="23" t="s">
         <v>32</v>
@@ -51304,10 +51345,10 @@
     <row r="1546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1546" s="9"/>
       <c r="B1546" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1546" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1546" s="23" t="s">
         <v>32</v>
@@ -51332,10 +51373,10 @@
     <row r="1547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1547" s="9"/>
       <c r="B1547" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1547" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1547" s="23" t="s">
         <v>32</v>
@@ -51360,10 +51401,10 @@
     <row r="1548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1548" s="9"/>
       <c r="B1548" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1548" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1548" s="23" t="s">
         <v>32</v>
@@ -51388,10 +51429,10 @@
     <row r="1549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="9"/>
       <c r="B1549" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1549" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1549" s="23" t="s">
         <v>32</v>
@@ -51404,7 +51445,7 @@
       </c>
       <c r="G1549" s="23"/>
       <c r="H1549" s="23"/>
-      <c r="I1549" s="24" t="s">
+      <c r="I1549" s="48" t="s">
         <v>1543</v>
       </c>
       <c r="J1549" s="24"/>
@@ -51413,13 +51454,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1550" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="9"/>
       <c r="B1550" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1550" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1550" s="23" t="s">
         <v>32</v>
@@ -51444,10 +51485,10 @@
     <row r="1551" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1551" s="9"/>
       <c r="B1551" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1551" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1551" s="23" t="s">
         <v>32</v>
@@ -51472,10 +51513,10 @@
     <row r="1552" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1552" s="9"/>
       <c r="B1552" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1552" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1552" s="23" t="s">
         <v>32</v>
@@ -51500,10 +51541,10 @@
     <row r="1553" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1553" s="9"/>
       <c r="B1553" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1553" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1553" s="23" t="s">
         <v>32</v>
@@ -51528,10 +51569,10 @@
     <row r="1554" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1554" s="9"/>
       <c r="B1554" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1554" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1554" s="23" t="s">
         <v>32</v>
@@ -51556,10 +51597,10 @@
     <row r="1555" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1555" s="9"/>
       <c r="B1555" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1555" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1555" s="23" t="s">
         <v>32</v>
@@ -51581,13 +51622,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1556" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="9"/>
       <c r="B1556" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1556" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1556" s="23" t="s">
         <v>32</v>
@@ -51596,28 +51637,26 @@
         <v>32</v>
       </c>
       <c r="F1556" s="23" t="s">
-        <v>1550</v>
+        <v>943</v>
       </c>
       <c r="G1556" s="23"/>
       <c r="H1556" s="23"/>
       <c r="I1556" s="24" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J1556" s="24"/>
-      <c r="K1556" s="24" t="s">
-        <v>1552</v>
-      </c>
+      <c r="K1556" s="24"/>
       <c r="O1556" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1557" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1557" s="9"/>
       <c r="B1557" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1557" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1557" s="23" t="s">
         <v>32</v>
@@ -51626,28 +51665,28 @@
         <v>32</v>
       </c>
       <c r="F1557" s="23" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G1557" s="23"/>
       <c r="H1557" s="23"/>
       <c r="I1557" s="24" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J1557" s="24"/>
       <c r="K1557" s="24" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="O1557" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1558" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1558" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1558" s="9"/>
       <c r="B1558" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1558" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1558" s="23" t="s">
         <v>32</v>
@@ -51656,15 +51695,17 @@
         <v>32</v>
       </c>
       <c r="F1558" s="23" t="s">
-        <v>943</v>
+        <v>1551</v>
       </c>
       <c r="G1558" s="23"/>
       <c r="H1558" s="23"/>
       <c r="I1558" s="24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J1558" s="24"/>
+      <c r="K1558" s="24" t="s">
         <v>1555</v>
       </c>
-      <c r="J1558" s="24"/>
-      <c r="K1558" s="24"/>
       <c r="O1558" s="25" t="s">
         <v>36</v>
       </c>
@@ -51672,10 +51713,10 @@
     <row r="1559" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="9"/>
       <c r="B1559" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1559" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1559" s="23" t="s">
         <v>32</v>
@@ -51700,10 +51741,10 @@
     <row r="1560" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1560" s="9"/>
       <c r="B1560" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1560" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1560" s="23" t="s">
         <v>32</v>
@@ -51725,12 +51766,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1561" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1561" s="9"/>
       <c r="B1561" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1561" s="28"/>
+        <v>1522</v>
+      </c>
+      <c r="C1561" s="23" t="s">
+        <v>1522</v>
+      </c>
       <c r="D1561" s="23" t="s">
         <v>32</v>
       </c>
@@ -51751,14 +51794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1562" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="9"/>
       <c r="B1562" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1562" s="23" t="s">
-        <v>1521</v>
-      </c>
+        <v>1522</v>
+      </c>
+      <c r="C1562" s="28"/>
       <c r="D1562" s="23" t="s">
         <v>32</v>
       </c>
@@ -51782,10 +51823,10 @@
     <row r="1563" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="9"/>
       <c r="B1563" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1563" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1563" s="23" t="s">
         <v>32</v>
@@ -51810,10 +51851,10 @@
     <row r="1564" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="9"/>
       <c r="B1564" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1564" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1564" s="23" t="s">
         <v>32</v>
@@ -51838,10 +51879,10 @@
     <row r="1565" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="9"/>
       <c r="B1565" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1565" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1565" s="23" t="s">
         <v>32</v>
@@ -51858,9 +51899,7 @@
         <v>1562</v>
       </c>
       <c r="J1565" s="24"/>
-      <c r="K1565" s="24" t="s">
-        <v>429</v>
-      </c>
+      <c r="K1565" s="24"/>
       <c r="O1565" s="25" t="s">
         <v>36</v>
       </c>
@@ -51868,10 +51907,10 @@
     <row r="1566" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="9"/>
       <c r="B1566" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1566" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1566" s="23" t="s">
         <v>32</v>
@@ -51888,7 +51927,9 @@
         <v>1563</v>
       </c>
       <c r="J1566" s="24"/>
-      <c r="K1566" s="24"/>
+      <c r="K1566" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="O1566" s="25" t="s">
         <v>36</v>
       </c>
@@ -51896,10 +51937,10 @@
     <row r="1567" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="9"/>
       <c r="B1567" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1567" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1567" s="23" t="s">
         <v>32</v>
@@ -51924,10 +51965,10 @@
     <row r="1568" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1568" s="9"/>
       <c r="B1568" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1568" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1568" s="23" t="s">
         <v>32</v>
@@ -51952,10 +51993,10 @@
     <row r="1569" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1569" s="9"/>
       <c r="B1569" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1569" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1569" s="23" t="s">
         <v>32</v>
@@ -51980,10 +52021,10 @@
     <row r="1570" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1570" s="9"/>
       <c r="B1570" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1570" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1570" s="23" t="s">
         <v>32</v>
@@ -52008,10 +52049,10 @@
     <row r="1571" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1571" s="9"/>
       <c r="B1571" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1571" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1571" s="23" t="s">
         <v>32</v>
@@ -52036,10 +52077,10 @@
     <row r="1572" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1572" s="9"/>
       <c r="B1572" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1572" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1572" s="23" t="s">
         <v>32</v>
@@ -52061,13 +52102,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1573" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1573" s="9"/>
       <c r="B1573" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1573" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1573" s="23" t="s">
         <v>32</v>
@@ -52089,13 +52130,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1574" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1574" s="9"/>
       <c r="B1574" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1574" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1574" s="23" t="s">
         <v>32</v>
@@ -52120,10 +52161,10 @@
     <row r="1575" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1575" s="9"/>
       <c r="B1575" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1575" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1575" s="23" t="s">
         <v>32</v>
@@ -52148,10 +52189,10 @@
     <row r="1576" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1576" s="9"/>
       <c r="B1576" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1576" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1576" s="23" t="s">
         <v>32</v>
@@ -52176,10 +52217,10 @@
     <row r="1577" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1577" s="9"/>
       <c r="B1577" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1577" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1577" s="23" t="s">
         <v>32</v>
@@ -52204,10 +52245,10 @@
     <row r="1578" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1578" s="9"/>
       <c r="B1578" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1578" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1578" s="23" t="s">
         <v>32</v>
@@ -52232,10 +52273,10 @@
     <row r="1579" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1579" s="9"/>
       <c r="B1579" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1579" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1579" s="23" t="s">
         <v>32</v>
@@ -52260,10 +52301,10 @@
     <row r="1580" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1580" s="9"/>
       <c r="B1580" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1580" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1580" s="23" t="s">
         <v>32</v>
@@ -52288,10 +52329,10 @@
     <row r="1581" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="9"/>
       <c r="B1581" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1581" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1581" s="23" t="s">
         <v>32</v>
@@ -52315,65 +52356,65 @@
     </row>
     <row r="1582" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="9"/>
-      <c r="B1582" s="30" t="s">
+      <c r="B1582" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1582" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1582" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1582" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1582" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="C1582" s="30"/>
-      <c r="D1582" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="E1582" s="30"/>
-      <c r="F1582" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="G1582" s="30"/>
-      <c r="H1582" s="30"/>
-      <c r="I1582" s="31" t="s">
+      <c r="G1582" s="23"/>
+      <c r="H1582" s="23"/>
+      <c r="I1582" s="24" t="s">
         <v>1579</v>
       </c>
-      <c r="J1582" s="31"/>
-      <c r="K1582" s="31" t="s">
-        <v>224</v>
-      </c>
+      <c r="J1582" s="24"/>
+      <c r="K1582" s="24"/>
       <c r="O1582" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1583" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1583" s="9"/>
-      <c r="B1583" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1583" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1583" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1583" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1583" s="23" t="s">
+      <c r="B1583" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="G1583" s="23"/>
-      <c r="H1583" s="23"/>
-      <c r="I1583" s="24" t="s">
+      <c r="C1583" s="30"/>
+      <c r="D1583" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1583" s="30"/>
+      <c r="F1583" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1583" s="30"/>
+      <c r="H1583" s="30"/>
+      <c r="I1583" s="31" t="s">
         <v>1580</v>
       </c>
-      <c r="J1583" s="24"/>
-      <c r="K1583" s="24"/>
+      <c r="J1583" s="31"/>
+      <c r="K1583" s="31" t="s">
+        <v>224</v>
+      </c>
       <c r="O1583" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1584" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1584" s="9"/>
       <c r="B1584" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1584" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1584" s="23" t="s">
         <v>32</v>
@@ -52398,10 +52439,10 @@
     <row r="1585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="9"/>
       <c r="B1585" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1585" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1585" s="23" t="s">
         <v>32</v>
@@ -52426,10 +52467,10 @@
     <row r="1586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1586" s="9"/>
       <c r="B1586" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1586" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1586" s="23" t="s">
         <v>32</v>
@@ -52454,10 +52495,10 @@
     <row r="1587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1587" s="9"/>
       <c r="B1587" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1587" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1587" s="23" t="s">
         <v>32</v>
@@ -52482,10 +52523,10 @@
     <row r="1588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1588" s="9"/>
       <c r="B1588" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1588" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1588" s="23" t="s">
         <v>32</v>
@@ -52507,13 +52548,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1589" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1589" s="9"/>
       <c r="B1589" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1589" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1589" s="23" t="s">
         <v>32</v>
@@ -52538,10 +52579,10 @@
     <row r="1590" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1590" s="9"/>
       <c r="B1590" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1590" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1590" s="23" t="s">
         <v>32</v>
@@ -52566,10 +52607,10 @@
     <row r="1591" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1591" s="9"/>
       <c r="B1591" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1591" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1591" s="23" t="s">
         <v>32</v>
@@ -52594,10 +52635,10 @@
     <row r="1592" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1592" s="9"/>
       <c r="B1592" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1592" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1592" s="23" t="s">
         <v>32</v>
@@ -52619,13 +52660,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1593" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="9"/>
       <c r="B1593" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1593" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1593" s="23" t="s">
         <v>32</v>
@@ -52650,10 +52691,10 @@
     <row r="1594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1594" s="9"/>
       <c r="B1594" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1594" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1594" s="23" t="s">
         <v>32</v>
@@ -52675,13 +52716,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1595" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1595" s="9"/>
       <c r="B1595" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1595" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1595" s="23" t="s">
         <v>32</v>
@@ -52706,10 +52747,10 @@
     <row r="1596" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1596" s="9"/>
       <c r="B1596" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1596" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1596" s="23" t="s">
         <v>32</v>
@@ -52734,10 +52775,10 @@
     <row r="1597" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1597" s="9"/>
       <c r="B1597" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1597" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1597" s="23" t="s">
         <v>32</v>
@@ -52762,10 +52803,10 @@
     <row r="1598" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1598" s="9"/>
       <c r="B1598" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1598" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1598" s="23" t="s">
         <v>32</v>
@@ -52790,10 +52831,10 @@
     <row r="1599" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1599" s="9"/>
       <c r="B1599" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1599" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1599" s="23" t="s">
         <v>32</v>
@@ -52818,10 +52859,10 @@
     <row r="1600" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1600" s="9"/>
       <c r="B1600" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1600" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1600" s="23" t="s">
         <v>32</v>
@@ -52843,13 +52884,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1601" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1601" s="9"/>
       <c r="B1601" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1601" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1601" s="23" t="s">
         <v>32</v>
@@ -52874,10 +52915,10 @@
     <row r="1602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="9"/>
       <c r="B1602" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1602" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1602" s="23" t="s">
         <v>32</v>
@@ -52902,10 +52943,10 @@
     <row r="1603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="9"/>
       <c r="B1603" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1603" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1603" s="23" t="s">
         <v>32</v>
@@ -52927,13 +52968,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1604" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1604" s="9"/>
       <c r="B1604" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1604" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1604" s="23" t="s">
         <v>32</v>
@@ -52958,10 +52999,10 @@
     <row r="1605" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1605" s="9"/>
       <c r="B1605" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1605" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1605" s="23" t="s">
         <v>32</v>
@@ -52986,10 +53027,10 @@
     <row r="1606" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1606" s="9"/>
       <c r="B1606" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1606" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1606" s="23" t="s">
         <v>32</v>
@@ -53011,13 +53052,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1607" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1607" s="9"/>
       <c r="B1607" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1607" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1607" s="23" t="s">
         <v>32</v>
@@ -53042,10 +53083,10 @@
     <row r="1608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1608" s="9"/>
       <c r="B1608" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1608" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1608" s="23" t="s">
         <v>32</v>
@@ -53070,10 +53111,10 @@
     <row r="1609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1609" s="9"/>
       <c r="B1609" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1609" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1609" s="23" t="s">
         <v>32</v>
@@ -53098,10 +53139,10 @@
     <row r="1610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1610" s="9"/>
       <c r="B1610" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1610" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1610" s="23" t="s">
         <v>32</v>
@@ -53126,15 +53167,17 @@
     <row r="1611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1611" s="9"/>
       <c r="B1611" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1611" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1611" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1611" s="28"/>
+      <c r="E1611" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1611" s="23" t="s">
         <v>943</v>
       </c>
@@ -53149,20 +53192,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1612" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1612" s="9"/>
       <c r="B1612" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1612" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1612" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1612" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1612" s="28"/>
       <c r="F1612" s="23" t="s">
         <v>943</v>
       </c>
@@ -53180,10 +53221,10 @@
     <row r="1613" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1613" s="9"/>
       <c r="B1613" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1613" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1613" s="23" t="s">
         <v>32</v>
@@ -53205,13 +53246,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1614" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1614" s="9"/>
       <c r="B1614" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1614" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1614" s="23" t="s">
         <v>32</v>
@@ -53236,10 +53277,10 @@
     <row r="1615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1615" s="9"/>
       <c r="B1615" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1615" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1615" s="23" t="s">
         <v>32</v>
@@ -53264,10 +53305,10 @@
     <row r="1616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1616" s="9"/>
       <c r="B1616" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1616" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1616" s="23" t="s">
         <v>32</v>
@@ -53292,10 +53333,10 @@
     <row r="1617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1617" s="9"/>
       <c r="B1617" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1617" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1617" s="23" t="s">
         <v>32</v>
@@ -53320,10 +53361,10 @@
     <row r="1618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1618" s="9"/>
       <c r="B1618" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1618" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1618" s="23" t="s">
         <v>32</v>
@@ -53348,10 +53389,10 @@
     <row r="1619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1619" s="9"/>
       <c r="B1619" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1619" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1619" s="23" t="s">
         <v>32</v>
@@ -53376,10 +53417,10 @@
     <row r="1620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1620" s="9"/>
       <c r="B1620" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1620" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1620" s="23" t="s">
         <v>32</v>
@@ -53401,13 +53442,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1621" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1621" s="9"/>
       <c r="B1621" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1621" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1621" s="23" t="s">
         <v>32</v>
@@ -53429,13 +53470,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1622" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1622" s="9"/>
       <c r="B1622" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1622" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1622" s="23" t="s">
         <v>32</v>
@@ -53460,10 +53501,10 @@
     <row r="1623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1623" s="9"/>
       <c r="B1623" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1623" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1623" s="23" t="s">
         <v>32</v>
@@ -53488,10 +53529,10 @@
     <row r="1624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1624" s="9"/>
       <c r="B1624" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1624" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1624" s="23" t="s">
         <v>32</v>
@@ -53516,10 +53557,10 @@
     <row r="1625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1625" s="9"/>
       <c r="B1625" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1625" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1625" s="23" t="s">
         <v>32</v>
@@ -53544,10 +53585,10 @@
     <row r="1626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1626" s="9"/>
       <c r="B1626" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1626" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1626" s="23" t="s">
         <v>32</v>
@@ -53571,14 +53612,18 @@
     </row>
     <row r="1627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1627" s="9"/>
-      <c r="B1627" s="30" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C1627" s="28"/>
+      <c r="B1627" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1627" s="23" t="s">
+        <v>1522</v>
+      </c>
       <c r="D1627" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1627" s="28"/>
+      <c r="E1627" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1627" s="23" t="s">
         <v>943</v>
       </c>
@@ -53588,27 +53633,21 @@
         <v>1624</v>
       </c>
       <c r="J1627" s="24"/>
-      <c r="K1627" s="24" t="s">
-        <v>903</v>
-      </c>
+      <c r="K1627" s="24"/>
       <c r="O1627" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1628" s="9"/>
-      <c r="B1628" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1628" s="23" t="s">
-        <v>1521</v>
-      </c>
+      <c r="B1628" s="30" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C1628" s="28"/>
       <c r="D1628" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1628" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1628" s="28"/>
       <c r="F1628" s="23" t="s">
         <v>943</v>
       </c>
@@ -53618,7 +53657,9 @@
         <v>1625</v>
       </c>
       <c r="J1628" s="24"/>
-      <c r="K1628" s="24"/>
+      <c r="K1628" s="24" t="s">
+        <v>903</v>
+      </c>
       <c r="O1628" s="25" t="s">
         <v>36</v>
       </c>
@@ -53626,10 +53667,10 @@
     <row r="1629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1629" s="9"/>
       <c r="B1629" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1629" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1629" s="23" t="s">
         <v>32</v>
@@ -53654,10 +53695,10 @@
     <row r="1630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1630" s="9"/>
       <c r="B1630" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1630" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1630" s="23" t="s">
         <v>32</v>
@@ -53682,10 +53723,10 @@
     <row r="1631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1631" s="9"/>
       <c r="B1631" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1631" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1631" s="23" t="s">
         <v>32</v>
@@ -53710,10 +53751,10 @@
     <row r="1632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1632" s="9"/>
       <c r="B1632" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1632" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1632" s="23" t="s">
         <v>32</v>
@@ -53738,10 +53779,10 @@
     <row r="1633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1633" s="9"/>
       <c r="B1633" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1633" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1633" s="23" t="s">
         <v>32</v>
@@ -53763,13 +53804,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1634" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1634" s="9"/>
       <c r="B1634" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1634" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1634" s="23" t="s">
         <v>32</v>
@@ -53791,13 +53832,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1635" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1635" s="9"/>
       <c r="B1635" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1635" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1635" s="23" t="s">
         <v>32</v>
@@ -53822,10 +53863,10 @@
     <row r="1636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1636" s="9"/>
       <c r="B1636" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1636" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1636" s="23" t="s">
         <v>32</v>
@@ -53850,10 +53891,10 @@
     <row r="1637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1637" s="9"/>
       <c r="B1637" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1637" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1637" s="23" t="s">
         <v>32</v>
@@ -53876,11 +53917,12 @@
       </c>
     </row>
     <row r="1638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="9"/>
       <c r="B1638" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1638" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1638" s="23" t="s">
         <v>32</v>
@@ -53904,10 +53946,10 @@
     </row>
     <row r="1639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1639" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1639" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1639" s="23" t="s">
         <v>32</v>
@@ -53929,12 +53971,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1640" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1640" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1640" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1640" s="23" t="s">
         <v>32</v>
@@ -53958,10 +54000,10 @@
     </row>
     <row r="1641" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1641" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1641" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1641" s="23" t="s">
         <v>32</v>
@@ -53985,10 +54027,10 @@
     </row>
     <row r="1642" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1642" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1642" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1642" s="23" t="s">
         <v>32</v>
@@ -54010,12 +54052,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1643" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1643" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1643" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1643" s="23" t="s">
         <v>32</v>
@@ -54039,10 +54081,10 @@
     </row>
     <row r="1644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1644" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1644" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1644" s="23" t="s">
         <v>32</v>
@@ -54064,12 +54106,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1645" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1645" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1645" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1645" s="23" t="s">
         <v>32</v>
@@ -54093,10 +54135,10 @@
     </row>
     <row r="1646" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1646" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1646" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1646" s="23" t="s">
         <v>32</v>
@@ -54120,10 +54162,10 @@
     </row>
     <row r="1647" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1647" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1647" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1647" s="23" t="s">
         <v>32</v>
@@ -54145,12 +54187,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1648" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1648" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C1648" s="23" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1648" s="23" t="s">
         <v>32</v>
@@ -54173,112 +54215,138 @@
       </c>
     </row>
     <row r="1649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1649" s="30" t="s">
+      <c r="B1649" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1649" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1649" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1649" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1649" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="C1649" s="30"/>
-      <c r="D1649" s="30" t="s">
+      <c r="G1649" s="23"/>
+      <c r="H1649" s="23"/>
+      <c r="I1649" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J1649" s="24"/>
+      <c r="K1649" s="24"/>
+      <c r="O1649" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1650" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="E1649" s="30"/>
-      <c r="F1649" s="30" t="s">
+      <c r="C1650" s="30"/>
+      <c r="D1650" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="G1649" s="30"/>
-      <c r="H1649" s="30"/>
-      <c r="I1649" s="31" t="s">
-        <v>1646</v>
-      </c>
-      <c r="J1649" s="31"/>
-      <c r="K1649" s="31" t="s">
+      <c r="E1650" s="30"/>
+      <c r="F1650" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="G1650" s="30"/>
+      <c r="H1650" s="30"/>
+      <c r="I1650" s="31" t="s">
         <v>1647</v>
       </c>
-      <c r="O1649" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1650" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1650" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1650" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1650" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1650" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1650" s="23" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G1650" s="23"/>
-      <c r="H1650" s="23"/>
-      <c r="I1650" s="24" t="s">
+      <c r="J1650" s="31"/>
+      <c r="K1650" s="31" t="s">
         <v>1648</v>
       </c>
-      <c r="J1650" s="24"/>
-      <c r="K1650" s="24" t="s">
+      <c r="O1650" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1651" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1651" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1651" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1651" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1651" s="23" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G1651" s="23"/>
+      <c r="H1651" s="23"/>
+      <c r="I1651" s="24" t="s">
         <v>1649</v>
       </c>
-      <c r="O1650" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1651" s="30" t="s">
+      <c r="J1651" s="24"/>
+      <c r="K1651" s="24" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O1651" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1652" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="C1651" s="30"/>
-      <c r="D1651" s="30" t="s">
+      <c r="C1652" s="30"/>
+      <c r="D1652" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="E1651" s="30"/>
-      <c r="F1651" s="30" t="s">
+      <c r="E1652" s="30"/>
+      <c r="F1652" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="G1651" s="30"/>
-      <c r="H1651" s="30"/>
-      <c r="I1651" s="31" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J1651" s="31"/>
-      <c r="K1651" s="31" t="s">
-        <v>1647</v>
-      </c>
-      <c r="O1651" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1652" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1652" s="23" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1652" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1652" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1652" s="23" t="s">
+      <c r="G1652" s="30"/>
+      <c r="H1652" s="30"/>
+      <c r="I1652" s="31" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J1652" s="31"/>
+      <c r="K1652" s="31" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O1652" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1653" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1653" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1653" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1653" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1653" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="G1652" s="23"/>
-      <c r="H1652" s="23"/>
-      <c r="I1652" s="24" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J1652" s="24"/>
-      <c r="K1652" s="24"/>
-      <c r="O1652" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G1653" s="23"/>
+      <c r="H1653" s="23"/>
+      <c r="I1653" s="24" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J1653" s="24"/>
+      <c r="K1653" s="24"/>
+      <c r="O1653" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_LV_Trajectory_Library/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="1723">
   <si>
     <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
   </si>
@@ -1882,7 +1882,7 @@
     <t xml:space="preserve">Replacement for orig diff drive odom</t>
   </si>
   <si>
-    <t xml:space="preserve">DiffDrvOdom2_GetPosevi</t>
+    <t xml:space="preserve">DiffDrvOdom2_GetPose.vi</t>
   </si>
   <si>
     <t xml:space="preserve">DiffDrvOdom2_New.vi</t>
@@ -5600,6 +5600,64 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF33FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5671,7 +5729,7 @@
   <dimension ref="A1:AMI1727"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5785,7 +5843,7 @@
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="D9" s="13" t="n">
         <f aca="false">COUNTIF(D24:D2053,"X")</f>
@@ -5793,7 +5851,7 @@
       </c>
       <c r="E9" s="13" t="n">
         <f aca="false">COUNTIF(E24:E2053,"X")</f>
-        <v>1055</v>
+        <v>1119</v>
       </c>
       <c r="F9" s="13" t="n">
         <f aca="false">COUNTIF(F24:F2053,"S")+COUNTIF(F24:F2053,"I")+COUNTIF(F24:F2053,"X")+COUNTIF(F24:F2053,"SI")+COUNTIF(F24:F2053,"IS")+COUNTIF(F24:F2053,"N/A")</f>
@@ -5809,7 +5867,7 @@
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.977348993288591</v>
+        <v>0.985738255033557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5880,7 @@
       </c>
       <c r="C10" s="13" t="n">
         <f aca="false">COUNTIF(C24:C2053,"X")</f>
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -6815,7 +6873,9 @@
         <v>32</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" s="28"/>
+      <c r="E47" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F47" s="23" t="s">
         <v>33</v>
       </c>
@@ -7992,7 +8052,9 @@
       <c r="D87" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E87" s="28"/>
+      <c r="E87" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F87" s="28"/>
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
@@ -8295,7 +8357,9 @@
       <c r="D97" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E97" s="28"/>
+      <c r="E97" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F97" s="23" t="s">
         <v>43</v>
       </c>
@@ -8403,7 +8467,9 @@
       <c r="D101" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="28"/>
+      <c r="E101" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F101" s="23" t="s">
         <v>43</v>
       </c>
@@ -8621,7 +8687,9 @@
       <c r="D108" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="28"/>
+      <c r="E108" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F108" s="23" t="s">
         <v>43</v>
       </c>
@@ -8679,7 +8747,9 @@
       <c r="D110" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="28"/>
+      <c r="E110" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F110" s="28"/>
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
@@ -8735,7 +8805,9 @@
       <c r="D112" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E112" s="28"/>
+      <c r="E112" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F112" s="23" t="s">
         <v>43</v>
       </c>
@@ -8953,7 +9025,9 @@
       <c r="D119" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="28"/>
+      <c r="E119" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F119" s="23" t="s">
         <v>43</v>
       </c>
@@ -9061,7 +9135,9 @@
       <c r="D123" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="28"/>
+      <c r="E123" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F123" s="23" t="s">
         <v>43</v>
       </c>
@@ -9279,7 +9355,9 @@
       <c r="D130" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E130" s="28"/>
+      <c r="E130" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F130" s="23" t="s">
         <v>43</v>
       </c>
@@ -9387,7 +9465,9 @@
       <c r="D134" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E134" s="28"/>
+      <c r="E134" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F134" s="23" t="s">
         <v>43</v>
       </c>
@@ -9511,7 +9591,9 @@
       <c r="D138" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E138" s="28"/>
+      <c r="E138" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F138" s="23" t="s">
         <v>33</v>
       </c>
@@ -9573,7 +9655,9 @@
       <c r="D140" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E140" s="28"/>
+      <c r="E140" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F140" s="23" t="s">
         <v>43</v>
       </c>
@@ -9601,7 +9685,9 @@
       <c r="D141" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="28"/>
+      <c r="E141" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F141" s="23" t="s">
         <v>43</v>
       </c>
@@ -9629,7 +9715,9 @@
       <c r="D142" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E142" s="28"/>
+      <c r="E142" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F142" s="23" t="s">
         <v>33</v>
       </c>
@@ -9677,7 +9765,9 @@
       <c r="D144" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="28"/>
+      <c r="E144" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F144" s="23" t="s">
         <v>33</v>
       </c>
@@ -9707,7 +9797,9 @@
       <c r="D145" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E145" s="28"/>
+      <c r="E145" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F145" s="23" t="s">
         <v>43</v>
       </c>
@@ -9735,7 +9827,9 @@
       <c r="D146" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E146" s="28"/>
+      <c r="E146" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F146" s="23" t="s">
         <v>43</v>
       </c>
@@ -9763,7 +9857,9 @@
       <c r="D147" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E147" s="28"/>
+      <c r="E147" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F147" s="23" t="s">
         <v>43</v>
       </c>
@@ -12538,7 +12634,9 @@
         <v>32</v>
       </c>
       <c r="D247" s="23"/>
-      <c r="E247" s="28"/>
+      <c r="E247" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F247" s="23" t="s">
         <v>43</v>
       </c>
@@ -13777,7 +13875,9 @@
         <v>32</v>
       </c>
       <c r="D289" s="23"/>
-      <c r="E289" s="28"/>
+      <c r="E289" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F289" s="23" t="s">
         <v>43</v>
       </c>
@@ -14853,7 +14953,9 @@
       <c r="D325" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E325" s="28"/>
+      <c r="E325" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F325" s="28"/>
       <c r="G325" s="23"/>
       <c r="H325" s="23"/>
@@ -15035,7 +15137,9 @@
       <c r="D331" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E331" s="28"/>
+      <c r="E331" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F331" s="23" t="s">
         <v>43</v>
       </c>
@@ -15771,7 +15875,9 @@
         <v>32</v>
       </c>
       <c r="D357" s="23"/>
-      <c r="E357" s="28"/>
+      <c r="E357" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F357" s="23" t="s">
         <v>43</v>
       </c>
@@ -16203,7 +16309,9 @@
         <v>32</v>
       </c>
       <c r="D371" s="23"/>
-      <c r="E371" s="28"/>
+      <c r="E371" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F371" s="23" t="s">
         <v>43</v>
       </c>
@@ -16344,7 +16452,9 @@
         <v>32</v>
       </c>
       <c r="D376" s="23"/>
-      <c r="E376" s="28"/>
+      <c r="E376" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F376" s="23" t="s">
         <v>43</v>
       </c>
@@ -16663,7 +16773,9 @@
         <v>32</v>
       </c>
       <c r="D387" s="23"/>
-      <c r="E387" s="28"/>
+      <c r="E387" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F387" s="23" t="s">
         <v>43</v>
       </c>
@@ -16835,7 +16947,9 @@
         <v>32</v>
       </c>
       <c r="D393" s="23"/>
-      <c r="E393" s="28"/>
+      <c r="E393" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F393" s="23" t="s">
         <v>43</v>
       </c>
@@ -17522,7 +17636,9 @@
         <v>32</v>
       </c>
       <c r="D418" s="23"/>
-      <c r="E418" s="28"/>
+      <c r="E418" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F418" s="23" t="s">
         <v>43</v>
       </c>
@@ -18254,7 +18370,9 @@
         <v>32</v>
       </c>
       <c r="D443" s="23"/>
-      <c r="E443" s="28"/>
+      <c r="E443" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F443" s="23" t="s">
         <v>43</v>
       </c>
@@ -18735,7 +18853,9 @@
         <v>32</v>
       </c>
       <c r="D460" s="23"/>
-      <c r="E460" s="28"/>
+      <c r="E460" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F460" s="23" t="s">
         <v>43</v>
       </c>
@@ -19184,7 +19304,9 @@
         <v>32</v>
       </c>
       <c r="D475" s="23"/>
-      <c r="E475" s="28"/>
+      <c r="E475" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F475" s="23" t="s">
         <v>43</v>
       </c>
@@ -19547,7 +19669,9 @@
         <v>32</v>
       </c>
       <c r="D488" s="23"/>
-      <c r="E488" s="28"/>
+      <c r="E488" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F488" s="23" t="s">
         <v>43</v>
       </c>
@@ -20938,7 +21062,9 @@
         <v>32</v>
       </c>
       <c r="D536" s="23"/>
-      <c r="E536" s="28"/>
+      <c r="E536" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F536" s="23" t="s">
         <v>43</v>
       </c>
@@ -21209,7 +21335,9 @@
         <v>32</v>
       </c>
       <c r="D545" s="23"/>
-      <c r="E545" s="28"/>
+      <c r="E545" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F545" s="23" t="s">
         <v>43</v>
       </c>
@@ -21551,7 +21679,9 @@
       <c r="D557" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E557" s="28"/>
+      <c r="E557" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F557" s="23" t="s">
         <v>33</v>
       </c>
@@ -21579,7 +21709,9 @@
         <v>32</v>
       </c>
       <c r="D558" s="23"/>
-      <c r="E558" s="28"/>
+      <c r="E558" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F558" s="23" t="s">
         <v>43</v>
       </c>
@@ -21605,7 +21737,9 @@
         <v>32</v>
       </c>
       <c r="D559" s="23"/>
-      <c r="E559" s="28"/>
+      <c r="E559" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F559" s="23" t="s">
         <v>33</v>
       </c>
@@ -21631,7 +21765,9 @@
         <v>32</v>
       </c>
       <c r="D560" s="23"/>
-      <c r="E560" s="28"/>
+      <c r="E560" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F560" s="23" t="s">
         <v>43</v>
       </c>
@@ -21657,7 +21793,9 @@
         <v>32</v>
       </c>
       <c r="D561" s="23"/>
-      <c r="E561" s="28"/>
+      <c r="E561" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F561" s="23" t="s">
         <v>33</v>
       </c>
@@ -23546,7 +23684,9 @@
         <v>32</v>
       </c>
       <c r="D631" s="23"/>
-      <c r="E631" s="28"/>
+      <c r="E631" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F631" s="23" t="s">
         <v>43</v>
       </c>
@@ -23732,7 +23872,9 @@
         <v>32</v>
       </c>
       <c r="D638" s="23"/>
-      <c r="E638" s="28"/>
+      <c r="E638" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F638" s="23" t="s">
         <v>43</v>
       </c>
@@ -31798,7 +31940,9 @@
         <v>32</v>
       </c>
       <c r="D955" s="23"/>
-      <c r="E955" s="28"/>
+      <c r="E955" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F955" s="23" t="s">
         <v>43</v>
       </c>
@@ -31825,7 +31969,9 @@
         <v>32</v>
       </c>
       <c r="D956" s="23"/>
-      <c r="E956" s="28"/>
+      <c r="E956" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F956" s="23" t="s">
         <v>43</v>
       </c>
@@ -32171,7 +32317,9 @@
         <v>32</v>
       </c>
       <c r="D968" s="23"/>
-      <c r="E968" s="28"/>
+      <c r="E968" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F968" s="23" t="s">
         <v>43</v>
       </c>
@@ -32198,7 +32346,9 @@
         <v>32</v>
       </c>
       <c r="D969" s="23"/>
-      <c r="E969" s="28"/>
+      <c r="E969" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F969" s="23" t="s">
         <v>43</v>
       </c>
@@ -32312,7 +32462,9 @@
         <v>32</v>
       </c>
       <c r="D973" s="23"/>
-      <c r="E973" s="28"/>
+      <c r="E973" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F973" s="23" t="s">
         <v>43</v>
       </c>
@@ -33184,9 +33336,13 @@
       <c r="B1006" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1006" s="28"/>
+      <c r="C1006" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1006" s="23"/>
-      <c r="E1006" s="28"/>
+      <c r="E1006" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1006" s="28"/>
       <c r="G1006" s="23"/>
       <c r="H1006" s="23"/>
@@ -33227,15 +33383,21 @@
       <c r="L1007" s="23"/>
       <c r="M1007" s="23"/>
       <c r="N1007" s="23"/>
-      <c r="O1007" s="25"/>
+      <c r="O1007" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="1008" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1008" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1008" s="28"/>
+      <c r="C1008" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1008" s="23"/>
-      <c r="E1008" s="28"/>
+      <c r="E1008" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1008" s="28"/>
       <c r="G1008" s="23"/>
       <c r="H1008" s="23"/>
@@ -33255,11 +33417,15 @@
       <c r="B1009" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1009" s="28"/>
+      <c r="C1009" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1009" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1009" s="28"/>
+      <c r="E1009" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1009" s="28"/>
       <c r="G1009" s="23"/>
       <c r="H1009" s="23"/>
@@ -33279,9 +33445,13 @@
       <c r="B1010" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1010" s="28"/>
+      <c r="C1010" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1010" s="23"/>
-      <c r="E1010" s="28"/>
+      <c r="E1010" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1010" s="28"/>
       <c r="G1010" s="23"/>
       <c r="H1010" s="23"/>
@@ -33301,9 +33471,13 @@
       <c r="B1011" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1011" s="28"/>
+      <c r="C1011" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1011" s="23"/>
-      <c r="E1011" s="28"/>
+      <c r="E1011" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1011" s="28"/>
       <c r="G1011" s="23"/>
       <c r="H1011" s="23"/>
@@ -33323,9 +33497,13 @@
       <c r="B1012" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1012" s="28"/>
+      <c r="C1012" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1012" s="23"/>
-      <c r="E1012" s="28"/>
+      <c r="E1012" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1012" s="28"/>
       <c r="G1012" s="23"/>
       <c r="H1012" s="23"/>
@@ -33345,9 +33523,13 @@
       <c r="B1013" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1013" s="28"/>
+      <c r="C1013" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1013" s="23"/>
-      <c r="E1013" s="28"/>
+      <c r="E1013" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1013" s="28"/>
       <c r="G1013" s="23"/>
       <c r="H1013" s="23"/>
@@ -33367,9 +33549,13 @@
       <c r="B1014" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1014" s="28"/>
+      <c r="C1014" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1014" s="23"/>
-      <c r="E1014" s="28"/>
+      <c r="E1014" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1014" s="28"/>
       <c r="G1014" s="23"/>
       <c r="H1014" s="23"/>
@@ -33389,9 +33575,13 @@
       <c r="B1015" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1015" s="28"/>
+      <c r="C1015" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1015" s="23"/>
-      <c r="E1015" s="28"/>
+      <c r="E1015" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1015" s="28"/>
       <c r="G1015" s="23"/>
       <c r="H1015" s="23"/>
@@ -33411,9 +33601,13 @@
       <c r="B1016" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1016" s="28"/>
+      <c r="C1016" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1016" s="23"/>
-      <c r="E1016" s="28"/>
+      <c r="E1016" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1016" s="28"/>
       <c r="G1016" s="23"/>
       <c r="H1016" s="23"/>
@@ -35323,7 +35517,9 @@
       </c>
       <c r="C1088" s="28"/>
       <c r="D1088" s="23"/>
-      <c r="E1088" s="28"/>
+      <c r="E1088" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1088" s="28"/>
       <c r="G1088" s="23"/>
       <c r="H1088" s="23"/>
@@ -35364,7 +35560,9 @@
       <c r="L1089" s="23"/>
       <c r="M1089" s="23"/>
       <c r="N1089" s="23"/>
-      <c r="O1089" s="25"/>
+      <c r="O1089" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1090" s="23" t="s">
@@ -35372,7 +35570,9 @@
       </c>
       <c r="C1090" s="28"/>
       <c r="D1090" s="23"/>
-      <c r="E1090" s="28"/>
+      <c r="E1090" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1090" s="28"/>
       <c r="G1090" s="23"/>
       <c r="H1090" s="23"/>
@@ -35396,7 +35596,9 @@
       <c r="D1091" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1091" s="28"/>
+      <c r="E1091" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1091" s="28"/>
       <c r="G1091" s="23"/>
       <c r="H1091" s="23"/>
@@ -35418,7 +35620,9 @@
       </c>
       <c r="C1092" s="28"/>
       <c r="D1092" s="23"/>
-      <c r="E1092" s="28"/>
+      <c r="E1092" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1092" s="28"/>
       <c r="G1092" s="23"/>
       <c r="H1092" s="23"/>
@@ -35440,7 +35644,9 @@
       </c>
       <c r="C1093" s="28"/>
       <c r="D1093" s="23"/>
-      <c r="E1093" s="28"/>
+      <c r="E1093" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1093" s="28"/>
       <c r="G1093" s="23"/>
       <c r="H1093" s="23"/>
@@ -35462,7 +35668,9 @@
       </c>
       <c r="C1094" s="28"/>
       <c r="D1094" s="23"/>
-      <c r="E1094" s="28"/>
+      <c r="E1094" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1094" s="28"/>
       <c r="G1094" s="23"/>
       <c r="H1094" s="23"/>
@@ -35484,7 +35692,9 @@
       </c>
       <c r="C1095" s="28"/>
       <c r="D1095" s="23"/>
-      <c r="E1095" s="28"/>
+      <c r="E1095" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1095" s="28"/>
       <c r="G1095" s="23"/>
       <c r="H1095" s="23"/>
@@ -35506,7 +35716,9 @@
       </c>
       <c r="C1096" s="28"/>
       <c r="D1096" s="23"/>
-      <c r="E1096" s="28"/>
+      <c r="E1096" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1096" s="28"/>
       <c r="G1096" s="23"/>
       <c r="H1096" s="23"/>
@@ -35528,7 +35740,9 @@
       </c>
       <c r="C1097" s="28"/>
       <c r="D1097" s="23"/>
-      <c r="E1097" s="28"/>
+      <c r="E1097" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1097" s="28"/>
       <c r="G1097" s="23"/>
       <c r="H1097" s="23"/>
@@ -35550,7 +35764,9 @@
       </c>
       <c r="C1098" s="28"/>
       <c r="D1098" s="23"/>
-      <c r="E1098" s="28"/>
+      <c r="E1098" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1098" s="28"/>
       <c r="G1098" s="23"/>
       <c r="H1098" s="23"/>
@@ -53537,7 +53753,9 @@
       <c r="D1620" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1620" s="28"/>
+      <c r="E1620" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1620" s="23" t="s">
         <v>977</v>
       </c>
@@ -53589,7 +53807,9 @@
       <c r="D1622" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1622" s="28"/>
+      <c r="E1622" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1622" s="23" t="s">
         <v>977</v>
       </c>
@@ -53613,7 +53833,9 @@
       <c r="D1623" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1623" s="28"/>
+      <c r="E1623" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1623" s="23" t="s">
         <v>977</v>
       </c>
@@ -55457,7 +55679,9 @@
       <c r="D1689" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1689" s="28"/>
+      <c r="E1689" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1689" s="23" t="s">
         <v>977</v>
       </c>
@@ -55481,7 +55705,9 @@
       <c r="D1690" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1690" s="28"/>
+      <c r="E1690" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F1690" s="23" t="s">
         <v>977</v>
       </c>
